--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\EMPLEO IMSS\Históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="334">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1042,6 +1042,9 @@
   <si>
     <t>2021/Mayo</t>
   </si>
+  <si>
+    <t>2021/Junio</t>
+  </si>
 </sst>
 </file>
 
@@ -1646,7 +1649,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1744,6 +1747,18 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1752,15 +1767,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2120,8 +2126,8 @@
   <dimension ref="A1:AHR78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="IN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JA8" sqref="JA8"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JD8" sqref="JD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,8 +2387,9 @@
     <col min="256" max="256" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="257" max="257" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="260" max="721" width="10.85546875" style="28"/>
+    <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
+    <col min="260" max="260" width="11.5703125" style="4" customWidth="1"/>
+    <col min="261" max="721" width="10.85546875" style="28"/>
     <col min="722" max="902" width="10.85546875" style="4"/>
     <col min="903" max="16384" width="10.85546875" style="3"/>
   </cols>
@@ -2398,314 +2405,314 @@
       </c>
     </row>
     <row r="4" spans="1:902" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>2000</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37">
         <v>2001</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38">
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37">
         <v>2002</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38">
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37">
         <v>2003</v>
       </c>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38">
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38">
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="37"/>
+      <c r="BJ4" s="37"/>
+      <c r="BK4" s="37">
         <v>2005</v>
       </c>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38">
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="37"/>
+      <c r="BO4" s="37"/>
+      <c r="BP4" s="37"/>
+      <c r="BQ4" s="37"/>
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="37"/>
+      <c r="BU4" s="37"/>
+      <c r="BV4" s="37"/>
+      <c r="BW4" s="37">
         <v>2006</v>
       </c>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38">
+      <c r="BX4" s="37"/>
+      <c r="BY4" s="37"/>
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="37"/>
+      <c r="CE4" s="37"/>
+      <c r="CF4" s="37"/>
+      <c r="CG4" s="37"/>
+      <c r="CH4" s="37"/>
+      <c r="CI4" s="37">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="38"/>
-      <c r="CU4" s="38">
+      <c r="CJ4" s="37"/>
+      <c r="CK4" s="37"/>
+      <c r="CL4" s="37"/>
+      <c r="CM4" s="37"/>
+      <c r="CN4" s="37"/>
+      <c r="CO4" s="37"/>
+      <c r="CP4" s="37"/>
+      <c r="CQ4" s="37"/>
+      <c r="CR4" s="37"/>
+      <c r="CS4" s="37"/>
+      <c r="CT4" s="37"/>
+      <c r="CU4" s="37">
         <v>2008</v>
       </c>
-      <c r="CV4" s="38"/>
-      <c r="CW4" s="38"/>
-      <c r="CX4" s="38"/>
-      <c r="CY4" s="38"/>
-      <c r="CZ4" s="38"/>
-      <c r="DA4" s="38"/>
-      <c r="DB4" s="38"/>
-      <c r="DC4" s="38"/>
-      <c r="DD4" s="38"/>
-      <c r="DE4" s="38"/>
-      <c r="DF4" s="38"/>
-      <c r="DG4" s="38">
+      <c r="CV4" s="37"/>
+      <c r="CW4" s="37"/>
+      <c r="CX4" s="37"/>
+      <c r="CY4" s="37"/>
+      <c r="CZ4" s="37"/>
+      <c r="DA4" s="37"/>
+      <c r="DB4" s="37"/>
+      <c r="DC4" s="37"/>
+      <c r="DD4" s="37"/>
+      <c r="DE4" s="37"/>
+      <c r="DF4" s="37"/>
+      <c r="DG4" s="37">
         <v>2009</v>
       </c>
-      <c r="DH4" s="38"/>
-      <c r="DI4" s="38"/>
-      <c r="DJ4" s="38"/>
-      <c r="DK4" s="38"/>
-      <c r="DL4" s="38"/>
-      <c r="DM4" s="38"/>
-      <c r="DN4" s="38"/>
-      <c r="DO4" s="38"/>
-      <c r="DP4" s="38"/>
-      <c r="DQ4" s="38"/>
-      <c r="DR4" s="38"/>
-      <c r="DS4" s="38">
+      <c r="DH4" s="37"/>
+      <c r="DI4" s="37"/>
+      <c r="DJ4" s="37"/>
+      <c r="DK4" s="37"/>
+      <c r="DL4" s="37"/>
+      <c r="DM4" s="37"/>
+      <c r="DN4" s="37"/>
+      <c r="DO4" s="37"/>
+      <c r="DP4" s="37"/>
+      <c r="DQ4" s="37"/>
+      <c r="DR4" s="37"/>
+      <c r="DS4" s="37">
         <v>2010</v>
       </c>
-      <c r="DT4" s="38"/>
-      <c r="DU4" s="38"/>
-      <c r="DV4" s="38"/>
-      <c r="DW4" s="38"/>
-      <c r="DX4" s="38"/>
-      <c r="DY4" s="38"/>
-      <c r="DZ4" s="38"/>
-      <c r="EA4" s="38"/>
-      <c r="EB4" s="38"/>
-      <c r="EC4" s="38"/>
-      <c r="ED4" s="38"/>
-      <c r="EE4" s="38">
+      <c r="DT4" s="37"/>
+      <c r="DU4" s="37"/>
+      <c r="DV4" s="37"/>
+      <c r="DW4" s="37"/>
+      <c r="DX4" s="37"/>
+      <c r="DY4" s="37"/>
+      <c r="DZ4" s="37"/>
+      <c r="EA4" s="37"/>
+      <c r="EB4" s="37"/>
+      <c r="EC4" s="37"/>
+      <c r="ED4" s="37"/>
+      <c r="EE4" s="37">
         <v>2011</v>
       </c>
-      <c r="EF4" s="38"/>
-      <c r="EG4" s="38"/>
-      <c r="EH4" s="38"/>
-      <c r="EI4" s="38"/>
-      <c r="EJ4" s="38"/>
-      <c r="EK4" s="38"/>
-      <c r="EL4" s="38"/>
-      <c r="EM4" s="38"/>
-      <c r="EN4" s="38"/>
-      <c r="EO4" s="38"/>
-      <c r="EP4" s="38"/>
-      <c r="EQ4" s="38">
+      <c r="EF4" s="37"/>
+      <c r="EG4" s="37"/>
+      <c r="EH4" s="37"/>
+      <c r="EI4" s="37"/>
+      <c r="EJ4" s="37"/>
+      <c r="EK4" s="37"/>
+      <c r="EL4" s="37"/>
+      <c r="EM4" s="37"/>
+      <c r="EN4" s="37"/>
+      <c r="EO4" s="37"/>
+      <c r="EP4" s="37"/>
+      <c r="EQ4" s="37">
         <v>2012</v>
       </c>
-      <c r="ER4" s="38"/>
-      <c r="ES4" s="38"/>
-      <c r="ET4" s="38"/>
-      <c r="EU4" s="38"/>
-      <c r="EV4" s="38"/>
-      <c r="EW4" s="38"/>
-      <c r="EX4" s="38"/>
-      <c r="EY4" s="38"/>
-      <c r="EZ4" s="38"/>
-      <c r="FA4" s="38"/>
-      <c r="FB4" s="38"/>
-      <c r="FC4" s="38">
+      <c r="ER4" s="37"/>
+      <c r="ES4" s="37"/>
+      <c r="ET4" s="37"/>
+      <c r="EU4" s="37"/>
+      <c r="EV4" s="37"/>
+      <c r="EW4" s="37"/>
+      <c r="EX4" s="37"/>
+      <c r="EY4" s="37"/>
+      <c r="EZ4" s="37"/>
+      <c r="FA4" s="37"/>
+      <c r="FB4" s="37"/>
+      <c r="FC4" s="37">
         <v>2013</v>
       </c>
-      <c r="FD4" s="38"/>
-      <c r="FE4" s="38"/>
-      <c r="FF4" s="38"/>
-      <c r="FG4" s="38"/>
-      <c r="FH4" s="38"/>
-      <c r="FI4" s="38"/>
-      <c r="FJ4" s="38"/>
-      <c r="FK4" s="38"/>
-      <c r="FL4" s="38"/>
-      <c r="FM4" s="38"/>
-      <c r="FN4" s="38"/>
-      <c r="FO4" s="38">
+      <c r="FD4" s="37"/>
+      <c r="FE4" s="37"/>
+      <c r="FF4" s="37"/>
+      <c r="FG4" s="37"/>
+      <c r="FH4" s="37"/>
+      <c r="FI4" s="37"/>
+      <c r="FJ4" s="37"/>
+      <c r="FK4" s="37"/>
+      <c r="FL4" s="37"/>
+      <c r="FM4" s="37"/>
+      <c r="FN4" s="37"/>
+      <c r="FO4" s="37">
         <v>2014</v>
       </c>
-      <c r="FP4" s="38"/>
-      <c r="FQ4" s="38"/>
-      <c r="FR4" s="38"/>
-      <c r="FS4" s="38"/>
-      <c r="FT4" s="38"/>
-      <c r="FU4" s="38"/>
-      <c r="FV4" s="38"/>
-      <c r="FW4" s="38"/>
-      <c r="FX4" s="38"/>
-      <c r="FY4" s="38"/>
-      <c r="FZ4" s="38"/>
-      <c r="GA4" s="38">
+      <c r="FP4" s="37"/>
+      <c r="FQ4" s="37"/>
+      <c r="FR4" s="37"/>
+      <c r="FS4" s="37"/>
+      <c r="FT4" s="37"/>
+      <c r="FU4" s="37"/>
+      <c r="FV4" s="37"/>
+      <c r="FW4" s="37"/>
+      <c r="FX4" s="37"/>
+      <c r="FY4" s="37"/>
+      <c r="FZ4" s="37"/>
+      <c r="GA4" s="37">
         <v>2015</v>
       </c>
-      <c r="GB4" s="38"/>
-      <c r="GC4" s="38"/>
-      <c r="GD4" s="38"/>
-      <c r="GE4" s="38"/>
-      <c r="GF4" s="38"/>
-      <c r="GG4" s="38"/>
-      <c r="GH4" s="38"/>
-      <c r="GI4" s="38"/>
-      <c r="GJ4" s="38"/>
-      <c r="GK4" s="38"/>
-      <c r="GL4" s="38"/>
-      <c r="GM4" s="38">
+      <c r="GB4" s="37"/>
+      <c r="GC4" s="37"/>
+      <c r="GD4" s="37"/>
+      <c r="GE4" s="37"/>
+      <c r="GF4" s="37"/>
+      <c r="GG4" s="37"/>
+      <c r="GH4" s="37"/>
+      <c r="GI4" s="37"/>
+      <c r="GJ4" s="37"/>
+      <c r="GK4" s="37"/>
+      <c r="GL4" s="37"/>
+      <c r="GM4" s="37">
         <v>2016</v>
       </c>
-      <c r="GN4" s="38"/>
-      <c r="GO4" s="38"/>
-      <c r="GP4" s="38"/>
-      <c r="GQ4" s="38"/>
-      <c r="GR4" s="38"/>
-      <c r="GS4" s="38"/>
-      <c r="GT4" s="38"/>
-      <c r="GU4" s="38"/>
-      <c r="GV4" s="38"/>
-      <c r="GW4" s="38"/>
-      <c r="GX4" s="38"/>
-      <c r="GY4" s="38">
+      <c r="GN4" s="37"/>
+      <c r="GO4" s="37"/>
+      <c r="GP4" s="37"/>
+      <c r="GQ4" s="37"/>
+      <c r="GR4" s="37"/>
+      <c r="GS4" s="37"/>
+      <c r="GT4" s="37"/>
+      <c r="GU4" s="37"/>
+      <c r="GV4" s="37"/>
+      <c r="GW4" s="37"/>
+      <c r="GX4" s="37"/>
+      <c r="GY4" s="37">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="38"/>
-      <c r="HA4" s="38"/>
-      <c r="HB4" s="38"/>
-      <c r="HC4" s="38"/>
-      <c r="HD4" s="38"/>
-      <c r="HE4" s="38"/>
-      <c r="HF4" s="38"/>
-      <c r="HG4" s="38"/>
-      <c r="HH4" s="38"/>
-      <c r="HI4" s="38"/>
-      <c r="HJ4" s="38"/>
-      <c r="HK4" s="38">
+      <c r="GZ4" s="37"/>
+      <c r="HA4" s="37"/>
+      <c r="HB4" s="37"/>
+      <c r="HC4" s="37"/>
+      <c r="HD4" s="37"/>
+      <c r="HE4" s="37"/>
+      <c r="HF4" s="37"/>
+      <c r="HG4" s="37"/>
+      <c r="HH4" s="37"/>
+      <c r="HI4" s="37"/>
+      <c r="HJ4" s="37"/>
+      <c r="HK4" s="37">
         <v>2018</v>
       </c>
-      <c r="HL4" s="38"/>
-      <c r="HM4" s="38"/>
-      <c r="HN4" s="38"/>
-      <c r="HO4" s="38"/>
-      <c r="HP4" s="38"/>
-      <c r="HQ4" s="38"/>
-      <c r="HR4" s="38"/>
-      <c r="HS4" s="38"/>
-      <c r="HT4" s="38"/>
-      <c r="HU4" s="38"/>
-      <c r="HV4" s="38"/>
-      <c r="HW4" s="38">
+      <c r="HL4" s="37"/>
+      <c r="HM4" s="37"/>
+      <c r="HN4" s="37"/>
+      <c r="HO4" s="37"/>
+      <c r="HP4" s="37"/>
+      <c r="HQ4" s="37"/>
+      <c r="HR4" s="37"/>
+      <c r="HS4" s="37"/>
+      <c r="HT4" s="37"/>
+      <c r="HU4" s="37"/>
+      <c r="HV4" s="37"/>
+      <c r="HW4" s="37">
         <v>2019</v>
       </c>
-      <c r="HX4" s="38"/>
-      <c r="HY4" s="38"/>
-      <c r="HZ4" s="38"/>
-      <c r="IA4" s="38"/>
-      <c r="IB4" s="38"/>
-      <c r="IC4" s="38"/>
-      <c r="ID4" s="38"/>
-      <c r="IE4" s="38"/>
-      <c r="IF4" s="38"/>
-      <c r="IG4" s="38"/>
-      <c r="IH4" s="35"/>
-      <c r="II4" s="35">
+      <c r="HX4" s="37"/>
+      <c r="HY4" s="37"/>
+      <c r="HZ4" s="37"/>
+      <c r="IA4" s="37"/>
+      <c r="IB4" s="37"/>
+      <c r="IC4" s="37"/>
+      <c r="ID4" s="37"/>
+      <c r="IE4" s="37"/>
+      <c r="IF4" s="37"/>
+      <c r="IG4" s="37"/>
+      <c r="IH4" s="39"/>
+      <c r="II4" s="39">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="36"/>
-      <c r="IK4" s="36"/>
-      <c r="IL4" s="36"/>
-      <c r="IM4" s="36"/>
-      <c r="IN4" s="36"/>
-      <c r="IO4" s="36"/>
-      <c r="IP4" s="36"/>
-      <c r="IQ4" s="36"/>
-      <c r="IR4" s="36"/>
-      <c r="IS4" s="36"/>
-      <c r="IT4" s="37"/>
-      <c r="IU4" s="35">
+      <c r="IJ4" s="40"/>
+      <c r="IK4" s="40"/>
+      <c r="IL4" s="40"/>
+      <c r="IM4" s="40"/>
+      <c r="IN4" s="40"/>
+      <c r="IO4" s="40"/>
+      <c r="IP4" s="40"/>
+      <c r="IQ4" s="40"/>
+      <c r="IR4" s="40"/>
+      <c r="IS4" s="40"/>
+      <c r="IT4" s="41"/>
+      <c r="IU4" s="39">
         <v>2021</v>
       </c>
-      <c r="IV4" s="36"/>
-      <c r="IW4" s="36"/>
-      <c r="IX4" s="36"/>
-      <c r="IY4" s="37"/>
-      <c r="IZ4" s="29"/>
+      <c r="IV4" s="40"/>
+      <c r="IW4" s="40"/>
+      <c r="IX4" s="40"/>
+      <c r="IY4" s="40"/>
+      <c r="IZ4" s="41"/>
       <c r="JA4" s="29"/>
       <c r="JB4" s="29"/>
       <c r="JC4" s="29"/>
@@ -3350,8 +3357,8 @@
       <c r="AHR4" s="5"/>
     </row>
     <row r="5" spans="1:902" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4123,7 +4130,9 @@
       <c r="IY5" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="IZ5" s="29"/>
+      <c r="IZ5" s="31" t="s">
+        <v>333</v>
+      </c>
       <c r="JA5" s="29"/>
       <c r="JB5" s="29"/>
       <c r="JC5" s="29"/>
@@ -4768,7 +4777,7 @@
       <c r="AHR5" s="5"/>
     </row>
     <row r="6" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="36" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5545,9 +5554,12 @@
       <c r="IY6" s="7">
         <v>84617</v>
       </c>
+      <c r="IZ6" s="7">
+        <v>83074</v>
+      </c>
     </row>
     <row r="7" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6322,9 +6334,12 @@
       <c r="IY7" s="7">
         <v>44</v>
       </c>
+      <c r="IZ7" s="7">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7099,9 +7114,12 @@
       <c r="IY8" s="7">
         <v>23070</v>
       </c>
+      <c r="IZ8" s="7">
+        <v>23890</v>
+      </c>
     </row>
     <row r="9" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7876,9 +7894,12 @@
       <c r="IY9" s="7">
         <v>261</v>
       </c>
+      <c r="IZ9" s="7">
+        <v>415</v>
+      </c>
     </row>
     <row r="10" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8653,9 +8674,12 @@
       <c r="IY10" s="7">
         <v>449</v>
       </c>
+      <c r="IZ10" s="7">
+        <v>416</v>
+      </c>
     </row>
     <row r="11" spans="1:902" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9430,7 +9454,9 @@
       <c r="IY11" s="10">
         <v>108441</v>
       </c>
-      <c r="IZ11" s="29"/>
+      <c r="IZ11" s="10">
+        <v>107839</v>
+      </c>
       <c r="JA11" s="29"/>
       <c r="JB11" s="29"/>
       <c r="JC11" s="29"/>
@@ -10075,7 +10101,7 @@
       <c r="AHR11" s="5"/>
     </row>
     <row r="12" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="36" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10852,9 +10878,12 @@
       <c r="IY12" s="7">
         <v>70686</v>
       </c>
+      <c r="IZ12" s="7">
+        <v>71020</v>
+      </c>
     </row>
     <row r="13" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11629,9 +11658,12 @@
       <c r="IY13" s="7">
         <v>18613</v>
       </c>
+      <c r="IZ13" s="7">
+        <v>18566</v>
+      </c>
     </row>
     <row r="14" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12406,9 +12438,12 @@
       <c r="IY14" s="7">
         <v>30523</v>
       </c>
+      <c r="IZ14" s="7">
+        <v>30368</v>
+      </c>
     </row>
     <row r="15" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13183,9 +13218,12 @@
       <c r="IY15" s="7">
         <v>23190</v>
       </c>
+      <c r="IZ15" s="7">
+        <v>23234</v>
+      </c>
     </row>
     <row r="16" spans="1:902" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -13960,9 +13998,12 @@
       <c r="IY16" s="7">
         <v>12811</v>
       </c>
+      <c r="IZ16" s="7">
+        <v>14404</v>
+      </c>
     </row>
     <row r="17" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14737,9 +14778,12 @@
       <c r="IY17" s="7">
         <v>44211</v>
       </c>
+      <c r="IZ17" s="7">
+        <v>44467</v>
+      </c>
     </row>
     <row r="18" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15514,9 +15558,12 @@
       <c r="IY18" s="7">
         <v>54479</v>
       </c>
+      <c r="IZ18" s="7">
+        <v>56035</v>
+      </c>
     </row>
     <row r="19" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16291,9 +16338,12 @@
       <c r="IY19" s="7">
         <v>64595</v>
       </c>
+      <c r="IZ19" s="7">
+        <v>64695</v>
+      </c>
     </row>
     <row r="20" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17068,9 +17118,12 @@
       <c r="IY20" s="7">
         <v>50519</v>
       </c>
+      <c r="IZ20" s="7">
+        <v>49602</v>
+      </c>
     </row>
     <row r="21" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -17845,7 +17898,9 @@
       <c r="IY21" s="10">
         <v>369627</v>
       </c>
-      <c r="IZ21" s="29"/>
+      <c r="IZ21" s="10">
+        <v>372391</v>
+      </c>
       <c r="JA21" s="29"/>
       <c r="JB21" s="29"/>
       <c r="JC21" s="29"/>
@@ -18490,7 +18545,7 @@
       <c r="AHR21" s="5"/>
     </row>
     <row r="22" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="36" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19267,9 +19322,12 @@
       <c r="IY22" s="7">
         <v>101762</v>
       </c>
+      <c r="IZ22" s="7">
+        <v>104004</v>
+      </c>
     </row>
     <row r="23" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20044,9 +20102,12 @@
       <c r="IY23" s="7">
         <v>36769</v>
       </c>
+      <c r="IZ23" s="7">
+        <v>36921</v>
+      </c>
     </row>
     <row r="24" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -20821,7 +20882,9 @@
       <c r="IY24" s="10">
         <v>138531</v>
       </c>
-      <c r="IZ24" s="29"/>
+      <c r="IZ24" s="10">
+        <v>140925</v>
+      </c>
       <c r="JA24" s="29"/>
       <c r="JB24" s="29"/>
       <c r="JC24" s="29"/>
@@ -21466,7 +21529,7 @@
       <c r="AHR24" s="5"/>
     </row>
     <row r="25" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="36" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22243,9 +22306,12 @@
       <c r="IY25" s="7">
         <v>4423</v>
       </c>
+      <c r="IZ25" s="7">
+        <v>4457</v>
+      </c>
     </row>
     <row r="26" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23020,9 +23086,12 @@
       <c r="IY26" s="7">
         <v>5584</v>
       </c>
+      <c r="IZ26" s="7">
+        <v>5646</v>
+      </c>
     </row>
     <row r="27" spans="1:902" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -23797,7 +23866,9 @@
       <c r="IY27" s="10">
         <v>10007</v>
       </c>
-      <c r="IZ27" s="29"/>
+      <c r="IZ27" s="10">
+        <v>10103</v>
+      </c>
       <c r="JA27" s="29"/>
       <c r="JB27" s="29"/>
       <c r="JC27" s="29"/>
@@ -24442,7 +24513,7 @@
       <c r="AHR27" s="5"/>
     </row>
     <row r="28" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25219,9 +25290,12 @@
       <c r="IY28" s="7">
         <v>1349</v>
       </c>
+      <c r="IZ28" s="7">
+        <v>1352</v>
+      </c>
     </row>
     <row r="29" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -25996,9 +26070,12 @@
       <c r="IY29" s="7">
         <v>10570</v>
       </c>
+      <c r="IZ29" s="7">
+        <v>10634</v>
+      </c>
     </row>
     <row r="30" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -26773,9 +26850,12 @@
       <c r="IY30" s="7">
         <v>28055</v>
       </c>
+      <c r="IZ30" s="7">
+        <v>28218</v>
+      </c>
     </row>
     <row r="31" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27550,9 +27630,12 @@
       <c r="IY31" s="7">
         <v>97813</v>
       </c>
+      <c r="IZ31" s="7">
+        <v>97722</v>
+      </c>
     </row>
     <row r="32" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28327,9 +28410,12 @@
       <c r="IY32" s="7">
         <v>21745</v>
       </c>
+      <c r="IZ32" s="7">
+        <v>21545</v>
+      </c>
     </row>
     <row r="33" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29104,9 +29190,12 @@
       <c r="IY33" s="7">
         <v>9480</v>
       </c>
+      <c r="IZ33" s="7">
+        <v>9687</v>
+      </c>
     </row>
     <row r="34" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -29881,9 +29970,12 @@
       <c r="IY34" s="7">
         <v>40540</v>
       </c>
+      <c r="IZ34" s="7">
+        <v>41148</v>
+      </c>
     </row>
     <row r="35" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -30658,9 +30750,12 @@
       <c r="IY35" s="7">
         <v>8880</v>
       </c>
+      <c r="IZ35" s="7">
+        <v>8971</v>
+      </c>
     </row>
     <row r="36" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31435,9 +31530,12 @@
       <c r="IY36" s="7">
         <v>47903</v>
       </c>
+      <c r="IZ36" s="7">
+        <v>48227</v>
+      </c>
     </row>
     <row r="37" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32212,9 +32310,12 @@
       <c r="IY37" s="7">
         <v>57861</v>
       </c>
+      <c r="IZ37" s="7">
+        <v>56936</v>
+      </c>
     </row>
     <row r="38" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -32989,9 +33090,12 @@
       <c r="IY38" s="7">
         <v>22532</v>
       </c>
+      <c r="IZ38" s="7">
+        <v>22512</v>
+      </c>
     </row>
     <row r="39" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -33766,9 +33870,12 @@
       <c r="IY39" s="7">
         <v>18677</v>
       </c>
+      <c r="IZ39" s="7">
+        <v>19481</v>
+      </c>
     </row>
     <row r="40" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -34543,9 +34650,12 @@
       <c r="IY40" s="7">
         <v>11437</v>
       </c>
+      <c r="IZ40" s="7">
+        <v>11642</v>
+      </c>
     </row>
     <row r="41" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35320,9 +35430,12 @@
       <c r="IY41" s="7">
         <v>13853</v>
       </c>
+      <c r="IZ41" s="7">
+        <v>11914</v>
+      </c>
     </row>
     <row r="42" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36097,9 +36210,12 @@
       <c r="IY42" s="7">
         <v>47190</v>
       </c>
+      <c r="IZ42" s="7">
+        <v>44220</v>
+      </c>
     </row>
     <row r="43" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -36874,9 +36990,12 @@
       <c r="IY43" s="7">
         <v>4481</v>
       </c>
+      <c r="IZ43" s="7">
+        <v>4496</v>
+      </c>
     </row>
     <row r="44" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -37651,9 +37770,12 @@
       <c r="IY44" s="7">
         <v>5373</v>
       </c>
+      <c r="IZ44" s="7">
+        <v>5451</v>
+      </c>
     </row>
     <row r="45" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38428,9 +38550,12 @@
       <c r="IY45" s="7">
         <v>6590</v>
       </c>
+      <c r="IZ45" s="7">
+        <v>6685</v>
+      </c>
     </row>
     <row r="46" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39205,9 +39330,12 @@
       <c r="IY46" s="7">
         <v>11842</v>
       </c>
+      <c r="IZ46" s="7">
+        <v>12122</v>
+      </c>
     </row>
     <row r="47" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -39982,9 +40110,12 @@
       <c r="IY47" s="7">
         <v>1184</v>
       </c>
+      <c r="IZ47" s="7">
+        <v>1152</v>
+      </c>
     </row>
     <row r="48" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -40759,7 +40890,9 @@
       <c r="IY48" s="10">
         <v>467355</v>
       </c>
-      <c r="IZ48" s="29"/>
+      <c r="IZ48" s="10">
+        <v>464115</v>
+      </c>
       <c r="JA48" s="29"/>
       <c r="JB48" s="29"/>
       <c r="JC48" s="29"/>
@@ -41403,8 +41536,8 @@
       <c r="AHQ48" s="5"/>
       <c r="AHR48" s="5"/>
     </row>
-    <row r="49" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+    <row r="49" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42181,9 +42314,12 @@
       <c r="IY49" s="7">
         <v>19</v>
       </c>
+      <c r="IZ49" s="7">
+        <v>21</v>
+      </c>
     </row>
-    <row r="50" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -42958,9 +43094,12 @@
       <c r="IY50" s="7">
         <v>1</v>
       </c>
+      <c r="IZ50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:259" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+    <row r="51" spans="1:260" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -43735,9 +43874,12 @@
       <c r="IY51" s="7">
         <v>1371</v>
       </c>
+      <c r="IZ51" s="7">
+        <v>1382</v>
+      </c>
     </row>
-    <row r="52" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -44512,9 +44654,12 @@
       <c r="IY52" s="7">
         <v>1074</v>
       </c>
+      <c r="IZ52" s="7">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="53" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+    <row r="53" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -45289,9 +45434,12 @@
       <c r="IY53" s="10">
         <v>2465</v>
       </c>
+      <c r="IZ53" s="10">
+        <v>2420</v>
+      </c>
     </row>
-    <row r="54" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="54" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46068,9 +46216,12 @@
       <c r="IY54" s="7">
         <v>5757</v>
       </c>
+      <c r="IZ54" s="7">
+        <v>5713</v>
+      </c>
     </row>
-    <row r="55" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+    <row r="55" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -46845,9 +46996,12 @@
       <c r="IY55" s="7">
         <v>45543</v>
       </c>
+      <c r="IZ55" s="7">
+        <v>47123</v>
+      </c>
     </row>
-    <row r="56" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -47622,9 +47776,12 @@
       <c r="IY56" s="7">
         <v>6797</v>
       </c>
+      <c r="IZ56" s="7">
+        <v>6946</v>
+      </c>
     </row>
-    <row r="57" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -48399,9 +48556,12 @@
       <c r="IY57" s="7">
         <v>196932</v>
       </c>
+      <c r="IZ57" s="7">
+        <v>192629</v>
+      </c>
     </row>
-    <row r="58" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -49176,9 +49336,12 @@
       <c r="IY58" s="7">
         <v>26909</v>
       </c>
+      <c r="IZ58" s="7">
+        <v>29949</v>
+      </c>
     </row>
-    <row r="59" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+    <row r="59" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -49953,9 +50116,12 @@
       <c r="IY59" s="7">
         <v>5899</v>
       </c>
+      <c r="IZ59" s="7">
+        <v>5893</v>
+      </c>
     </row>
-    <row r="60" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+    <row r="60" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -50730,9 +50896,12 @@
       <c r="IY60" s="7">
         <v>44703</v>
       </c>
+      <c r="IZ60" s="7">
+        <v>44123</v>
+      </c>
     </row>
-    <row r="61" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+    <row r="61" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -51507,9 +51676,12 @@
       <c r="IY61" s="7">
         <v>133</v>
       </c>
+      <c r="IZ61" s="7">
+        <v>132</v>
+      </c>
     </row>
-    <row r="62" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+    <row r="62" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="36"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -52284,9 +52456,12 @@
       <c r="IY62" s="7">
         <v>15473</v>
       </c>
+      <c r="IZ62" s="7">
+        <v>15966</v>
+      </c>
     </row>
-    <row r="63" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+    <row r="63" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="36"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53061,9 +53236,12 @@
       <c r="IY63" s="7">
         <v>29302</v>
       </c>
+      <c r="IZ63" s="7">
+        <v>31084</v>
+      </c>
     </row>
-    <row r="64" spans="1:259" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:260" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -53838,9 +54016,12 @@
       <c r="IY64" s="7">
         <v>46677</v>
       </c>
+      <c r="IZ64" s="7">
+        <v>47463</v>
+      </c>
     </row>
     <row r="65" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -54615,9 +54796,12 @@
       <c r="IY65" s="7">
         <v>184527</v>
       </c>
+      <c r="IZ65" s="7">
+        <v>184937</v>
+      </c>
     </row>
     <row r="66" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -55392,9 +55576,12 @@
       <c r="IY66" s="7">
         <v>15045</v>
       </c>
+      <c r="IZ66" s="7">
+        <v>15392</v>
+      </c>
     </row>
     <row r="67" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -56169,9 +56356,12 @@
       <c r="IY67" s="7">
         <v>6085</v>
       </c>
+      <c r="IZ67" s="7">
+        <v>6095</v>
+      </c>
     </row>
     <row r="68" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -56946,7 +57136,9 @@
       <c r="IY68" s="10">
         <v>629782</v>
       </c>
-      <c r="IZ68" s="29"/>
+      <c r="IZ68" s="10">
+        <v>633445</v>
+      </c>
       <c r="JA68" s="29"/>
       <c r="JB68" s="29"/>
       <c r="JC68" s="29"/>
@@ -57591,7 +57783,7 @@
       <c r="AHR68" s="5"/>
     </row>
     <row r="69" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="36" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -58368,9 +58560,12 @@
       <c r="IY69" s="7">
         <v>9838</v>
       </c>
+      <c r="IZ69" s="7">
+        <v>9790</v>
+      </c>
     </row>
     <row r="70" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -59145,9 +59340,12 @@
       <c r="IY70" s="7">
         <v>742</v>
       </c>
+      <c r="IZ70" s="7">
+        <v>722</v>
+      </c>
     </row>
     <row r="71" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -59922,9 +60120,12 @@
       <c r="IY71" s="7">
         <v>24519</v>
       </c>
+      <c r="IZ71" s="7">
+        <v>24353</v>
+      </c>
     </row>
     <row r="72" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -60699,9 +60900,12 @@
       <c r="IY72" s="7">
         <v>2731</v>
       </c>
+      <c r="IZ72" s="7">
+        <v>2920</v>
+      </c>
     </row>
     <row r="73" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -61476,9 +61680,12 @@
       <c r="IY73" s="7">
         <v>358</v>
       </c>
+      <c r="IZ73" s="7">
+        <v>434</v>
+      </c>
     </row>
     <row r="74" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -62253,9 +62460,12 @@
       <c r="IY74" s="7">
         <v>51211</v>
       </c>
+      <c r="IZ74" s="7">
+        <v>51328</v>
+      </c>
     </row>
     <row r="75" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -63030,7 +63240,9 @@
       <c r="IY75" s="10">
         <v>89399</v>
       </c>
-      <c r="IZ75" s="29"/>
+      <c r="IZ75" s="10">
+        <v>89547</v>
+      </c>
       <c r="JA75" s="29"/>
       <c r="JB75" s="29"/>
       <c r="JC75" s="29"/>
@@ -64450,6 +64662,11 @@
       <c r="IY76" s="19">
         <v>1815607</v>
       </c>
+      <c r="IZ76" s="19">
+        <f>IZ11+IZ21+IZ24+IZ27+IZ48+IZ53+IZ68+IZ75</f>
+        <v>1820785</v>
+      </c>
+      <c r="JA76" s="35"/>
     </row>
     <row r="77" spans="1:902" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
@@ -64706,7 +64923,7 @@
       <c r="IW77" s="30"/>
       <c r="IX77" s="30"/>
       <c r="IY77" s="30"/>
-      <c r="IZ77" s="27"/>
+      <c r="IZ77" s="30"/>
       <c r="JA77" s="27"/>
       <c r="JB77" s="27"/>
       <c r="JC77" s="27"/>
@@ -65176,6 +65393,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:IZ4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -65188,26 +65425,6 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="IU4:IY4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="II4:IT4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="335">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1045,6 +1045,9 @@
   <si>
     <t>2021/Junio</t>
   </si>
+  <si>
+    <t>2021/Julio</t>
+  </si>
 </sst>
 </file>
 
@@ -1649,7 +1652,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1747,18 +1750,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1767,6 +1758,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2126,8 +2126,8 @@
   <dimension ref="A1:AHR78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JD8" sqref="JD8"/>
+      <pane xSplit="2" topLeftCell="HE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="IY9" sqref="IY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,8 +2388,8 @@
     <col min="257" max="257" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
-    <col min="260" max="260" width="11.5703125" style="4" customWidth="1"/>
-    <col min="261" max="721" width="10.85546875" style="28"/>
+    <col min="260" max="261" width="11.5703125" style="4" customWidth="1"/>
+    <col min="262" max="721" width="10.85546875" style="28"/>
     <col min="722" max="902" width="10.85546875" style="4"/>
     <col min="903" max="16384" width="10.85546875" style="3"/>
   </cols>
@@ -2405,315 +2405,315 @@
       </c>
     </row>
     <row r="4" spans="1:902" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="38">
         <v>2000</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38">
         <v>2001</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38">
         <v>2002</v>
       </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38">
         <v>2003</v>
       </c>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37">
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37"/>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="37"/>
-      <c r="BI4" s="37"/>
-      <c r="BJ4" s="37"/>
-      <c r="BK4" s="37">
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38">
         <v>2005</v>
       </c>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="37"/>
-      <c r="BP4" s="37"/>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37">
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38">
         <v>2006</v>
       </c>
-      <c r="BX4" s="37"/>
-      <c r="BY4" s="37"/>
-      <c r="BZ4" s="37"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="37"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="37"/>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37">
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="37"/>
-      <c r="CL4" s="37"/>
-      <c r="CM4" s="37"/>
-      <c r="CN4" s="37"/>
-      <c r="CO4" s="37"/>
-      <c r="CP4" s="37"/>
-      <c r="CQ4" s="37"/>
-      <c r="CR4" s="37"/>
-      <c r="CS4" s="37"/>
-      <c r="CT4" s="37"/>
-      <c r="CU4" s="37">
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38">
         <v>2008</v>
       </c>
-      <c r="CV4" s="37"/>
-      <c r="CW4" s="37"/>
-      <c r="CX4" s="37"/>
-      <c r="CY4" s="37"/>
-      <c r="CZ4" s="37"/>
-      <c r="DA4" s="37"/>
-      <c r="DB4" s="37"/>
-      <c r="DC4" s="37"/>
-      <c r="DD4" s="37"/>
-      <c r="DE4" s="37"/>
-      <c r="DF4" s="37"/>
-      <c r="DG4" s="37">
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38"/>
+      <c r="DG4" s="38">
         <v>2009</v>
       </c>
-      <c r="DH4" s="37"/>
-      <c r="DI4" s="37"/>
-      <c r="DJ4" s="37"/>
-      <c r="DK4" s="37"/>
-      <c r="DL4" s="37"/>
-      <c r="DM4" s="37"/>
-      <c r="DN4" s="37"/>
-      <c r="DO4" s="37"/>
-      <c r="DP4" s="37"/>
-      <c r="DQ4" s="37"/>
-      <c r="DR4" s="37"/>
-      <c r="DS4" s="37">
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
+      <c r="DJ4" s="38"/>
+      <c r="DK4" s="38"/>
+      <c r="DL4" s="38"/>
+      <c r="DM4" s="38"/>
+      <c r="DN4" s="38"/>
+      <c r="DO4" s="38"/>
+      <c r="DP4" s="38"/>
+      <c r="DQ4" s="38"/>
+      <c r="DR4" s="38"/>
+      <c r="DS4" s="38">
         <v>2010</v>
       </c>
-      <c r="DT4" s="37"/>
-      <c r="DU4" s="37"/>
-      <c r="DV4" s="37"/>
-      <c r="DW4" s="37"/>
-      <c r="DX4" s="37"/>
-      <c r="DY4" s="37"/>
-      <c r="DZ4" s="37"/>
-      <c r="EA4" s="37"/>
-      <c r="EB4" s="37"/>
-      <c r="EC4" s="37"/>
-      <c r="ED4" s="37"/>
-      <c r="EE4" s="37">
+      <c r="DT4" s="38"/>
+      <c r="DU4" s="38"/>
+      <c r="DV4" s="38"/>
+      <c r="DW4" s="38"/>
+      <c r="DX4" s="38"/>
+      <c r="DY4" s="38"/>
+      <c r="DZ4" s="38"/>
+      <c r="EA4" s="38"/>
+      <c r="EB4" s="38"/>
+      <c r="EC4" s="38"/>
+      <c r="ED4" s="38"/>
+      <c r="EE4" s="38">
         <v>2011</v>
       </c>
-      <c r="EF4" s="37"/>
-      <c r="EG4" s="37"/>
-      <c r="EH4" s="37"/>
-      <c r="EI4" s="37"/>
-      <c r="EJ4" s="37"/>
-      <c r="EK4" s="37"/>
-      <c r="EL4" s="37"/>
-      <c r="EM4" s="37"/>
-      <c r="EN4" s="37"/>
-      <c r="EO4" s="37"/>
-      <c r="EP4" s="37"/>
-      <c r="EQ4" s="37">
+      <c r="EF4" s="38"/>
+      <c r="EG4" s="38"/>
+      <c r="EH4" s="38"/>
+      <c r="EI4" s="38"/>
+      <c r="EJ4" s="38"/>
+      <c r="EK4" s="38"/>
+      <c r="EL4" s="38"/>
+      <c r="EM4" s="38"/>
+      <c r="EN4" s="38"/>
+      <c r="EO4" s="38"/>
+      <c r="EP4" s="38"/>
+      <c r="EQ4" s="38">
         <v>2012</v>
       </c>
-      <c r="ER4" s="37"/>
-      <c r="ES4" s="37"/>
-      <c r="ET4" s="37"/>
-      <c r="EU4" s="37"/>
-      <c r="EV4" s="37"/>
-      <c r="EW4" s="37"/>
-      <c r="EX4" s="37"/>
-      <c r="EY4" s="37"/>
-      <c r="EZ4" s="37"/>
-      <c r="FA4" s="37"/>
-      <c r="FB4" s="37"/>
-      <c r="FC4" s="37">
+      <c r="ER4" s="38"/>
+      <c r="ES4" s="38"/>
+      <c r="ET4" s="38"/>
+      <c r="EU4" s="38"/>
+      <c r="EV4" s="38"/>
+      <c r="EW4" s="38"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38"/>
+      <c r="FC4" s="38">
         <v>2013</v>
       </c>
-      <c r="FD4" s="37"/>
-      <c r="FE4" s="37"/>
-      <c r="FF4" s="37"/>
-      <c r="FG4" s="37"/>
-      <c r="FH4" s="37"/>
-      <c r="FI4" s="37"/>
-      <c r="FJ4" s="37"/>
-      <c r="FK4" s="37"/>
-      <c r="FL4" s="37"/>
-      <c r="FM4" s="37"/>
-      <c r="FN4" s="37"/>
-      <c r="FO4" s="37">
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="38"/>
+      <c r="FJ4" s="38"/>
+      <c r="FK4" s="38"/>
+      <c r="FL4" s="38"/>
+      <c r="FM4" s="38"/>
+      <c r="FN4" s="38"/>
+      <c r="FO4" s="38">
         <v>2014</v>
       </c>
-      <c r="FP4" s="37"/>
-      <c r="FQ4" s="37"/>
-      <c r="FR4" s="37"/>
-      <c r="FS4" s="37"/>
-      <c r="FT4" s="37"/>
-      <c r="FU4" s="37"/>
-      <c r="FV4" s="37"/>
-      <c r="FW4" s="37"/>
-      <c r="FX4" s="37"/>
-      <c r="FY4" s="37"/>
-      <c r="FZ4" s="37"/>
-      <c r="GA4" s="37">
+      <c r="FP4" s="38"/>
+      <c r="FQ4" s="38"/>
+      <c r="FR4" s="38"/>
+      <c r="FS4" s="38"/>
+      <c r="FT4" s="38"/>
+      <c r="FU4" s="38"/>
+      <c r="FV4" s="38"/>
+      <c r="FW4" s="38"/>
+      <c r="FX4" s="38"/>
+      <c r="FY4" s="38"/>
+      <c r="FZ4" s="38"/>
+      <c r="GA4" s="38">
         <v>2015</v>
       </c>
-      <c r="GB4" s="37"/>
-      <c r="GC4" s="37"/>
-      <c r="GD4" s="37"/>
-      <c r="GE4" s="37"/>
-      <c r="GF4" s="37"/>
-      <c r="GG4" s="37"/>
-      <c r="GH4" s="37"/>
-      <c r="GI4" s="37"/>
-      <c r="GJ4" s="37"/>
-      <c r="GK4" s="37"/>
-      <c r="GL4" s="37"/>
-      <c r="GM4" s="37">
+      <c r="GB4" s="38"/>
+      <c r="GC4" s="38"/>
+      <c r="GD4" s="38"/>
+      <c r="GE4" s="38"/>
+      <c r="GF4" s="38"/>
+      <c r="GG4" s="38"/>
+      <c r="GH4" s="38"/>
+      <c r="GI4" s="38"/>
+      <c r="GJ4" s="38"/>
+      <c r="GK4" s="38"/>
+      <c r="GL4" s="38"/>
+      <c r="GM4" s="38">
         <v>2016</v>
       </c>
-      <c r="GN4" s="37"/>
-      <c r="GO4" s="37"/>
-      <c r="GP4" s="37"/>
-      <c r="GQ4" s="37"/>
-      <c r="GR4" s="37"/>
-      <c r="GS4" s="37"/>
-      <c r="GT4" s="37"/>
-      <c r="GU4" s="37"/>
-      <c r="GV4" s="37"/>
-      <c r="GW4" s="37"/>
-      <c r="GX4" s="37"/>
-      <c r="GY4" s="37">
+      <c r="GN4" s="38"/>
+      <c r="GO4" s="38"/>
+      <c r="GP4" s="38"/>
+      <c r="GQ4" s="38"/>
+      <c r="GR4" s="38"/>
+      <c r="GS4" s="38"/>
+      <c r="GT4" s="38"/>
+      <c r="GU4" s="38"/>
+      <c r="GV4" s="38"/>
+      <c r="GW4" s="38"/>
+      <c r="GX4" s="38"/>
+      <c r="GY4" s="38">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="37"/>
-      <c r="HA4" s="37"/>
-      <c r="HB4" s="37"/>
-      <c r="HC4" s="37"/>
-      <c r="HD4" s="37"/>
-      <c r="HE4" s="37"/>
-      <c r="HF4" s="37"/>
-      <c r="HG4" s="37"/>
-      <c r="HH4" s="37"/>
-      <c r="HI4" s="37"/>
-      <c r="HJ4" s="37"/>
-      <c r="HK4" s="37">
+      <c r="GZ4" s="38"/>
+      <c r="HA4" s="38"/>
+      <c r="HB4" s="38"/>
+      <c r="HC4" s="38"/>
+      <c r="HD4" s="38"/>
+      <c r="HE4" s="38"/>
+      <c r="HF4" s="38"/>
+      <c r="HG4" s="38"/>
+      <c r="HH4" s="38"/>
+      <c r="HI4" s="38"/>
+      <c r="HJ4" s="38"/>
+      <c r="HK4" s="38">
         <v>2018</v>
       </c>
-      <c r="HL4" s="37"/>
-      <c r="HM4" s="37"/>
-      <c r="HN4" s="37"/>
-      <c r="HO4" s="37"/>
-      <c r="HP4" s="37"/>
-      <c r="HQ4" s="37"/>
-      <c r="HR4" s="37"/>
-      <c r="HS4" s="37"/>
-      <c r="HT4" s="37"/>
-      <c r="HU4" s="37"/>
-      <c r="HV4" s="37"/>
-      <c r="HW4" s="37">
+      <c r="HL4" s="38"/>
+      <c r="HM4" s="38"/>
+      <c r="HN4" s="38"/>
+      <c r="HO4" s="38"/>
+      <c r="HP4" s="38"/>
+      <c r="HQ4" s="38"/>
+      <c r="HR4" s="38"/>
+      <c r="HS4" s="38"/>
+      <c r="HT4" s="38"/>
+      <c r="HU4" s="38"/>
+      <c r="HV4" s="38"/>
+      <c r="HW4" s="38">
         <v>2019</v>
       </c>
-      <c r="HX4" s="37"/>
-      <c r="HY4" s="37"/>
-      <c r="HZ4" s="37"/>
-      <c r="IA4" s="37"/>
-      <c r="IB4" s="37"/>
-      <c r="IC4" s="37"/>
-      <c r="ID4" s="37"/>
-      <c r="IE4" s="37"/>
-      <c r="IF4" s="37"/>
-      <c r="IG4" s="37"/>
-      <c r="IH4" s="39"/>
-      <c r="II4" s="39">
+      <c r="HX4" s="38"/>
+      <c r="HY4" s="38"/>
+      <c r="HZ4" s="38"/>
+      <c r="IA4" s="38"/>
+      <c r="IB4" s="38"/>
+      <c r="IC4" s="38"/>
+      <c r="ID4" s="38"/>
+      <c r="IE4" s="38"/>
+      <c r="IF4" s="38"/>
+      <c r="IG4" s="38"/>
+      <c r="IH4" s="35"/>
+      <c r="II4" s="35">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="40"/>
-      <c r="IK4" s="40"/>
-      <c r="IL4" s="40"/>
-      <c r="IM4" s="40"/>
-      <c r="IN4" s="40"/>
-      <c r="IO4" s="40"/>
-      <c r="IP4" s="40"/>
-      <c r="IQ4" s="40"/>
-      <c r="IR4" s="40"/>
-      <c r="IS4" s="40"/>
-      <c r="IT4" s="41"/>
-      <c r="IU4" s="39">
+      <c r="IJ4" s="36"/>
+      <c r="IK4" s="36"/>
+      <c r="IL4" s="36"/>
+      <c r="IM4" s="36"/>
+      <c r="IN4" s="36"/>
+      <c r="IO4" s="36"/>
+      <c r="IP4" s="36"/>
+      <c r="IQ4" s="36"/>
+      <c r="IR4" s="36"/>
+      <c r="IS4" s="36"/>
+      <c r="IT4" s="37"/>
+      <c r="IU4" s="38">
         <v>2021</v>
       </c>
-      <c r="IV4" s="40"/>
-      <c r="IW4" s="40"/>
-      <c r="IX4" s="40"/>
-      <c r="IY4" s="40"/>
-      <c r="IZ4" s="41"/>
-      <c r="JA4" s="29"/>
+      <c r="IV4" s="38"/>
+      <c r="IW4" s="38"/>
+      <c r="IX4" s="38"/>
+      <c r="IY4" s="38"/>
+      <c r="IZ4" s="38"/>
+      <c r="JA4" s="38"/>
       <c r="JB4" s="29"/>
       <c r="JC4" s="29"/>
       <c r="JD4" s="29"/>
@@ -3357,8 +3357,8 @@
       <c r="AHR4" s="5"/>
     </row>
     <row r="5" spans="1:902" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4133,7 +4133,9 @@
       <c r="IZ5" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="JA5" s="29"/>
+      <c r="JA5" s="31" t="s">
+        <v>334</v>
+      </c>
       <c r="JB5" s="29"/>
       <c r="JC5" s="29"/>
       <c r="JD5" s="29"/>
@@ -4777,7 +4779,7 @@
       <c r="AHR5" s="5"/>
     </row>
     <row r="6" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="39" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5557,9 +5559,12 @@
       <c r="IZ6" s="7">
         <v>83074</v>
       </c>
+      <c r="JA6" s="7">
+        <v>83743</v>
+      </c>
     </row>
     <row r="7" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6337,9 +6342,12 @@
       <c r="IZ7" s="7">
         <v>44</v>
       </c>
+      <c r="JA7" s="7">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7117,9 +7125,12 @@
       <c r="IZ8" s="7">
         <v>23890</v>
       </c>
+      <c r="JA8" s="7">
+        <v>23245</v>
+      </c>
     </row>
     <row r="9" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7897,9 +7908,12 @@
       <c r="IZ9" s="7">
         <v>415</v>
       </c>
+      <c r="JA9" s="7">
+        <v>698</v>
+      </c>
     </row>
     <row r="10" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8677,9 +8691,12 @@
       <c r="IZ10" s="7">
         <v>416</v>
       </c>
+      <c r="JA10" s="7">
+        <v>416</v>
+      </c>
     </row>
     <row r="11" spans="1:902" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9457,7 +9474,10 @@
       <c r="IZ11" s="10">
         <v>107839</v>
       </c>
-      <c r="JA11" s="29"/>
+      <c r="JA11" s="10">
+        <f>SUM(JA6:JA10)</f>
+        <v>108146</v>
+      </c>
       <c r="JB11" s="29"/>
       <c r="JC11" s="29"/>
       <c r="JD11" s="29"/>
@@ -10101,7 +10121,7 @@
       <c r="AHR11" s="5"/>
     </row>
     <row r="12" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10881,9 +10901,12 @@
       <c r="IZ12" s="7">
         <v>71020</v>
       </c>
+      <c r="JA12" s="7">
+        <v>75762</v>
+      </c>
     </row>
     <row r="13" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11661,9 +11684,12 @@
       <c r="IZ13" s="7">
         <v>18566</v>
       </c>
+      <c r="JA13" s="7">
+        <v>19400</v>
+      </c>
     </row>
     <row r="14" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12441,9 +12467,12 @@
       <c r="IZ14" s="7">
         <v>30368</v>
       </c>
+      <c r="JA14" s="7">
+        <v>28563</v>
+      </c>
     </row>
     <row r="15" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13221,9 +13250,12 @@
       <c r="IZ15" s="7">
         <v>23234</v>
       </c>
+      <c r="JA15" s="7">
+        <v>23946</v>
+      </c>
     </row>
     <row r="16" spans="1:902" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14001,9 +14033,12 @@
       <c r="IZ16" s="7">
         <v>14404</v>
       </c>
+      <c r="JA16" s="7">
+        <v>15849</v>
+      </c>
     </row>
     <row r="17" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14781,9 +14816,12 @@
       <c r="IZ17" s="7">
         <v>44467</v>
       </c>
+      <c r="JA17" s="7">
+        <v>45233</v>
+      </c>
     </row>
     <row r="18" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15561,9 +15599,12 @@
       <c r="IZ18" s="7">
         <v>56035</v>
       </c>
+      <c r="JA18" s="7">
+        <v>57745</v>
+      </c>
     </row>
     <row r="19" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16341,9 +16382,12 @@
       <c r="IZ19" s="7">
         <v>64695</v>
       </c>
+      <c r="JA19" s="7">
+        <v>67244</v>
+      </c>
     </row>
     <row r="20" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17121,9 +17165,12 @@
       <c r="IZ20" s="7">
         <v>49602</v>
       </c>
+      <c r="JA20" s="7">
+        <v>48310</v>
+      </c>
     </row>
     <row r="21" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -17901,7 +17948,10 @@
       <c r="IZ21" s="10">
         <v>372391</v>
       </c>
-      <c r="JA21" s="29"/>
+      <c r="JA21" s="10">
+        <f>SUM(JA12:JA20)</f>
+        <v>382052</v>
+      </c>
       <c r="JB21" s="29"/>
       <c r="JC21" s="29"/>
       <c r="JD21" s="29"/>
@@ -18545,7 +18595,7 @@
       <c r="AHR21" s="5"/>
     </row>
     <row r="22" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="39" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19325,9 +19375,12 @@
       <c r="IZ22" s="7">
         <v>104004</v>
       </c>
+      <c r="JA22" s="7">
+        <v>103193</v>
+      </c>
     </row>
     <row r="23" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20105,9 +20158,12 @@
       <c r="IZ23" s="7">
         <v>36921</v>
       </c>
+      <c r="JA23" s="7">
+        <v>34230</v>
+      </c>
     </row>
     <row r="24" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -20885,7 +20941,10 @@
       <c r="IZ24" s="10">
         <v>140925</v>
       </c>
-      <c r="JA24" s="29"/>
+      <c r="JA24" s="10">
+        <f>SUM(JA22:JA23)</f>
+        <v>137423</v>
+      </c>
       <c r="JB24" s="29"/>
       <c r="JC24" s="29"/>
       <c r="JD24" s="29"/>
@@ -21529,7 +21588,7 @@
       <c r="AHR24" s="5"/>
     </row>
     <row r="25" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="39" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22309,9 +22368,12 @@
       <c r="IZ25" s="7">
         <v>4457</v>
       </c>
+      <c r="JA25" s="7">
+        <v>4190</v>
+      </c>
     </row>
     <row r="26" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23089,9 +23151,12 @@
       <c r="IZ26" s="7">
         <v>5646</v>
       </c>
+      <c r="JA26" s="7">
+        <v>5413</v>
+      </c>
     </row>
     <row r="27" spans="1:902" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -23869,7 +23934,10 @@
       <c r="IZ27" s="10">
         <v>10103</v>
       </c>
-      <c r="JA27" s="29"/>
+      <c r="JA27" s="10">
+        <f>SUM(JA25:JA26)</f>
+        <v>9603</v>
+      </c>
       <c r="JB27" s="29"/>
       <c r="JC27" s="29"/>
       <c r="JD27" s="29"/>
@@ -24513,7 +24581,7 @@
       <c r="AHR27" s="5"/>
     </row>
     <row r="28" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="39" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25293,9 +25361,12 @@
       <c r="IZ28" s="7">
         <v>1352</v>
       </c>
+      <c r="JA28" s="7">
+        <v>1450</v>
+      </c>
     </row>
     <row r="29" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26073,9 +26144,12 @@
       <c r="IZ29" s="7">
         <v>10634</v>
       </c>
+      <c r="JA29" s="7">
+        <v>10052</v>
+      </c>
     </row>
     <row r="30" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -26853,9 +26927,12 @@
       <c r="IZ30" s="7">
         <v>28218</v>
       </c>
+      <c r="JA30" s="7">
+        <v>28886</v>
+      </c>
     </row>
     <row r="31" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27633,9 +27710,12 @@
       <c r="IZ31" s="7">
         <v>97722</v>
       </c>
+      <c r="JA31" s="7">
+        <v>100940</v>
+      </c>
     </row>
     <row r="32" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28413,9 +28493,12 @@
       <c r="IZ32" s="7">
         <v>21545</v>
       </c>
+      <c r="JA32" s="7">
+        <v>20977</v>
+      </c>
     </row>
     <row r="33" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29193,9 +29276,12 @@
       <c r="IZ33" s="7">
         <v>9687</v>
       </c>
+      <c r="JA33" s="7">
+        <v>9346</v>
+      </c>
     </row>
     <row r="34" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -29973,9 +30059,12 @@
       <c r="IZ34" s="7">
         <v>41148</v>
       </c>
+      <c r="JA34" s="7">
+        <v>42215</v>
+      </c>
     </row>
     <row r="35" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -30753,9 +30842,12 @@
       <c r="IZ35" s="7">
         <v>8971</v>
       </c>
+      <c r="JA35" s="7">
+        <v>9756</v>
+      </c>
     </row>
     <row r="36" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31533,9 +31625,12 @@
       <c r="IZ36" s="7">
         <v>48227</v>
       </c>
+      <c r="JA36" s="7">
+        <v>49939</v>
+      </c>
     </row>
     <row r="37" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32313,9 +32408,12 @@
       <c r="IZ37" s="7">
         <v>56936</v>
       </c>
+      <c r="JA37" s="7">
+        <v>58203</v>
+      </c>
     </row>
     <row r="38" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33093,9 +33191,12 @@
       <c r="IZ38" s="7">
         <v>22512</v>
       </c>
+      <c r="JA38" s="7">
+        <v>22843</v>
+      </c>
     </row>
     <row r="39" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -33873,9 +33974,12 @@
       <c r="IZ39" s="7">
         <v>19481</v>
       </c>
+      <c r="JA39" s="7">
+        <v>22143</v>
+      </c>
     </row>
     <row r="40" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -34653,9 +34757,12 @@
       <c r="IZ40" s="7">
         <v>11642</v>
       </c>
+      <c r="JA40" s="7">
+        <v>11900</v>
+      </c>
     </row>
     <row r="41" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35433,9 +35540,12 @@
       <c r="IZ41" s="7">
         <v>11914</v>
       </c>
+      <c r="JA41" s="7">
+        <v>11763</v>
+      </c>
     </row>
     <row r="42" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36213,9 +36323,12 @@
       <c r="IZ42" s="7">
         <v>44220</v>
       </c>
+      <c r="JA42" s="7">
+        <v>42321</v>
+      </c>
     </row>
     <row r="43" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -36993,9 +37106,12 @@
       <c r="IZ43" s="7">
         <v>4496</v>
       </c>
+      <c r="JA43" s="7">
+        <v>5061</v>
+      </c>
     </row>
     <row r="44" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -37773,9 +37889,12 @@
       <c r="IZ44" s="7">
         <v>5451</v>
       </c>
+      <c r="JA44" s="7">
+        <v>5480</v>
+      </c>
     </row>
     <row r="45" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38553,9 +38672,12 @@
       <c r="IZ45" s="7">
         <v>6685</v>
       </c>
+      <c r="JA45" s="7">
+        <v>6481</v>
+      </c>
     </row>
     <row r="46" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39333,9 +39455,12 @@
       <c r="IZ46" s="7">
         <v>12122</v>
       </c>
+      <c r="JA46" s="7">
+        <v>12080</v>
+      </c>
     </row>
     <row r="47" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40113,9 +40238,12 @@
       <c r="IZ47" s="7">
         <v>1152</v>
       </c>
+      <c r="JA47" s="7">
+        <v>1170</v>
+      </c>
     </row>
     <row r="48" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -40893,7 +41021,10 @@
       <c r="IZ48" s="10">
         <v>464115</v>
       </c>
-      <c r="JA48" s="29"/>
+      <c r="JA48" s="10">
+        <f>SUM(JA28:JA47)</f>
+        <v>473006</v>
+      </c>
       <c r="JB48" s="29"/>
       <c r="JC48" s="29"/>
       <c r="JD48" s="29"/>
@@ -41536,8 +41667,8 @@
       <c r="AHQ48" s="5"/>
       <c r="AHR48" s="5"/>
     </row>
-    <row r="49" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
+    <row r="49" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42317,9 +42448,12 @@
       <c r="IZ49" s="7">
         <v>21</v>
       </c>
+      <c r="JA49" s="7">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
+    <row r="50" spans="1:261" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43097,9 +43231,12 @@
       <c r="IZ50" s="7">
         <v>1</v>
       </c>
+      <c r="JA50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:260" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
+    <row r="51" spans="1:261" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -43877,9 +44014,12 @@
       <c r="IZ51" s="7">
         <v>1382</v>
       </c>
+      <c r="JA51" s="7">
+        <v>1494</v>
+      </c>
     </row>
-    <row r="52" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
+    <row r="52" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -44657,9 +44797,12 @@
       <c r="IZ52" s="7">
         <v>1016</v>
       </c>
+      <c r="JA52" s="7">
+        <v>1063</v>
+      </c>
     </row>
-    <row r="53" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
+    <row r="53" spans="1:261" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -45437,9 +45580,13 @@
       <c r="IZ53" s="10">
         <v>2420</v>
       </c>
+      <c r="JA53" s="10">
+        <f>SUM(JA49:JA52)</f>
+        <v>2577</v>
+      </c>
     </row>
-    <row r="54" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
+    <row r="54" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46219,9 +46366,12 @@
       <c r="IZ54" s="7">
         <v>5713</v>
       </c>
+      <c r="JA54" s="7">
+        <v>5720</v>
+      </c>
     </row>
-    <row r="55" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
+    <row r="55" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -46999,9 +47149,12 @@
       <c r="IZ55" s="7">
         <v>47123</v>
       </c>
+      <c r="JA55" s="7">
+        <v>51039</v>
+      </c>
     </row>
-    <row r="56" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
+    <row r="56" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -47779,9 +47932,12 @@
       <c r="IZ56" s="7">
         <v>6946</v>
       </c>
+      <c r="JA56" s="7">
+        <v>6963</v>
+      </c>
     </row>
-    <row r="57" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
+    <row r="57" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -48559,9 +48715,12 @@
       <c r="IZ57" s="7">
         <v>192629</v>
       </c>
+      <c r="JA57" s="7">
+        <v>189751</v>
+      </c>
     </row>
-    <row r="58" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:261" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -49339,9 +49498,12 @@
       <c r="IZ58" s="7">
         <v>29949</v>
       </c>
+      <c r="JA58" s="7">
+        <v>30431</v>
+      </c>
     </row>
-    <row r="59" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
+    <row r="59" spans="1:261" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50119,9 +50281,12 @@
       <c r="IZ59" s="7">
         <v>5893</v>
       </c>
+      <c r="JA59" s="7">
+        <v>5576</v>
+      </c>
     </row>
-    <row r="60" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
+    <row r="60" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -50899,9 +51064,12 @@
       <c r="IZ60" s="7">
         <v>44123</v>
       </c>
+      <c r="JA60" s="7">
+        <v>41889</v>
+      </c>
     </row>
-    <row r="61" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
+    <row r="61" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -51679,9 +51847,12 @@
       <c r="IZ61" s="7">
         <v>132</v>
       </c>
+      <c r="JA61" s="7">
+        <v>132</v>
+      </c>
     </row>
-    <row r="62" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
+    <row r="62" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -52459,9 +52630,12 @@
       <c r="IZ62" s="7">
         <v>15966</v>
       </c>
+      <c r="JA62" s="7">
+        <v>19171</v>
+      </c>
     </row>
-    <row r="63" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
+    <row r="63" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53239,9 +53413,12 @@
       <c r="IZ63" s="7">
         <v>31084</v>
       </c>
+      <c r="JA63" s="7">
+        <v>31766</v>
+      </c>
     </row>
-    <row r="64" spans="1:260" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
+    <row r="64" spans="1:261" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54019,9 +54196,12 @@
       <c r="IZ64" s="7">
         <v>47463</v>
       </c>
+      <c r="JA64" s="7">
+        <v>47486</v>
+      </c>
     </row>
     <row r="65" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -54799,9 +54979,12 @@
       <c r="IZ65" s="7">
         <v>184937</v>
       </c>
+      <c r="JA65" s="7">
+        <v>167923</v>
+      </c>
     </row>
     <row r="66" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -55579,9 +55762,12 @@
       <c r="IZ66" s="7">
         <v>15392</v>
       </c>
+      <c r="JA66" s="7">
+        <v>16199</v>
+      </c>
     </row>
     <row r="67" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -56359,9 +56545,12 @@
       <c r="IZ67" s="7">
         <v>6095</v>
       </c>
+      <c r="JA67" s="7">
+        <v>6467</v>
+      </c>
     </row>
     <row r="68" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -57139,7 +57328,10 @@
       <c r="IZ68" s="10">
         <v>633445</v>
       </c>
-      <c r="JA68" s="29"/>
+      <c r="JA68" s="10">
+        <f>SUM(JA54:JA67)</f>
+        <v>620513</v>
+      </c>
       <c r="JB68" s="29"/>
       <c r="JC68" s="29"/>
       <c r="JD68" s="29"/>
@@ -57783,7 +57975,7 @@
       <c r="AHR68" s="5"/>
     </row>
     <row r="69" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="39" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -58563,9 +58755,12 @@
       <c r="IZ69" s="7">
         <v>9790</v>
       </c>
+      <c r="JA69" s="7">
+        <v>8880</v>
+      </c>
     </row>
     <row r="70" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -59343,9 +59538,12 @@
       <c r="IZ70" s="7">
         <v>722</v>
       </c>
+      <c r="JA70" s="7">
+        <v>649</v>
+      </c>
     </row>
     <row r="71" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -60123,9 +60321,12 @@
       <c r="IZ71" s="7">
         <v>24353</v>
       </c>
+      <c r="JA71" s="7">
+        <v>28377</v>
+      </c>
     </row>
     <row r="72" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -60903,9 +61104,12 @@
       <c r="IZ72" s="7">
         <v>2920</v>
       </c>
+      <c r="JA72" s="7">
+        <v>3123</v>
+      </c>
     </row>
     <row r="73" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -61683,9 +61887,12 @@
       <c r="IZ73" s="7">
         <v>434</v>
       </c>
+      <c r="JA73" s="7">
+        <v>457</v>
+      </c>
     </row>
     <row r="74" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -62463,9 +62670,12 @@
       <c r="IZ74" s="7">
         <v>51328</v>
       </c>
+      <c r="JA74" s="7">
+        <v>51769</v>
+      </c>
     </row>
     <row r="75" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -63243,7 +63453,10 @@
       <c r="IZ75" s="10">
         <v>89547</v>
       </c>
-      <c r="JA75" s="29"/>
+      <c r="JA75" s="10">
+        <f>SUM(JA69:JA74)</f>
+        <v>93255</v>
+      </c>
       <c r="JB75" s="29"/>
       <c r="JC75" s="29"/>
       <c r="JD75" s="29"/>
@@ -64666,7 +64879,10 @@
         <f>IZ11+IZ21+IZ24+IZ27+IZ48+IZ53+IZ68+IZ75</f>
         <v>1820785</v>
       </c>
-      <c r="JA76" s="35"/>
+      <c r="JA76" s="19">
+        <f>JA11+JA21+JA24+JA27+JA48+JA53+JA68+JA75</f>
+        <v>1826575</v>
+      </c>
     </row>
     <row r="77" spans="1:902" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
@@ -64924,7 +65140,7 @@
       <c r="IX77" s="30"/>
       <c r="IY77" s="30"/>
       <c r="IZ77" s="30"/>
-      <c r="JA77" s="27"/>
+      <c r="JA77" s="30"/>
       <c r="JB77" s="27"/>
       <c r="JC77" s="27"/>
       <c r="JD77" s="27"/>
@@ -65393,26 +65609,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:IZ4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -65425,6 +65621,26 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="IU4:JA4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="336">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1048,6 +1048,9 @@
   <si>
     <t>2021/Julio</t>
   </si>
+  <si>
+    <t>2021/Agosto</t>
+  </si>
 </sst>
 </file>
 
@@ -1652,7 +1655,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1749,6 +1752,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2123,11 +2132,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHR78"/>
+  <dimension ref="A1:AHS78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="HE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IY9" sqref="IY9"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JE10" sqref="JE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,324 +2397,326 @@
     <col min="257" max="257" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
-    <col min="260" max="261" width="11.5703125" style="4" customWidth="1"/>
-    <col min="262" max="721" width="10.85546875" style="28"/>
-    <col min="722" max="902" width="10.85546875" style="4"/>
-    <col min="903" max="16384" width="10.85546875" style="3"/>
+    <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
+    <col min="263" max="264" width="10.85546875" style="28"/>
+    <col min="265" max="265" width="33.85546875" style="28" customWidth="1"/>
+    <col min="266" max="722" width="10.85546875" style="28"/>
+    <col min="723" max="903" width="10.85546875" style="4"/>
+    <col min="904" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:902" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:903" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:902" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:903" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:902" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="40">
         <v>2000</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40">
         <v>2001</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40">
         <v>2002</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40">
         <v>2003</v>
       </c>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38">
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38">
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40">
         <v>2005</v>
       </c>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38">
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40"/>
+      <c r="BQ4" s="40"/>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="40"/>
+      <c r="BV4" s="40"/>
+      <c r="BW4" s="40">
         <v>2006</v>
       </c>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38">
+      <c r="BX4" s="40"/>
+      <c r="BY4" s="40"/>
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
+      <c r="CC4" s="40"/>
+      <c r="CD4" s="40"/>
+      <c r="CE4" s="40"/>
+      <c r="CF4" s="40"/>
+      <c r="CG4" s="40"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="40">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="38"/>
-      <c r="CU4" s="38">
+      <c r="CJ4" s="40"/>
+      <c r="CK4" s="40"/>
+      <c r="CL4" s="40"/>
+      <c r="CM4" s="40"/>
+      <c r="CN4" s="40"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="40"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="40"/>
+      <c r="CS4" s="40"/>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="40">
         <v>2008</v>
       </c>
-      <c r="CV4" s="38"/>
-      <c r="CW4" s="38"/>
-      <c r="CX4" s="38"/>
-      <c r="CY4" s="38"/>
-      <c r="CZ4" s="38"/>
-      <c r="DA4" s="38"/>
-      <c r="DB4" s="38"/>
-      <c r="DC4" s="38"/>
-      <c r="DD4" s="38"/>
-      <c r="DE4" s="38"/>
-      <c r="DF4" s="38"/>
-      <c r="DG4" s="38">
+      <c r="CV4" s="40"/>
+      <c r="CW4" s="40"/>
+      <c r="CX4" s="40"/>
+      <c r="CY4" s="40"/>
+      <c r="CZ4" s="40"/>
+      <c r="DA4" s="40"/>
+      <c r="DB4" s="40"/>
+      <c r="DC4" s="40"/>
+      <c r="DD4" s="40"/>
+      <c r="DE4" s="40"/>
+      <c r="DF4" s="40"/>
+      <c r="DG4" s="40">
         <v>2009</v>
       </c>
-      <c r="DH4" s="38"/>
-      <c r="DI4" s="38"/>
-      <c r="DJ4" s="38"/>
-      <c r="DK4" s="38"/>
-      <c r="DL4" s="38"/>
-      <c r="DM4" s="38"/>
-      <c r="DN4" s="38"/>
-      <c r="DO4" s="38"/>
-      <c r="DP4" s="38"/>
-      <c r="DQ4" s="38"/>
-      <c r="DR4" s="38"/>
-      <c r="DS4" s="38">
+      <c r="DH4" s="40"/>
+      <c r="DI4" s="40"/>
+      <c r="DJ4" s="40"/>
+      <c r="DK4" s="40"/>
+      <c r="DL4" s="40"/>
+      <c r="DM4" s="40"/>
+      <c r="DN4" s="40"/>
+      <c r="DO4" s="40"/>
+      <c r="DP4" s="40"/>
+      <c r="DQ4" s="40"/>
+      <c r="DR4" s="40"/>
+      <c r="DS4" s="40">
         <v>2010</v>
       </c>
-      <c r="DT4" s="38"/>
-      <c r="DU4" s="38"/>
-      <c r="DV4" s="38"/>
-      <c r="DW4" s="38"/>
-      <c r="DX4" s="38"/>
-      <c r="DY4" s="38"/>
-      <c r="DZ4" s="38"/>
-      <c r="EA4" s="38"/>
-      <c r="EB4" s="38"/>
-      <c r="EC4" s="38"/>
-      <c r="ED4" s="38"/>
-      <c r="EE4" s="38">
+      <c r="DT4" s="40"/>
+      <c r="DU4" s="40"/>
+      <c r="DV4" s="40"/>
+      <c r="DW4" s="40"/>
+      <c r="DX4" s="40"/>
+      <c r="DY4" s="40"/>
+      <c r="DZ4" s="40"/>
+      <c r="EA4" s="40"/>
+      <c r="EB4" s="40"/>
+      <c r="EC4" s="40"/>
+      <c r="ED4" s="40"/>
+      <c r="EE4" s="40">
         <v>2011</v>
       </c>
-      <c r="EF4" s="38"/>
-      <c r="EG4" s="38"/>
-      <c r="EH4" s="38"/>
-      <c r="EI4" s="38"/>
-      <c r="EJ4" s="38"/>
-      <c r="EK4" s="38"/>
-      <c r="EL4" s="38"/>
-      <c r="EM4" s="38"/>
-      <c r="EN4" s="38"/>
-      <c r="EO4" s="38"/>
-      <c r="EP4" s="38"/>
-      <c r="EQ4" s="38">
+      <c r="EF4" s="40"/>
+      <c r="EG4" s="40"/>
+      <c r="EH4" s="40"/>
+      <c r="EI4" s="40"/>
+      <c r="EJ4" s="40"/>
+      <c r="EK4" s="40"/>
+      <c r="EL4" s="40"/>
+      <c r="EM4" s="40"/>
+      <c r="EN4" s="40"/>
+      <c r="EO4" s="40"/>
+      <c r="EP4" s="40"/>
+      <c r="EQ4" s="40">
         <v>2012</v>
       </c>
-      <c r="ER4" s="38"/>
-      <c r="ES4" s="38"/>
-      <c r="ET4" s="38"/>
-      <c r="EU4" s="38"/>
-      <c r="EV4" s="38"/>
-      <c r="EW4" s="38"/>
-      <c r="EX4" s="38"/>
-      <c r="EY4" s="38"/>
-      <c r="EZ4" s="38"/>
-      <c r="FA4" s="38"/>
-      <c r="FB4" s="38"/>
-      <c r="FC4" s="38">
+      <c r="ER4" s="40"/>
+      <c r="ES4" s="40"/>
+      <c r="ET4" s="40"/>
+      <c r="EU4" s="40"/>
+      <c r="EV4" s="40"/>
+      <c r="EW4" s="40"/>
+      <c r="EX4" s="40"/>
+      <c r="EY4" s="40"/>
+      <c r="EZ4" s="40"/>
+      <c r="FA4" s="40"/>
+      <c r="FB4" s="40"/>
+      <c r="FC4" s="40">
         <v>2013</v>
       </c>
-      <c r="FD4" s="38"/>
-      <c r="FE4" s="38"/>
-      <c r="FF4" s="38"/>
-      <c r="FG4" s="38"/>
-      <c r="FH4" s="38"/>
-      <c r="FI4" s="38"/>
-      <c r="FJ4" s="38"/>
-      <c r="FK4" s="38"/>
-      <c r="FL4" s="38"/>
-      <c r="FM4" s="38"/>
-      <c r="FN4" s="38"/>
-      <c r="FO4" s="38">
+      <c r="FD4" s="40"/>
+      <c r="FE4" s="40"/>
+      <c r="FF4" s="40"/>
+      <c r="FG4" s="40"/>
+      <c r="FH4" s="40"/>
+      <c r="FI4" s="40"/>
+      <c r="FJ4" s="40"/>
+      <c r="FK4" s="40"/>
+      <c r="FL4" s="40"/>
+      <c r="FM4" s="40"/>
+      <c r="FN4" s="40"/>
+      <c r="FO4" s="40">
         <v>2014</v>
       </c>
-      <c r="FP4" s="38"/>
-      <c r="FQ4" s="38"/>
-      <c r="FR4" s="38"/>
-      <c r="FS4" s="38"/>
-      <c r="FT4" s="38"/>
-      <c r="FU4" s="38"/>
-      <c r="FV4" s="38"/>
-      <c r="FW4" s="38"/>
-      <c r="FX4" s="38"/>
-      <c r="FY4" s="38"/>
-      <c r="FZ4" s="38"/>
-      <c r="GA4" s="38">
+      <c r="FP4" s="40"/>
+      <c r="FQ4" s="40"/>
+      <c r="FR4" s="40"/>
+      <c r="FS4" s="40"/>
+      <c r="FT4" s="40"/>
+      <c r="FU4" s="40"/>
+      <c r="FV4" s="40"/>
+      <c r="FW4" s="40"/>
+      <c r="FX4" s="40"/>
+      <c r="FY4" s="40"/>
+      <c r="FZ4" s="40"/>
+      <c r="GA4" s="40">
         <v>2015</v>
       </c>
-      <c r="GB4" s="38"/>
-      <c r="GC4" s="38"/>
-      <c r="GD4" s="38"/>
-      <c r="GE4" s="38"/>
-      <c r="GF4" s="38"/>
-      <c r="GG4" s="38"/>
-      <c r="GH4" s="38"/>
-      <c r="GI4" s="38"/>
-      <c r="GJ4" s="38"/>
-      <c r="GK4" s="38"/>
-      <c r="GL4" s="38"/>
-      <c r="GM4" s="38">
+      <c r="GB4" s="40"/>
+      <c r="GC4" s="40"/>
+      <c r="GD4" s="40"/>
+      <c r="GE4" s="40"/>
+      <c r="GF4" s="40"/>
+      <c r="GG4" s="40"/>
+      <c r="GH4" s="40"/>
+      <c r="GI4" s="40"/>
+      <c r="GJ4" s="40"/>
+      <c r="GK4" s="40"/>
+      <c r="GL4" s="40"/>
+      <c r="GM4" s="40">
         <v>2016</v>
       </c>
-      <c r="GN4" s="38"/>
-      <c r="GO4" s="38"/>
-      <c r="GP4" s="38"/>
-      <c r="GQ4" s="38"/>
-      <c r="GR4" s="38"/>
-      <c r="GS4" s="38"/>
-      <c r="GT4" s="38"/>
-      <c r="GU4" s="38"/>
-      <c r="GV4" s="38"/>
-      <c r="GW4" s="38"/>
-      <c r="GX4" s="38"/>
-      <c r="GY4" s="38">
+      <c r="GN4" s="40"/>
+      <c r="GO4" s="40"/>
+      <c r="GP4" s="40"/>
+      <c r="GQ4" s="40"/>
+      <c r="GR4" s="40"/>
+      <c r="GS4" s="40"/>
+      <c r="GT4" s="40"/>
+      <c r="GU4" s="40"/>
+      <c r="GV4" s="40"/>
+      <c r="GW4" s="40"/>
+      <c r="GX4" s="40"/>
+      <c r="GY4" s="40">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="38"/>
-      <c r="HA4" s="38"/>
-      <c r="HB4" s="38"/>
-      <c r="HC4" s="38"/>
-      <c r="HD4" s="38"/>
-      <c r="HE4" s="38"/>
-      <c r="HF4" s="38"/>
-      <c r="HG4" s="38"/>
-      <c r="HH4" s="38"/>
-      <c r="HI4" s="38"/>
-      <c r="HJ4" s="38"/>
-      <c r="HK4" s="38">
+      <c r="GZ4" s="40"/>
+      <c r="HA4" s="40"/>
+      <c r="HB4" s="40"/>
+      <c r="HC4" s="40"/>
+      <c r="HD4" s="40"/>
+      <c r="HE4" s="40"/>
+      <c r="HF4" s="40"/>
+      <c r="HG4" s="40"/>
+      <c r="HH4" s="40"/>
+      <c r="HI4" s="40"/>
+      <c r="HJ4" s="40"/>
+      <c r="HK4" s="40">
         <v>2018</v>
       </c>
-      <c r="HL4" s="38"/>
-      <c r="HM4" s="38"/>
-      <c r="HN4" s="38"/>
-      <c r="HO4" s="38"/>
-      <c r="HP4" s="38"/>
-      <c r="HQ4" s="38"/>
-      <c r="HR4" s="38"/>
-      <c r="HS4" s="38"/>
-      <c r="HT4" s="38"/>
-      <c r="HU4" s="38"/>
-      <c r="HV4" s="38"/>
-      <c r="HW4" s="38">
+      <c r="HL4" s="40"/>
+      <c r="HM4" s="40"/>
+      <c r="HN4" s="40"/>
+      <c r="HO4" s="40"/>
+      <c r="HP4" s="40"/>
+      <c r="HQ4" s="40"/>
+      <c r="HR4" s="40"/>
+      <c r="HS4" s="40"/>
+      <c r="HT4" s="40"/>
+      <c r="HU4" s="40"/>
+      <c r="HV4" s="40"/>
+      <c r="HW4" s="40">
         <v>2019</v>
       </c>
-      <c r="HX4" s="38"/>
-      <c r="HY4" s="38"/>
-      <c r="HZ4" s="38"/>
-      <c r="IA4" s="38"/>
-      <c r="IB4" s="38"/>
-      <c r="IC4" s="38"/>
-      <c r="ID4" s="38"/>
-      <c r="IE4" s="38"/>
-      <c r="IF4" s="38"/>
-      <c r="IG4" s="38"/>
-      <c r="IH4" s="35"/>
-      <c r="II4" s="35">
+      <c r="HX4" s="40"/>
+      <c r="HY4" s="40"/>
+      <c r="HZ4" s="40"/>
+      <c r="IA4" s="40"/>
+      <c r="IB4" s="40"/>
+      <c r="IC4" s="40"/>
+      <c r="ID4" s="40"/>
+      <c r="IE4" s="40"/>
+      <c r="IF4" s="40"/>
+      <c r="IG4" s="40"/>
+      <c r="IH4" s="37"/>
+      <c r="II4" s="37">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="36"/>
-      <c r="IK4" s="36"/>
-      <c r="IL4" s="36"/>
-      <c r="IM4" s="36"/>
-      <c r="IN4" s="36"/>
-      <c r="IO4" s="36"/>
-      <c r="IP4" s="36"/>
-      <c r="IQ4" s="36"/>
-      <c r="IR4" s="36"/>
-      <c r="IS4" s="36"/>
-      <c r="IT4" s="37"/>
-      <c r="IU4" s="38">
+      <c r="IJ4" s="38"/>
+      <c r="IK4" s="38"/>
+      <c r="IL4" s="38"/>
+      <c r="IM4" s="38"/>
+      <c r="IN4" s="38"/>
+      <c r="IO4" s="38"/>
+      <c r="IP4" s="38"/>
+      <c r="IQ4" s="38"/>
+      <c r="IR4" s="38"/>
+      <c r="IS4" s="38"/>
+      <c r="IT4" s="39"/>
+      <c r="IU4" s="37">
         <v>2021</v>
       </c>
       <c r="IV4" s="38"/>
@@ -2714,7 +2725,7 @@
       <c r="IY4" s="38"/>
       <c r="IZ4" s="38"/>
       <c r="JA4" s="38"/>
-      <c r="JB4" s="29"/>
+      <c r="JB4" s="39"/>
       <c r="JC4" s="29"/>
       <c r="JD4" s="29"/>
       <c r="JE4" s="29"/>
@@ -3174,7 +3185,7 @@
       <c r="AAQ4" s="29"/>
       <c r="AAR4" s="29"/>
       <c r="AAS4" s="29"/>
-      <c r="AAT4" s="5"/>
+      <c r="AAT4" s="29"/>
       <c r="AAU4" s="5"/>
       <c r="AAV4" s="5"/>
       <c r="AAW4" s="5"/>
@@ -3355,10 +3366,11 @@
       <c r="AHP4" s="5"/>
       <c r="AHQ4" s="5"/>
       <c r="AHR4" s="5"/>
+      <c r="AHS4" s="5"/>
     </row>
-    <row r="5" spans="1:902" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4136,7 +4148,9 @@
       <c r="JA5" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="JB5" s="29"/>
+      <c r="JB5" s="31" t="s">
+        <v>335</v>
+      </c>
       <c r="JC5" s="29"/>
       <c r="JD5" s="29"/>
       <c r="JE5" s="29"/>
@@ -4596,7 +4610,7 @@
       <c r="AAQ5" s="29"/>
       <c r="AAR5" s="29"/>
       <c r="AAS5" s="29"/>
-      <c r="AAT5" s="5"/>
+      <c r="AAT5" s="29"/>
       <c r="AAU5" s="5"/>
       <c r="AAV5" s="5"/>
       <c r="AAW5" s="5"/>
@@ -4777,9 +4791,10 @@
       <c r="AHP5" s="5"/>
       <c r="AHQ5" s="5"/>
       <c r="AHR5" s="5"/>
+      <c r="AHS5" s="5"/>
     </row>
-    <row r="6" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5562,9 +5577,12 @@
       <c r="JA6" s="7">
         <v>83743</v>
       </c>
+      <c r="JB6" s="7">
+        <v>87987</v>
+      </c>
     </row>
-    <row r="7" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6345,9 +6363,12 @@
       <c r="JA7" s="7">
         <v>44</v>
       </c>
+      <c r="JB7" s="7">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7128,9 +7149,12 @@
       <c r="JA8" s="7">
         <v>23245</v>
       </c>
+      <c r="JB8" s="7">
+        <v>23429</v>
+      </c>
     </row>
-    <row r="9" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7911,9 +7935,12 @@
       <c r="JA9" s="7">
         <v>698</v>
       </c>
+      <c r="JB9" s="7">
+        <v>710</v>
+      </c>
     </row>
-    <row r="10" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8694,9 +8721,12 @@
       <c r="JA10" s="7">
         <v>416</v>
       </c>
+      <c r="JB10" s="7">
+        <v>441</v>
+      </c>
     </row>
-    <row r="11" spans="1:902" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:903" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9478,7 +9508,10 @@
         <f>SUM(JA6:JA10)</f>
         <v>108146</v>
       </c>
-      <c r="JB11" s="29"/>
+      <c r="JB11" s="10">
+        <f>SUM(JB6:JB10)</f>
+        <v>112612</v>
+      </c>
       <c r="JC11" s="29"/>
       <c r="JD11" s="29"/>
       <c r="JE11" s="29"/>
@@ -9938,7 +9971,7 @@
       <c r="AAQ11" s="29"/>
       <c r="AAR11" s="29"/>
       <c r="AAS11" s="29"/>
-      <c r="AAT11" s="5"/>
+      <c r="AAT11" s="29"/>
       <c r="AAU11" s="5"/>
       <c r="AAV11" s="5"/>
       <c r="AAW11" s="5"/>
@@ -10119,9 +10152,10 @@
       <c r="AHP11" s="5"/>
       <c r="AHQ11" s="5"/>
       <c r="AHR11" s="5"/>
+      <c r="AHS11" s="5"/>
     </row>
-    <row r="12" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10904,9 +10938,12 @@
       <c r="JA12" s="7">
         <v>75762</v>
       </c>
+      <c r="JB12" s="7">
+        <v>76885</v>
+      </c>
     </row>
-    <row r="13" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11687,9 +11724,12 @@
       <c r="JA13" s="7">
         <v>19400</v>
       </c>
+      <c r="JB13" s="7">
+        <v>19831</v>
+      </c>
     </row>
-    <row r="14" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12470,9 +12510,12 @@
       <c r="JA14" s="7">
         <v>28563</v>
       </c>
+      <c r="JB14" s="7">
+        <v>28012</v>
+      </c>
     </row>
-    <row r="15" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13253,9 +13296,12 @@
       <c r="JA15" s="7">
         <v>23946</v>
       </c>
+      <c r="JB15" s="7">
+        <v>24042</v>
+      </c>
     </row>
-    <row r="16" spans="1:902" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:903" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14036,9 +14082,12 @@
       <c r="JA16" s="7">
         <v>15849</v>
       </c>
+      <c r="JB16" s="7">
+        <v>16100</v>
+      </c>
     </row>
-    <row r="17" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14819,9 +14868,12 @@
       <c r="JA17" s="7">
         <v>45233</v>
       </c>
+      <c r="JB17" s="7">
+        <v>45684</v>
+      </c>
     </row>
-    <row r="18" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15602,9 +15654,12 @@
       <c r="JA18" s="7">
         <v>57745</v>
       </c>
+      <c r="JB18" s="7">
+        <v>57990</v>
+      </c>
     </row>
-    <row r="19" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16385,9 +16440,12 @@
       <c r="JA19" s="7">
         <v>67244</v>
       </c>
+      <c r="JB19" s="7">
+        <v>67249</v>
+      </c>
     </row>
-    <row r="20" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17168,9 +17226,12 @@
       <c r="JA20" s="7">
         <v>48310</v>
       </c>
+      <c r="JB20" s="7">
+        <v>47177</v>
+      </c>
     </row>
-    <row r="21" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+    <row r="21" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -17952,7 +18013,10 @@
         <f>SUM(JA12:JA20)</f>
         <v>382052</v>
       </c>
-      <c r="JB21" s="29"/>
+      <c r="JB21" s="10">
+        <f>SUM(JB12:JB20)</f>
+        <v>382970</v>
+      </c>
       <c r="JC21" s="29"/>
       <c r="JD21" s="29"/>
       <c r="JE21" s="29"/>
@@ -18412,7 +18476,7 @@
       <c r="AAQ21" s="29"/>
       <c r="AAR21" s="29"/>
       <c r="AAS21" s="29"/>
-      <c r="AAT21" s="5"/>
+      <c r="AAT21" s="29"/>
       <c r="AAU21" s="5"/>
       <c r="AAV21" s="5"/>
       <c r="AAW21" s="5"/>
@@ -18593,9 +18657,10 @@
       <c r="AHP21" s="5"/>
       <c r="AHQ21" s="5"/>
       <c r="AHR21" s="5"/>
+      <c r="AHS21" s="5"/>
     </row>
-    <row r="22" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19378,9 +19443,12 @@
       <c r="JA22" s="7">
         <v>103193</v>
       </c>
+      <c r="JB22" s="7">
+        <v>105012</v>
+      </c>
     </row>
-    <row r="23" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+    <row r="23" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20161,9 +20229,12 @@
       <c r="JA23" s="7">
         <v>34230</v>
       </c>
+      <c r="JB23" s="7">
+        <v>34591</v>
+      </c>
     </row>
-    <row r="24" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -20945,7 +21016,10 @@
         <f>SUM(JA22:JA23)</f>
         <v>137423</v>
       </c>
-      <c r="JB24" s="29"/>
+      <c r="JB24" s="10">
+        <f>SUM(JB22:JB23)</f>
+        <v>139603</v>
+      </c>
       <c r="JC24" s="29"/>
       <c r="JD24" s="29"/>
       <c r="JE24" s="29"/>
@@ -21405,7 +21479,7 @@
       <c r="AAQ24" s="29"/>
       <c r="AAR24" s="29"/>
       <c r="AAS24" s="29"/>
-      <c r="AAT24" s="5"/>
+      <c r="AAT24" s="29"/>
       <c r="AAU24" s="5"/>
       <c r="AAV24" s="5"/>
       <c r="AAW24" s="5"/>
@@ -21586,9 +21660,10 @@
       <c r="AHP24" s="5"/>
       <c r="AHQ24" s="5"/>
       <c r="AHR24" s="5"/>
+      <c r="AHS24" s="5"/>
     </row>
-    <row r="25" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22371,9 +22446,12 @@
       <c r="JA25" s="7">
         <v>4190</v>
       </c>
+      <c r="JB25" s="7">
+        <v>4159</v>
+      </c>
     </row>
-    <row r="26" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23154,9 +23232,12 @@
       <c r="JA26" s="7">
         <v>5413</v>
       </c>
+      <c r="JB26" s="7">
+        <v>5453</v>
+      </c>
     </row>
-    <row r="27" spans="1:902" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:903" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -23938,7 +24019,10 @@
         <f>SUM(JA25:JA26)</f>
         <v>9603</v>
       </c>
-      <c r="JB27" s="29"/>
+      <c r="JB27" s="10">
+        <f>SUM(JB25:JB26)</f>
+        <v>9612</v>
+      </c>
       <c r="JC27" s="29"/>
       <c r="JD27" s="29"/>
       <c r="JE27" s="29"/>
@@ -24398,7 +24482,7 @@
       <c r="AAQ27" s="29"/>
       <c r="AAR27" s="29"/>
       <c r="AAS27" s="29"/>
-      <c r="AAT27" s="5"/>
+      <c r="AAT27" s="29"/>
       <c r="AAU27" s="5"/>
       <c r="AAV27" s="5"/>
       <c r="AAW27" s="5"/>
@@ -24579,9 +24663,10 @@
       <c r="AHP27" s="5"/>
       <c r="AHQ27" s="5"/>
       <c r="AHR27" s="5"/>
+      <c r="AHS27" s="5"/>
     </row>
-    <row r="28" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25364,9 +25449,12 @@
       <c r="JA28" s="7">
         <v>1450</v>
       </c>
+      <c r="JB28" s="7">
+        <v>1292</v>
+      </c>
     </row>
-    <row r="29" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+    <row r="29" spans="1:903" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26147,9 +26235,12 @@
       <c r="JA29" s="7">
         <v>10052</v>
       </c>
+      <c r="JB29" s="7">
+        <v>10180</v>
+      </c>
     </row>
-    <row r="30" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+    <row r="30" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -26930,9 +27021,12 @@
       <c r="JA30" s="7">
         <v>28886</v>
       </c>
+      <c r="JB30" s="7">
+        <v>28703</v>
+      </c>
     </row>
-    <row r="31" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+    <row r="31" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27713,9 +27807,12 @@
       <c r="JA31" s="7">
         <v>100940</v>
       </c>
+      <c r="JB31" s="7">
+        <v>100853</v>
+      </c>
     </row>
-    <row r="32" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+    <row r="32" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28496,9 +28593,12 @@
       <c r="JA32" s="7">
         <v>20977</v>
       </c>
+      <c r="JB32" s="7">
+        <v>22711</v>
+      </c>
     </row>
-    <row r="33" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+    <row r="33" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29279,9 +29379,12 @@
       <c r="JA33" s="7">
         <v>9346</v>
       </c>
+      <c r="JB33" s="7">
+        <v>9517</v>
+      </c>
     </row>
-    <row r="34" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+    <row r="34" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30062,9 +30165,12 @@
       <c r="JA34" s="7">
         <v>42215</v>
       </c>
+      <c r="JB34" s="7">
+        <v>42788</v>
+      </c>
     </row>
-    <row r="35" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+    <row r="35" spans="1:903" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -30845,9 +30951,12 @@
       <c r="JA35" s="7">
         <v>9756</v>
       </c>
+      <c r="JB35" s="7">
+        <v>9742</v>
+      </c>
     </row>
-    <row r="36" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+    <row r="36" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31628,9 +31737,12 @@
       <c r="JA36" s="7">
         <v>49939</v>
       </c>
+      <c r="JB36" s="7">
+        <v>50044</v>
+      </c>
     </row>
-    <row r="37" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:903" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32411,9 +32523,12 @@
       <c r="JA37" s="7">
         <v>58203</v>
       </c>
+      <c r="JB37" s="7">
+        <v>58725</v>
+      </c>
     </row>
-    <row r="38" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+    <row r="38" spans="1:903" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33194,9 +33309,12 @@
       <c r="JA38" s="7">
         <v>22843</v>
       </c>
+      <c r="JB38" s="7">
+        <v>22990</v>
+      </c>
     </row>
-    <row r="39" spans="1:902" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+    <row r="39" spans="1:903" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -33977,9 +34095,12 @@
       <c r="JA39" s="7">
         <v>22143</v>
       </c>
+      <c r="JB39" s="7">
+        <v>22022</v>
+      </c>
     </row>
-    <row r="40" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+    <row r="40" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -34760,9 +34881,12 @@
       <c r="JA40" s="7">
         <v>11900</v>
       </c>
+      <c r="JB40" s="7">
+        <v>12013</v>
+      </c>
     </row>
-    <row r="41" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+    <row r="41" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35543,9 +35667,12 @@
       <c r="JA41" s="7">
         <v>11763</v>
       </c>
+      <c r="JB41" s="7">
+        <v>11616</v>
+      </c>
     </row>
-    <row r="42" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+    <row r="42" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36326,9 +36453,12 @@
       <c r="JA42" s="7">
         <v>42321</v>
       </c>
+      <c r="JB42" s="7">
+        <v>42539</v>
+      </c>
     </row>
-    <row r="43" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+    <row r="43" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37109,9 +37239,12 @@
       <c r="JA43" s="7">
         <v>5061</v>
       </c>
+      <c r="JB43" s="7">
+        <v>5090</v>
+      </c>
     </row>
-    <row r="44" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+    <row r="44" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -37892,9 +38025,12 @@
       <c r="JA44" s="7">
         <v>5480</v>
       </c>
+      <c r="JB44" s="7">
+        <v>5588</v>
+      </c>
     </row>
-    <row r="45" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+    <row r="45" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38675,9 +38811,12 @@
       <c r="JA45" s="7">
         <v>6481</v>
       </c>
+      <c r="JB45" s="28">
+        <v>6578</v>
+      </c>
     </row>
-    <row r="46" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+    <row r="46" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39458,9 +39597,12 @@
       <c r="JA46" s="7">
         <v>12080</v>
       </c>
+      <c r="JB46" s="7">
+        <v>12304</v>
+      </c>
     </row>
-    <row r="47" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40241,9 +40383,12 @@
       <c r="JA47" s="7">
         <v>1170</v>
       </c>
+      <c r="JB47" s="7">
+        <v>1722</v>
+      </c>
     </row>
-    <row r="48" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41025,7 +41170,10 @@
         <f>SUM(JA28:JA47)</f>
         <v>473006</v>
       </c>
-      <c r="JB48" s="29"/>
+      <c r="JB48" s="10">
+        <f>SUM(JB28:JB47)</f>
+        <v>477017</v>
+      </c>
       <c r="JC48" s="29"/>
       <c r="JD48" s="29"/>
       <c r="JE48" s="29"/>
@@ -41485,7 +41633,7 @@
       <c r="AAQ48" s="29"/>
       <c r="AAR48" s="29"/>
       <c r="AAS48" s="29"/>
-      <c r="AAT48" s="5"/>
+      <c r="AAT48" s="29"/>
       <c r="AAU48" s="5"/>
       <c r="AAV48" s="5"/>
       <c r="AAW48" s="5"/>
@@ -41666,9 +41814,10 @@
       <c r="AHP48" s="5"/>
       <c r="AHQ48" s="5"/>
       <c r="AHR48" s="5"/>
+      <c r="AHS48" s="5"/>
     </row>
-    <row r="49" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+    <row r="49" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42451,9 +42600,12 @@
       <c r="JA49" s="7">
         <v>19</v>
       </c>
+      <c r="JB49" s="7">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43234,9 +43386,12 @@
       <c r="JA50" s="7">
         <v>1</v>
       </c>
+      <c r="JB50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:261" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+    <row r="51" spans="1:262" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44017,9 +44172,12 @@
       <c r="JA51" s="7">
         <v>1494</v>
       </c>
+      <c r="JB51" s="7">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="52" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -44800,9 +44958,12 @@
       <c r="JA52" s="7">
         <v>1063</v>
       </c>
+      <c r="JB52" s="7">
+        <v>1118</v>
+      </c>
     </row>
-    <row r="53" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+    <row r="53" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -45584,9 +45745,13 @@
         <f>SUM(JA49:JA52)</f>
         <v>2577</v>
       </c>
+      <c r="JB53" s="10">
+        <f>SUM(JB49:JB52)</f>
+        <v>2692</v>
+      </c>
     </row>
-    <row r="54" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="54" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46369,9 +46534,12 @@
       <c r="JA54" s="7">
         <v>5720</v>
       </c>
+      <c r="JB54" s="7">
+        <v>5748</v>
+      </c>
     </row>
-    <row r="55" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+    <row r="55" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -47152,9 +47320,12 @@
       <c r="JA55" s="7">
         <v>51039</v>
       </c>
+      <c r="JB55" s="7">
+        <v>50635</v>
+      </c>
     </row>
-    <row r="56" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -47935,9 +48106,12 @@
       <c r="JA56" s="7">
         <v>6963</v>
       </c>
+      <c r="JB56" s="7">
+        <v>6418</v>
+      </c>
     </row>
-    <row r="57" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -48718,9 +48892,12 @@
       <c r="JA57" s="7">
         <v>189751</v>
       </c>
+      <c r="JB57" s="7">
+        <v>189184</v>
+      </c>
     </row>
-    <row r="58" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -49501,9 +49678,12 @@
       <c r="JA58" s="7">
         <v>30431</v>
       </c>
+      <c r="JB58" s="7">
+        <v>30201</v>
+      </c>
     </row>
-    <row r="59" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+    <row r="59" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50284,9 +50464,12 @@
       <c r="JA59" s="7">
         <v>5576</v>
       </c>
+      <c r="JB59" s="36">
+        <v>5737</v>
+      </c>
     </row>
-    <row r="60" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+    <row r="60" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -51067,9 +51250,12 @@
       <c r="JA60" s="7">
         <v>41889</v>
       </c>
+      <c r="JB60" s="7">
+        <v>43980</v>
+      </c>
     </row>
-    <row r="61" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+    <row r="61" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -51850,9 +52036,12 @@
       <c r="JA61" s="7">
         <v>132</v>
       </c>
+      <c r="JB61" s="7">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+    <row r="62" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -52633,9 +52822,12 @@
       <c r="JA62" s="7">
         <v>19171</v>
       </c>
+      <c r="JB62" s="7">
+        <v>19397</v>
+      </c>
     </row>
-    <row r="63" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+    <row r="63" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53416,9 +53608,12 @@
       <c r="JA63" s="7">
         <v>31766</v>
       </c>
+      <c r="JB63" s="7">
+        <v>32423</v>
+      </c>
     </row>
-    <row r="64" spans="1:261" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:262" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54199,9 +54394,12 @@
       <c r="JA64" s="7">
         <v>47486</v>
       </c>
+      <c r="JB64" s="7">
+        <v>46958</v>
+      </c>
     </row>
-    <row r="65" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+    <row r="65" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -54982,9 +55180,12 @@
       <c r="JA65" s="7">
         <v>167923</v>
       </c>
+      <c r="JB65" s="7">
+        <v>166229</v>
+      </c>
     </row>
-    <row r="66" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+    <row r="66" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -55765,9 +55966,12 @@
       <c r="JA66" s="7">
         <v>16199</v>
       </c>
+      <c r="JB66" s="7">
+        <v>15878</v>
+      </c>
     </row>
-    <row r="67" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+    <row r="67" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -56548,9 +56752,12 @@
       <c r="JA67" s="7">
         <v>6467</v>
       </c>
+      <c r="JB67" s="7">
+        <v>6218</v>
+      </c>
     </row>
-    <row r="68" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+    <row r="68" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -57332,7 +57539,10 @@
         <f>SUM(JA54:JA67)</f>
         <v>620513</v>
       </c>
-      <c r="JB68" s="29"/>
+      <c r="JB68" s="10">
+        <f>SUM(JB54:JB67)</f>
+        <v>619137</v>
+      </c>
       <c r="JC68" s="29"/>
       <c r="JD68" s="29"/>
       <c r="JE68" s="29"/>
@@ -57792,7 +58002,7 @@
       <c r="AAQ68" s="29"/>
       <c r="AAR68" s="29"/>
       <c r="AAS68" s="29"/>
-      <c r="AAT68" s="5"/>
+      <c r="AAT68" s="29"/>
       <c r="AAU68" s="5"/>
       <c r="AAV68" s="5"/>
       <c r="AAW68" s="5"/>
@@ -57973,9 +58183,10 @@
       <c r="AHP68" s="5"/>
       <c r="AHQ68" s="5"/>
       <c r="AHR68" s="5"/>
+      <c r="AHS68" s="5"/>
     </row>
-    <row r="69" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+    <row r="69" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A69" s="41" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -58758,9 +58969,12 @@
       <c r="JA69" s="7">
         <v>8880</v>
       </c>
+      <c r="JB69" s="7">
+        <v>9137</v>
+      </c>
     </row>
-    <row r="70" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+    <row r="70" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -59541,9 +59755,12 @@
       <c r="JA70" s="7">
         <v>649</v>
       </c>
+      <c r="JB70" s="7">
+        <v>595</v>
+      </c>
     </row>
-    <row r="71" spans="1:902" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+    <row r="71" spans="1:903" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -60324,9 +60541,12 @@
       <c r="JA71" s="7">
         <v>28377</v>
       </c>
+      <c r="JB71" s="7">
+        <v>29080</v>
+      </c>
     </row>
-    <row r="72" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+    <row r="72" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -61107,9 +61327,12 @@
       <c r="JA72" s="7">
         <v>3123</v>
       </c>
+      <c r="JB72" s="7">
+        <v>3236</v>
+      </c>
     </row>
-    <row r="73" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+    <row r="73" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -61890,9 +62113,12 @@
       <c r="JA73" s="7">
         <v>457</v>
       </c>
+      <c r="JB73" s="7">
+        <v>514</v>
+      </c>
     </row>
-    <row r="74" spans="1:902" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+    <row r="74" spans="1:903" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -62673,9 +62899,12 @@
       <c r="JA74" s="7">
         <v>51769</v>
       </c>
+      <c r="JB74" s="7">
+        <v>51770</v>
+      </c>
     </row>
-    <row r="75" spans="1:902" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+    <row r="75" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -63457,7 +63686,10 @@
         <f>SUM(JA69:JA74)</f>
         <v>93255</v>
       </c>
-      <c r="JB75" s="29"/>
+      <c r="JB75" s="10">
+        <f>SUM(JB69:JB74)</f>
+        <v>94332</v>
+      </c>
       <c r="JC75" s="29"/>
       <c r="JD75" s="29"/>
       <c r="JE75" s="29"/>
@@ -63917,7 +64149,7 @@
       <c r="AAQ75" s="29"/>
       <c r="AAR75" s="29"/>
       <c r="AAS75" s="29"/>
-      <c r="AAT75" s="5"/>
+      <c r="AAT75" s="29"/>
       <c r="AAU75" s="5"/>
       <c r="AAV75" s="5"/>
       <c r="AAW75" s="5"/>
@@ -64098,8 +64330,9 @@
       <c r="AHP75" s="5"/>
       <c r="AHQ75" s="5"/>
       <c r="AHR75" s="5"/>
+      <c r="AHS75" s="5"/>
     </row>
-    <row r="76" spans="1:902" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:903" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -64883,8 +65116,13 @@
         <f>JA11+JA21+JA24+JA27+JA48+JA53+JA68+JA75</f>
         <v>1826575</v>
       </c>
+      <c r="JB76" s="19">
+        <f>JB11+JB21+JB24+JB27+JB48+JB53+JB68+JB75</f>
+        <v>1837975</v>
+      </c>
+      <c r="JC76" s="35"/>
     </row>
-    <row r="77" spans="1:902" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:903" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -65141,7 +65379,7 @@
       <c r="IY77" s="30"/>
       <c r="IZ77" s="30"/>
       <c r="JA77" s="30"/>
-      <c r="JB77" s="27"/>
+      <c r="JB77" s="30"/>
       <c r="JC77" s="27"/>
       <c r="JD77" s="27"/>
       <c r="JE77" s="27"/>
@@ -65601,8 +65839,9 @@
       <c r="AAQ77" s="27"/>
       <c r="AAR77" s="27"/>
       <c r="AAS77" s="27"/>
+      <c r="AAT77" s="27"/>
     </row>
-    <row r="78" spans="1:902" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:903" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
@@ -65629,6 +65868,7 @@
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
     <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JB4"/>
     <mergeCell ref="DG4:DR4"/>
     <mergeCell ref="HW4:IH4"/>
     <mergeCell ref="HK4:HV4"/>
@@ -65640,7 +65880,6 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="IU4:JA4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="337">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1051,6 +1051,9 @@
   <si>
     <t>2021/Agosto</t>
   </si>
+  <si>
+    <t>2021/Septiembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1655,7 +1658,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1757,6 +1760,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2132,11 +2144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHS78"/>
+  <dimension ref="A1:AHT78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JE10" sqref="JE10"/>
+      <pane xSplit="2" topLeftCell="IS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JE12" sqref="JE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,324 +2410,325 @@
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
-    <col min="263" max="264" width="10.85546875" style="28"/>
-    <col min="265" max="265" width="33.85546875" style="28" customWidth="1"/>
-    <col min="266" max="722" width="10.85546875" style="28"/>
-    <col min="723" max="903" width="10.85546875" style="4"/>
-    <col min="904" max="16384" width="10.85546875" style="3"/>
+    <col min="263" max="263" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="10.85546875" style="28"/>
+    <col min="266" max="266" width="33.85546875" style="28" customWidth="1"/>
+    <col min="267" max="723" width="10.85546875" style="28"/>
+    <col min="724" max="904" width="10.85546875" style="4"/>
+    <col min="905" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:903" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:904" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:903" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:904" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:904" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="43">
         <v>2000</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43">
         <v>2001</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40">
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43">
         <v>2002</v>
       </c>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40">
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43">
         <v>2003</v>
       </c>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40">
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40">
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="43"/>
+      <c r="BF4" s="43"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="43">
         <v>2005</v>
       </c>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40"/>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40">
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="43"/>
+      <c r="BO4" s="43"/>
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="43"/>
+      <c r="BR4" s="43"/>
+      <c r="BS4" s="43"/>
+      <c r="BT4" s="43"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="43"/>
+      <c r="BW4" s="43">
         <v>2006</v>
       </c>
-      <c r="BX4" s="40"/>
-      <c r="BY4" s="40"/>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40"/>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40">
+      <c r="BX4" s="43"/>
+      <c r="BY4" s="43"/>
+      <c r="BZ4" s="43"/>
+      <c r="CA4" s="43"/>
+      <c r="CB4" s="43"/>
+      <c r="CC4" s="43"/>
+      <c r="CD4" s="43"/>
+      <c r="CE4" s="43"/>
+      <c r="CF4" s="43"/>
+      <c r="CG4" s="43"/>
+      <c r="CH4" s="43"/>
+      <c r="CI4" s="43">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="40"/>
-      <c r="CK4" s="40"/>
-      <c r="CL4" s="40"/>
-      <c r="CM4" s="40"/>
-      <c r="CN4" s="40"/>
-      <c r="CO4" s="40"/>
-      <c r="CP4" s="40"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="40"/>
-      <c r="CS4" s="40"/>
-      <c r="CT4" s="40"/>
-      <c r="CU4" s="40">
+      <c r="CJ4" s="43"/>
+      <c r="CK4" s="43"/>
+      <c r="CL4" s="43"/>
+      <c r="CM4" s="43"/>
+      <c r="CN4" s="43"/>
+      <c r="CO4" s="43"/>
+      <c r="CP4" s="43"/>
+      <c r="CQ4" s="43"/>
+      <c r="CR4" s="43"/>
+      <c r="CS4" s="43"/>
+      <c r="CT4" s="43"/>
+      <c r="CU4" s="43">
         <v>2008</v>
       </c>
-      <c r="CV4" s="40"/>
-      <c r="CW4" s="40"/>
-      <c r="CX4" s="40"/>
-      <c r="CY4" s="40"/>
-      <c r="CZ4" s="40"/>
-      <c r="DA4" s="40"/>
-      <c r="DB4" s="40"/>
-      <c r="DC4" s="40"/>
-      <c r="DD4" s="40"/>
-      <c r="DE4" s="40"/>
-      <c r="DF4" s="40"/>
-      <c r="DG4" s="40">
+      <c r="CV4" s="43"/>
+      <c r="CW4" s="43"/>
+      <c r="CX4" s="43"/>
+      <c r="CY4" s="43"/>
+      <c r="CZ4" s="43"/>
+      <c r="DA4" s="43"/>
+      <c r="DB4" s="43"/>
+      <c r="DC4" s="43"/>
+      <c r="DD4" s="43"/>
+      <c r="DE4" s="43"/>
+      <c r="DF4" s="43"/>
+      <c r="DG4" s="43">
         <v>2009</v>
       </c>
-      <c r="DH4" s="40"/>
-      <c r="DI4" s="40"/>
-      <c r="DJ4" s="40"/>
-      <c r="DK4" s="40"/>
-      <c r="DL4" s="40"/>
-      <c r="DM4" s="40"/>
-      <c r="DN4" s="40"/>
-      <c r="DO4" s="40"/>
-      <c r="DP4" s="40"/>
-      <c r="DQ4" s="40"/>
-      <c r="DR4" s="40"/>
-      <c r="DS4" s="40">
+      <c r="DH4" s="43"/>
+      <c r="DI4" s="43"/>
+      <c r="DJ4" s="43"/>
+      <c r="DK4" s="43"/>
+      <c r="DL4" s="43"/>
+      <c r="DM4" s="43"/>
+      <c r="DN4" s="43"/>
+      <c r="DO4" s="43"/>
+      <c r="DP4" s="43"/>
+      <c r="DQ4" s="43"/>
+      <c r="DR4" s="43"/>
+      <c r="DS4" s="43">
         <v>2010</v>
       </c>
-      <c r="DT4" s="40"/>
-      <c r="DU4" s="40"/>
-      <c r="DV4" s="40"/>
-      <c r="DW4" s="40"/>
-      <c r="DX4" s="40"/>
-      <c r="DY4" s="40"/>
-      <c r="DZ4" s="40"/>
-      <c r="EA4" s="40"/>
-      <c r="EB4" s="40"/>
-      <c r="EC4" s="40"/>
-      <c r="ED4" s="40"/>
-      <c r="EE4" s="40">
+      <c r="DT4" s="43"/>
+      <c r="DU4" s="43"/>
+      <c r="DV4" s="43"/>
+      <c r="DW4" s="43"/>
+      <c r="DX4" s="43"/>
+      <c r="DY4" s="43"/>
+      <c r="DZ4" s="43"/>
+      <c r="EA4" s="43"/>
+      <c r="EB4" s="43"/>
+      <c r="EC4" s="43"/>
+      <c r="ED4" s="43"/>
+      <c r="EE4" s="43">
         <v>2011</v>
       </c>
-      <c r="EF4" s="40"/>
-      <c r="EG4" s="40"/>
-      <c r="EH4" s="40"/>
-      <c r="EI4" s="40"/>
-      <c r="EJ4" s="40"/>
-      <c r="EK4" s="40"/>
-      <c r="EL4" s="40"/>
-      <c r="EM4" s="40"/>
-      <c r="EN4" s="40"/>
-      <c r="EO4" s="40"/>
-      <c r="EP4" s="40"/>
-      <c r="EQ4" s="40">
+      <c r="EF4" s="43"/>
+      <c r="EG4" s="43"/>
+      <c r="EH4" s="43"/>
+      <c r="EI4" s="43"/>
+      <c r="EJ4" s="43"/>
+      <c r="EK4" s="43"/>
+      <c r="EL4" s="43"/>
+      <c r="EM4" s="43"/>
+      <c r="EN4" s="43"/>
+      <c r="EO4" s="43"/>
+      <c r="EP4" s="43"/>
+      <c r="EQ4" s="43">
         <v>2012</v>
       </c>
-      <c r="ER4" s="40"/>
-      <c r="ES4" s="40"/>
-      <c r="ET4" s="40"/>
-      <c r="EU4" s="40"/>
-      <c r="EV4" s="40"/>
-      <c r="EW4" s="40"/>
-      <c r="EX4" s="40"/>
-      <c r="EY4" s="40"/>
-      <c r="EZ4" s="40"/>
-      <c r="FA4" s="40"/>
-      <c r="FB4" s="40"/>
-      <c r="FC4" s="40">
+      <c r="ER4" s="43"/>
+      <c r="ES4" s="43"/>
+      <c r="ET4" s="43"/>
+      <c r="EU4" s="43"/>
+      <c r="EV4" s="43"/>
+      <c r="EW4" s="43"/>
+      <c r="EX4" s="43"/>
+      <c r="EY4" s="43"/>
+      <c r="EZ4" s="43"/>
+      <c r="FA4" s="43"/>
+      <c r="FB4" s="43"/>
+      <c r="FC4" s="43">
         <v>2013</v>
       </c>
-      <c r="FD4" s="40"/>
-      <c r="FE4" s="40"/>
-      <c r="FF4" s="40"/>
-      <c r="FG4" s="40"/>
-      <c r="FH4" s="40"/>
-      <c r="FI4" s="40"/>
-      <c r="FJ4" s="40"/>
-      <c r="FK4" s="40"/>
-      <c r="FL4" s="40"/>
-      <c r="FM4" s="40"/>
-      <c r="FN4" s="40"/>
-      <c r="FO4" s="40">
+      <c r="FD4" s="43"/>
+      <c r="FE4" s="43"/>
+      <c r="FF4" s="43"/>
+      <c r="FG4" s="43"/>
+      <c r="FH4" s="43"/>
+      <c r="FI4" s="43"/>
+      <c r="FJ4" s="43"/>
+      <c r="FK4" s="43"/>
+      <c r="FL4" s="43"/>
+      <c r="FM4" s="43"/>
+      <c r="FN4" s="43"/>
+      <c r="FO4" s="43">
         <v>2014</v>
       </c>
-      <c r="FP4" s="40"/>
-      <c r="FQ4" s="40"/>
-      <c r="FR4" s="40"/>
-      <c r="FS4" s="40"/>
-      <c r="FT4" s="40"/>
-      <c r="FU4" s="40"/>
-      <c r="FV4" s="40"/>
-      <c r="FW4" s="40"/>
-      <c r="FX4" s="40"/>
-      <c r="FY4" s="40"/>
-      <c r="FZ4" s="40"/>
-      <c r="GA4" s="40">
+      <c r="FP4" s="43"/>
+      <c r="FQ4" s="43"/>
+      <c r="FR4" s="43"/>
+      <c r="FS4" s="43"/>
+      <c r="FT4" s="43"/>
+      <c r="FU4" s="43"/>
+      <c r="FV4" s="43"/>
+      <c r="FW4" s="43"/>
+      <c r="FX4" s="43"/>
+      <c r="FY4" s="43"/>
+      <c r="FZ4" s="43"/>
+      <c r="GA4" s="43">
         <v>2015</v>
       </c>
-      <c r="GB4" s="40"/>
-      <c r="GC4" s="40"/>
-      <c r="GD4" s="40"/>
-      <c r="GE4" s="40"/>
-      <c r="GF4" s="40"/>
-      <c r="GG4" s="40"/>
-      <c r="GH4" s="40"/>
-      <c r="GI4" s="40"/>
-      <c r="GJ4" s="40"/>
-      <c r="GK4" s="40"/>
-      <c r="GL4" s="40"/>
-      <c r="GM4" s="40">
+      <c r="GB4" s="43"/>
+      <c r="GC4" s="43"/>
+      <c r="GD4" s="43"/>
+      <c r="GE4" s="43"/>
+      <c r="GF4" s="43"/>
+      <c r="GG4" s="43"/>
+      <c r="GH4" s="43"/>
+      <c r="GI4" s="43"/>
+      <c r="GJ4" s="43"/>
+      <c r="GK4" s="43"/>
+      <c r="GL4" s="43"/>
+      <c r="GM4" s="43">
         <v>2016</v>
       </c>
-      <c r="GN4" s="40"/>
-      <c r="GO4" s="40"/>
-      <c r="GP4" s="40"/>
-      <c r="GQ4" s="40"/>
-      <c r="GR4" s="40"/>
-      <c r="GS4" s="40"/>
-      <c r="GT4" s="40"/>
-      <c r="GU4" s="40"/>
-      <c r="GV4" s="40"/>
-      <c r="GW4" s="40"/>
-      <c r="GX4" s="40"/>
-      <c r="GY4" s="40">
+      <c r="GN4" s="43"/>
+      <c r="GO4" s="43"/>
+      <c r="GP4" s="43"/>
+      <c r="GQ4" s="43"/>
+      <c r="GR4" s="43"/>
+      <c r="GS4" s="43"/>
+      <c r="GT4" s="43"/>
+      <c r="GU4" s="43"/>
+      <c r="GV4" s="43"/>
+      <c r="GW4" s="43"/>
+      <c r="GX4" s="43"/>
+      <c r="GY4" s="43">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="40"/>
-      <c r="HA4" s="40"/>
-      <c r="HB4" s="40"/>
-      <c r="HC4" s="40"/>
-      <c r="HD4" s="40"/>
-      <c r="HE4" s="40"/>
-      <c r="HF4" s="40"/>
-      <c r="HG4" s="40"/>
-      <c r="HH4" s="40"/>
-      <c r="HI4" s="40"/>
-      <c r="HJ4" s="40"/>
-      <c r="HK4" s="40">
+      <c r="GZ4" s="43"/>
+      <c r="HA4" s="43"/>
+      <c r="HB4" s="43"/>
+      <c r="HC4" s="43"/>
+      <c r="HD4" s="43"/>
+      <c r="HE4" s="43"/>
+      <c r="HF4" s="43"/>
+      <c r="HG4" s="43"/>
+      <c r="HH4" s="43"/>
+      <c r="HI4" s="43"/>
+      <c r="HJ4" s="43"/>
+      <c r="HK4" s="43">
         <v>2018</v>
       </c>
-      <c r="HL4" s="40"/>
-      <c r="HM4" s="40"/>
-      <c r="HN4" s="40"/>
-      <c r="HO4" s="40"/>
-      <c r="HP4" s="40"/>
-      <c r="HQ4" s="40"/>
-      <c r="HR4" s="40"/>
-      <c r="HS4" s="40"/>
-      <c r="HT4" s="40"/>
-      <c r="HU4" s="40"/>
-      <c r="HV4" s="40"/>
-      <c r="HW4" s="40">
+      <c r="HL4" s="43"/>
+      <c r="HM4" s="43"/>
+      <c r="HN4" s="43"/>
+      <c r="HO4" s="43"/>
+      <c r="HP4" s="43"/>
+      <c r="HQ4" s="43"/>
+      <c r="HR4" s="43"/>
+      <c r="HS4" s="43"/>
+      <c r="HT4" s="43"/>
+      <c r="HU4" s="43"/>
+      <c r="HV4" s="43"/>
+      <c r="HW4" s="43">
         <v>2019</v>
       </c>
-      <c r="HX4" s="40"/>
-      <c r="HY4" s="40"/>
-      <c r="HZ4" s="40"/>
-      <c r="IA4" s="40"/>
-      <c r="IB4" s="40"/>
-      <c r="IC4" s="40"/>
-      <c r="ID4" s="40"/>
-      <c r="IE4" s="40"/>
-      <c r="IF4" s="40"/>
-      <c r="IG4" s="40"/>
-      <c r="IH4" s="37"/>
-      <c r="II4" s="37">
+      <c r="HX4" s="43"/>
+      <c r="HY4" s="43"/>
+      <c r="HZ4" s="43"/>
+      <c r="IA4" s="43"/>
+      <c r="IB4" s="43"/>
+      <c r="IC4" s="43"/>
+      <c r="ID4" s="43"/>
+      <c r="IE4" s="43"/>
+      <c r="IF4" s="43"/>
+      <c r="IG4" s="43"/>
+      <c r="IH4" s="40"/>
+      <c r="II4" s="40">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="38"/>
-      <c r="IK4" s="38"/>
-      <c r="IL4" s="38"/>
-      <c r="IM4" s="38"/>
-      <c r="IN4" s="38"/>
-      <c r="IO4" s="38"/>
-      <c r="IP4" s="38"/>
-      <c r="IQ4" s="38"/>
-      <c r="IR4" s="38"/>
-      <c r="IS4" s="38"/>
-      <c r="IT4" s="39"/>
+      <c r="IJ4" s="41"/>
+      <c r="IK4" s="41"/>
+      <c r="IL4" s="41"/>
+      <c r="IM4" s="41"/>
+      <c r="IN4" s="41"/>
+      <c r="IO4" s="41"/>
+      <c r="IP4" s="41"/>
+      <c r="IQ4" s="41"/>
+      <c r="IR4" s="41"/>
+      <c r="IS4" s="41"/>
+      <c r="IT4" s="42"/>
       <c r="IU4" s="37">
         <v>2021</v>
       </c>
@@ -2725,8 +2738,8 @@
       <c r="IY4" s="38"/>
       <c r="IZ4" s="38"/>
       <c r="JA4" s="38"/>
-      <c r="JB4" s="39"/>
-      <c r="JC4" s="29"/>
+      <c r="JB4" s="38"/>
+      <c r="JC4" s="39"/>
       <c r="JD4" s="29"/>
       <c r="JE4" s="29"/>
       <c r="JF4" s="29"/>
@@ -3186,7 +3199,7 @@
       <c r="AAR4" s="29"/>
       <c r="AAS4" s="29"/>
       <c r="AAT4" s="29"/>
-      <c r="AAU4" s="5"/>
+      <c r="AAU4" s="29"/>
       <c r="AAV4" s="5"/>
       <c r="AAW4" s="5"/>
       <c r="AAX4" s="5"/>
@@ -3367,10 +3380,11 @@
       <c r="AHQ4" s="5"/>
       <c r="AHR4" s="5"/>
       <c r="AHS4" s="5"/>
+      <c r="AHT4" s="5"/>
     </row>
-    <row r="5" spans="1:903" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
+    <row r="5" spans="1:904" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4151,7 +4165,9 @@
       <c r="JB5" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="JC5" s="29"/>
+      <c r="JC5" s="31" t="s">
+        <v>336</v>
+      </c>
       <c r="JD5" s="29"/>
       <c r="JE5" s="29"/>
       <c r="JF5" s="29"/>
@@ -4611,7 +4627,7 @@
       <c r="AAR5" s="29"/>
       <c r="AAS5" s="29"/>
       <c r="AAT5" s="29"/>
-      <c r="AAU5" s="5"/>
+      <c r="AAU5" s="29"/>
       <c r="AAV5" s="5"/>
       <c r="AAW5" s="5"/>
       <c r="AAX5" s="5"/>
@@ -4792,9 +4808,10 @@
       <c r="AHQ5" s="5"/>
       <c r="AHR5" s="5"/>
       <c r="AHS5" s="5"/>
+      <c r="AHT5" s="5"/>
     </row>
-    <row r="6" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5580,9 +5597,12 @@
       <c r="JB6" s="7">
         <v>87987</v>
       </c>
+      <c r="JC6" s="7">
+        <v>90653</v>
+      </c>
     </row>
-    <row r="7" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+    <row r="7" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6366,9 +6386,12 @@
       <c r="JB7" s="7">
         <v>45</v>
       </c>
+      <c r="JC7" s="7">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+    <row r="8" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7152,9 +7175,12 @@
       <c r="JB8" s="7">
         <v>23429</v>
       </c>
+      <c r="JC8" s="7">
+        <v>23376</v>
+      </c>
     </row>
-    <row r="9" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7938,9 +7964,12 @@
       <c r="JB9" s="7">
         <v>710</v>
       </c>
+      <c r="JC9" s="7">
+        <v>574</v>
+      </c>
     </row>
-    <row r="10" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8724,9 +8753,12 @@
       <c r="JB10" s="7">
         <v>441</v>
       </c>
+      <c r="JC10" s="7">
+        <v>396</v>
+      </c>
     </row>
-    <row r="11" spans="1:903" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+    <row r="11" spans="1:904" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9509,10 +9541,11 @@
         <v>108146</v>
       </c>
       <c r="JB11" s="10">
-        <f>SUM(JB6:JB10)</f>
         <v>112612</v>
       </c>
-      <c r="JC11" s="29"/>
+      <c r="JC11" s="10">
+        <v>115046</v>
+      </c>
       <c r="JD11" s="29"/>
       <c r="JE11" s="29"/>
       <c r="JF11" s="29"/>
@@ -9972,7 +10005,7 @@
       <c r="AAR11" s="29"/>
       <c r="AAS11" s="29"/>
       <c r="AAT11" s="29"/>
-      <c r="AAU11" s="5"/>
+      <c r="AAU11" s="29"/>
       <c r="AAV11" s="5"/>
       <c r="AAW11" s="5"/>
       <c r="AAX11" s="5"/>
@@ -10153,9 +10186,10 @@
       <c r="AHQ11" s="5"/>
       <c r="AHR11" s="5"/>
       <c r="AHS11" s="5"/>
+      <c r="AHT11" s="5"/>
     </row>
-    <row r="12" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10941,9 +10975,12 @@
       <c r="JB12" s="7">
         <v>76885</v>
       </c>
+      <c r="JC12" s="7">
+        <v>76606</v>
+      </c>
     </row>
-    <row r="13" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11727,9 +11764,12 @@
       <c r="JB13" s="7">
         <v>19831</v>
       </c>
+      <c r="JC13" s="7">
+        <v>19673</v>
+      </c>
     </row>
-    <row r="14" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12513,9 +12553,12 @@
       <c r="JB14" s="7">
         <v>28012</v>
       </c>
+      <c r="JC14" s="7">
+        <v>29228</v>
+      </c>
     </row>
-    <row r="15" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13299,9 +13342,12 @@
       <c r="JB15" s="7">
         <v>24042</v>
       </c>
+      <c r="JC15" s="7">
+        <v>23877</v>
+      </c>
     </row>
-    <row r="16" spans="1:903" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:904" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14085,9 +14131,12 @@
       <c r="JB16" s="7">
         <v>16100</v>
       </c>
+      <c r="JC16" s="7">
+        <v>16568</v>
+      </c>
     </row>
-    <row r="17" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+    <row r="17" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14871,9 +14920,12 @@
       <c r="JB17" s="7">
         <v>45684</v>
       </c>
+      <c r="JC17" s="7">
+        <v>46379</v>
+      </c>
     </row>
-    <row r="18" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15657,9 +15709,12 @@
       <c r="JB18" s="7">
         <v>57990</v>
       </c>
+      <c r="JC18" s="7">
+        <v>58267</v>
+      </c>
     </row>
-    <row r="19" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+    <row r="19" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16443,9 +16498,12 @@
       <c r="JB19" s="7">
         <v>67249</v>
       </c>
+      <c r="JC19" s="7">
+        <v>67461</v>
+      </c>
     </row>
-    <row r="20" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+    <row r="20" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17229,9 +17287,12 @@
       <c r="JB20" s="7">
         <v>47177</v>
       </c>
+      <c r="JC20" s="7">
+        <v>47415</v>
+      </c>
     </row>
-    <row r="21" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+    <row r="21" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18014,10 +18075,11 @@
         <v>382052</v>
       </c>
       <c r="JB21" s="10">
-        <f>SUM(JB12:JB20)</f>
         <v>382970</v>
       </c>
-      <c r="JC21" s="29"/>
+      <c r="JC21" s="10">
+        <v>385474</v>
+      </c>
       <c r="JD21" s="29"/>
       <c r="JE21" s="29"/>
       <c r="JF21" s="29"/>
@@ -18477,7 +18539,7 @@
       <c r="AAR21" s="29"/>
       <c r="AAS21" s="29"/>
       <c r="AAT21" s="29"/>
-      <c r="AAU21" s="5"/>
+      <c r="AAU21" s="29"/>
       <c r="AAV21" s="5"/>
       <c r="AAW21" s="5"/>
       <c r="AAX21" s="5"/>
@@ -18658,9 +18720,10 @@
       <c r="AHQ21" s="5"/>
       <c r="AHR21" s="5"/>
       <c r="AHS21" s="5"/>
+      <c r="AHT21" s="5"/>
     </row>
-    <row r="22" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19446,9 +19509,12 @@
       <c r="JB22" s="7">
         <v>105012</v>
       </c>
+      <c r="JC22" s="7">
+        <v>105564</v>
+      </c>
     </row>
-    <row r="23" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20232,9 +20298,12 @@
       <c r="JB23" s="7">
         <v>34591</v>
       </c>
+      <c r="JC23" s="7">
+        <v>35248</v>
+      </c>
     </row>
-    <row r="24" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+    <row r="24" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21017,10 +21086,11 @@
         <v>137423</v>
       </c>
       <c r="JB24" s="10">
-        <f>SUM(JB22:JB23)</f>
         <v>139603</v>
       </c>
-      <c r="JC24" s="29"/>
+      <c r="JC24" s="10">
+        <v>140812</v>
+      </c>
       <c r="JD24" s="29"/>
       <c r="JE24" s="29"/>
       <c r="JF24" s="29"/>
@@ -21480,7 +21550,7 @@
       <c r="AAR24" s="29"/>
       <c r="AAS24" s="29"/>
       <c r="AAT24" s="29"/>
-      <c r="AAU24" s="5"/>
+      <c r="AAU24" s="29"/>
       <c r="AAV24" s="5"/>
       <c r="AAW24" s="5"/>
       <c r="AAX24" s="5"/>
@@ -21661,9 +21731,10 @@
       <c r="AHQ24" s="5"/>
       <c r="AHR24" s="5"/>
       <c r="AHS24" s="5"/>
+      <c r="AHT24" s="5"/>
     </row>
-    <row r="25" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22449,9 +22520,12 @@
       <c r="JB25" s="7">
         <v>4159</v>
       </c>
+      <c r="JC25" s="7">
+        <v>4170</v>
+      </c>
     </row>
-    <row r="26" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+    <row r="26" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23235,9 +23309,12 @@
       <c r="JB26" s="7">
         <v>5453</v>
       </c>
+      <c r="JC26" s="7">
+        <v>5392</v>
+      </c>
     </row>
-    <row r="27" spans="1:903" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+    <row r="27" spans="1:904" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24020,10 +24097,11 @@
         <v>9603</v>
       </c>
       <c r="JB27" s="10">
-        <f>SUM(JB25:JB26)</f>
         <v>9612</v>
       </c>
-      <c r="JC27" s="29"/>
+      <c r="JC27" s="10">
+        <v>9562</v>
+      </c>
       <c r="JD27" s="29"/>
       <c r="JE27" s="29"/>
       <c r="JF27" s="29"/>
@@ -24483,7 +24561,7 @@
       <c r="AAR27" s="29"/>
       <c r="AAS27" s="29"/>
       <c r="AAT27" s="29"/>
-      <c r="AAU27" s="5"/>
+      <c r="AAU27" s="29"/>
       <c r="AAV27" s="5"/>
       <c r="AAW27" s="5"/>
       <c r="AAX27" s="5"/>
@@ -24664,9 +24742,10 @@
       <c r="AHQ27" s="5"/>
       <c r="AHR27" s="5"/>
       <c r="AHS27" s="5"/>
+      <c r="AHT27" s="5"/>
     </row>
-    <row r="28" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25452,9 +25531,12 @@
       <c r="JB28" s="7">
         <v>1292</v>
       </c>
+      <c r="JC28" s="7">
+        <v>807</v>
+      </c>
     </row>
-    <row r="29" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+    <row r="29" spans="1:904" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26238,9 +26320,12 @@
       <c r="JB29" s="7">
         <v>10180</v>
       </c>
+      <c r="JC29" s="7">
+        <v>10360</v>
+      </c>
     </row>
-    <row r="30" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+    <row r="30" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27024,9 +27109,12 @@
       <c r="JB30" s="7">
         <v>28703</v>
       </c>
+      <c r="JC30" s="7">
+        <v>28546</v>
+      </c>
     </row>
-    <row r="31" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+    <row r="31" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27810,9 +27898,12 @@
       <c r="JB31" s="7">
         <v>100853</v>
       </c>
+      <c r="JC31" s="7">
+        <v>101456</v>
+      </c>
     </row>
-    <row r="32" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+    <row r="32" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28596,9 +28687,12 @@
       <c r="JB32" s="7">
         <v>22711</v>
       </c>
+      <c r="JC32" s="7">
+        <v>23239</v>
+      </c>
     </row>
-    <row r="33" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+    <row r="33" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29382,9 +29476,12 @@
       <c r="JB33" s="7">
         <v>9517</v>
       </c>
+      <c r="JC33" s="7">
+        <v>9477</v>
+      </c>
     </row>
-    <row r="34" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+    <row r="34" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30168,9 +30265,12 @@
       <c r="JB34" s="7">
         <v>42788</v>
       </c>
+      <c r="JC34" s="7">
+        <v>43064</v>
+      </c>
     </row>
-    <row r="35" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+    <row r="35" spans="1:904" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -30954,9 +31054,12 @@
       <c r="JB35" s="7">
         <v>9742</v>
       </c>
+      <c r="JC35" s="7">
+        <v>9890</v>
+      </c>
     </row>
-    <row r="36" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+    <row r="36" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31740,9 +31843,12 @@
       <c r="JB36" s="7">
         <v>50044</v>
       </c>
+      <c r="JC36" s="7">
+        <v>50938</v>
+      </c>
     </row>
-    <row r="37" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+    <row r="37" spans="1:904" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32526,9 +32632,12 @@
       <c r="JB37" s="7">
         <v>58725</v>
       </c>
+      <c r="JC37" s="7">
+        <v>59020</v>
+      </c>
     </row>
-    <row r="38" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+    <row r="38" spans="1:904" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33312,9 +33421,12 @@
       <c r="JB38" s="7">
         <v>22990</v>
       </c>
+      <c r="JC38" s="7">
+        <v>23100</v>
+      </c>
     </row>
-    <row r="39" spans="1:903" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+    <row r="39" spans="1:904" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="44"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34098,9 +34210,12 @@
       <c r="JB39" s="7">
         <v>22022</v>
       </c>
+      <c r="JC39" s="7">
+        <v>22605</v>
+      </c>
     </row>
-    <row r="40" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+    <row r="40" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A40" s="44"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -34884,9 +34999,12 @@
       <c r="JB40" s="7">
         <v>12013</v>
       </c>
+      <c r="JC40" s="7">
+        <v>12153</v>
+      </c>
     </row>
-    <row r="41" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+    <row r="41" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A41" s="44"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35670,9 +35788,12 @@
       <c r="JB41" s="7">
         <v>11616</v>
       </c>
+      <c r="JC41" s="7">
+        <v>11464</v>
+      </c>
     </row>
-    <row r="42" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+    <row r="42" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A42" s="44"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36456,9 +36577,12 @@
       <c r="JB42" s="7">
         <v>42539</v>
       </c>
+      <c r="JC42" s="7">
+        <v>42777</v>
+      </c>
     </row>
-    <row r="43" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+    <row r="43" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A43" s="44"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37242,9 +37366,12 @@
       <c r="JB43" s="7">
         <v>5090</v>
       </c>
+      <c r="JC43" s="7">
+        <v>4967</v>
+      </c>
     </row>
-    <row r="44" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+    <row r="44" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38028,9 +38155,12 @@
       <c r="JB44" s="7">
         <v>5588</v>
       </c>
+      <c r="JC44" s="7">
+        <v>5701</v>
+      </c>
     </row>
-    <row r="45" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+    <row r="45" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38811,12 +38941,15 @@
       <c r="JA45" s="7">
         <v>6481</v>
       </c>
-      <c r="JB45" s="28">
+      <c r="JB45" s="30">
         <v>6578</v>
       </c>
+      <c r="JC45" s="28">
+        <v>6305</v>
+      </c>
     </row>
-    <row r="46" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+    <row r="46" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39600,9 +39733,12 @@
       <c r="JB46" s="7">
         <v>12304</v>
       </c>
+      <c r="JC46" s="7">
+        <v>12446</v>
+      </c>
     </row>
-    <row r="47" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+    <row r="47" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40386,9 +40522,12 @@
       <c r="JB47" s="7">
         <v>1722</v>
       </c>
+      <c r="JC47" s="7">
+        <v>1748</v>
+      </c>
     </row>
-    <row r="48" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+    <row r="48" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41171,10 +41310,11 @@
         <v>473006</v>
       </c>
       <c r="JB48" s="10">
-        <f>SUM(JB28:JB47)</f>
         <v>477017</v>
       </c>
-      <c r="JC48" s="29"/>
+      <c r="JC48" s="10">
+        <v>480063</v>
+      </c>
       <c r="JD48" s="29"/>
       <c r="JE48" s="29"/>
       <c r="JF48" s="29"/>
@@ -41634,7 +41774,7 @@
       <c r="AAR48" s="29"/>
       <c r="AAS48" s="29"/>
       <c r="AAT48" s="29"/>
-      <c r="AAU48" s="5"/>
+      <c r="AAU48" s="29"/>
       <c r="AAV48" s="5"/>
       <c r="AAW48" s="5"/>
       <c r="AAX48" s="5"/>
@@ -41815,9 +41955,10 @@
       <c r="AHQ48" s="5"/>
       <c r="AHR48" s="5"/>
       <c r="AHS48" s="5"/>
+      <c r="AHT48" s="5"/>
     </row>
-    <row r="49" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42603,9 +42744,12 @@
       <c r="JB49" s="7">
         <v>18</v>
       </c>
+      <c r="JC49" s="7">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+    <row r="50" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43389,9 +43533,12 @@
       <c r="JB50" s="7">
         <v>1</v>
       </c>
+      <c r="JC50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:262" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+    <row r="51" spans="1:263" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44175,9 +44322,12 @@
       <c r="JB51" s="7">
         <v>1555</v>
       </c>
+      <c r="JC51" s="7">
+        <v>1516</v>
+      </c>
     </row>
-    <row r="52" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+    <row r="52" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -44961,9 +45111,12 @@
       <c r="JB52" s="7">
         <v>1118</v>
       </c>
+      <c r="JC52" s="7">
+        <v>1104</v>
+      </c>
     </row>
-    <row r="53" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+    <row r="53" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -45746,12 +45899,14 @@
         <v>2577</v>
       </c>
       <c r="JB53" s="10">
-        <f>SUM(JB49:JB52)</f>
         <v>2692</v>
       </c>
+      <c r="JC53" s="10">
+        <v>2640</v>
+      </c>
     </row>
-    <row r="54" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="41" t="s">
+    <row r="54" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46537,9 +46692,12 @@
       <c r="JB54" s="7">
         <v>5748</v>
       </c>
+      <c r="JC54" s="7">
+        <v>5756</v>
+      </c>
     </row>
-    <row r="55" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+    <row r="55" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -47323,9 +47481,12 @@
       <c r="JB55" s="7">
         <v>50635</v>
       </c>
+      <c r="JC55" s="7">
+        <v>49002</v>
+      </c>
     </row>
-    <row r="56" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+    <row r="56" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -48109,9 +48270,12 @@
       <c r="JB56" s="7">
         <v>6418</v>
       </c>
+      <c r="JC56" s="7">
+        <v>6709</v>
+      </c>
     </row>
-    <row r="57" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+    <row r="57" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -48895,9 +49059,12 @@
       <c r="JB57" s="7">
         <v>189184</v>
       </c>
+      <c r="JC57" s="7">
+        <v>188372</v>
+      </c>
     </row>
-    <row r="58" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+    <row r="58" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -49681,9 +49848,12 @@
       <c r="JB58" s="7">
         <v>30201</v>
       </c>
+      <c r="JC58" s="7">
+        <v>29728</v>
+      </c>
     </row>
-    <row r="59" spans="1:262" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+    <row r="59" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50464,12 +50634,15 @@
       <c r="JA59" s="7">
         <v>5576</v>
       </c>
-      <c r="JB59" s="36">
+      <c r="JB59" s="7">
         <v>5737</v>
       </c>
+      <c r="JC59" s="36">
+        <v>5881</v>
+      </c>
     </row>
-    <row r="60" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
+    <row r="60" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -51253,9 +51426,12 @@
       <c r="JB60" s="7">
         <v>43980</v>
       </c>
+      <c r="JC60" s="7">
+        <v>47059</v>
+      </c>
     </row>
-    <row r="61" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+    <row r="61" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -52039,9 +52215,12 @@
       <c r="JB61" s="7">
         <v>131</v>
       </c>
+      <c r="JC61" s="7">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
+    <row r="62" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -52825,9 +53004,12 @@
       <c r="JB62" s="7">
         <v>19397</v>
       </c>
+      <c r="JC62" s="7">
+        <v>19375</v>
+      </c>
     </row>
-    <row r="63" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
+    <row r="63" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53611,9 +53793,12 @@
       <c r="JB63" s="7">
         <v>32423</v>
       </c>
+      <c r="JC63" s="7">
+        <v>32689</v>
+      </c>
     </row>
-    <row r="64" spans="1:262" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+    <row r="64" spans="1:263" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54397,9 +54582,12 @@
       <c r="JB64" s="7">
         <v>46958</v>
       </c>
+      <c r="JC64" s="7">
+        <v>47765</v>
+      </c>
     </row>
-    <row r="65" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
+    <row r="65" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -55183,9 +55371,12 @@
       <c r="JB65" s="7">
         <v>166229</v>
       </c>
+      <c r="JC65" s="7">
+        <v>164297</v>
+      </c>
     </row>
-    <row r="66" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
+    <row r="66" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -55969,9 +56160,12 @@
       <c r="JB66" s="7">
         <v>15878</v>
       </c>
+      <c r="JC66" s="7">
+        <v>16837</v>
+      </c>
     </row>
-    <row r="67" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
+    <row r="67" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A67" s="44"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -56755,9 +56949,12 @@
       <c r="JB67" s="7">
         <v>6218</v>
       </c>
+      <c r="JC67" s="7">
+        <v>6258</v>
+      </c>
     </row>
-    <row r="68" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
+    <row r="68" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="44"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -57540,10 +57737,11 @@
         <v>620513</v>
       </c>
       <c r="JB68" s="10">
-        <f>SUM(JB54:JB67)</f>
         <v>619137</v>
       </c>
-      <c r="JC68" s="29"/>
+      <c r="JC68" s="10">
+        <v>619859</v>
+      </c>
       <c r="JD68" s="29"/>
       <c r="JE68" s="29"/>
       <c r="JF68" s="29"/>
@@ -58003,7 +58201,7 @@
       <c r="AAR68" s="29"/>
       <c r="AAS68" s="29"/>
       <c r="AAT68" s="29"/>
-      <c r="AAU68" s="5"/>
+      <c r="AAU68" s="29"/>
       <c r="AAV68" s="5"/>
       <c r="AAW68" s="5"/>
       <c r="AAX68" s="5"/>
@@ -58184,9 +58382,10 @@
       <c r="AHQ68" s="5"/>
       <c r="AHR68" s="5"/>
       <c r="AHS68" s="5"/>
+      <c r="AHT68" s="5"/>
     </row>
-    <row r="69" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
+    <row r="69" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A69" s="44" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -58972,9 +59171,12 @@
       <c r="JB69" s="7">
         <v>9137</v>
       </c>
+      <c r="JC69" s="7">
+        <v>9453</v>
+      </c>
     </row>
-    <row r="70" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+    <row r="70" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A70" s="44"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -59758,9 +59960,12 @@
       <c r="JB70" s="7">
         <v>595</v>
       </c>
+      <c r="JC70" s="7">
+        <v>596</v>
+      </c>
     </row>
-    <row r="71" spans="1:903" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
+    <row r="71" spans="1:904" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="44"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -60544,9 +60749,12 @@
       <c r="JB71" s="7">
         <v>29080</v>
       </c>
+      <c r="JC71" s="7">
+        <v>29973</v>
+      </c>
     </row>
-    <row r="72" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
+    <row r="72" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A72" s="44"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -61330,9 +61538,12 @@
       <c r="JB72" s="7">
         <v>3236</v>
       </c>
+      <c r="JC72" s="7">
+        <v>3454</v>
+      </c>
     </row>
-    <row r="73" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
+    <row r="73" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A73" s="44"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -62116,9 +62327,12 @@
       <c r="JB73" s="7">
         <v>514</v>
       </c>
+      <c r="JC73" s="7">
+        <v>498</v>
+      </c>
     </row>
-    <row r="74" spans="1:903" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
+    <row r="74" spans="1:904" x14ac:dyDescent="0.25">
+      <c r="A74" s="44"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -62902,9 +63116,12 @@
       <c r="JB74" s="7">
         <v>51770</v>
       </c>
+      <c r="JC74" s="7">
+        <v>50301</v>
+      </c>
     </row>
-    <row r="75" spans="1:903" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
+    <row r="75" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="44"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -63687,10 +63904,11 @@
         <v>93255</v>
       </c>
       <c r="JB75" s="10">
-        <f>SUM(JB69:JB74)</f>
         <v>94332</v>
       </c>
-      <c r="JC75" s="29"/>
+      <c r="JC75" s="10">
+        <v>94275</v>
+      </c>
       <c r="JD75" s="29"/>
       <c r="JE75" s="29"/>
       <c r="JF75" s="29"/>
@@ -64150,7 +64368,7 @@
       <c r="AAR75" s="29"/>
       <c r="AAS75" s="29"/>
       <c r="AAT75" s="29"/>
-      <c r="AAU75" s="5"/>
+      <c r="AAU75" s="29"/>
       <c r="AAV75" s="5"/>
       <c r="AAW75" s="5"/>
       <c r="AAX75" s="5"/>
@@ -64331,8 +64549,9 @@
       <c r="AHQ75" s="5"/>
       <c r="AHR75" s="5"/>
       <c r="AHS75" s="5"/>
+      <c r="AHT75" s="5"/>
     </row>
-    <row r="76" spans="1:903" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:904" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -65117,12 +65336,14 @@
         <v>1826575</v>
       </c>
       <c r="JB76" s="19">
-        <f>JB11+JB21+JB24+JB27+JB48+JB53+JB68+JB75</f>
         <v>1837975</v>
       </c>
-      <c r="JC76" s="35"/>
+      <c r="JC76" s="19">
+        <v>1847731</v>
+      </c>
+      <c r="JD76" s="35"/>
     </row>
-    <row r="77" spans="1:903" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:904" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -65380,7 +65601,7 @@
       <c r="IZ77" s="30"/>
       <c r="JA77" s="30"/>
       <c r="JB77" s="30"/>
-      <c r="JC77" s="27"/>
+      <c r="JC77" s="30"/>
       <c r="JD77" s="27"/>
       <c r="JE77" s="27"/>
       <c r="JF77" s="27"/>
@@ -65840,14 +66061,15 @@
       <c r="AAR77" s="27"/>
       <c r="AAS77" s="27"/>
       <c r="AAT77" s="27"/>
+      <c r="AAU77" s="27"/>
     </row>
-    <row r="78" spans="1:903" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:904" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="31">
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -65868,7 +66090,6 @@
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
     <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:JB4"/>
     <mergeCell ref="DG4:DR4"/>
     <mergeCell ref="HW4:IH4"/>
     <mergeCell ref="HK4:HV4"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -2148,7 +2148,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="IS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JE12" sqref="JE12"/>
+      <selection pane="topRight" activeCell="JE20" sqref="JE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="338">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1054,6 +1054,9 @@
   <si>
     <t>2021/Septiembre</t>
   </si>
+  <si>
+    <t>2021/Octubre</t>
+  </si>
 </sst>
 </file>
 
@@ -1658,7 +1661,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1762,15 +1765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2144,11 +2139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHT78"/>
+  <dimension ref="A1:AHU78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="IS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JE20" sqref="JE20"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JG13" sqref="JG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,337 +2405,338 @@
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
-    <col min="263" max="263" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="10.85546875" style="28"/>
-    <col min="266" max="266" width="33.85546875" style="28" customWidth="1"/>
-    <col min="267" max="723" width="10.85546875" style="28"/>
-    <col min="724" max="904" width="10.85546875" style="4"/>
-    <col min="905" max="16384" width="10.85546875" style="3"/>
+    <col min="263" max="263" width="16.140625" style="4" customWidth="1"/>
+    <col min="264" max="264" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="265" max="266" width="10.85546875" style="28"/>
+    <col min="267" max="267" width="33.85546875" style="28" customWidth="1"/>
+    <col min="268" max="724" width="10.85546875" style="28"/>
+    <col min="725" max="905" width="10.85546875" style="4"/>
+    <col min="906" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:904" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:905" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:904" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:905" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:904" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:905" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="41">
         <v>2000</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41">
         <v>2001</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41">
         <v>2002</v>
       </c>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43">
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41">
         <v>2003</v>
       </c>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43">
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="43">
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="41"/>
+      <c r="BJ4" s="41"/>
+      <c r="BK4" s="41">
         <v>2005</v>
       </c>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="43"/>
-      <c r="BN4" s="43"/>
-      <c r="BO4" s="43"/>
-      <c r="BP4" s="43"/>
-      <c r="BQ4" s="43"/>
-      <c r="BR4" s="43"/>
-      <c r="BS4" s="43"/>
-      <c r="BT4" s="43"/>
-      <c r="BU4" s="43"/>
-      <c r="BV4" s="43"/>
-      <c r="BW4" s="43">
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41"/>
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41"/>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41">
         <v>2006</v>
       </c>
-      <c r="BX4" s="43"/>
-      <c r="BY4" s="43"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="43"/>
-      <c r="CB4" s="43"/>
-      <c r="CC4" s="43"/>
-      <c r="CD4" s="43"/>
-      <c r="CE4" s="43"/>
-      <c r="CF4" s="43"/>
-      <c r="CG4" s="43"/>
-      <c r="CH4" s="43"/>
-      <c r="CI4" s="43">
+      <c r="BX4" s="41"/>
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41"/>
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="43"/>
-      <c r="CK4" s="43"/>
-      <c r="CL4" s="43"/>
-      <c r="CM4" s="43"/>
-      <c r="CN4" s="43"/>
-      <c r="CO4" s="43"/>
-      <c r="CP4" s="43"/>
-      <c r="CQ4" s="43"/>
-      <c r="CR4" s="43"/>
-      <c r="CS4" s="43"/>
-      <c r="CT4" s="43"/>
-      <c r="CU4" s="43">
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="41"/>
+      <c r="CL4" s="41"/>
+      <c r="CM4" s="41"/>
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41">
         <v>2008</v>
       </c>
-      <c r="CV4" s="43"/>
-      <c r="CW4" s="43"/>
-      <c r="CX4" s="43"/>
-      <c r="CY4" s="43"/>
-      <c r="CZ4" s="43"/>
-      <c r="DA4" s="43"/>
-      <c r="DB4" s="43"/>
-      <c r="DC4" s="43"/>
-      <c r="DD4" s="43"/>
-      <c r="DE4" s="43"/>
-      <c r="DF4" s="43"/>
-      <c r="DG4" s="43">
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
+      <c r="DA4" s="41"/>
+      <c r="DB4" s="41"/>
+      <c r="DC4" s="41"/>
+      <c r="DD4" s="41"/>
+      <c r="DE4" s="41"/>
+      <c r="DF4" s="41"/>
+      <c r="DG4" s="41">
         <v>2009</v>
       </c>
-      <c r="DH4" s="43"/>
-      <c r="DI4" s="43"/>
-      <c r="DJ4" s="43"/>
-      <c r="DK4" s="43"/>
-      <c r="DL4" s="43"/>
-      <c r="DM4" s="43"/>
-      <c r="DN4" s="43"/>
-      <c r="DO4" s="43"/>
-      <c r="DP4" s="43"/>
-      <c r="DQ4" s="43"/>
-      <c r="DR4" s="43"/>
-      <c r="DS4" s="43">
+      <c r="DH4" s="41"/>
+      <c r="DI4" s="41"/>
+      <c r="DJ4" s="41"/>
+      <c r="DK4" s="41"/>
+      <c r="DL4" s="41"/>
+      <c r="DM4" s="41"/>
+      <c r="DN4" s="41"/>
+      <c r="DO4" s="41"/>
+      <c r="DP4" s="41"/>
+      <c r="DQ4" s="41"/>
+      <c r="DR4" s="41"/>
+      <c r="DS4" s="41">
         <v>2010</v>
       </c>
-      <c r="DT4" s="43"/>
-      <c r="DU4" s="43"/>
-      <c r="DV4" s="43"/>
-      <c r="DW4" s="43"/>
-      <c r="DX4" s="43"/>
-      <c r="DY4" s="43"/>
-      <c r="DZ4" s="43"/>
-      <c r="EA4" s="43"/>
-      <c r="EB4" s="43"/>
-      <c r="EC4" s="43"/>
-      <c r="ED4" s="43"/>
-      <c r="EE4" s="43">
+      <c r="DT4" s="41"/>
+      <c r="DU4" s="41"/>
+      <c r="DV4" s="41"/>
+      <c r="DW4" s="41"/>
+      <c r="DX4" s="41"/>
+      <c r="DY4" s="41"/>
+      <c r="DZ4" s="41"/>
+      <c r="EA4" s="41"/>
+      <c r="EB4" s="41"/>
+      <c r="EC4" s="41"/>
+      <c r="ED4" s="41"/>
+      <c r="EE4" s="41">
         <v>2011</v>
       </c>
-      <c r="EF4" s="43"/>
-      <c r="EG4" s="43"/>
-      <c r="EH4" s="43"/>
-      <c r="EI4" s="43"/>
-      <c r="EJ4" s="43"/>
-      <c r="EK4" s="43"/>
-      <c r="EL4" s="43"/>
-      <c r="EM4" s="43"/>
-      <c r="EN4" s="43"/>
-      <c r="EO4" s="43"/>
-      <c r="EP4" s="43"/>
-      <c r="EQ4" s="43">
+      <c r="EF4" s="41"/>
+      <c r="EG4" s="41"/>
+      <c r="EH4" s="41"/>
+      <c r="EI4" s="41"/>
+      <c r="EJ4" s="41"/>
+      <c r="EK4" s="41"/>
+      <c r="EL4" s="41"/>
+      <c r="EM4" s="41"/>
+      <c r="EN4" s="41"/>
+      <c r="EO4" s="41"/>
+      <c r="EP4" s="41"/>
+      <c r="EQ4" s="41">
         <v>2012</v>
       </c>
-      <c r="ER4" s="43"/>
-      <c r="ES4" s="43"/>
-      <c r="ET4" s="43"/>
-      <c r="EU4" s="43"/>
-      <c r="EV4" s="43"/>
-      <c r="EW4" s="43"/>
-      <c r="EX4" s="43"/>
-      <c r="EY4" s="43"/>
-      <c r="EZ4" s="43"/>
-      <c r="FA4" s="43"/>
-      <c r="FB4" s="43"/>
-      <c r="FC4" s="43">
+      <c r="ER4" s="41"/>
+      <c r="ES4" s="41"/>
+      <c r="ET4" s="41"/>
+      <c r="EU4" s="41"/>
+      <c r="EV4" s="41"/>
+      <c r="EW4" s="41"/>
+      <c r="EX4" s="41"/>
+      <c r="EY4" s="41"/>
+      <c r="EZ4" s="41"/>
+      <c r="FA4" s="41"/>
+      <c r="FB4" s="41"/>
+      <c r="FC4" s="41">
         <v>2013</v>
       </c>
-      <c r="FD4" s="43"/>
-      <c r="FE4" s="43"/>
-      <c r="FF4" s="43"/>
-      <c r="FG4" s="43"/>
-      <c r="FH4" s="43"/>
-      <c r="FI4" s="43"/>
-      <c r="FJ4" s="43"/>
-      <c r="FK4" s="43"/>
-      <c r="FL4" s="43"/>
-      <c r="FM4" s="43"/>
-      <c r="FN4" s="43"/>
-      <c r="FO4" s="43">
+      <c r="FD4" s="41"/>
+      <c r="FE4" s="41"/>
+      <c r="FF4" s="41"/>
+      <c r="FG4" s="41"/>
+      <c r="FH4" s="41"/>
+      <c r="FI4" s="41"/>
+      <c r="FJ4" s="41"/>
+      <c r="FK4" s="41"/>
+      <c r="FL4" s="41"/>
+      <c r="FM4" s="41"/>
+      <c r="FN4" s="41"/>
+      <c r="FO4" s="41">
         <v>2014</v>
       </c>
-      <c r="FP4" s="43"/>
-      <c r="FQ4" s="43"/>
-      <c r="FR4" s="43"/>
-      <c r="FS4" s="43"/>
-      <c r="FT4" s="43"/>
-      <c r="FU4" s="43"/>
-      <c r="FV4" s="43"/>
-      <c r="FW4" s="43"/>
-      <c r="FX4" s="43"/>
-      <c r="FY4" s="43"/>
-      <c r="FZ4" s="43"/>
-      <c r="GA4" s="43">
+      <c r="FP4" s="41"/>
+      <c r="FQ4" s="41"/>
+      <c r="FR4" s="41"/>
+      <c r="FS4" s="41"/>
+      <c r="FT4" s="41"/>
+      <c r="FU4" s="41"/>
+      <c r="FV4" s="41"/>
+      <c r="FW4" s="41"/>
+      <c r="FX4" s="41"/>
+      <c r="FY4" s="41"/>
+      <c r="FZ4" s="41"/>
+      <c r="GA4" s="41">
         <v>2015</v>
       </c>
-      <c r="GB4" s="43"/>
-      <c r="GC4" s="43"/>
-      <c r="GD4" s="43"/>
-      <c r="GE4" s="43"/>
-      <c r="GF4" s="43"/>
-      <c r="GG4" s="43"/>
-      <c r="GH4" s="43"/>
-      <c r="GI4" s="43"/>
-      <c r="GJ4" s="43"/>
-      <c r="GK4" s="43"/>
-      <c r="GL4" s="43"/>
-      <c r="GM4" s="43">
+      <c r="GB4" s="41"/>
+      <c r="GC4" s="41"/>
+      <c r="GD4" s="41"/>
+      <c r="GE4" s="41"/>
+      <c r="GF4" s="41"/>
+      <c r="GG4" s="41"/>
+      <c r="GH4" s="41"/>
+      <c r="GI4" s="41"/>
+      <c r="GJ4" s="41"/>
+      <c r="GK4" s="41"/>
+      <c r="GL4" s="41"/>
+      <c r="GM4" s="41">
         <v>2016</v>
       </c>
-      <c r="GN4" s="43"/>
-      <c r="GO4" s="43"/>
-      <c r="GP4" s="43"/>
-      <c r="GQ4" s="43"/>
-      <c r="GR4" s="43"/>
-      <c r="GS4" s="43"/>
-      <c r="GT4" s="43"/>
-      <c r="GU4" s="43"/>
-      <c r="GV4" s="43"/>
-      <c r="GW4" s="43"/>
-      <c r="GX4" s="43"/>
-      <c r="GY4" s="43">
+      <c r="GN4" s="41"/>
+      <c r="GO4" s="41"/>
+      <c r="GP4" s="41"/>
+      <c r="GQ4" s="41"/>
+      <c r="GR4" s="41"/>
+      <c r="GS4" s="41"/>
+      <c r="GT4" s="41"/>
+      <c r="GU4" s="41"/>
+      <c r="GV4" s="41"/>
+      <c r="GW4" s="41"/>
+      <c r="GX4" s="41"/>
+      <c r="GY4" s="41">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="43"/>
-      <c r="HA4" s="43"/>
-      <c r="HB4" s="43"/>
-      <c r="HC4" s="43"/>
-      <c r="HD4" s="43"/>
-      <c r="HE4" s="43"/>
-      <c r="HF4" s="43"/>
-      <c r="HG4" s="43"/>
-      <c r="HH4" s="43"/>
-      <c r="HI4" s="43"/>
-      <c r="HJ4" s="43"/>
-      <c r="HK4" s="43">
+      <c r="GZ4" s="41"/>
+      <c r="HA4" s="41"/>
+      <c r="HB4" s="41"/>
+      <c r="HC4" s="41"/>
+      <c r="HD4" s="41"/>
+      <c r="HE4" s="41"/>
+      <c r="HF4" s="41"/>
+      <c r="HG4" s="41"/>
+      <c r="HH4" s="41"/>
+      <c r="HI4" s="41"/>
+      <c r="HJ4" s="41"/>
+      <c r="HK4" s="41">
         <v>2018</v>
       </c>
-      <c r="HL4" s="43"/>
-      <c r="HM4" s="43"/>
-      <c r="HN4" s="43"/>
-      <c r="HO4" s="43"/>
-      <c r="HP4" s="43"/>
-      <c r="HQ4" s="43"/>
-      <c r="HR4" s="43"/>
-      <c r="HS4" s="43"/>
-      <c r="HT4" s="43"/>
-      <c r="HU4" s="43"/>
-      <c r="HV4" s="43"/>
-      <c r="HW4" s="43">
+      <c r="HL4" s="41"/>
+      <c r="HM4" s="41"/>
+      <c r="HN4" s="41"/>
+      <c r="HO4" s="41"/>
+      <c r="HP4" s="41"/>
+      <c r="HQ4" s="41"/>
+      <c r="HR4" s="41"/>
+      <c r="HS4" s="41"/>
+      <c r="HT4" s="41"/>
+      <c r="HU4" s="41"/>
+      <c r="HV4" s="41"/>
+      <c r="HW4" s="41">
         <v>2019</v>
       </c>
-      <c r="HX4" s="43"/>
-      <c r="HY4" s="43"/>
-      <c r="HZ4" s="43"/>
-      <c r="IA4" s="43"/>
-      <c r="IB4" s="43"/>
-      <c r="IC4" s="43"/>
-      <c r="ID4" s="43"/>
-      <c r="IE4" s="43"/>
-      <c r="IF4" s="43"/>
-      <c r="IG4" s="43"/>
-      <c r="IH4" s="40"/>
-      <c r="II4" s="40">
+      <c r="HX4" s="41"/>
+      <c r="HY4" s="41"/>
+      <c r="HZ4" s="41"/>
+      <c r="IA4" s="41"/>
+      <c r="IB4" s="41"/>
+      <c r="IC4" s="41"/>
+      <c r="ID4" s="41"/>
+      <c r="IE4" s="41"/>
+      <c r="IF4" s="41"/>
+      <c r="IG4" s="41"/>
+      <c r="IH4" s="38"/>
+      <c r="II4" s="38">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="41"/>
-      <c r="IK4" s="41"/>
-      <c r="IL4" s="41"/>
-      <c r="IM4" s="41"/>
-      <c r="IN4" s="41"/>
-      <c r="IO4" s="41"/>
-      <c r="IP4" s="41"/>
-      <c r="IQ4" s="41"/>
-      <c r="IR4" s="41"/>
-      <c r="IS4" s="41"/>
-      <c r="IT4" s="42"/>
-      <c r="IU4" s="37">
+      <c r="IJ4" s="39"/>
+      <c r="IK4" s="39"/>
+      <c r="IL4" s="39"/>
+      <c r="IM4" s="39"/>
+      <c r="IN4" s="39"/>
+      <c r="IO4" s="39"/>
+      <c r="IP4" s="39"/>
+      <c r="IQ4" s="39"/>
+      <c r="IR4" s="39"/>
+      <c r="IS4" s="39"/>
+      <c r="IT4" s="40"/>
+      <c r="IU4" s="38">
         <v>2021</v>
       </c>
-      <c r="IV4" s="38"/>
-      <c r="IW4" s="38"/>
-      <c r="IX4" s="38"/>
-      <c r="IY4" s="38"/>
-      <c r="IZ4" s="38"/>
-      <c r="JA4" s="38"/>
-      <c r="JB4" s="38"/>
+      <c r="IV4" s="39"/>
+      <c r="IW4" s="39"/>
+      <c r="IX4" s="39"/>
+      <c r="IY4" s="39"/>
+      <c r="IZ4" s="39"/>
+      <c r="JA4" s="39"/>
+      <c r="JB4" s="39"/>
       <c r="JC4" s="39"/>
-      <c r="JD4" s="29"/>
+      <c r="JD4" s="40"/>
       <c r="JE4" s="29"/>
       <c r="JF4" s="29"/>
       <c r="JG4" s="29"/>
@@ -3200,7 +3196,7 @@
       <c r="AAS4" s="29"/>
       <c r="AAT4" s="29"/>
       <c r="AAU4" s="29"/>
-      <c r="AAV4" s="5"/>
+      <c r="AAV4" s="29"/>
       <c r="AAW4" s="5"/>
       <c r="AAX4" s="5"/>
       <c r="AAY4" s="5"/>
@@ -3381,10 +3377,11 @@
       <c r="AHR4" s="5"/>
       <c r="AHS4" s="5"/>
       <c r="AHT4" s="5"/>
+      <c r="AHU4" s="5"/>
     </row>
-    <row r="5" spans="1:904" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:905" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4168,7 +4165,9 @@
       <c r="JC5" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="JD5" s="29"/>
+      <c r="JD5" s="31" t="s">
+        <v>337</v>
+      </c>
       <c r="JE5" s="29"/>
       <c r="JF5" s="29"/>
       <c r="JG5" s="29"/>
@@ -4628,7 +4627,7 @@
       <c r="AAS5" s="29"/>
       <c r="AAT5" s="29"/>
       <c r="AAU5" s="29"/>
-      <c r="AAV5" s="5"/>
+      <c r="AAV5" s="29"/>
       <c r="AAW5" s="5"/>
       <c r="AAX5" s="5"/>
       <c r="AAY5" s="5"/>
@@ -4809,9 +4808,10 @@
       <c r="AHR5" s="5"/>
       <c r="AHS5" s="5"/>
       <c r="AHT5" s="5"/>
+      <c r="AHU5" s="5"/>
     </row>
-    <row r="6" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5600,9 +5600,12 @@
       <c r="JC6" s="7">
         <v>90653</v>
       </c>
+      <c r="JD6" s="7">
+        <v>92825</v>
+      </c>
     </row>
-    <row r="7" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6389,9 +6392,12 @@
       <c r="JC7" s="7">
         <v>47</v>
       </c>
+      <c r="JD7" s="7">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7178,9 +7184,12 @@
       <c r="JC8" s="7">
         <v>23376</v>
       </c>
+      <c r="JD8" s="7">
+        <v>23356</v>
+      </c>
     </row>
-    <row r="9" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7967,9 +7976,12 @@
       <c r="JC9" s="7">
         <v>574</v>
       </c>
+      <c r="JD9" s="7">
+        <v>575</v>
+      </c>
     </row>
-    <row r="10" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+    <row r="10" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8756,9 +8768,12 @@
       <c r="JC10" s="7">
         <v>396</v>
       </c>
+      <c r="JD10" s="7">
+        <v>408</v>
+      </c>
     </row>
-    <row r="11" spans="1:904" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:905" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9544,9 +9559,13 @@
         <v>112612</v>
       </c>
       <c r="JC11" s="10">
+        <f>SUM(JC6:JC10)</f>
         <v>115046</v>
       </c>
-      <c r="JD11" s="29"/>
+      <c r="JD11" s="10">
+        <f>SUM(JD6:JD10)</f>
+        <v>117212</v>
+      </c>
       <c r="JE11" s="29"/>
       <c r="JF11" s="29"/>
       <c r="JG11" s="29"/>
@@ -10006,7 +10025,7 @@
       <c r="AAS11" s="29"/>
       <c r="AAT11" s="29"/>
       <c r="AAU11" s="29"/>
-      <c r="AAV11" s="5"/>
+      <c r="AAV11" s="29"/>
       <c r="AAW11" s="5"/>
       <c r="AAX11" s="5"/>
       <c r="AAY11" s="5"/>
@@ -10187,9 +10206,10 @@
       <c r="AHR11" s="5"/>
       <c r="AHS11" s="5"/>
       <c r="AHT11" s="5"/>
+      <c r="AHU11" s="5"/>
     </row>
-    <row r="12" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -10978,9 +10998,12 @@
       <c r="JC12" s="7">
         <v>76606</v>
       </c>
+      <c r="JD12" s="7">
+        <v>77459</v>
+      </c>
     </row>
-    <row r="13" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11767,9 +11790,12 @@
       <c r="JC13" s="7">
         <v>19673</v>
       </c>
+      <c r="JD13" s="7">
+        <v>19960</v>
+      </c>
     </row>
-    <row r="14" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+    <row r="14" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12556,9 +12582,12 @@
       <c r="JC14" s="7">
         <v>29228</v>
       </c>
+      <c r="JD14" s="7">
+        <v>29192</v>
+      </c>
     </row>
-    <row r="15" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+    <row r="15" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13345,9 +13374,12 @@
       <c r="JC15" s="7">
         <v>23877</v>
       </c>
+      <c r="JD15" s="7">
+        <v>23645</v>
+      </c>
     </row>
-    <row r="16" spans="1:904" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+    <row r="16" spans="1:905" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14134,9 +14166,12 @@
       <c r="JC16" s="7">
         <v>16568</v>
       </c>
+      <c r="JD16" s="7">
+        <v>17478</v>
+      </c>
     </row>
-    <row r="17" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+    <row r="17" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14923,9 +14958,12 @@
       <c r="JC17" s="7">
         <v>46379</v>
       </c>
+      <c r="JD17" s="7">
+        <v>47286</v>
+      </c>
     </row>
-    <row r="18" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+    <row r="18" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15712,9 +15750,12 @@
       <c r="JC18" s="7">
         <v>58267</v>
       </c>
+      <c r="JD18" s="7">
+        <v>58381</v>
+      </c>
     </row>
-    <row r="19" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+    <row r="19" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16501,9 +16542,12 @@
       <c r="JC19" s="7">
         <v>67461</v>
       </c>
+      <c r="JD19" s="7">
+        <v>67355</v>
+      </c>
     </row>
-    <row r="20" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17290,9 +17334,12 @@
       <c r="JC20" s="7">
         <v>47415</v>
       </c>
+      <c r="JD20" s="7">
+        <v>47617</v>
+      </c>
     </row>
-    <row r="21" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+    <row r="21" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18078,9 +18125,13 @@
         <v>382970</v>
       </c>
       <c r="JC21" s="10">
+        <f>SUM(JC12:JC20)</f>
         <v>385474</v>
       </c>
-      <c r="JD21" s="29"/>
+      <c r="JD21" s="10">
+        <f>SUM(JD12:JD20)</f>
+        <v>388373</v>
+      </c>
       <c r="JE21" s="29"/>
       <c r="JF21" s="29"/>
       <c r="JG21" s="29"/>
@@ -18540,7 +18591,7 @@
       <c r="AAS21" s="29"/>
       <c r="AAT21" s="29"/>
       <c r="AAU21" s="29"/>
-      <c r="AAV21" s="5"/>
+      <c r="AAV21" s="29"/>
       <c r="AAW21" s="5"/>
       <c r="AAX21" s="5"/>
       <c r="AAY21" s="5"/>
@@ -18721,9 +18772,10 @@
       <c r="AHR21" s="5"/>
       <c r="AHS21" s="5"/>
       <c r="AHT21" s="5"/>
+      <c r="AHU21" s="5"/>
     </row>
-    <row r="22" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19512,9 +19564,12 @@
       <c r="JC22" s="7">
         <v>105564</v>
       </c>
+      <c r="JD22" s="7">
+        <v>105707</v>
+      </c>
     </row>
-    <row r="23" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20301,9 +20356,12 @@
       <c r="JC23" s="7">
         <v>35248</v>
       </c>
+      <c r="JD23" s="7">
+        <v>35858</v>
+      </c>
     </row>
-    <row r="24" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21089,9 +21147,13 @@
         <v>139603</v>
       </c>
       <c r="JC24" s="10">
+        <f>SUM(JC22:JC23)</f>
         <v>140812</v>
       </c>
-      <c r="JD24" s="29"/>
+      <c r="JD24" s="10">
+        <f>SUM(JD22:JD23)</f>
+        <v>141565</v>
+      </c>
       <c r="JE24" s="29"/>
       <c r="JF24" s="29"/>
       <c r="JG24" s="29"/>
@@ -21551,7 +21613,7 @@
       <c r="AAS24" s="29"/>
       <c r="AAT24" s="29"/>
       <c r="AAU24" s="29"/>
-      <c r="AAV24" s="5"/>
+      <c r="AAV24" s="29"/>
       <c r="AAW24" s="5"/>
       <c r="AAX24" s="5"/>
       <c r="AAY24" s="5"/>
@@ -21732,9 +21794,10 @@
       <c r="AHR24" s="5"/>
       <c r="AHS24" s="5"/>
       <c r="AHT24" s="5"/>
+      <c r="AHU24" s="5"/>
     </row>
-    <row r="25" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22523,9 +22586,12 @@
       <c r="JC25" s="7">
         <v>4170</v>
       </c>
+      <c r="JD25" s="7">
+        <v>4150</v>
+      </c>
     </row>
-    <row r="26" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+    <row r="26" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23312,9 +23378,12 @@
       <c r="JC26" s="7">
         <v>5392</v>
       </c>
+      <c r="JD26" s="7">
+        <v>5358</v>
+      </c>
     </row>
-    <row r="27" spans="1:904" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+    <row r="27" spans="1:905" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24100,9 +24169,13 @@
         <v>9612</v>
       </c>
       <c r="JC27" s="10">
+        <f>SUM(JC25:JC26)</f>
         <v>9562</v>
       </c>
-      <c r="JD27" s="29"/>
+      <c r="JD27" s="10">
+        <f>SUM(JD25:JD26)</f>
+        <v>9508</v>
+      </c>
       <c r="JE27" s="29"/>
       <c r="JF27" s="29"/>
       <c r="JG27" s="29"/>
@@ -24562,7 +24635,7 @@
       <c r="AAS27" s="29"/>
       <c r="AAT27" s="29"/>
       <c r="AAU27" s="29"/>
-      <c r="AAV27" s="5"/>
+      <c r="AAV27" s="29"/>
       <c r="AAW27" s="5"/>
       <c r="AAX27" s="5"/>
       <c r="AAY27" s="5"/>
@@ -24743,9 +24816,10 @@
       <c r="AHR27" s="5"/>
       <c r="AHS27" s="5"/>
       <c r="AHT27" s="5"/>
+      <c r="AHU27" s="5"/>
     </row>
-    <row r="28" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25534,9 +25608,12 @@
       <c r="JC28" s="7">
         <v>807</v>
       </c>
+      <c r="JD28" s="7">
+        <v>729</v>
+      </c>
     </row>
-    <row r="29" spans="1:904" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:905" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26323,9 +26400,12 @@
       <c r="JC29" s="7">
         <v>10360</v>
       </c>
+      <c r="JD29" s="7">
+        <v>10464</v>
+      </c>
     </row>
-    <row r="30" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+    <row r="30" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27112,9 +27192,12 @@
       <c r="JC30" s="7">
         <v>28546</v>
       </c>
+      <c r="JD30" s="7">
+        <v>28486</v>
+      </c>
     </row>
-    <row r="31" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+    <row r="31" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27901,9 +27984,12 @@
       <c r="JC31" s="7">
         <v>101456</v>
       </c>
+      <c r="JD31" s="7">
+        <v>101834</v>
+      </c>
     </row>
-    <row r="32" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+    <row r="32" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28690,9 +28776,12 @@
       <c r="JC32" s="7">
         <v>23239</v>
       </c>
+      <c r="JD32" s="7">
+        <v>23647</v>
+      </c>
     </row>
-    <row r="33" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+    <row r="33" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29479,9 +29568,12 @@
       <c r="JC33" s="7">
         <v>9477</v>
       </c>
+      <c r="JD33" s="7">
+        <v>9426</v>
+      </c>
     </row>
-    <row r="34" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30268,9 +30360,12 @@
       <c r="JC34" s="7">
         <v>43064</v>
       </c>
+      <c r="JD34" s="7">
+        <v>43620</v>
+      </c>
     </row>
-    <row r="35" spans="1:904" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+    <row r="35" spans="1:905" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31057,9 +31152,12 @@
       <c r="JC35" s="7">
         <v>9890</v>
       </c>
+      <c r="JD35" s="7">
+        <v>9984</v>
+      </c>
     </row>
-    <row r="36" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+    <row r="36" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31846,9 +31944,12 @@
       <c r="JC36" s="7">
         <v>50938</v>
       </c>
+      <c r="JD36" s="7">
+        <v>50865</v>
+      </c>
     </row>
-    <row r="37" spans="1:904" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:905" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32635,9 +32736,12 @@
       <c r="JC37" s="7">
         <v>59020</v>
       </c>
+      <c r="JD37" s="7">
+        <v>59264</v>
+      </c>
     </row>
-    <row r="38" spans="1:904" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+    <row r="38" spans="1:905" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33424,9 +33528,12 @@
       <c r="JC38" s="7">
         <v>23100</v>
       </c>
+      <c r="JD38" s="7">
+        <v>23369</v>
+      </c>
     </row>
-    <row r="39" spans="1:904" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+    <row r="39" spans="1:905" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34213,9 +34320,12 @@
       <c r="JC39" s="7">
         <v>22605</v>
       </c>
+      <c r="JD39" s="7">
+        <v>22581</v>
+      </c>
     </row>
-    <row r="40" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+    <row r="40" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35002,9 +35112,12 @@
       <c r="JC40" s="7">
         <v>12153</v>
       </c>
+      <c r="JD40" s="7">
+        <v>12143</v>
+      </c>
     </row>
-    <row r="41" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+    <row r="41" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35791,9 +35904,12 @@
       <c r="JC41" s="7">
         <v>11464</v>
       </c>
+      <c r="JD41" s="7">
+        <v>11377</v>
+      </c>
     </row>
-    <row r="42" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+    <row r="42" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36580,9 +36696,12 @@
       <c r="JC42" s="7">
         <v>42777</v>
       </c>
+      <c r="JD42" s="7">
+        <v>42632</v>
+      </c>
     </row>
-    <row r="43" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+    <row r="43" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37369,9 +37488,12 @@
       <c r="JC43" s="7">
         <v>4967</v>
       </c>
+      <c r="JD43" s="7">
+        <v>4997</v>
+      </c>
     </row>
-    <row r="44" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+    <row r="44" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38158,9 +38280,12 @@
       <c r="JC44" s="7">
         <v>5701</v>
       </c>
+      <c r="JD44" s="7">
+        <v>5730</v>
+      </c>
     </row>
-    <row r="45" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+    <row r="45" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -38944,12 +39069,15 @@
       <c r="JB45" s="30">
         <v>6578</v>
       </c>
-      <c r="JC45" s="28">
+      <c r="JC45" s="36">
         <v>6305</v>
       </c>
+      <c r="JD45" s="36">
+        <v>6326</v>
+      </c>
     </row>
-    <row r="46" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
+    <row r="46" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39736,9 +39864,12 @@
       <c r="JC46" s="7">
         <v>12446</v>
       </c>
+      <c r="JD46" s="7">
+        <v>12528</v>
+      </c>
     </row>
-    <row r="47" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+    <row r="47" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40525,9 +40656,12 @@
       <c r="JC47" s="7">
         <v>1748</v>
       </c>
+      <c r="JD47" s="7">
+        <v>1693</v>
+      </c>
     </row>
-    <row r="48" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+    <row r="48" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41313,9 +41447,13 @@
         <v>477017</v>
       </c>
       <c r="JC48" s="10">
+        <f>SUM(JC28:JC47)</f>
         <v>480063</v>
       </c>
-      <c r="JD48" s="29"/>
+      <c r="JD48" s="10">
+        <f>SUM(JD28:JD47)</f>
+        <v>481695</v>
+      </c>
       <c r="JE48" s="29"/>
       <c r="JF48" s="29"/>
       <c r="JG48" s="29"/>
@@ -41775,7 +41913,7 @@
       <c r="AAS48" s="29"/>
       <c r="AAT48" s="29"/>
       <c r="AAU48" s="29"/>
-      <c r="AAV48" s="5"/>
+      <c r="AAV48" s="29"/>
       <c r="AAW48" s="5"/>
       <c r="AAX48" s="5"/>
       <c r="AAY48" s="5"/>
@@ -41956,9 +42094,10 @@
       <c r="AHR48" s="5"/>
       <c r="AHS48" s="5"/>
       <c r="AHT48" s="5"/>
+      <c r="AHU48" s="5"/>
     </row>
-    <row r="49" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+    <row r="49" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42747,9 +42886,12 @@
       <c r="JC49" s="7">
         <v>19</v>
       </c>
+      <c r="JD49" s="7">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
+    <row r="50" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43536,9 +43678,12 @@
       <c r="JC50" s="7">
         <v>1</v>
       </c>
+      <c r="JD50" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:263" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+    <row r="51" spans="1:264" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44325,9 +44470,12 @@
       <c r="JC51" s="7">
         <v>1516</v>
       </c>
+      <c r="JD51" s="7">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="52" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+    <row r="52" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -45114,9 +45262,12 @@
       <c r="JC52" s="7">
         <v>1104</v>
       </c>
+      <c r="JD52" s="7">
+        <v>1109</v>
+      </c>
     </row>
-    <row r="53" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+    <row r="53" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -45902,11 +46053,16 @@
         <v>2692</v>
       </c>
       <c r="JC53" s="10">
+        <f>SUM(JC49:JC52)</f>
         <v>2640</v>
       </c>
+      <c r="JD53" s="10">
+        <f>SUM(JD49:JD52)</f>
+        <v>2620</v>
+      </c>
     </row>
-    <row r="54" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
+    <row r="54" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46695,9 +46851,12 @@
       <c r="JC54" s="7">
         <v>5756</v>
       </c>
+      <c r="JD54" s="7">
+        <v>5839</v>
+      </c>
     </row>
-    <row r="55" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+    <row r="55" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -47484,9 +47643,12 @@
       <c r="JC55" s="7">
         <v>49002</v>
       </c>
+      <c r="JD55" s="7">
+        <v>50033</v>
+      </c>
     </row>
-    <row r="56" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+    <row r="56" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -48273,9 +48435,12 @@
       <c r="JC56" s="7">
         <v>6709</v>
       </c>
+      <c r="JD56" s="7">
+        <v>6796</v>
+      </c>
     </row>
-    <row r="57" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+    <row r="57" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -49062,9 +49227,12 @@
       <c r="JC57" s="7">
         <v>188372</v>
       </c>
+      <c r="JD57" s="7">
+        <v>186484</v>
+      </c>
     </row>
-    <row r="58" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+    <row r="58" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -49851,9 +50019,12 @@
       <c r="JC58" s="7">
         <v>29728</v>
       </c>
+      <c r="JD58" s="7">
+        <v>30309</v>
+      </c>
     </row>
-    <row r="59" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
+    <row r="59" spans="1:264" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50640,9 +50811,12 @@
       <c r="JC59" s="36">
         <v>5881</v>
       </c>
+      <c r="JD59" s="36">
+        <v>5818</v>
+      </c>
     </row>
-    <row r="60" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+    <row r="60" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -51429,9 +51603,12 @@
       <c r="JC60" s="7">
         <v>47059</v>
       </c>
+      <c r="JD60" s="7">
+        <v>47599</v>
+      </c>
     </row>
-    <row r="61" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
+    <row r="61" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -52215,12 +52392,15 @@
       <c r="JB61" s="7">
         <v>131</v>
       </c>
-      <c r="JC61" s="7">
+      <c r="JC61" s="37">
         <v>131</v>
       </c>
+      <c r="JD61" s="37">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
+    <row r="62" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -53007,9 +53187,12 @@
       <c r="JC62" s="7">
         <v>19375</v>
       </c>
+      <c r="JD62" s="7">
+        <v>19920</v>
+      </c>
     </row>
-    <row r="63" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+    <row r="63" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53796,9 +53979,12 @@
       <c r="JC63" s="7">
         <v>32689</v>
       </c>
+      <c r="JD63" s="7">
+        <v>32979</v>
+      </c>
     </row>
-    <row r="64" spans="1:263" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+    <row r="64" spans="1:264" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54585,9 +54771,12 @@
       <c r="JC64" s="7">
         <v>47765</v>
       </c>
+      <c r="JD64" s="7">
+        <v>48359</v>
+      </c>
     </row>
-    <row r="65" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+    <row r="65" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -55374,9 +55563,12 @@
       <c r="JC65" s="7">
         <v>164297</v>
       </c>
+      <c r="JD65" s="7">
+        <v>164520</v>
+      </c>
     </row>
-    <row r="66" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+    <row r="66" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -56163,9 +56355,12 @@
       <c r="JC66" s="7">
         <v>16837</v>
       </c>
+      <c r="JD66" s="7">
+        <v>17107</v>
+      </c>
     </row>
-    <row r="67" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
+    <row r="67" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -56952,9 +57147,12 @@
       <c r="JC67" s="7">
         <v>6258</v>
       </c>
+      <c r="JD67" s="7">
+        <v>6310</v>
+      </c>
     </row>
-    <row r="68" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
+    <row r="68" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -57740,9 +57938,13 @@
         <v>619137</v>
       </c>
       <c r="JC68" s="10">
+        <f>SUM(JC54:JC67)</f>
         <v>619859</v>
       </c>
-      <c r="JD68" s="29"/>
+      <c r="JD68" s="10">
+        <f>SUM(JD54:JD67)</f>
+        <v>622204</v>
+      </c>
       <c r="JE68" s="29"/>
       <c r="JF68" s="29"/>
       <c r="JG68" s="29"/>
@@ -58202,7 +58404,7 @@
       <c r="AAS68" s="29"/>
       <c r="AAT68" s="29"/>
       <c r="AAU68" s="29"/>
-      <c r="AAV68" s="5"/>
+      <c r="AAV68" s="29"/>
       <c r="AAW68" s="5"/>
       <c r="AAX68" s="5"/>
       <c r="AAY68" s="5"/>
@@ -58383,9 +58585,10 @@
       <c r="AHR68" s="5"/>
       <c r="AHS68" s="5"/>
       <c r="AHT68" s="5"/>
+      <c r="AHU68" s="5"/>
     </row>
-    <row r="69" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A69" s="44" t="s">
+    <row r="69" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -59174,9 +59377,12 @@
       <c r="JC69" s="7">
         <v>9453</v>
       </c>
+      <c r="JD69" s="7">
+        <v>9569</v>
+      </c>
     </row>
-    <row r="70" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+    <row r="70" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -59963,9 +60169,12 @@
       <c r="JC70" s="7">
         <v>596</v>
       </c>
+      <c r="JD70" s="7">
+        <v>600</v>
+      </c>
     </row>
-    <row r="71" spans="1:904" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+    <row r="71" spans="1:905" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -60752,9 +60961,12 @@
       <c r="JC71" s="7">
         <v>29973</v>
       </c>
+      <c r="JD71" s="7">
+        <v>30391</v>
+      </c>
     </row>
-    <row r="72" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+    <row r="72" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -61541,9 +61753,12 @@
       <c r="JC72" s="7">
         <v>3454</v>
       </c>
+      <c r="JD72" s="7">
+        <v>3517</v>
+      </c>
     </row>
-    <row r="73" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
+    <row r="73" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -62330,9 +62545,12 @@
       <c r="JC73" s="7">
         <v>498</v>
       </c>
+      <c r="JD73" s="7">
+        <v>532</v>
+      </c>
     </row>
-    <row r="74" spans="1:904" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
+    <row r="74" spans="1:905" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -63119,9 +63337,12 @@
       <c r="JC74" s="7">
         <v>50301</v>
       </c>
+      <c r="JD74" s="7">
+        <v>50449</v>
+      </c>
     </row>
-    <row r="75" spans="1:904" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+    <row r="75" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -63907,9 +64128,13 @@
         <v>94332</v>
       </c>
       <c r="JC75" s="10">
+        <f>SUM(JC69:JC74)</f>
         <v>94275</v>
       </c>
-      <c r="JD75" s="29"/>
+      <c r="JD75" s="10">
+        <f>SUM(JD69:JD74)</f>
+        <v>95058</v>
+      </c>
       <c r="JE75" s="29"/>
       <c r="JF75" s="29"/>
       <c r="JG75" s="29"/>
@@ -64369,7 +64594,7 @@
       <c r="AAS75" s="29"/>
       <c r="AAT75" s="29"/>
       <c r="AAU75" s="29"/>
-      <c r="AAV75" s="5"/>
+      <c r="AAV75" s="29"/>
       <c r="AAW75" s="5"/>
       <c r="AAX75" s="5"/>
       <c r="AAY75" s="5"/>
@@ -64550,8 +64775,9 @@
       <c r="AHR75" s="5"/>
       <c r="AHS75" s="5"/>
       <c r="AHT75" s="5"/>
+      <c r="AHU75" s="5"/>
     </row>
-    <row r="76" spans="1:904" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:905" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -65339,11 +65565,16 @@
         <v>1837975</v>
       </c>
       <c r="JC76" s="19">
+        <f>JC11+JC21+JC24+JC27+JC48+JC53+JC68+JC75</f>
         <v>1847731</v>
       </c>
-      <c r="JD76" s="35"/>
+      <c r="JD76" s="19">
+        <f>JD11+JD21+JD24+JD27+JD48+JD53+JD68+JD75</f>
+        <v>1858235</v>
+      </c>
+      <c r="JE76" s="35"/>
     </row>
-    <row r="77" spans="1:904" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:905" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -65602,7 +65833,7 @@
       <c r="JA77" s="30"/>
       <c r="JB77" s="30"/>
       <c r="JC77" s="30"/>
-      <c r="JD77" s="27"/>
+      <c r="JD77" s="30"/>
       <c r="JE77" s="27"/>
       <c r="JF77" s="27"/>
       <c r="JG77" s="27"/>
@@ -66062,14 +66293,15 @@
       <c r="AAS77" s="27"/>
       <c r="AAT77" s="27"/>
       <c r="AAU77" s="27"/>
+      <c r="AAV77" s="27"/>
     </row>
-    <row r="78" spans="1:904" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:905" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -66090,6 +66322,7 @@
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
     <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JD4"/>
     <mergeCell ref="DG4:DR4"/>
     <mergeCell ref="HW4:IH4"/>
     <mergeCell ref="HK4:HV4"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="339">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1057,6 +1057,9 @@
   <si>
     <t>2021/Octubre</t>
   </si>
+  <si>
+    <t>2021/Noviembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1766,6 +1769,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1774,15 +1786,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2139,11 +2142,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHU78"/>
+  <dimension ref="A1:AHV78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JG13" sqref="JG13"/>
+      <selection pane="topRight" activeCell="JH17" sqref="JH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,339 +2408,339 @@
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
-    <col min="263" max="263" width="16.140625" style="4" customWidth="1"/>
-    <col min="264" max="264" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="265" max="266" width="10.85546875" style="28"/>
-    <col min="267" max="267" width="33.85546875" style="28" customWidth="1"/>
-    <col min="268" max="724" width="10.85546875" style="28"/>
-    <col min="725" max="905" width="10.85546875" style="4"/>
-    <col min="906" max="16384" width="10.85546875" style="3"/>
+    <col min="263" max="264" width="16.140625" style="4" customWidth="1"/>
+    <col min="265" max="265" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="266" max="267" width="10.85546875" style="28"/>
+    <col min="268" max="268" width="33.85546875" style="28" customWidth="1"/>
+    <col min="269" max="725" width="10.85546875" style="28"/>
+    <col min="726" max="906" width="10.85546875" style="4"/>
+    <col min="907" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:905" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:906" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:905" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:906" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:905" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:906" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="41"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="41"/>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="41"/>
-      <c r="AU4" s="41"/>
-      <c r="AV4" s="41"/>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41"/>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
-      <c r="BI4" s="41"/>
-      <c r="BJ4" s="41"/>
-      <c r="BK4" s="41">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41"/>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="41"/>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41"/>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="41"/>
-      <c r="CL4" s="41"/>
-      <c r="CM4" s="41"/>
-      <c r="CN4" s="41"/>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41"/>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
-      <c r="DA4" s="41"/>
-      <c r="DB4" s="41"/>
-      <c r="DC4" s="41"/>
-      <c r="DD4" s="41"/>
-      <c r="DE4" s="41"/>
-      <c r="DF4" s="41"/>
-      <c r="DG4" s="41">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="41"/>
-      <c r="DI4" s="41"/>
-      <c r="DJ4" s="41"/>
-      <c r="DK4" s="41"/>
-      <c r="DL4" s="41"/>
-      <c r="DM4" s="41"/>
-      <c r="DN4" s="41"/>
-      <c r="DO4" s="41"/>
-      <c r="DP4" s="41"/>
-      <c r="DQ4" s="41"/>
-      <c r="DR4" s="41"/>
-      <c r="DS4" s="41">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="41"/>
-      <c r="DU4" s="41"/>
-      <c r="DV4" s="41"/>
-      <c r="DW4" s="41"/>
-      <c r="DX4" s="41"/>
-      <c r="DY4" s="41"/>
-      <c r="DZ4" s="41"/>
-      <c r="EA4" s="41"/>
-      <c r="EB4" s="41"/>
-      <c r="EC4" s="41"/>
-      <c r="ED4" s="41"/>
-      <c r="EE4" s="41">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="41"/>
-      <c r="EG4" s="41"/>
-      <c r="EH4" s="41"/>
-      <c r="EI4" s="41"/>
-      <c r="EJ4" s="41"/>
-      <c r="EK4" s="41"/>
-      <c r="EL4" s="41"/>
-      <c r="EM4" s="41"/>
-      <c r="EN4" s="41"/>
-      <c r="EO4" s="41"/>
-      <c r="EP4" s="41"/>
-      <c r="EQ4" s="41">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="41"/>
-      <c r="ES4" s="41"/>
-      <c r="ET4" s="41"/>
-      <c r="EU4" s="41"/>
-      <c r="EV4" s="41"/>
-      <c r="EW4" s="41"/>
-      <c r="EX4" s="41"/>
-      <c r="EY4" s="41"/>
-      <c r="EZ4" s="41"/>
-      <c r="FA4" s="41"/>
-      <c r="FB4" s="41"/>
-      <c r="FC4" s="41">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="41"/>
-      <c r="FE4" s="41"/>
-      <c r="FF4" s="41"/>
-      <c r="FG4" s="41"/>
-      <c r="FH4" s="41"/>
-      <c r="FI4" s="41"/>
-      <c r="FJ4" s="41"/>
-      <c r="FK4" s="41"/>
-      <c r="FL4" s="41"/>
-      <c r="FM4" s="41"/>
-      <c r="FN4" s="41"/>
-      <c r="FO4" s="41">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="41"/>
-      <c r="FQ4" s="41"/>
-      <c r="FR4" s="41"/>
-      <c r="FS4" s="41"/>
-      <c r="FT4" s="41"/>
-      <c r="FU4" s="41"/>
-      <c r="FV4" s="41"/>
-      <c r="FW4" s="41"/>
-      <c r="FX4" s="41"/>
-      <c r="FY4" s="41"/>
-      <c r="FZ4" s="41"/>
-      <c r="GA4" s="41">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="41"/>
-      <c r="GC4" s="41"/>
-      <c r="GD4" s="41"/>
-      <c r="GE4" s="41"/>
-      <c r="GF4" s="41"/>
-      <c r="GG4" s="41"/>
-      <c r="GH4" s="41"/>
-      <c r="GI4" s="41"/>
-      <c r="GJ4" s="41"/>
-      <c r="GK4" s="41"/>
-      <c r="GL4" s="41"/>
-      <c r="GM4" s="41">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="41"/>
-      <c r="GO4" s="41"/>
-      <c r="GP4" s="41"/>
-      <c r="GQ4" s="41"/>
-      <c r="GR4" s="41"/>
-      <c r="GS4" s="41"/>
-      <c r="GT4" s="41"/>
-      <c r="GU4" s="41"/>
-      <c r="GV4" s="41"/>
-      <c r="GW4" s="41"/>
-      <c r="GX4" s="41"/>
-      <c r="GY4" s="41">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="41"/>
-      <c r="HA4" s="41"/>
-      <c r="HB4" s="41"/>
-      <c r="HC4" s="41"/>
-      <c r="HD4" s="41"/>
-      <c r="HE4" s="41"/>
-      <c r="HF4" s="41"/>
-      <c r="HG4" s="41"/>
-      <c r="HH4" s="41"/>
-      <c r="HI4" s="41"/>
-      <c r="HJ4" s="41"/>
-      <c r="HK4" s="41">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="41"/>
-      <c r="HM4" s="41"/>
-      <c r="HN4" s="41"/>
-      <c r="HO4" s="41"/>
-      <c r="HP4" s="41"/>
-      <c r="HQ4" s="41"/>
-      <c r="HR4" s="41"/>
-      <c r="HS4" s="41"/>
-      <c r="HT4" s="41"/>
-      <c r="HU4" s="41"/>
-      <c r="HV4" s="41"/>
-      <c r="HW4" s="41">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="41"/>
-      <c r="HY4" s="41"/>
-      <c r="HZ4" s="41"/>
-      <c r="IA4" s="41"/>
-      <c r="IB4" s="41"/>
-      <c r="IC4" s="41"/>
-      <c r="ID4" s="41"/>
-      <c r="IE4" s="41"/>
-      <c r="IF4" s="41"/>
-      <c r="IG4" s="41"/>
-      <c r="IH4" s="38"/>
-      <c r="II4" s="38">
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="41"/>
+      <c r="II4" s="41">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="39"/>
-      <c r="IK4" s="39"/>
-      <c r="IL4" s="39"/>
-      <c r="IM4" s="39"/>
-      <c r="IN4" s="39"/>
-      <c r="IO4" s="39"/>
-      <c r="IP4" s="39"/>
-      <c r="IQ4" s="39"/>
-      <c r="IR4" s="39"/>
-      <c r="IS4" s="39"/>
-      <c r="IT4" s="40"/>
-      <c r="IU4" s="38">
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="43"/>
+      <c r="IU4" s="41">
         <v>2021</v>
       </c>
-      <c r="IV4" s="39"/>
-      <c r="IW4" s="39"/>
-      <c r="IX4" s="39"/>
-      <c r="IY4" s="39"/>
-      <c r="IZ4" s="39"/>
-      <c r="JA4" s="39"/>
-      <c r="JB4" s="39"/>
-      <c r="JC4" s="39"/>
-      <c r="JD4" s="40"/>
-      <c r="JE4" s="29"/>
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
+      <c r="IY4" s="42"/>
+      <c r="IZ4" s="42"/>
+      <c r="JA4" s="42"/>
+      <c r="JB4" s="42"/>
+      <c r="JC4" s="42"/>
+      <c r="JD4" s="42"/>
+      <c r="JE4" s="43"/>
       <c r="JF4" s="29"/>
       <c r="JG4" s="29"/>
       <c r="JH4" s="29"/>
@@ -3197,7 +3200,7 @@
       <c r="AAT4" s="29"/>
       <c r="AAU4" s="29"/>
       <c r="AAV4" s="29"/>
-      <c r="AAW4" s="5"/>
+      <c r="AAW4" s="29"/>
       <c r="AAX4" s="5"/>
       <c r="AAY4" s="5"/>
       <c r="AAZ4" s="5"/>
@@ -3378,10 +3381,11 @@
       <c r="AHS4" s="5"/>
       <c r="AHT4" s="5"/>
       <c r="AHU4" s="5"/>
+      <c r="AHV4" s="5"/>
     </row>
-    <row r="5" spans="1:905" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="43"/>
+    <row r="5" spans="1:906" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4168,7 +4172,9 @@
       <c r="JD5" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="JE5" s="29"/>
+      <c r="JE5" s="31" t="s">
+        <v>338</v>
+      </c>
       <c r="JF5" s="29"/>
       <c r="JG5" s="29"/>
       <c r="JH5" s="29"/>
@@ -4628,7 +4634,7 @@
       <c r="AAT5" s="29"/>
       <c r="AAU5" s="29"/>
       <c r="AAV5" s="29"/>
-      <c r="AAW5" s="5"/>
+      <c r="AAW5" s="29"/>
       <c r="AAX5" s="5"/>
       <c r="AAY5" s="5"/>
       <c r="AAZ5" s="5"/>
@@ -4809,9 +4815,10 @@
       <c r="AHS5" s="5"/>
       <c r="AHT5" s="5"/>
       <c r="AHU5" s="5"/>
+      <c r="AHV5" s="5"/>
     </row>
-    <row r="6" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5603,9 +5610,12 @@
       <c r="JD6" s="7">
         <v>92825</v>
       </c>
+      <c r="JE6" s="7">
+        <v>94695</v>
+      </c>
     </row>
-    <row r="7" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6395,9 +6405,12 @@
       <c r="JD7" s="7">
         <v>48</v>
       </c>
+      <c r="JE7" s="7">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+    <row r="8" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7187,9 +7200,12 @@
       <c r="JD8" s="7">
         <v>23356</v>
       </c>
+      <c r="JE8" s="7">
+        <v>23541</v>
+      </c>
     </row>
-    <row r="9" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+    <row r="9" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7979,9 +7995,12 @@
       <c r="JD9" s="7">
         <v>575</v>
       </c>
+      <c r="JE9" s="7">
+        <v>547</v>
+      </c>
     </row>
-    <row r="10" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8771,9 +8790,12 @@
       <c r="JD10" s="7">
         <v>408</v>
       </c>
+      <c r="JE10" s="7">
+        <v>390</v>
+      </c>
     </row>
-    <row r="11" spans="1:905" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:906" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9563,10 +9585,12 @@
         <v>115046</v>
       </c>
       <c r="JD11" s="10">
-        <f>SUM(JD6:JD10)</f>
         <v>117212</v>
       </c>
-      <c r="JE11" s="29"/>
+      <c r="JE11" s="10">
+        <f>SUM(JE6:JE10)</f>
+        <v>119220</v>
+      </c>
       <c r="JF11" s="29"/>
       <c r="JG11" s="29"/>
       <c r="JH11" s="29"/>
@@ -10026,7 +10050,7 @@
       <c r="AAT11" s="29"/>
       <c r="AAU11" s="29"/>
       <c r="AAV11" s="29"/>
-      <c r="AAW11" s="5"/>
+      <c r="AAW11" s="29"/>
       <c r="AAX11" s="5"/>
       <c r="AAY11" s="5"/>
       <c r="AAZ11" s="5"/>
@@ -10207,9 +10231,10 @@
       <c r="AHS11" s="5"/>
       <c r="AHT11" s="5"/>
       <c r="AHU11" s="5"/>
+      <c r="AHV11" s="5"/>
     </row>
-    <row r="12" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11001,9 +11026,12 @@
       <c r="JD12" s="7">
         <v>77459</v>
       </c>
+      <c r="JE12" s="7">
+        <v>77795</v>
+      </c>
     </row>
-    <row r="13" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11793,9 +11821,12 @@
       <c r="JD13" s="7">
         <v>19960</v>
       </c>
+      <c r="JE13" s="7">
+        <v>20104</v>
+      </c>
     </row>
-    <row r="14" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+    <row r="14" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12585,9 +12616,12 @@
       <c r="JD14" s="7">
         <v>29192</v>
       </c>
+      <c r="JE14" s="7">
+        <v>29623</v>
+      </c>
     </row>
-    <row r="15" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13377,9 +13411,12 @@
       <c r="JD15" s="7">
         <v>23645</v>
       </c>
+      <c r="JE15" s="7">
+        <v>23376</v>
+      </c>
     </row>
-    <row r="16" spans="1:905" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:906" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14169,9 +14206,12 @@
       <c r="JD16" s="7">
         <v>17478</v>
       </c>
+      <c r="JE16" s="7">
+        <v>17829</v>
+      </c>
     </row>
-    <row r="17" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -14961,9 +15001,12 @@
       <c r="JD17" s="7">
         <v>47286</v>
       </c>
+      <c r="JE17" s="7">
+        <v>47239</v>
+      </c>
     </row>
-    <row r="18" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+    <row r="18" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15753,9 +15796,12 @@
       <c r="JD18" s="7">
         <v>58381</v>
       </c>
+      <c r="JE18" s="7">
+        <v>58545</v>
+      </c>
     </row>
-    <row r="19" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+    <row r="19" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16545,9 +16591,12 @@
       <c r="JD19" s="7">
         <v>67355</v>
       </c>
+      <c r="JE19" s="7">
+        <v>68121</v>
+      </c>
     </row>
-    <row r="20" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+    <row r="20" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17337,9 +17386,12 @@
       <c r="JD20" s="7">
         <v>47617</v>
       </c>
+      <c r="JE20" s="7">
+        <v>48602</v>
+      </c>
     </row>
-    <row r="21" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+    <row r="21" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18129,10 +18181,12 @@
         <v>385474</v>
       </c>
       <c r="JD21" s="10">
-        <f>SUM(JD12:JD20)</f>
         <v>388373</v>
       </c>
-      <c r="JE21" s="29"/>
+      <c r="JE21" s="10">
+        <f>SUM(JE12:JE20)</f>
+        <v>391234</v>
+      </c>
       <c r="JF21" s="29"/>
       <c r="JG21" s="29"/>
       <c r="JH21" s="29"/>
@@ -18592,7 +18646,7 @@
       <c r="AAT21" s="29"/>
       <c r="AAU21" s="29"/>
       <c r="AAV21" s="29"/>
-      <c r="AAW21" s="5"/>
+      <c r="AAW21" s="29"/>
       <c r="AAX21" s="5"/>
       <c r="AAY21" s="5"/>
       <c r="AAZ21" s="5"/>
@@ -18773,9 +18827,10 @@
       <c r="AHS21" s="5"/>
       <c r="AHT21" s="5"/>
       <c r="AHU21" s="5"/>
+      <c r="AHV21" s="5"/>
     </row>
-    <row r="22" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19567,9 +19622,12 @@
       <c r="JD22" s="7">
         <v>105707</v>
       </c>
+      <c r="JE22" s="7">
+        <v>105642</v>
+      </c>
     </row>
-    <row r="23" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20359,9 +20417,12 @@
       <c r="JD23" s="7">
         <v>35858</v>
       </c>
+      <c r="JE23" s="7">
+        <v>36181</v>
+      </c>
     </row>
-    <row r="24" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21151,10 +21212,12 @@
         <v>140812</v>
       </c>
       <c r="JD24" s="10">
-        <f>SUM(JD22:JD23)</f>
         <v>141565</v>
       </c>
-      <c r="JE24" s="29"/>
+      <c r="JE24" s="10">
+        <f>SUM(JE22:JE23)</f>
+        <v>141823</v>
+      </c>
       <c r="JF24" s="29"/>
       <c r="JG24" s="29"/>
       <c r="JH24" s="29"/>
@@ -21614,7 +21677,7 @@
       <c r="AAT24" s="29"/>
       <c r="AAU24" s="29"/>
       <c r="AAV24" s="29"/>
-      <c r="AAW24" s="5"/>
+      <c r="AAW24" s="29"/>
       <c r="AAX24" s="5"/>
       <c r="AAY24" s="5"/>
       <c r="AAZ24" s="5"/>
@@ -21795,9 +21858,10 @@
       <c r="AHS24" s="5"/>
       <c r="AHT24" s="5"/>
       <c r="AHU24" s="5"/>
+      <c r="AHV24" s="5"/>
     </row>
-    <row r="25" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22589,9 +22653,12 @@
       <c r="JD25" s="7">
         <v>4150</v>
       </c>
+      <c r="JE25" s="7">
+        <v>4241</v>
+      </c>
     </row>
-    <row r="26" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+    <row r="26" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23381,9 +23448,12 @@
       <c r="JD26" s="7">
         <v>5358</v>
       </c>
+      <c r="JE26" s="7">
+        <v>5329</v>
+      </c>
     </row>
-    <row r="27" spans="1:905" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+    <row r="27" spans="1:906" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24173,10 +24243,12 @@
         <v>9562</v>
       </c>
       <c r="JD27" s="10">
-        <f>SUM(JD25:JD26)</f>
         <v>9508</v>
       </c>
-      <c r="JE27" s="29"/>
+      <c r="JE27" s="10">
+        <f>SUM(JE25:JE26)</f>
+        <v>9570</v>
+      </c>
       <c r="JF27" s="29"/>
       <c r="JG27" s="29"/>
       <c r="JH27" s="29"/>
@@ -24636,7 +24708,7 @@
       <c r="AAT27" s="29"/>
       <c r="AAU27" s="29"/>
       <c r="AAV27" s="29"/>
-      <c r="AAW27" s="5"/>
+      <c r="AAW27" s="29"/>
       <c r="AAX27" s="5"/>
       <c r="AAY27" s="5"/>
       <c r="AAZ27" s="5"/>
@@ -24817,9 +24889,10 @@
       <c r="AHS27" s="5"/>
       <c r="AHT27" s="5"/>
       <c r="AHU27" s="5"/>
+      <c r="AHV27" s="5"/>
     </row>
-    <row r="28" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25611,9 +25684,12 @@
       <c r="JD28" s="7">
         <v>729</v>
       </c>
+      <c r="JE28" s="7">
+        <v>751</v>
+      </c>
     </row>
-    <row r="29" spans="1:905" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+    <row r="29" spans="1:906" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26403,9 +26479,12 @@
       <c r="JD29" s="7">
         <v>10464</v>
       </c>
+      <c r="JE29" s="7">
+        <v>10462</v>
+      </c>
     </row>
-    <row r="30" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+    <row r="30" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27195,9 +27274,12 @@
       <c r="JD30" s="7">
         <v>28486</v>
       </c>
+      <c r="JE30" s="7">
+        <v>28188</v>
+      </c>
     </row>
-    <row r="31" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+    <row r="31" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -27987,9 +28069,12 @@
       <c r="JD31" s="7">
         <v>101834</v>
       </c>
+      <c r="JE31" s="7">
+        <v>102691</v>
+      </c>
     </row>
-    <row r="32" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28779,9 +28864,12 @@
       <c r="JD32" s="7">
         <v>23647</v>
       </c>
+      <c r="JE32" s="7">
+        <v>23795</v>
+      </c>
     </row>
-    <row r="33" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+    <row r="33" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29571,9 +29659,12 @@
       <c r="JD33" s="7">
         <v>9426</v>
       </c>
+      <c r="JE33" s="7">
+        <v>9441</v>
+      </c>
     </row>
-    <row r="34" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+    <row r="34" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30363,9 +30454,12 @@
       <c r="JD34" s="7">
         <v>43620</v>
       </c>
+      <c r="JE34" s="7">
+        <v>43648</v>
+      </c>
     </row>
-    <row r="35" spans="1:905" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+    <row r="35" spans="1:906" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31155,9 +31249,12 @@
       <c r="JD35" s="7">
         <v>9984</v>
       </c>
+      <c r="JE35" s="7">
+        <v>10143</v>
+      </c>
     </row>
-    <row r="36" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+    <row r="36" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -31947,9 +32044,12 @@
       <c r="JD36" s="7">
         <v>50865</v>
       </c>
+      <c r="JE36" s="7">
+        <v>51499</v>
+      </c>
     </row>
-    <row r="37" spans="1:905" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+    <row r="37" spans="1:906" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32739,9 +32839,12 @@
       <c r="JD37" s="7">
         <v>59264</v>
       </c>
+      <c r="JE37" s="7">
+        <v>59922</v>
+      </c>
     </row>
-    <row r="38" spans="1:905" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+    <row r="38" spans="1:906" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33531,9 +33634,12 @@
       <c r="JD38" s="7">
         <v>23369</v>
       </c>
+      <c r="JE38" s="7">
+        <v>23549</v>
+      </c>
     </row>
-    <row r="39" spans="1:905" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+    <row r="39" spans="1:906" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34323,9 +34429,12 @@
       <c r="JD39" s="7">
         <v>22581</v>
       </c>
+      <c r="JE39" s="7">
+        <v>22622</v>
+      </c>
     </row>
-    <row r="40" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+    <row r="40" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35115,9 +35224,12 @@
       <c r="JD40" s="7">
         <v>12143</v>
       </c>
+      <c r="JE40" s="7">
+        <v>12155</v>
+      </c>
     </row>
-    <row r="41" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+    <row r="41" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -35907,9 +36019,12 @@
       <c r="JD41" s="7">
         <v>11377</v>
       </c>
+      <c r="JE41" s="7">
+        <v>11740</v>
+      </c>
     </row>
-    <row r="42" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+    <row r="42" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36699,9 +36814,12 @@
       <c r="JD42" s="7">
         <v>42632</v>
       </c>
+      <c r="JE42" s="7">
+        <v>42945</v>
+      </c>
     </row>
-    <row r="43" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+    <row r="43" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37491,9 +37609,12 @@
       <c r="JD43" s="7">
         <v>4997</v>
       </c>
+      <c r="JE43" s="7">
+        <v>5054</v>
+      </c>
     </row>
-    <row r="44" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+    <row r="44" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38283,9 +38404,12 @@
       <c r="JD44" s="7">
         <v>5730</v>
       </c>
+      <c r="JE44" s="7">
+        <v>5790</v>
+      </c>
     </row>
-    <row r="45" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+    <row r="45" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39075,9 +39199,12 @@
       <c r="JD45" s="36">
         <v>6326</v>
       </c>
+      <c r="JE45" s="36">
+        <v>6413</v>
+      </c>
     </row>
-    <row r="46" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+    <row r="46" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39867,9 +39994,12 @@
       <c r="JD46" s="7">
         <v>12528</v>
       </c>
+      <c r="JE46" s="7">
+        <v>12171</v>
+      </c>
     </row>
-    <row r="47" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+    <row r="47" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40659,9 +40789,12 @@
       <c r="JD47" s="7">
         <v>1693</v>
       </c>
+      <c r="JE47" s="7">
+        <v>1669</v>
+      </c>
     </row>
-    <row r="48" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+    <row r="48" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41451,10 +41584,12 @@
         <v>480063</v>
       </c>
       <c r="JD48" s="10">
-        <f>SUM(JD28:JD47)</f>
         <v>481695</v>
       </c>
-      <c r="JE48" s="29"/>
+      <c r="JE48" s="10">
+        <f>SUM(JE28:JE47)</f>
+        <v>484648</v>
+      </c>
       <c r="JF48" s="29"/>
       <c r="JG48" s="29"/>
       <c r="JH48" s="29"/>
@@ -41914,7 +42049,7 @@
       <c r="AAT48" s="29"/>
       <c r="AAU48" s="29"/>
       <c r="AAV48" s="29"/>
-      <c r="AAW48" s="5"/>
+      <c r="AAW48" s="29"/>
       <c r="AAX48" s="5"/>
       <c r="AAY48" s="5"/>
       <c r="AAZ48" s="5"/>
@@ -42095,9 +42230,10 @@
       <c r="AHS48" s="5"/>
       <c r="AHT48" s="5"/>
       <c r="AHU48" s="5"/>
+      <c r="AHV48" s="5"/>
     </row>
-    <row r="49" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -42889,9 +43025,12 @@
       <c r="JD49" s="7">
         <v>18</v>
       </c>
+      <c r="JE49" s="7">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:264" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+    <row r="50" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43681,9 +43820,12 @@
       <c r="JD50" s="7">
         <v>1</v>
       </c>
+      <c r="JE50" s="7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="1:264" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+    <row r="51" spans="1:265" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44473,9 +44615,12 @@
       <c r="JD51" s="7">
         <v>1492</v>
       </c>
+      <c r="JE51" s="7">
+        <v>1487</v>
+      </c>
     </row>
-    <row r="52" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -45265,9 +45410,12 @@
       <c r="JD52" s="7">
         <v>1109</v>
       </c>
+      <c r="JE52" s="7">
+        <v>1138</v>
+      </c>
     </row>
-    <row r="53" spans="1:264" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+    <row r="53" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46057,12 +46205,15 @@
         <v>2640</v>
       </c>
       <c r="JD53" s="10">
-        <f>SUM(JD49:JD52)</f>
         <v>2620</v>
       </c>
+      <c r="JE53" s="10">
+        <f>SUM(JE49:JE52)</f>
+        <v>2646</v>
+      </c>
     </row>
-    <row r="54" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -46854,9 +47005,12 @@
       <c r="JD54" s="7">
         <v>5839</v>
       </c>
+      <c r="JE54" s="7">
+        <v>5840</v>
+      </c>
     </row>
-    <row r="55" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+    <row r="55" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -47646,9 +47800,12 @@
       <c r="JD55" s="7">
         <v>50033</v>
       </c>
+      <c r="JE55" s="7">
+        <v>50815</v>
+      </c>
     </row>
-    <row r="56" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
+    <row r="56" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -48438,9 +48595,12 @@
       <c r="JD56" s="7">
         <v>6796</v>
       </c>
+      <c r="JE56" s="7">
+        <v>6894</v>
+      </c>
     </row>
-    <row r="57" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+    <row r="57" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -49230,9 +49390,12 @@
       <c r="JD57" s="7">
         <v>186484</v>
       </c>
+      <c r="JE57" s="7">
+        <v>188354</v>
+      </c>
     </row>
-    <row r="58" spans="1:264" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+    <row r="58" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -50022,9 +50185,12 @@
       <c r="JD58" s="7">
         <v>30309</v>
       </c>
+      <c r="JE58" s="7">
+        <v>31202</v>
+      </c>
     </row>
-    <row r="59" spans="1:264" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+    <row r="59" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50814,9 +50980,12 @@
       <c r="JD59" s="36">
         <v>5818</v>
       </c>
+      <c r="JE59" s="36">
+        <v>5727</v>
+      </c>
     </row>
-    <row r="60" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+    <row r="60" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -51606,9 +51775,12 @@
       <c r="JD60" s="7">
         <v>47599</v>
       </c>
+      <c r="JE60" s="7">
+        <v>48176</v>
+      </c>
     </row>
-    <row r="61" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+    <row r="61" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -52398,9 +52570,12 @@
       <c r="JD61" s="37">
         <v>131</v>
       </c>
+      <c r="JE61" s="37">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+    <row r="62" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -53190,9 +53365,12 @@
       <c r="JD62" s="7">
         <v>19920</v>
       </c>
+      <c r="JE62" s="7">
+        <v>19989</v>
+      </c>
     </row>
-    <row r="63" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+    <row r="63" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -53982,9 +54160,12 @@
       <c r="JD63" s="7">
         <v>32979</v>
       </c>
+      <c r="JE63" s="7">
+        <v>33269</v>
+      </c>
     </row>
-    <row r="64" spans="1:264" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+    <row r="64" spans="1:265" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54774,9 +54955,12 @@
       <c r="JD64" s="7">
         <v>48359</v>
       </c>
+      <c r="JE64" s="7">
+        <v>48667</v>
+      </c>
     </row>
-    <row r="65" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+    <row r="65" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -55566,9 +55750,12 @@
       <c r="JD65" s="7">
         <v>164520</v>
       </c>
+      <c r="JE65" s="7">
+        <v>163640</v>
+      </c>
     </row>
-    <row r="66" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+    <row r="66" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -56358,9 +56545,12 @@
       <c r="JD66" s="7">
         <v>17107</v>
       </c>
+      <c r="JE66" s="7">
+        <v>17368</v>
+      </c>
     </row>
-    <row r="67" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+    <row r="67" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -57150,9 +57340,12 @@
       <c r="JD67" s="7">
         <v>6310</v>
       </c>
+      <c r="JE67" s="7">
+        <v>6391</v>
+      </c>
     </row>
-    <row r="68" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+    <row r="68" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -57942,10 +58135,12 @@
         <v>619859</v>
       </c>
       <c r="JD68" s="10">
-        <f>SUM(JD54:JD67)</f>
         <v>622204</v>
       </c>
-      <c r="JE68" s="29"/>
+      <c r="JE68" s="10">
+        <f>SUM(JE54:JE67)</f>
+        <v>626463</v>
+      </c>
       <c r="JF68" s="29"/>
       <c r="JG68" s="29"/>
       <c r="JH68" s="29"/>
@@ -58405,7 +58600,7 @@
       <c r="AAT68" s="29"/>
       <c r="AAU68" s="29"/>
       <c r="AAV68" s="29"/>
-      <c r="AAW68" s="5"/>
+      <c r="AAW68" s="29"/>
       <c r="AAX68" s="5"/>
       <c r="AAY68" s="5"/>
       <c r="AAZ68" s="5"/>
@@ -58586,9 +58781,10 @@
       <c r="AHS68" s="5"/>
       <c r="AHT68" s="5"/>
       <c r="AHU68" s="5"/>
+      <c r="AHV68" s="5"/>
     </row>
-    <row r="69" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+    <row r="69" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -59380,9 +59576,12 @@
       <c r="JD69" s="7">
         <v>9569</v>
       </c>
+      <c r="JE69" s="7">
+        <v>9742</v>
+      </c>
     </row>
-    <row r="70" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+    <row r="70" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -60172,9 +60371,12 @@
       <c r="JD70" s="7">
         <v>600</v>
       </c>
+      <c r="JE70" s="7">
+        <v>802</v>
+      </c>
     </row>
-    <row r="71" spans="1:905" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+    <row r="71" spans="1:906" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -60964,9 +61166,12 @@
       <c r="JD71" s="7">
         <v>30391</v>
       </c>
+      <c r="JE71" s="7">
+        <v>32202</v>
+      </c>
     </row>
-    <row r="72" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+    <row r="72" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -61756,9 +61961,12 @@
       <c r="JD72" s="7">
         <v>3517</v>
       </c>
+      <c r="JE72" s="7">
+        <v>3595</v>
+      </c>
     </row>
-    <row r="73" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+    <row r="73" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -62548,9 +62756,12 @@
       <c r="JD73" s="7">
         <v>532</v>
       </c>
+      <c r="JE73" s="7">
+        <v>656</v>
+      </c>
     </row>
-    <row r="74" spans="1:905" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+    <row r="74" spans="1:906" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -63340,9 +63551,12 @@
       <c r="JD74" s="7">
         <v>50449</v>
       </c>
+      <c r="JE74" s="7">
+        <v>50875</v>
+      </c>
     </row>
-    <row r="75" spans="1:905" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+    <row r="75" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -64132,10 +64346,12 @@
         <v>94275</v>
       </c>
       <c r="JD75" s="10">
-        <f>SUM(JD69:JD74)</f>
         <v>95058</v>
       </c>
-      <c r="JE75" s="29"/>
+      <c r="JE75" s="10">
+        <f>SUM(JE69:JE74)</f>
+        <v>97872</v>
+      </c>
       <c r="JF75" s="29"/>
       <c r="JG75" s="29"/>
       <c r="JH75" s="29"/>
@@ -64595,7 +64811,7 @@
       <c r="AAT75" s="29"/>
       <c r="AAU75" s="29"/>
       <c r="AAV75" s="29"/>
-      <c r="AAW75" s="5"/>
+      <c r="AAW75" s="29"/>
       <c r="AAX75" s="5"/>
       <c r="AAY75" s="5"/>
       <c r="AAZ75" s="5"/>
@@ -64776,8 +64992,9 @@
       <c r="AHS75" s="5"/>
       <c r="AHT75" s="5"/>
       <c r="AHU75" s="5"/>
+      <c r="AHV75" s="5"/>
     </row>
-    <row r="76" spans="1:905" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:906" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -65569,12 +65786,15 @@
         <v>1847731</v>
       </c>
       <c r="JD76" s="19">
-        <f>JD11+JD21+JD24+JD27+JD48+JD53+JD68+JD75</f>
         <v>1858235</v>
       </c>
-      <c r="JE76" s="35"/>
+      <c r="JE76" s="19">
+        <f>JE11+JE21+JE24+JE27+JE48+JE53+JE68+JE75</f>
+        <v>1873476</v>
+      </c>
+      <c r="JF76" s="35"/>
     </row>
-    <row r="77" spans="1:905" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:906" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -65834,7 +66054,7 @@
       <c r="JB77" s="30"/>
       <c r="JC77" s="30"/>
       <c r="JD77" s="30"/>
-      <c r="JE77" s="27"/>
+      <c r="JE77" s="30"/>
       <c r="JF77" s="27"/>
       <c r="JG77" s="27"/>
       <c r="JH77" s="27"/>
@@ -66294,14 +66514,35 @@
       <c r="AAT77" s="27"/>
       <c r="AAU77" s="27"/>
       <c r="AAV77" s="27"/>
+      <c r="AAW77" s="27"/>
     </row>
-    <row r="78" spans="1:905" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:906" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JE4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -66314,26 +66555,6 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:JD4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="340">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1060,6 +1060,9 @@
   <si>
     <t>2021/Noviembre</t>
   </si>
+  <si>
+    <t>2021/Diciembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1664,7 +1667,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1768,7 +1771,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2142,11 +2150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHV78"/>
+  <dimension ref="A1:AHW78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JH17" sqref="JH17"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,340 +2416,340 @@
     <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
-    <col min="263" max="264" width="16.140625" style="4" customWidth="1"/>
-    <col min="265" max="265" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="266" max="267" width="10.85546875" style="28"/>
-    <col min="268" max="268" width="33.85546875" style="28" customWidth="1"/>
-    <col min="269" max="725" width="10.85546875" style="28"/>
-    <col min="726" max="906" width="10.85546875" style="4"/>
-    <col min="907" max="16384" width="10.85546875" style="3"/>
+    <col min="263" max="265" width="16.140625" style="4" customWidth="1"/>
+    <col min="266" max="266" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="267" max="268" width="10.85546875" style="28"/>
+    <col min="269" max="269" width="33.85546875" style="28" customWidth="1"/>
+    <col min="270" max="726" width="10.85546875" style="28"/>
+    <col min="727" max="907" width="10.85546875" style="4"/>
+    <col min="908" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:906" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:906" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:906" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="40">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40"/>
+      <c r="BQ4" s="40"/>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="40"/>
+      <c r="BV4" s="40"/>
+      <c r="BW4" s="40">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="40"/>
+      <c r="BY4" s="40"/>
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
+      <c r="CC4" s="40"/>
+      <c r="CD4" s="40"/>
+      <c r="CE4" s="40"/>
+      <c r="CF4" s="40"/>
+      <c r="CG4" s="40"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="40">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="40"/>
+      <c r="CK4" s="40"/>
+      <c r="CL4" s="40"/>
+      <c r="CM4" s="40"/>
+      <c r="CN4" s="40"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="40"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="40"/>
+      <c r="CS4" s="40"/>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="40">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="40"/>
+      <c r="CW4" s="40"/>
+      <c r="CX4" s="40"/>
+      <c r="CY4" s="40"/>
+      <c r="CZ4" s="40"/>
+      <c r="DA4" s="40"/>
+      <c r="DB4" s="40"/>
+      <c r="DC4" s="40"/>
+      <c r="DD4" s="40"/>
+      <c r="DE4" s="40"/>
+      <c r="DF4" s="40"/>
+      <c r="DG4" s="40">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="40"/>
+      <c r="DI4" s="40"/>
+      <c r="DJ4" s="40"/>
+      <c r="DK4" s="40"/>
+      <c r="DL4" s="40"/>
+      <c r="DM4" s="40"/>
+      <c r="DN4" s="40"/>
+      <c r="DO4" s="40"/>
+      <c r="DP4" s="40"/>
+      <c r="DQ4" s="40"/>
+      <c r="DR4" s="40"/>
+      <c r="DS4" s="40">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="40"/>
+      <c r="DU4" s="40"/>
+      <c r="DV4" s="40"/>
+      <c r="DW4" s="40"/>
+      <c r="DX4" s="40"/>
+      <c r="DY4" s="40"/>
+      <c r="DZ4" s="40"/>
+      <c r="EA4" s="40"/>
+      <c r="EB4" s="40"/>
+      <c r="EC4" s="40"/>
+      <c r="ED4" s="40"/>
+      <c r="EE4" s="40">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="40"/>
+      <c r="EG4" s="40"/>
+      <c r="EH4" s="40"/>
+      <c r="EI4" s="40"/>
+      <c r="EJ4" s="40"/>
+      <c r="EK4" s="40"/>
+      <c r="EL4" s="40"/>
+      <c r="EM4" s="40"/>
+      <c r="EN4" s="40"/>
+      <c r="EO4" s="40"/>
+      <c r="EP4" s="40"/>
+      <c r="EQ4" s="40">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="40"/>
+      <c r="ES4" s="40"/>
+      <c r="ET4" s="40"/>
+      <c r="EU4" s="40"/>
+      <c r="EV4" s="40"/>
+      <c r="EW4" s="40"/>
+      <c r="EX4" s="40"/>
+      <c r="EY4" s="40"/>
+      <c r="EZ4" s="40"/>
+      <c r="FA4" s="40"/>
+      <c r="FB4" s="40"/>
+      <c r="FC4" s="40">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="40"/>
+      <c r="FE4" s="40"/>
+      <c r="FF4" s="40"/>
+      <c r="FG4" s="40"/>
+      <c r="FH4" s="40"/>
+      <c r="FI4" s="40"/>
+      <c r="FJ4" s="40"/>
+      <c r="FK4" s="40"/>
+      <c r="FL4" s="40"/>
+      <c r="FM4" s="40"/>
+      <c r="FN4" s="40"/>
+      <c r="FO4" s="40">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="40"/>
+      <c r="FQ4" s="40"/>
+      <c r="FR4" s="40"/>
+      <c r="FS4" s="40"/>
+      <c r="FT4" s="40"/>
+      <c r="FU4" s="40"/>
+      <c r="FV4" s="40"/>
+      <c r="FW4" s="40"/>
+      <c r="FX4" s="40"/>
+      <c r="FY4" s="40"/>
+      <c r="FZ4" s="40"/>
+      <c r="GA4" s="40">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="40"/>
+      <c r="GC4" s="40"/>
+      <c r="GD4" s="40"/>
+      <c r="GE4" s="40"/>
+      <c r="GF4" s="40"/>
+      <c r="GG4" s="40"/>
+      <c r="GH4" s="40"/>
+      <c r="GI4" s="40"/>
+      <c r="GJ4" s="40"/>
+      <c r="GK4" s="40"/>
+      <c r="GL4" s="40"/>
+      <c r="GM4" s="40">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="40"/>
+      <c r="GO4" s="40"/>
+      <c r="GP4" s="40"/>
+      <c r="GQ4" s="40"/>
+      <c r="GR4" s="40"/>
+      <c r="GS4" s="40"/>
+      <c r="GT4" s="40"/>
+      <c r="GU4" s="40"/>
+      <c r="GV4" s="40"/>
+      <c r="GW4" s="40"/>
+      <c r="GX4" s="40"/>
+      <c r="GY4" s="40">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="40"/>
+      <c r="HA4" s="40"/>
+      <c r="HB4" s="40"/>
+      <c r="HC4" s="40"/>
+      <c r="HD4" s="40"/>
+      <c r="HE4" s="40"/>
+      <c r="HF4" s="40"/>
+      <c r="HG4" s="40"/>
+      <c r="HH4" s="40"/>
+      <c r="HI4" s="40"/>
+      <c r="HJ4" s="40"/>
+      <c r="HK4" s="40">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="40"/>
+      <c r="HM4" s="40"/>
+      <c r="HN4" s="40"/>
+      <c r="HO4" s="40"/>
+      <c r="HP4" s="40"/>
+      <c r="HQ4" s="40"/>
+      <c r="HR4" s="40"/>
+      <c r="HS4" s="40"/>
+      <c r="HT4" s="40"/>
+      <c r="HU4" s="40"/>
+      <c r="HV4" s="40"/>
+      <c r="HW4" s="40">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
-      <c r="IH4" s="41"/>
-      <c r="II4" s="41">
+      <c r="HX4" s="40"/>
+      <c r="HY4" s="40"/>
+      <c r="HZ4" s="40"/>
+      <c r="IA4" s="40"/>
+      <c r="IB4" s="40"/>
+      <c r="IC4" s="40"/>
+      <c r="ID4" s="40"/>
+      <c r="IE4" s="40"/>
+      <c r="IF4" s="40"/>
+      <c r="IG4" s="40"/>
+      <c r="IH4" s="42"/>
+      <c r="II4" s="42">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="42"/>
-      <c r="IK4" s="42"/>
-      <c r="IL4" s="42"/>
-      <c r="IM4" s="42"/>
-      <c r="IN4" s="42"/>
-      <c r="IO4" s="42"/>
-      <c r="IP4" s="42"/>
-      <c r="IQ4" s="42"/>
-      <c r="IR4" s="42"/>
-      <c r="IS4" s="42"/>
-      <c r="IT4" s="43"/>
-      <c r="IU4" s="41">
+      <c r="IJ4" s="43"/>
+      <c r="IK4" s="43"/>
+      <c r="IL4" s="43"/>
+      <c r="IM4" s="43"/>
+      <c r="IN4" s="43"/>
+      <c r="IO4" s="43"/>
+      <c r="IP4" s="43"/>
+      <c r="IQ4" s="43"/>
+      <c r="IR4" s="43"/>
+      <c r="IS4" s="43"/>
+      <c r="IT4" s="44"/>
+      <c r="IU4" s="42">
         <v>2021</v>
       </c>
-      <c r="IV4" s="42"/>
-      <c r="IW4" s="42"/>
-      <c r="IX4" s="42"/>
-      <c r="IY4" s="42"/>
-      <c r="IZ4" s="42"/>
-      <c r="JA4" s="42"/>
-      <c r="JB4" s="42"/>
-      <c r="JC4" s="42"/>
-      <c r="JD4" s="42"/>
+      <c r="IV4" s="43"/>
+      <c r="IW4" s="43"/>
+      <c r="IX4" s="43"/>
+      <c r="IY4" s="43"/>
+      <c r="IZ4" s="43"/>
+      <c r="JA4" s="43"/>
+      <c r="JB4" s="43"/>
+      <c r="JC4" s="43"/>
+      <c r="JD4" s="43"/>
       <c r="JE4" s="43"/>
-      <c r="JF4" s="29"/>
+      <c r="JF4" s="44"/>
       <c r="JG4" s="29"/>
       <c r="JH4" s="29"/>
       <c r="JI4" s="29"/>
@@ -3201,7 +3209,7 @@
       <c r="AAU4" s="29"/>
       <c r="AAV4" s="29"/>
       <c r="AAW4" s="29"/>
-      <c r="AAX4" s="5"/>
+      <c r="AAX4" s="29"/>
       <c r="AAY4" s="5"/>
       <c r="AAZ4" s="5"/>
       <c r="ABA4" s="5"/>
@@ -3382,10 +3390,11 @@
       <c r="AHT4" s="5"/>
       <c r="AHU4" s="5"/>
       <c r="AHV4" s="5"/>
+      <c r="AHW4" s="5"/>
     </row>
-    <row r="5" spans="1:906" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4175,7 +4184,9 @@
       <c r="JE5" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="JF5" s="29"/>
+      <c r="JF5" s="31" t="s">
+        <v>339</v>
+      </c>
       <c r="JG5" s="29"/>
       <c r="JH5" s="29"/>
       <c r="JI5" s="29"/>
@@ -4635,7 +4646,7 @@
       <c r="AAU5" s="29"/>
       <c r="AAV5" s="29"/>
       <c r="AAW5" s="29"/>
-      <c r="AAX5" s="5"/>
+      <c r="AAX5" s="29"/>
       <c r="AAY5" s="5"/>
       <c r="AAZ5" s="5"/>
       <c r="ABA5" s="5"/>
@@ -4816,9 +4827,10 @@
       <c r="AHT5" s="5"/>
       <c r="AHU5" s="5"/>
       <c r="AHV5" s="5"/>
+      <c r="AHW5" s="5"/>
     </row>
-    <row r="6" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5613,9 +5625,12 @@
       <c r="JE6" s="7">
         <v>94695</v>
       </c>
+      <c r="JF6" s="7">
+        <v>92102</v>
+      </c>
     </row>
-    <row r="7" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6408,9 +6423,12 @@
       <c r="JE7" s="7">
         <v>47</v>
       </c>
+      <c r="JF7" s="7">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7203,9 +7221,12 @@
       <c r="JE8" s="7">
         <v>23541</v>
       </c>
+      <c r="JF8" s="7">
+        <v>23294</v>
+      </c>
     </row>
-    <row r="9" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -7998,9 +8019,12 @@
       <c r="JE9" s="7">
         <v>547</v>
       </c>
+      <c r="JF9" s="7">
+        <v>439</v>
+      </c>
     </row>
-    <row r="10" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8793,9 +8817,12 @@
       <c r="JE10" s="7">
         <v>390</v>
       </c>
+      <c r="JF10" s="7">
+        <v>367</v>
+      </c>
     </row>
-    <row r="11" spans="1:906" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9588,10 +9615,12 @@
         <v>117212</v>
       </c>
       <c r="JE11" s="10">
-        <f>SUM(JE6:JE10)</f>
         <v>119220</v>
       </c>
-      <c r="JF11" s="29"/>
+      <c r="JF11" s="10">
+        <f>SUM(JF6:JF10)</f>
+        <v>116251</v>
+      </c>
       <c r="JG11" s="29"/>
       <c r="JH11" s="29"/>
       <c r="JI11" s="29"/>
@@ -10051,7 +10080,7 @@
       <c r="AAU11" s="29"/>
       <c r="AAV11" s="29"/>
       <c r="AAW11" s="29"/>
-      <c r="AAX11" s="5"/>
+      <c r="AAX11" s="29"/>
       <c r="AAY11" s="5"/>
       <c r="AAZ11" s="5"/>
       <c r="ABA11" s="5"/>
@@ -10232,9 +10261,10 @@
       <c r="AHT11" s="5"/>
       <c r="AHU11" s="5"/>
       <c r="AHV11" s="5"/>
+      <c r="AHW11" s="5"/>
     </row>
-    <row r="12" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11029,9 +11059,12 @@
       <c r="JE12" s="7">
         <v>77795</v>
       </c>
+      <c r="JF12" s="7">
+        <v>76849</v>
+      </c>
     </row>
-    <row r="13" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11824,9 +11857,12 @@
       <c r="JE13" s="7">
         <v>20104</v>
       </c>
+      <c r="JF13" s="7">
+        <v>19911</v>
+      </c>
     </row>
-    <row r="14" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12619,9 +12655,12 @@
       <c r="JE14" s="7">
         <v>29623</v>
       </c>
+      <c r="JF14" s="7">
+        <v>32156</v>
+      </c>
     </row>
-    <row r="15" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13414,9 +13453,12 @@
       <c r="JE15" s="7">
         <v>23376</v>
       </c>
+      <c r="JF15" s="7">
+        <v>23100</v>
+      </c>
     </row>
-    <row r="16" spans="1:906" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:907" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14209,9 +14251,12 @@
       <c r="JE16" s="7">
         <v>17829</v>
       </c>
+      <c r="JF16" s="7">
+        <v>17578</v>
+      </c>
     </row>
-    <row r="17" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15004,9 +15049,12 @@
       <c r="JE17" s="7">
         <v>47239</v>
       </c>
+      <c r="JF17" s="7">
+        <v>46749</v>
+      </c>
     </row>
-    <row r="18" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15799,9 +15847,12 @@
       <c r="JE18" s="7">
         <v>58545</v>
       </c>
+      <c r="JF18" s="7">
+        <v>58238</v>
+      </c>
     </row>
-    <row r="19" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16594,9 +16645,12 @@
       <c r="JE19" s="7">
         <v>68121</v>
       </c>
+      <c r="JF19" s="7">
+        <v>67643</v>
+      </c>
     </row>
-    <row r="20" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17389,9 +17443,12 @@
       <c r="JE20" s="7">
         <v>48602</v>
       </c>
+      <c r="JF20" s="7">
+        <v>46725</v>
+      </c>
     </row>
-    <row r="21" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18184,10 +18241,12 @@
         <v>388373</v>
       </c>
       <c r="JE21" s="10">
-        <f>SUM(JE12:JE20)</f>
         <v>391234</v>
       </c>
-      <c r="JF21" s="29"/>
+      <c r="JF21" s="10">
+        <f>SUM(JF12:JF20)</f>
+        <v>388949</v>
+      </c>
       <c r="JG21" s="29"/>
       <c r="JH21" s="29"/>
       <c r="JI21" s="29"/>
@@ -18647,7 +18706,7 @@
       <c r="AAU21" s="29"/>
       <c r="AAV21" s="29"/>
       <c r="AAW21" s="29"/>
-      <c r="AAX21" s="5"/>
+      <c r="AAX21" s="29"/>
       <c r="AAY21" s="5"/>
       <c r="AAZ21" s="5"/>
       <c r="ABA21" s="5"/>
@@ -18828,9 +18887,10 @@
       <c r="AHT21" s="5"/>
       <c r="AHU21" s="5"/>
       <c r="AHV21" s="5"/>
+      <c r="AHW21" s="5"/>
     </row>
-    <row r="22" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19625,9 +19685,12 @@
       <c r="JE22" s="7">
         <v>105642</v>
       </c>
+      <c r="JF22" s="7">
+        <v>99351</v>
+      </c>
     </row>
-    <row r="23" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+    <row r="23" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20420,9 +20483,12 @@
       <c r="JE23" s="7">
         <v>36181</v>
       </c>
+      <c r="JF23" s="7">
+        <v>35196</v>
+      </c>
     </row>
-    <row r="24" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+    <row r="24" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21215,10 +21281,12 @@
         <v>141565</v>
       </c>
       <c r="JE24" s="10">
-        <f>SUM(JE22:JE23)</f>
         <v>141823</v>
       </c>
-      <c r="JF24" s="29"/>
+      <c r="JF24" s="10">
+        <f>SUM(JF22:JF23)</f>
+        <v>134547</v>
+      </c>
       <c r="JG24" s="29"/>
       <c r="JH24" s="29"/>
       <c r="JI24" s="29"/>
@@ -21678,7 +21746,7 @@
       <c r="AAU24" s="29"/>
       <c r="AAV24" s="29"/>
       <c r="AAW24" s="29"/>
-      <c r="AAX24" s="5"/>
+      <c r="AAX24" s="29"/>
       <c r="AAY24" s="5"/>
       <c r="AAZ24" s="5"/>
       <c r="ABA24" s="5"/>
@@ -21859,9 +21927,10 @@
       <c r="AHT24" s="5"/>
       <c r="AHU24" s="5"/>
       <c r="AHV24" s="5"/>
+      <c r="AHW24" s="5"/>
     </row>
-    <row r="25" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22656,9 +22725,12 @@
       <c r="JE25" s="7">
         <v>4241</v>
       </c>
+      <c r="JF25" s="7">
+        <v>4039</v>
+      </c>
     </row>
-    <row r="26" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23451,9 +23523,12 @@
       <c r="JE26" s="7">
         <v>5329</v>
       </c>
+      <c r="JF26" s="7">
+        <v>5354</v>
+      </c>
     </row>
-    <row r="27" spans="1:906" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24246,10 +24321,12 @@
         <v>9508</v>
       </c>
       <c r="JE27" s="10">
-        <f>SUM(JE25:JE26)</f>
         <v>9570</v>
       </c>
-      <c r="JF27" s="29"/>
+      <c r="JF27" s="10">
+        <f>SUM(JF25:JF26)</f>
+        <v>9393</v>
+      </c>
       <c r="JG27" s="29"/>
       <c r="JH27" s="29"/>
       <c r="JI27" s="29"/>
@@ -24709,7 +24786,7 @@
       <c r="AAU27" s="29"/>
       <c r="AAV27" s="29"/>
       <c r="AAW27" s="29"/>
-      <c r="AAX27" s="5"/>
+      <c r="AAX27" s="29"/>
       <c r="AAY27" s="5"/>
       <c r="AAZ27" s="5"/>
       <c r="ABA27" s="5"/>
@@ -24890,9 +24967,10 @@
       <c r="AHT27" s="5"/>
       <c r="AHU27" s="5"/>
       <c r="AHV27" s="5"/>
+      <c r="AHW27" s="5"/>
     </row>
-    <row r="28" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25687,9 +25765,12 @@
       <c r="JE28" s="7">
         <v>751</v>
       </c>
+      <c r="JF28" s="7">
+        <v>743</v>
+      </c>
     </row>
-    <row r="29" spans="1:906" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:907" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26482,9 +26563,12 @@
       <c r="JE29" s="7">
         <v>10462</v>
       </c>
+      <c r="JF29" s="7">
+        <v>10327</v>
+      </c>
     </row>
-    <row r="30" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27277,9 +27361,12 @@
       <c r="JE30" s="7">
         <v>28188</v>
       </c>
+      <c r="JF30" s="7">
+        <v>27679</v>
+      </c>
     </row>
-    <row r="31" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28072,9 +28159,12 @@
       <c r="JE31" s="7">
         <v>102691</v>
       </c>
+      <c r="JF31" s="7">
+        <v>102075</v>
+      </c>
     </row>
-    <row r="32" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -28867,9 +28957,12 @@
       <c r="JE32" s="7">
         <v>23795</v>
       </c>
+      <c r="JF32" s="7">
+        <v>23605</v>
+      </c>
     </row>
-    <row r="33" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29662,9 +29755,12 @@
       <c r="JE33" s="7">
         <v>9441</v>
       </c>
+      <c r="JF33" s="7">
+        <v>9308</v>
+      </c>
     </row>
-    <row r="34" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30457,9 +30553,12 @@
       <c r="JE34" s="7">
         <v>43648</v>
       </c>
+      <c r="JF34" s="7">
+        <v>42684</v>
+      </c>
     </row>
-    <row r="35" spans="1:906" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:907" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31252,9 +31351,12 @@
       <c r="JE35" s="7">
         <v>10143</v>
       </c>
+      <c r="JF35" s="7">
+        <v>9998</v>
+      </c>
     </row>
-    <row r="36" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32047,9 +32149,12 @@
       <c r="JE36" s="7">
         <v>51499</v>
       </c>
+      <c r="JF36" s="7">
+        <v>50787</v>
+      </c>
     </row>
-    <row r="37" spans="1:906" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:907" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -32842,9 +32947,12 @@
       <c r="JE37" s="7">
         <v>59922</v>
       </c>
+      <c r="JF37" s="7">
+        <v>60651</v>
+      </c>
     </row>
-    <row r="38" spans="1:906" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:907" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33637,9 +33745,12 @@
       <c r="JE38" s="7">
         <v>23549</v>
       </c>
+      <c r="JF38" s="7">
+        <v>23069</v>
+      </c>
     </row>
-    <row r="39" spans="1:906" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:907" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34432,9 +34543,12 @@
       <c r="JE39" s="7">
         <v>22622</v>
       </c>
+      <c r="JF39" s="7">
+        <v>22659</v>
+      </c>
     </row>
-    <row r="40" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35227,9 +35341,12 @@
       <c r="JE40" s="7">
         <v>12155</v>
       </c>
+      <c r="JF40" s="7">
+        <v>11913</v>
+      </c>
     </row>
-    <row r="41" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36022,9 +36139,12 @@
       <c r="JE41" s="7">
         <v>11740</v>
       </c>
+      <c r="JF41" s="7">
+        <v>11688</v>
+      </c>
     </row>
-    <row r="42" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -36817,9 +36937,12 @@
       <c r="JE42" s="7">
         <v>42945</v>
       </c>
+      <c r="JF42" s="7">
+        <v>42672</v>
+      </c>
     </row>
-    <row r="43" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37612,9 +37735,12 @@
       <c r="JE43" s="7">
         <v>5054</v>
       </c>
+      <c r="JF43" s="7">
+        <v>5025</v>
+      </c>
     </row>
-    <row r="44" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38407,9 +38533,12 @@
       <c r="JE44" s="7">
         <v>5790</v>
       </c>
+      <c r="JF44" s="7">
+        <v>5678</v>
+      </c>
     </row>
-    <row r="45" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39193,18 +39322,21 @@
       <c r="JB45" s="30">
         <v>6578</v>
       </c>
-      <c r="JC45" s="36">
+      <c r="JC45" s="37">
         <v>6305</v>
       </c>
-      <c r="JD45" s="36">
+      <c r="JD45" s="37">
         <v>6326</v>
       </c>
-      <c r="JE45" s="36">
+      <c r="JE45" s="37">
         <v>6413</v>
       </c>
+      <c r="JF45" s="37">
+        <v>6324</v>
+      </c>
     </row>
-    <row r="46" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -39997,9 +40129,12 @@
       <c r="JE46" s="7">
         <v>12171</v>
       </c>
+      <c r="JF46" s="7">
+        <v>12129</v>
+      </c>
     </row>
-    <row r="47" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -40792,9 +40927,12 @@
       <c r="JE47" s="7">
         <v>1669</v>
       </c>
+      <c r="JF47" s="7">
+        <v>1646</v>
+      </c>
     </row>
-    <row r="48" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41587,10 +41725,12 @@
         <v>481695</v>
       </c>
       <c r="JE48" s="10">
-        <f>SUM(JE28:JE47)</f>
         <v>484648</v>
       </c>
-      <c r="JF48" s="29"/>
+      <c r="JF48" s="10">
+        <f>SUM(JF28:JF47)</f>
+        <v>480660</v>
+      </c>
       <c r="JG48" s="29"/>
       <c r="JH48" s="29"/>
       <c r="JI48" s="29"/>
@@ -42050,7 +42190,7 @@
       <c r="AAU48" s="29"/>
       <c r="AAV48" s="29"/>
       <c r="AAW48" s="29"/>
-      <c r="AAX48" s="5"/>
+      <c r="AAX48" s="29"/>
       <c r="AAY48" s="5"/>
       <c r="AAZ48" s="5"/>
       <c r="ABA48" s="5"/>
@@ -42231,9 +42371,10 @@
       <c r="AHT48" s="5"/>
       <c r="AHU48" s="5"/>
       <c r="AHV48" s="5"/>
+      <c r="AHW48" s="5"/>
     </row>
-    <row r="49" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43028,9 +43169,12 @@
       <c r="JE49" s="7">
         <v>18</v>
       </c>
+      <c r="JF49" s="7">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -43823,9 +43967,12 @@
       <c r="JE50" s="7">
         <v>3</v>
       </c>
+      <c r="JF50" s="7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:265" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:266" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44618,9 +44765,12 @@
       <c r="JE51" s="7">
         <v>1487</v>
       </c>
+      <c r="JF51" s="7">
+        <v>1464</v>
+      </c>
     </row>
-    <row r="52" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -45413,9 +45563,12 @@
       <c r="JE52" s="7">
         <v>1138</v>
       </c>
+      <c r="JF52" s="7">
+        <v>1139</v>
+      </c>
     </row>
-    <row r="53" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46208,12 +46361,15 @@
         <v>2620</v>
       </c>
       <c r="JE53" s="10">
-        <f>SUM(JE49:JE52)</f>
         <v>2646</v>
       </c>
+      <c r="JF53" s="10">
+        <f>SUM(JF49:JF52)</f>
+        <v>2624</v>
+      </c>
     </row>
-    <row r="54" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47008,9 +47164,12 @@
       <c r="JE54" s="7">
         <v>5840</v>
       </c>
+      <c r="JF54" s="7">
+        <v>5833</v>
+      </c>
     </row>
-    <row r="55" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -47803,9 +47962,12 @@
       <c r="JE55" s="7">
         <v>50815</v>
       </c>
+      <c r="JF55" s="7">
+        <v>51400</v>
+      </c>
     </row>
-    <row r="56" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+    <row r="56" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -48598,9 +48760,12 @@
       <c r="JE56" s="7">
         <v>6894</v>
       </c>
+      <c r="JF56" s="7">
+        <v>6918</v>
+      </c>
     </row>
-    <row r="57" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -49393,9 +49558,12 @@
       <c r="JE57" s="7">
         <v>188354</v>
       </c>
+      <c r="JF57" s="7">
+        <v>188776</v>
+      </c>
     </row>
-    <row r="58" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -50188,9 +50356,12 @@
       <c r="JE58" s="7">
         <v>31202</v>
       </c>
+      <c r="JF58" s="7">
+        <v>31212</v>
+      </c>
     </row>
-    <row r="59" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+    <row r="59" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -50983,9 +51154,12 @@
       <c r="JE59" s="36">
         <v>5727</v>
       </c>
+      <c r="JF59" s="36">
+        <v>5726</v>
+      </c>
     </row>
-    <row r="60" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -51778,9 +51952,12 @@
       <c r="JE60" s="7">
         <v>48176</v>
       </c>
+      <c r="JF60" s="7">
+        <v>44444</v>
+      </c>
     </row>
-    <row r="61" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+    <row r="61" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -52564,18 +52741,21 @@
       <c r="JB61" s="7">
         <v>131</v>
       </c>
-      <c r="JC61" s="37">
+      <c r="JC61" s="38">
         <v>131</v>
       </c>
-      <c r="JD61" s="37">
+      <c r="JD61" s="38">
         <v>131</v>
       </c>
-      <c r="JE61" s="37">
+      <c r="JE61" s="38">
         <v>131</v>
       </c>
+      <c r="JF61" s="38">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+    <row r="62" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -53368,9 +53548,12 @@
       <c r="JE62" s="7">
         <v>19989</v>
       </c>
+      <c r="JF62" s="7">
+        <v>19651</v>
+      </c>
     </row>
-    <row r="63" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+    <row r="63" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -54163,9 +54346,12 @@
       <c r="JE63" s="7">
         <v>33269</v>
       </c>
+      <c r="JF63" s="7">
+        <v>33169</v>
+      </c>
     </row>
-    <row r="64" spans="1:265" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+    <row r="64" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -54958,9 +55144,12 @@
       <c r="JE64" s="7">
         <v>48667</v>
       </c>
+      <c r="JF64" s="7">
+        <v>47992</v>
+      </c>
     </row>
-    <row r="65" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+    <row r="65" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -55753,9 +55942,12 @@
       <c r="JE65" s="7">
         <v>163640</v>
       </c>
+      <c r="JF65" s="7">
+        <v>161092</v>
+      </c>
     </row>
-    <row r="66" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+    <row r="66" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -56548,9 +56740,12 @@
       <c r="JE66" s="7">
         <v>17368</v>
       </c>
+      <c r="JF66" s="7">
+        <v>17621</v>
+      </c>
     </row>
-    <row r="67" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+    <row r="67" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -57343,9 +57538,12 @@
       <c r="JE67" s="7">
         <v>6391</v>
       </c>
+      <c r="JF67" s="7">
+        <v>6355</v>
+      </c>
     </row>
-    <row r="68" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+    <row r="68" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -58138,10 +58336,12 @@
         <v>622204</v>
       </c>
       <c r="JE68" s="10">
-        <f>SUM(JE54:JE67)</f>
         <v>626463</v>
       </c>
-      <c r="JF68" s="29"/>
+      <c r="JF68" s="10">
+        <f>SUM(JF54:JF67)</f>
+        <v>620320</v>
+      </c>
       <c r="JG68" s="29"/>
       <c r="JH68" s="29"/>
       <c r="JI68" s="29"/>
@@ -58601,7 +58801,7 @@
       <c r="AAU68" s="29"/>
       <c r="AAV68" s="29"/>
       <c r="AAW68" s="29"/>
-      <c r="AAX68" s="5"/>
+      <c r="AAX68" s="29"/>
       <c r="AAY68" s="5"/>
       <c r="AAZ68" s="5"/>
       <c r="ABA68" s="5"/>
@@ -58782,9 +58982,10 @@
       <c r="AHT68" s="5"/>
       <c r="AHU68" s="5"/>
       <c r="AHV68" s="5"/>
+      <c r="AHW68" s="5"/>
     </row>
-    <row r="69" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+    <row r="69" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -59579,9 +59780,12 @@
       <c r="JE69" s="7">
         <v>9742</v>
       </c>
+      <c r="JF69" s="7">
+        <v>9734</v>
+      </c>
     </row>
-    <row r="70" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+    <row r="70" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -60374,9 +60578,12 @@
       <c r="JE70" s="7">
         <v>802</v>
       </c>
+      <c r="JF70" s="7">
+        <v>804</v>
+      </c>
     </row>
-    <row r="71" spans="1:906" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+    <row r="71" spans="1:907" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -61169,9 +61376,12 @@
       <c r="JE71" s="7">
         <v>32202</v>
       </c>
+      <c r="JF71" s="7">
+        <v>31388</v>
+      </c>
     </row>
-    <row r="72" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+    <row r="72" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -61964,9 +62174,12 @@
       <c r="JE72" s="7">
         <v>3595</v>
       </c>
+      <c r="JF72" s="7">
+        <v>3709</v>
+      </c>
     </row>
-    <row r="73" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+    <row r="73" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -62759,9 +62972,12 @@
       <c r="JE73" s="7">
         <v>656</v>
       </c>
+      <c r="JF73" s="7">
+        <v>544</v>
+      </c>
     </row>
-    <row r="74" spans="1:906" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+    <row r="74" spans="1:907" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -63554,9 +63770,12 @@
       <c r="JE74" s="7">
         <v>50875</v>
       </c>
+      <c r="JF74" s="7">
+        <v>51076</v>
+      </c>
     </row>
-    <row r="75" spans="1:906" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+    <row r="75" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -64349,10 +64568,12 @@
         <v>95058</v>
       </c>
       <c r="JE75" s="10">
-        <f>SUM(JE69:JE74)</f>
         <v>97872</v>
       </c>
-      <c r="JF75" s="29"/>
+      <c r="JF75" s="10">
+        <f>SUM(JF69:JF74)</f>
+        <v>97255</v>
+      </c>
       <c r="JG75" s="29"/>
       <c r="JH75" s="29"/>
       <c r="JI75" s="29"/>
@@ -64812,7 +65033,7 @@
       <c r="AAU75" s="29"/>
       <c r="AAV75" s="29"/>
       <c r="AAW75" s="29"/>
-      <c r="AAX75" s="5"/>
+      <c r="AAX75" s="29"/>
       <c r="AAY75" s="5"/>
       <c r="AAZ75" s="5"/>
       <c r="ABA75" s="5"/>
@@ -64993,8 +65214,9 @@
       <c r="AHT75" s="5"/>
       <c r="AHU75" s="5"/>
       <c r="AHV75" s="5"/>
+      <c r="AHW75" s="5"/>
     </row>
-    <row r="76" spans="1:906" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -65789,12 +66011,15 @@
         <v>1858235</v>
       </c>
       <c r="JE76" s="19">
-        <f>JE11+JE21+JE24+JE27+JE48+JE53+JE68+JE75</f>
         <v>1873476</v>
       </c>
-      <c r="JF76" s="35"/>
+      <c r="JF76" s="19">
+        <f>JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <v>1849999</v>
+      </c>
+      <c r="JG76" s="35"/>
     </row>
-    <row r="77" spans="1:906" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:907" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -66055,7 +66280,7 @@
       <c r="JC77" s="30"/>
       <c r="JD77" s="30"/>
       <c r="JE77" s="30"/>
-      <c r="JF77" s="27"/>
+      <c r="JF77" s="30"/>
       <c r="JG77" s="27"/>
       <c r="JH77" s="27"/>
       <c r="JI77" s="27"/>
@@ -66515,8 +66740,9 @@
       <c r="AAU77" s="27"/>
       <c r="AAV77" s="27"/>
       <c r="AAW77" s="27"/>
+      <c r="AAX77" s="27"/>
     </row>
-    <row r="78" spans="1:906" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
@@ -66524,7 +66750,7 @@
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:JE4"/>
+    <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
     <mergeCell ref="HW4:IH4"/>
     <mergeCell ref="HK4:HV4"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="341">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1022,9 +1022,6 @@
     <t>2020/Diciembre</t>
   </si>
   <si>
-    <t>2000-2021</t>
-  </si>
-  <si>
     <t>2021/Enero</t>
   </si>
   <si>
@@ -1062,6 +1059,12 @@
   </si>
   <si>
     <t>2021/Diciembre</t>
+  </si>
+  <si>
+    <t>2000-2022</t>
+  </si>
+  <si>
+    <t>2022/Enero</t>
   </si>
 </sst>
 </file>
@@ -1765,9 +1768,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1776,6 +1776,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2154,7 +2157,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2"/>
+      <selection pane="topRight" activeCell="JI22" sqref="JI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,7 +2421,8 @@
     <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
     <col min="263" max="265" width="16.140625" style="4" customWidth="1"/>
     <col min="266" max="266" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="267" max="268" width="10.85546875" style="28"/>
+    <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="10.85546875" style="28"/>
     <col min="269" max="269" width="33.85546875" style="28" customWidth="1"/>
     <col min="270" max="726" width="10.85546875" style="28"/>
     <col min="727" max="907" width="10.85546875" style="4"/>
@@ -2432,7 +2436,7 @@
     </row>
     <row r="2" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2750,7 +2754,9 @@
       <c r="JD4" s="43"/>
       <c r="JE4" s="43"/>
       <c r="JF4" s="44"/>
-      <c r="JG4" s="29"/>
+      <c r="JG4" s="38">
+        <v>2022</v>
+      </c>
       <c r="JH4" s="29"/>
       <c r="JI4" s="29"/>
       <c r="JJ4" s="29"/>
@@ -4152,42 +4158,44 @@
         <v>325</v>
       </c>
       <c r="IU5" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="IV5" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="IV5" s="31" t="s">
+      <c r="IW5" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="IW5" s="31" t="s">
-        <v>329</v>
-      </c>
       <c r="IX5" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="IY5" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="IY5" s="31" t="s">
+      <c r="IZ5" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="IZ5" s="31" t="s">
+      <c r="JA5" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="JA5" s="31" t="s">
+      <c r="JB5" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="JB5" s="31" t="s">
+      <c r="JC5" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="JC5" s="31" t="s">
+      <c r="JD5" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="JD5" s="31" t="s">
+      <c r="JE5" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="JE5" s="31" t="s">
+      <c r="JF5" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="JF5" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="JG5" s="29"/>
+      <c r="JG5" s="31" t="s">
+        <v>340</v>
+      </c>
       <c r="JH5" s="29"/>
       <c r="JI5" s="29"/>
       <c r="JJ5" s="29"/>
@@ -4834,7 +4842,7 @@
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="7">
         <v>32977</v>
@@ -5627,6 +5635,9 @@
       </c>
       <c r="JF6" s="7">
         <v>92102</v>
+      </c>
+      <c r="JG6" s="7">
+        <v>97140</v>
       </c>
     </row>
     <row r="7" spans="1:907" x14ac:dyDescent="0.25">
@@ -6426,6 +6437,9 @@
       <c r="JF7" s="7">
         <v>49</v>
       </c>
+      <c r="JG7" s="8">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
@@ -7224,6 +7238,9 @@
       <c r="JF8" s="7">
         <v>23294</v>
       </c>
+      <c r="JG8" s="7">
+        <v>23545</v>
+      </c>
     </row>
     <row r="9" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
@@ -8022,6 +8039,9 @@
       <c r="JF9" s="7">
         <v>439</v>
       </c>
+      <c r="JG9" s="7">
+        <v>476</v>
+      </c>
     </row>
     <row r="10" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -8820,6 +8840,9 @@
       <c r="JF10" s="7">
         <v>367</v>
       </c>
+      <c r="JG10" s="8">
+        <v>377</v>
+      </c>
     </row>
     <row r="11" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
@@ -9621,7 +9644,10 @@
         <f>SUM(JF6:JF10)</f>
         <v>116251</v>
       </c>
-      <c r="JG11" s="29"/>
+      <c r="JG11" s="10">
+        <f>SUM(JG6:JG10)</f>
+        <v>121583</v>
+      </c>
       <c r="JH11" s="29"/>
       <c r="JI11" s="29"/>
       <c r="JJ11" s="29"/>
@@ -11062,6 +11088,9 @@
       <c r="JF12" s="7">
         <v>76849</v>
       </c>
+      <c r="JG12" s="7">
+        <v>77267</v>
+      </c>
     </row>
     <row r="13" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
@@ -11860,6 +11889,9 @@
       <c r="JF13" s="7">
         <v>19911</v>
       </c>
+      <c r="JG13" s="7">
+        <v>19663</v>
+      </c>
     </row>
     <row r="14" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
@@ -12658,6 +12690,9 @@
       <c r="JF14" s="7">
         <v>32156</v>
       </c>
+      <c r="JG14" s="7">
+        <v>32456</v>
+      </c>
     </row>
     <row r="15" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
@@ -13456,6 +13491,9 @@
       <c r="JF15" s="7">
         <v>23100</v>
       </c>
+      <c r="JG15" s="7">
+        <v>22996</v>
+      </c>
     </row>
     <row r="16" spans="1:907" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
@@ -14254,6 +14292,9 @@
       <c r="JF16" s="7">
         <v>17578</v>
       </c>
+      <c r="JG16" s="7">
+        <v>17242</v>
+      </c>
     </row>
     <row r="17" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
@@ -15052,6 +15093,9 @@
       <c r="JF17" s="7">
         <v>46749</v>
       </c>
+      <c r="JG17" s="7">
+        <v>47115</v>
+      </c>
     </row>
     <row r="18" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
@@ -15850,6 +15894,9 @@
       <c r="JF18" s="7">
         <v>58238</v>
       </c>
+      <c r="JG18" s="7">
+        <v>58526</v>
+      </c>
     </row>
     <row r="19" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
@@ -16648,6 +16695,9 @@
       <c r="JF19" s="7">
         <v>67643</v>
       </c>
+      <c r="JG19" s="7">
+        <v>67146</v>
+      </c>
     </row>
     <row r="20" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
@@ -17446,6 +17496,9 @@
       <c r="JF20" s="7">
         <v>46725</v>
       </c>
+      <c r="JG20" s="7">
+        <v>45811</v>
+      </c>
     </row>
     <row r="21" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
@@ -18247,7 +18300,10 @@
         <f>SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
-      <c r="JG21" s="29"/>
+      <c r="JG21" s="10">
+        <f>SUM(JG12:JG20)</f>
+        <v>388222</v>
+      </c>
       <c r="JH21" s="29"/>
       <c r="JI21" s="29"/>
       <c r="JJ21" s="29"/>
@@ -19688,6 +19744,9 @@
       <c r="JF22" s="7">
         <v>99351</v>
       </c>
+      <c r="JG22" s="7">
+        <v>100894</v>
+      </c>
     </row>
     <row r="23" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
@@ -20486,6 +20545,9 @@
       <c r="JF23" s="7">
         <v>35196</v>
       </c>
+      <c r="JG23" s="7">
+        <v>34794</v>
+      </c>
     </row>
     <row r="24" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
@@ -21287,7 +21349,10 @@
         <f>SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
-      <c r="JG24" s="29"/>
+      <c r="JG24" s="10">
+        <f>SUM(JG22:JG23)</f>
+        <v>135688</v>
+      </c>
       <c r="JH24" s="29"/>
       <c r="JI24" s="29"/>
       <c r="JJ24" s="29"/>
@@ -22728,6 +22793,9 @@
       <c r="JF25" s="7">
         <v>4039</v>
       </c>
+      <c r="JG25" s="7">
+        <v>4087</v>
+      </c>
     </row>
     <row r="26" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
@@ -23526,6 +23594,9 @@
       <c r="JF26" s="7">
         <v>5354</v>
       </c>
+      <c r="JG26" s="7">
+        <v>5346</v>
+      </c>
     </row>
     <row r="27" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
@@ -24327,7 +24398,10 @@
         <f>SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
-      <c r="JG27" s="29"/>
+      <c r="JG27" s="10">
+        <f>SUM(JG25:JG26)</f>
+        <v>9433</v>
+      </c>
       <c r="JH27" s="29"/>
       <c r="JI27" s="29"/>
       <c r="JJ27" s="29"/>
@@ -25768,6 +25842,9 @@
       <c r="JF28" s="7">
         <v>743</v>
       </c>
+      <c r="JG28" s="7">
+        <v>767</v>
+      </c>
     </row>
     <row r="29" spans="1:907" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
@@ -26566,6 +26643,9 @@
       <c r="JF29" s="7">
         <v>10327</v>
       </c>
+      <c r="JG29" s="7">
+        <v>10224</v>
+      </c>
     </row>
     <row r="30" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
@@ -27364,6 +27444,9 @@
       <c r="JF30" s="7">
         <v>27679</v>
       </c>
+      <c r="JG30" s="7">
+        <v>28023</v>
+      </c>
     </row>
     <row r="31" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
@@ -28162,6 +28245,9 @@
       <c r="JF31" s="7">
         <v>102075</v>
       </c>
+      <c r="JG31" s="7">
+        <v>102276</v>
+      </c>
     </row>
     <row r="32" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
@@ -28960,6 +29046,9 @@
       <c r="JF32" s="7">
         <v>23605</v>
       </c>
+      <c r="JG32" s="7">
+        <v>23800</v>
+      </c>
     </row>
     <row r="33" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
@@ -29758,6 +29847,9 @@
       <c r="JF33" s="7">
         <v>9308</v>
       </c>
+      <c r="JG33" s="7">
+        <v>9331</v>
+      </c>
     </row>
     <row r="34" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
@@ -30556,6 +30648,9 @@
       <c r="JF34" s="7">
         <v>42684</v>
       </c>
+      <c r="JG34" s="7">
+        <v>42953</v>
+      </c>
     </row>
     <row r="35" spans="1:907" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
@@ -31354,6 +31449,9 @@
       <c r="JF35" s="7">
         <v>9998</v>
       </c>
+      <c r="JG35" s="7">
+        <v>10055</v>
+      </c>
     </row>
     <row r="36" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
@@ -32152,6 +32250,9 @@
       <c r="JF36" s="7">
         <v>50787</v>
       </c>
+      <c r="JG36" s="7">
+        <v>51431</v>
+      </c>
     </row>
     <row r="37" spans="1:907" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
@@ -32950,6 +33051,9 @@
       <c r="JF37" s="7">
         <v>60651</v>
       </c>
+      <c r="JG37" s="7">
+        <v>61164</v>
+      </c>
     </row>
     <row r="38" spans="1:907" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
@@ -33748,6 +33852,9 @@
       <c r="JF38" s="7">
         <v>23069</v>
       </c>
+      <c r="JG38" s="7">
+        <v>23083</v>
+      </c>
     </row>
     <row r="39" spans="1:907" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
@@ -34546,6 +34653,9 @@
       <c r="JF39" s="7">
         <v>22659</v>
       </c>
+      <c r="JG39" s="7">
+        <v>22697</v>
+      </c>
     </row>
     <row r="40" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
@@ -35344,6 +35454,9 @@
       <c r="JF40" s="7">
         <v>11913</v>
       </c>
+      <c r="JG40" s="7">
+        <v>11824</v>
+      </c>
     </row>
     <row r="41" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
@@ -36142,6 +36255,9 @@
       <c r="JF41" s="7">
         <v>11688</v>
       </c>
+      <c r="JG41" s="7">
+        <v>11573</v>
+      </c>
     </row>
     <row r="42" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
@@ -36940,6 +37056,9 @@
       <c r="JF42" s="7">
         <v>42672</v>
       </c>
+      <c r="JG42" s="7">
+        <v>42870</v>
+      </c>
     </row>
     <row r="43" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
@@ -37738,6 +37857,9 @@
       <c r="JF43" s="7">
         <v>5025</v>
       </c>
+      <c r="JG43" s="7">
+        <v>4986</v>
+      </c>
     </row>
     <row r="44" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
@@ -38536,6 +38658,9 @@
       <c r="JF44" s="7">
         <v>5678</v>
       </c>
+      <c r="JG44" s="7">
+        <v>5723</v>
+      </c>
     </row>
     <row r="45" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
@@ -39322,17 +39447,20 @@
       <c r="JB45" s="30">
         <v>6578</v>
       </c>
-      <c r="JC45" s="37">
+      <c r="JC45" s="36">
         <v>6305</v>
       </c>
-      <c r="JD45" s="37">
+      <c r="JD45" s="36">
         <v>6326</v>
       </c>
-      <c r="JE45" s="37">
+      <c r="JE45" s="36">
         <v>6413</v>
       </c>
-      <c r="JF45" s="37">
+      <c r="JF45" s="36">
         <v>6324</v>
+      </c>
+      <c r="JG45" s="7">
+        <v>6370</v>
       </c>
     </row>
     <row r="46" spans="1:907" x14ac:dyDescent="0.25">
@@ -40132,6 +40260,9 @@
       <c r="JF46" s="7">
         <v>12129</v>
       </c>
+      <c r="JG46" s="7">
+        <v>12243</v>
+      </c>
     </row>
     <row r="47" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
@@ -40930,6 +41061,9 @@
       <c r="JF47" s="7">
         <v>1646</v>
       </c>
+      <c r="JG47" s="8">
+        <v>1654</v>
+      </c>
     </row>
     <row r="48" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
@@ -41731,7 +41865,10 @@
         <f>SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
-      <c r="JG48" s="29"/>
+      <c r="JG48" s="10">
+        <f>SUM(JG28:JG47)</f>
+        <v>483047</v>
+      </c>
       <c r="JH48" s="29"/>
       <c r="JI48" s="29"/>
       <c r="JJ48" s="29"/>
@@ -42373,7 +42510,7 @@
       <c r="AHV48" s="5"/>
       <c r="AHW48" s="5"/>
     </row>
-    <row r="49" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
@@ -43172,8 +43309,11 @@
       <c r="JF49" s="7">
         <v>19</v>
       </c>
+      <c r="JG49" s="8">
+        <v>21</v>
+      </c>
     </row>
-    <row r="50" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
@@ -43970,8 +44110,11 @@
       <c r="JF50" s="7">
         <v>2</v>
       </c>
+      <c r="JG50" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:266" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:267" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
@@ -44768,8 +44911,11 @@
       <c r="JF51" s="7">
         <v>1464</v>
       </c>
+      <c r="JG51" s="7">
+        <v>1492</v>
+      </c>
     </row>
-    <row r="52" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
@@ -45566,8 +45712,11 @@
       <c r="JF52" s="7">
         <v>1139</v>
       </c>
+      <c r="JG52" s="7">
+        <v>1127</v>
+      </c>
     </row>
-    <row r="53" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
@@ -46367,8 +46516,12 @@
         <f>SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
+      <c r="JG53" s="10">
+        <f>SUM(JG49:JG52)</f>
+        <v>2642</v>
+      </c>
     </row>
-    <row r="54" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
@@ -47167,8 +47320,11 @@
       <c r="JF54" s="7">
         <v>5833</v>
       </c>
+      <c r="JG54" s="7">
+        <v>5794</v>
+      </c>
     </row>
-    <row r="55" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
@@ -47965,8 +48121,11 @@
       <c r="JF55" s="7">
         <v>51400</v>
       </c>
+      <c r="JG55" s="7">
+        <v>51650</v>
+      </c>
     </row>
-    <row r="56" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
@@ -48763,8 +48922,11 @@
       <c r="JF56" s="7">
         <v>6918</v>
       </c>
+      <c r="JG56" s="7">
+        <v>6952</v>
+      </c>
     </row>
-    <row r="57" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
@@ -49561,8 +49723,11 @@
       <c r="JF57" s="7">
         <v>188776</v>
       </c>
+      <c r="JG57" s="7">
+        <v>187358</v>
+      </c>
     </row>
-    <row r="58" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
@@ -50359,8 +50524,11 @@
       <c r="JF58" s="7">
         <v>31212</v>
       </c>
+      <c r="JG58" s="7">
+        <v>30777</v>
+      </c>
     </row>
-    <row r="59" spans="1:266" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:267" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
@@ -51145,20 +51313,23 @@
       <c r="JB59" s="7">
         <v>5737</v>
       </c>
-      <c r="JC59" s="36">
+      <c r="JC59" s="35">
         <v>5881</v>
       </c>
-      <c r="JD59" s="36">
+      <c r="JD59" s="35">
         <v>5818</v>
       </c>
-      <c r="JE59" s="36">
+      <c r="JE59" s="35">
         <v>5727</v>
       </c>
-      <c r="JF59" s="36">
+      <c r="JF59" s="35">
         <v>5726</v>
       </c>
+      <c r="JG59" s="7">
+        <v>6082</v>
+      </c>
     </row>
-    <row r="60" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
@@ -51955,8 +52126,11 @@
       <c r="JF60" s="7">
         <v>44444</v>
       </c>
+      <c r="JG60" s="7">
+        <v>46868</v>
+      </c>
     </row>
-    <row r="61" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
@@ -52741,20 +52915,23 @@
       <c r="JB61" s="7">
         <v>131</v>
       </c>
-      <c r="JC61" s="38">
+      <c r="JC61" s="37">
         <v>131</v>
       </c>
-      <c r="JD61" s="38">
+      <c r="JD61" s="37">
         <v>131</v>
       </c>
-      <c r="JE61" s="38">
+      <c r="JE61" s="37">
         <v>131</v>
       </c>
-      <c r="JF61" s="38">
+      <c r="JF61" s="37">
         <v>131</v>
       </c>
+      <c r="JG61" s="8">
+        <v>133</v>
+      </c>
     </row>
-    <row r="62" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
@@ -53551,8 +53728,11 @@
       <c r="JF62" s="7">
         <v>19651</v>
       </c>
+      <c r="JG62" s="7">
+        <v>19595</v>
+      </c>
     </row>
-    <row r="63" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
@@ -54349,8 +54529,11 @@
       <c r="JF63" s="7">
         <v>33169</v>
       </c>
+      <c r="JG63" s="7">
+        <v>33470</v>
+      </c>
     </row>
-    <row r="64" spans="1:266" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:267" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
@@ -55146,6 +55329,9 @@
       </c>
       <c r="JF64" s="7">
         <v>47992</v>
+      </c>
+      <c r="JG64" s="7">
+        <v>48176</v>
       </c>
     </row>
     <row r="65" spans="1:907" x14ac:dyDescent="0.25">
@@ -55945,6 +56131,9 @@
       <c r="JF65" s="7">
         <v>161092</v>
       </c>
+      <c r="JG65" s="7">
+        <v>161490</v>
+      </c>
     </row>
     <row r="66" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
@@ -56743,6 +56932,9 @@
       <c r="JF66" s="7">
         <v>17621</v>
       </c>
+      <c r="JG66" s="7">
+        <v>17459</v>
+      </c>
     </row>
     <row r="67" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
@@ -57541,6 +57733,9 @@
       <c r="JF67" s="7">
         <v>6355</v>
       </c>
+      <c r="JG67" s="7">
+        <v>6397</v>
+      </c>
     </row>
     <row r="68" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
@@ -58342,7 +58537,10 @@
         <f>SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
-      <c r="JG68" s="29"/>
+      <c r="JG68" s="10">
+        <f>SUM(JG54:JG67)</f>
+        <v>622201</v>
+      </c>
       <c r="JH68" s="29"/>
       <c r="JI68" s="29"/>
       <c r="JJ68" s="29"/>
@@ -59783,6 +59981,9 @@
       <c r="JF69" s="7">
         <v>9734</v>
       </c>
+      <c r="JG69" s="7">
+        <v>9657</v>
+      </c>
     </row>
     <row r="70" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
@@ -60581,6 +60782,9 @@
       <c r="JF70" s="7">
         <v>804</v>
       </c>
+      <c r="JG70" s="7">
+        <v>899</v>
+      </c>
     </row>
     <row r="71" spans="1:907" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
@@ -61379,6 +61583,9 @@
       <c r="JF71" s="7">
         <v>31388</v>
       </c>
+      <c r="JG71" s="7">
+        <v>31695</v>
+      </c>
     </row>
     <row r="72" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
@@ -62177,6 +62384,9 @@
       <c r="JF72" s="7">
         <v>3709</v>
       </c>
+      <c r="JG72" s="7">
+        <v>3741</v>
+      </c>
     </row>
     <row r="73" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
@@ -62975,6 +63185,9 @@
       <c r="JF73" s="7">
         <v>544</v>
       </c>
+      <c r="JG73" s="8">
+        <v>629</v>
+      </c>
     </row>
     <row r="74" spans="1:907" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
@@ -63773,6 +63986,9 @@
       <c r="JF74" s="7">
         <v>51076</v>
       </c>
+      <c r="JG74" s="7">
+        <v>51722</v>
+      </c>
     </row>
     <row r="75" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
@@ -64574,7 +64790,10 @@
         <f>SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
-      <c r="JG75" s="29"/>
+      <c r="JG75" s="10">
+        <f>SUM(JG69:JG74)</f>
+        <v>98343</v>
+      </c>
       <c r="JH75" s="29"/>
       <c r="JI75" s="29"/>
       <c r="JJ75" s="29"/>
@@ -66017,7 +66236,10 @@
         <f>JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
-      <c r="JG76" s="35"/>
+      <c r="JG76" s="19">
+        <f>JG11+JG21+JG24+JG27+JG48+JG53+JG68+JG75</f>
+        <v>1861159</v>
+      </c>
     </row>
     <row r="77" spans="1:907" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
@@ -66281,7 +66503,7 @@
       <c r="JD77" s="30"/>
       <c r="JE77" s="30"/>
       <c r="JF77" s="30"/>
-      <c r="JG77" s="27"/>
+      <c r="JG77" s="30"/>
       <c r="JH77" s="27"/>
       <c r="JI77" s="27"/>
       <c r="JJ77" s="27"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="342">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1066,6 +1066,9 @@
   <si>
     <t>2022/Enero</t>
   </si>
+  <si>
+    <t>2022/febrero</t>
+  </si>
 </sst>
 </file>
 
@@ -1670,7 +1673,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1780,14 +1783,8 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1797,6 +1794,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2157,7 +2163,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JI22" sqref="JI22"/>
+      <selection pane="topRight" activeCell="JJ11" sqref="JJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,7 +2428,7 @@
     <col min="263" max="265" width="16.140625" style="4" customWidth="1"/>
     <col min="266" max="266" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="10.85546875" style="28"/>
+    <col min="268" max="268" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="269" max="269" width="33.85546875" style="28" customWidth="1"/>
     <col min="270" max="726" width="10.85546875" style="28"/>
     <col min="727" max="907" width="10.85546875" style="4"/>
@@ -2440,324 +2446,326 @@
       </c>
     </row>
     <row r="4" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="43">
         <v>2000</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43">
         <v>2001</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40">
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43">
         <v>2002</v>
       </c>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40">
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43">
         <v>2003</v>
       </c>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40">
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="43"/>
+      <c r="AW4" s="43"/>
+      <c r="AX4" s="43"/>
+      <c r="AY4" s="43">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40">
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+      <c r="BD4" s="43"/>
+      <c r="BE4" s="43"/>
+      <c r="BF4" s="43"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="43">
         <v>2005</v>
       </c>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40"/>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40">
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="43"/>
+      <c r="BO4" s="43"/>
+      <c r="BP4" s="43"/>
+      <c r="BQ4" s="43"/>
+      <c r="BR4" s="43"/>
+      <c r="BS4" s="43"/>
+      <c r="BT4" s="43"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="43"/>
+      <c r="BW4" s="43">
         <v>2006</v>
       </c>
-      <c r="BX4" s="40"/>
-      <c r="BY4" s="40"/>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40"/>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40">
+      <c r="BX4" s="43"/>
+      <c r="BY4" s="43"/>
+      <c r="BZ4" s="43"/>
+      <c r="CA4" s="43"/>
+      <c r="CB4" s="43"/>
+      <c r="CC4" s="43"/>
+      <c r="CD4" s="43"/>
+      <c r="CE4" s="43"/>
+      <c r="CF4" s="43"/>
+      <c r="CG4" s="43"/>
+      <c r="CH4" s="43"/>
+      <c r="CI4" s="43">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="40"/>
-      <c r="CK4" s="40"/>
-      <c r="CL4" s="40"/>
-      <c r="CM4" s="40"/>
-      <c r="CN4" s="40"/>
-      <c r="CO4" s="40"/>
-      <c r="CP4" s="40"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="40"/>
-      <c r="CS4" s="40"/>
-      <c r="CT4" s="40"/>
-      <c r="CU4" s="40">
+      <c r="CJ4" s="43"/>
+      <c r="CK4" s="43"/>
+      <c r="CL4" s="43"/>
+      <c r="CM4" s="43"/>
+      <c r="CN4" s="43"/>
+      <c r="CO4" s="43"/>
+      <c r="CP4" s="43"/>
+      <c r="CQ4" s="43"/>
+      <c r="CR4" s="43"/>
+      <c r="CS4" s="43"/>
+      <c r="CT4" s="43"/>
+      <c r="CU4" s="43">
         <v>2008</v>
       </c>
-      <c r="CV4" s="40"/>
-      <c r="CW4" s="40"/>
-      <c r="CX4" s="40"/>
-      <c r="CY4" s="40"/>
-      <c r="CZ4" s="40"/>
-      <c r="DA4" s="40"/>
-      <c r="DB4" s="40"/>
-      <c r="DC4" s="40"/>
-      <c r="DD4" s="40"/>
-      <c r="DE4" s="40"/>
-      <c r="DF4" s="40"/>
-      <c r="DG4" s="40">
+      <c r="CV4" s="43"/>
+      <c r="CW4" s="43"/>
+      <c r="CX4" s="43"/>
+      <c r="CY4" s="43"/>
+      <c r="CZ4" s="43"/>
+      <c r="DA4" s="43"/>
+      <c r="DB4" s="43"/>
+      <c r="DC4" s="43"/>
+      <c r="DD4" s="43"/>
+      <c r="DE4" s="43"/>
+      <c r="DF4" s="43"/>
+      <c r="DG4" s="43">
         <v>2009</v>
       </c>
-      <c r="DH4" s="40"/>
-      <c r="DI4" s="40"/>
-      <c r="DJ4" s="40"/>
-      <c r="DK4" s="40"/>
-      <c r="DL4" s="40"/>
-      <c r="DM4" s="40"/>
-      <c r="DN4" s="40"/>
-      <c r="DO4" s="40"/>
-      <c r="DP4" s="40"/>
-      <c r="DQ4" s="40"/>
-      <c r="DR4" s="40"/>
-      <c r="DS4" s="40">
+      <c r="DH4" s="43"/>
+      <c r="DI4" s="43"/>
+      <c r="DJ4" s="43"/>
+      <c r="DK4" s="43"/>
+      <c r="DL4" s="43"/>
+      <c r="DM4" s="43"/>
+      <c r="DN4" s="43"/>
+      <c r="DO4" s="43"/>
+      <c r="DP4" s="43"/>
+      <c r="DQ4" s="43"/>
+      <c r="DR4" s="43"/>
+      <c r="DS4" s="43">
         <v>2010</v>
       </c>
-      <c r="DT4" s="40"/>
-      <c r="DU4" s="40"/>
-      <c r="DV4" s="40"/>
-      <c r="DW4" s="40"/>
-      <c r="DX4" s="40"/>
-      <c r="DY4" s="40"/>
-      <c r="DZ4" s="40"/>
-      <c r="EA4" s="40"/>
-      <c r="EB4" s="40"/>
-      <c r="EC4" s="40"/>
-      <c r="ED4" s="40"/>
-      <c r="EE4" s="40">
+      <c r="DT4" s="43"/>
+      <c r="DU4" s="43"/>
+      <c r="DV4" s="43"/>
+      <c r="DW4" s="43"/>
+      <c r="DX4" s="43"/>
+      <c r="DY4" s="43"/>
+      <c r="DZ4" s="43"/>
+      <c r="EA4" s="43"/>
+      <c r="EB4" s="43"/>
+      <c r="EC4" s="43"/>
+      <c r="ED4" s="43"/>
+      <c r="EE4" s="43">
         <v>2011</v>
       </c>
-      <c r="EF4" s="40"/>
-      <c r="EG4" s="40"/>
-      <c r="EH4" s="40"/>
-      <c r="EI4" s="40"/>
-      <c r="EJ4" s="40"/>
-      <c r="EK4" s="40"/>
-      <c r="EL4" s="40"/>
-      <c r="EM4" s="40"/>
-      <c r="EN4" s="40"/>
-      <c r="EO4" s="40"/>
-      <c r="EP4" s="40"/>
-      <c r="EQ4" s="40">
+      <c r="EF4" s="43"/>
+      <c r="EG4" s="43"/>
+      <c r="EH4" s="43"/>
+      <c r="EI4" s="43"/>
+      <c r="EJ4" s="43"/>
+      <c r="EK4" s="43"/>
+      <c r="EL4" s="43"/>
+      <c r="EM4" s="43"/>
+      <c r="EN4" s="43"/>
+      <c r="EO4" s="43"/>
+      <c r="EP4" s="43"/>
+      <c r="EQ4" s="43">
         <v>2012</v>
       </c>
-      <c r="ER4" s="40"/>
-      <c r="ES4" s="40"/>
-      <c r="ET4" s="40"/>
-      <c r="EU4" s="40"/>
-      <c r="EV4" s="40"/>
-      <c r="EW4" s="40"/>
-      <c r="EX4" s="40"/>
-      <c r="EY4" s="40"/>
-      <c r="EZ4" s="40"/>
-      <c r="FA4" s="40"/>
-      <c r="FB4" s="40"/>
-      <c r="FC4" s="40">
+      <c r="ER4" s="43"/>
+      <c r="ES4" s="43"/>
+      <c r="ET4" s="43"/>
+      <c r="EU4" s="43"/>
+      <c r="EV4" s="43"/>
+      <c r="EW4" s="43"/>
+      <c r="EX4" s="43"/>
+      <c r="EY4" s="43"/>
+      <c r="EZ4" s="43"/>
+      <c r="FA4" s="43"/>
+      <c r="FB4" s="43"/>
+      <c r="FC4" s="43">
         <v>2013</v>
       </c>
-      <c r="FD4" s="40"/>
-      <c r="FE4" s="40"/>
-      <c r="FF4" s="40"/>
-      <c r="FG4" s="40"/>
-      <c r="FH4" s="40"/>
-      <c r="FI4" s="40"/>
-      <c r="FJ4" s="40"/>
-      <c r="FK4" s="40"/>
-      <c r="FL4" s="40"/>
-      <c r="FM4" s="40"/>
-      <c r="FN4" s="40"/>
-      <c r="FO4" s="40">
+      <c r="FD4" s="43"/>
+      <c r="FE4" s="43"/>
+      <c r="FF4" s="43"/>
+      <c r="FG4" s="43"/>
+      <c r="FH4" s="43"/>
+      <c r="FI4" s="43"/>
+      <c r="FJ4" s="43"/>
+      <c r="FK4" s="43"/>
+      <c r="FL4" s="43"/>
+      <c r="FM4" s="43"/>
+      <c r="FN4" s="43"/>
+      <c r="FO4" s="43">
         <v>2014</v>
       </c>
-      <c r="FP4" s="40"/>
-      <c r="FQ4" s="40"/>
-      <c r="FR4" s="40"/>
-      <c r="FS4" s="40"/>
-      <c r="FT4" s="40"/>
-      <c r="FU4" s="40"/>
-      <c r="FV4" s="40"/>
-      <c r="FW4" s="40"/>
-      <c r="FX4" s="40"/>
-      <c r="FY4" s="40"/>
-      <c r="FZ4" s="40"/>
-      <c r="GA4" s="40">
+      <c r="FP4" s="43"/>
+      <c r="FQ4" s="43"/>
+      <c r="FR4" s="43"/>
+      <c r="FS4" s="43"/>
+      <c r="FT4" s="43"/>
+      <c r="FU4" s="43"/>
+      <c r="FV4" s="43"/>
+      <c r="FW4" s="43"/>
+      <c r="FX4" s="43"/>
+      <c r="FY4" s="43"/>
+      <c r="FZ4" s="43"/>
+      <c r="GA4" s="43">
         <v>2015</v>
       </c>
-      <c r="GB4" s="40"/>
-      <c r="GC4" s="40"/>
-      <c r="GD4" s="40"/>
-      <c r="GE4" s="40"/>
-      <c r="GF4" s="40"/>
-      <c r="GG4" s="40"/>
-      <c r="GH4" s="40"/>
-      <c r="GI4" s="40"/>
-      <c r="GJ4" s="40"/>
-      <c r="GK4" s="40"/>
-      <c r="GL4" s="40"/>
-      <c r="GM4" s="40">
+      <c r="GB4" s="43"/>
+      <c r="GC4" s="43"/>
+      <c r="GD4" s="43"/>
+      <c r="GE4" s="43"/>
+      <c r="GF4" s="43"/>
+      <c r="GG4" s="43"/>
+      <c r="GH4" s="43"/>
+      <c r="GI4" s="43"/>
+      <c r="GJ4" s="43"/>
+      <c r="GK4" s="43"/>
+      <c r="GL4" s="43"/>
+      <c r="GM4" s="43">
         <v>2016</v>
       </c>
-      <c r="GN4" s="40"/>
-      <c r="GO4" s="40"/>
-      <c r="GP4" s="40"/>
-      <c r="GQ4" s="40"/>
-      <c r="GR4" s="40"/>
-      <c r="GS4" s="40"/>
-      <c r="GT4" s="40"/>
-      <c r="GU4" s="40"/>
-      <c r="GV4" s="40"/>
-      <c r="GW4" s="40"/>
-      <c r="GX4" s="40"/>
-      <c r="GY4" s="40">
+      <c r="GN4" s="43"/>
+      <c r="GO4" s="43"/>
+      <c r="GP4" s="43"/>
+      <c r="GQ4" s="43"/>
+      <c r="GR4" s="43"/>
+      <c r="GS4" s="43"/>
+      <c r="GT4" s="43"/>
+      <c r="GU4" s="43"/>
+      <c r="GV4" s="43"/>
+      <c r="GW4" s="43"/>
+      <c r="GX4" s="43"/>
+      <c r="GY4" s="43">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="40"/>
-      <c r="HA4" s="40"/>
-      <c r="HB4" s="40"/>
-      <c r="HC4" s="40"/>
-      <c r="HD4" s="40"/>
-      <c r="HE4" s="40"/>
-      <c r="HF4" s="40"/>
-      <c r="HG4" s="40"/>
-      <c r="HH4" s="40"/>
-      <c r="HI4" s="40"/>
-      <c r="HJ4" s="40"/>
-      <c r="HK4" s="40">
+      <c r="GZ4" s="43"/>
+      <c r="HA4" s="43"/>
+      <c r="HB4" s="43"/>
+      <c r="HC4" s="43"/>
+      <c r="HD4" s="43"/>
+      <c r="HE4" s="43"/>
+      <c r="HF4" s="43"/>
+      <c r="HG4" s="43"/>
+      <c r="HH4" s="43"/>
+      <c r="HI4" s="43"/>
+      <c r="HJ4" s="43"/>
+      <c r="HK4" s="43">
         <v>2018</v>
       </c>
-      <c r="HL4" s="40"/>
-      <c r="HM4" s="40"/>
-      <c r="HN4" s="40"/>
-      <c r="HO4" s="40"/>
-      <c r="HP4" s="40"/>
-      <c r="HQ4" s="40"/>
-      <c r="HR4" s="40"/>
-      <c r="HS4" s="40"/>
-      <c r="HT4" s="40"/>
-      <c r="HU4" s="40"/>
-      <c r="HV4" s="40"/>
-      <c r="HW4" s="40">
+      <c r="HL4" s="43"/>
+      <c r="HM4" s="43"/>
+      <c r="HN4" s="43"/>
+      <c r="HO4" s="43"/>
+      <c r="HP4" s="43"/>
+      <c r="HQ4" s="43"/>
+      <c r="HR4" s="43"/>
+      <c r="HS4" s="43"/>
+      <c r="HT4" s="43"/>
+      <c r="HU4" s="43"/>
+      <c r="HV4" s="43"/>
+      <c r="HW4" s="43">
         <v>2019</v>
       </c>
-      <c r="HX4" s="40"/>
-      <c r="HY4" s="40"/>
-      <c r="HZ4" s="40"/>
-      <c r="IA4" s="40"/>
-      <c r="IB4" s="40"/>
-      <c r="IC4" s="40"/>
-      <c r="ID4" s="40"/>
-      <c r="IE4" s="40"/>
-      <c r="IF4" s="40"/>
-      <c r="IG4" s="40"/>
-      <c r="IH4" s="42"/>
-      <c r="II4" s="42">
+      <c r="HX4" s="43"/>
+      <c r="HY4" s="43"/>
+      <c r="HZ4" s="43"/>
+      <c r="IA4" s="43"/>
+      <c r="IB4" s="43"/>
+      <c r="IC4" s="43"/>
+      <c r="ID4" s="43"/>
+      <c r="IE4" s="43"/>
+      <c r="IF4" s="43"/>
+      <c r="IG4" s="43"/>
+      <c r="IH4" s="40"/>
+      <c r="II4" s="40">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="43"/>
-      <c r="IK4" s="43"/>
-      <c r="IL4" s="43"/>
-      <c r="IM4" s="43"/>
-      <c r="IN4" s="43"/>
-      <c r="IO4" s="43"/>
-      <c r="IP4" s="43"/>
-      <c r="IQ4" s="43"/>
-      <c r="IR4" s="43"/>
-      <c r="IS4" s="43"/>
-      <c r="IT4" s="44"/>
-      <c r="IU4" s="42">
+      <c r="IJ4" s="41"/>
+      <c r="IK4" s="41"/>
+      <c r="IL4" s="41"/>
+      <c r="IM4" s="41"/>
+      <c r="IN4" s="41"/>
+      <c r="IO4" s="41"/>
+      <c r="IP4" s="41"/>
+      <c r="IQ4" s="41"/>
+      <c r="IR4" s="41"/>
+      <c r="IS4" s="41"/>
+      <c r="IT4" s="42"/>
+      <c r="IU4" s="40">
         <v>2021</v>
       </c>
-      <c r="IV4" s="43"/>
-      <c r="IW4" s="43"/>
-      <c r="IX4" s="43"/>
-      <c r="IY4" s="43"/>
-      <c r="IZ4" s="43"/>
-      <c r="JA4" s="43"/>
-      <c r="JB4" s="43"/>
-      <c r="JC4" s="43"/>
-      <c r="JD4" s="43"/>
-      <c r="JE4" s="43"/>
-      <c r="JF4" s="44"/>
+      <c r="IV4" s="41"/>
+      <c r="IW4" s="41"/>
+      <c r="IX4" s="41"/>
+      <c r="IY4" s="41"/>
+      <c r="IZ4" s="41"/>
+      <c r="JA4" s="41"/>
+      <c r="JB4" s="41"/>
+      <c r="JC4" s="41"/>
+      <c r="JD4" s="41"/>
+      <c r="JE4" s="41"/>
+      <c r="JF4" s="42"/>
       <c r="JG4" s="38">
         <v>2022</v>
       </c>
-      <c r="JH4" s="29"/>
+      <c r="JH4" s="39">
+        <v>2022</v>
+      </c>
       <c r="JI4" s="29"/>
       <c r="JJ4" s="29"/>
       <c r="JK4" s="29"/>
@@ -3399,8 +3407,8 @@
       <c r="AHW4" s="5"/>
     </row>
     <row r="5" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4196,7 +4204,9 @@
       <c r="JG5" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="JH5" s="29"/>
+      <c r="JH5" s="31" t="s">
+        <v>341</v>
+      </c>
       <c r="JI5" s="29"/>
       <c r="JJ5" s="29"/>
       <c r="JK5" s="29"/>
@@ -4838,7 +4848,7 @@
       <c r="AHW5" s="5"/>
     </row>
     <row r="6" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5639,9 +5649,12 @@
       <c r="JG6" s="7">
         <v>97140</v>
       </c>
+      <c r="JH6" s="7">
+        <v>98642</v>
+      </c>
     </row>
     <row r="7" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6440,9 +6453,12 @@
       <c r="JG7" s="8">
         <v>45</v>
       </c>
+      <c r="JH7" s="8">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7241,9 +7257,12 @@
       <c r="JG8" s="7">
         <v>23545</v>
       </c>
+      <c r="JH8" s="7">
+        <v>23728</v>
+      </c>
     </row>
     <row r="9" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8042,9 +8061,12 @@
       <c r="JG9" s="7">
         <v>476</v>
       </c>
+      <c r="JH9" s="7">
+        <v>473</v>
+      </c>
     </row>
     <row r="10" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8843,9 +8865,12 @@
       <c r="JG10" s="8">
         <v>377</v>
       </c>
+      <c r="JH10" s="8">
+        <v>414</v>
+      </c>
     </row>
     <row r="11" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9648,7 +9673,10 @@
         <f>SUM(JG6:JG10)</f>
         <v>121583</v>
       </c>
-      <c r="JH11" s="29"/>
+      <c r="JH11" s="10">
+        <f>SUM(JH6:JH10)</f>
+        <v>123302</v>
+      </c>
       <c r="JI11" s="29"/>
       <c r="JJ11" s="29"/>
       <c r="JK11" s="29"/>
@@ -10290,7 +10318,7 @@
       <c r="AHW11" s="5"/>
     </row>
     <row r="12" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11091,9 +11119,12 @@
       <c r="JG12" s="7">
         <v>77267</v>
       </c>
+      <c r="JH12" s="7">
+        <v>77288</v>
+      </c>
     </row>
     <row r="13" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11892,9 +11923,12 @@
       <c r="JG13" s="7">
         <v>19663</v>
       </c>
+      <c r="JH13" s="7">
+        <v>19888</v>
+      </c>
     </row>
     <row r="14" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12693,9 +12727,12 @@
       <c r="JG14" s="7">
         <v>32456</v>
       </c>
+      <c r="JH14" s="7">
+        <v>32694</v>
+      </c>
     </row>
     <row r="15" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13494,9 +13531,12 @@
       <c r="JG15" s="7">
         <v>22996</v>
       </c>
+      <c r="JH15" s="7">
+        <v>22910</v>
+      </c>
     </row>
     <row r="16" spans="1:907" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14295,9 +14335,12 @@
       <c r="JG16" s="7">
         <v>17242</v>
       </c>
+      <c r="JH16" s="7">
+        <v>16943</v>
+      </c>
     </row>
     <row r="17" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15096,9 +15139,12 @@
       <c r="JG17" s="7">
         <v>47115</v>
       </c>
+      <c r="JH17" s="7">
+        <v>47514</v>
+      </c>
     </row>
     <row r="18" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15897,9 +15943,12 @@
       <c r="JG18" s="7">
         <v>58526</v>
       </c>
+      <c r="JH18" s="7">
+        <v>58788</v>
+      </c>
     </row>
     <row r="19" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16698,9 +16747,12 @@
       <c r="JG19" s="7">
         <v>67146</v>
       </c>
+      <c r="JH19" s="7">
+        <v>66880</v>
+      </c>
     </row>
     <row r="20" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17499,9 +17551,12 @@
       <c r="JG20" s="7">
         <v>45811</v>
       </c>
+      <c r="JH20" s="7">
+        <v>45841</v>
+      </c>
     </row>
     <row r="21" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18304,7 +18359,10 @@
         <f>SUM(JG12:JG20)</f>
         <v>388222</v>
       </c>
-      <c r="JH21" s="29"/>
+      <c r="JH21" s="10">
+        <f>SUM(JH12:JH20)</f>
+        <v>388746</v>
+      </c>
       <c r="JI21" s="29"/>
       <c r="JJ21" s="29"/>
       <c r="JK21" s="29"/>
@@ -18946,7 +19004,7 @@
       <c r="AHW21" s="5"/>
     </row>
     <row r="22" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="44" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19747,9 +19805,12 @@
       <c r="JG22" s="7">
         <v>100894</v>
       </c>
+      <c r="JH22" s="7">
+        <v>101205</v>
+      </c>
     </row>
     <row r="23" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20548,9 +20609,12 @@
       <c r="JG23" s="7">
         <v>34794</v>
       </c>
+      <c r="JH23" s="7">
+        <v>35183</v>
+      </c>
     </row>
     <row r="24" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21353,7 +21417,10 @@
         <f>SUM(JG22:JG23)</f>
         <v>135688</v>
       </c>
-      <c r="JH24" s="29"/>
+      <c r="JH24" s="10">
+        <f>SUM(JH22:JH23)</f>
+        <v>136388</v>
+      </c>
       <c r="JI24" s="29"/>
       <c r="JJ24" s="29"/>
       <c r="JK24" s="29"/>
@@ -21995,7 +22062,7 @@
       <c r="AHW24" s="5"/>
     </row>
     <row r="25" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="44" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22796,9 +22863,12 @@
       <c r="JG25" s="7">
         <v>4087</v>
       </c>
+      <c r="JH25" s="7">
+        <v>4164</v>
+      </c>
     </row>
     <row r="26" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23597,9 +23667,12 @@
       <c r="JG26" s="7">
         <v>5346</v>
       </c>
+      <c r="JH26" s="7">
+        <v>5386</v>
+      </c>
     </row>
     <row r="27" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24402,7 +24475,10 @@
         <f>SUM(JG25:JG26)</f>
         <v>9433</v>
       </c>
-      <c r="JH27" s="29"/>
+      <c r="JH27" s="10">
+        <f>SUM(JH25:JH26)</f>
+        <v>9550</v>
+      </c>
       <c r="JI27" s="29"/>
       <c r="JJ27" s="29"/>
       <c r="JK27" s="29"/>
@@ -25044,7 +25120,7 @@
       <c r="AHW27" s="5"/>
     </row>
     <row r="28" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="44" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25845,9 +25921,12 @@
       <c r="JG28" s="7">
         <v>767</v>
       </c>
+      <c r="JH28" s="7">
+        <v>768</v>
+      </c>
     </row>
     <row r="29" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26646,9 +26725,12 @@
       <c r="JG29" s="7">
         <v>10224</v>
       </c>
+      <c r="JH29" s="7">
+        <v>10285</v>
+      </c>
     </row>
     <row r="30" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27447,9 +27529,12 @@
       <c r="JG30" s="7">
         <v>28023</v>
       </c>
+      <c r="JH30" s="7">
+        <v>28475</v>
+      </c>
     </row>
     <row r="31" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28248,9 +28333,12 @@
       <c r="JG31" s="7">
         <v>102276</v>
       </c>
+      <c r="JH31" s="7">
+        <v>102574</v>
+      </c>
     </row>
     <row r="32" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29049,9 +29137,12 @@
       <c r="JG32" s="7">
         <v>23800</v>
       </c>
+      <c r="JH32" s="7">
+        <v>23877</v>
+      </c>
     </row>
     <row r="33" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29850,9 +29941,12 @@
       <c r="JG33" s="7">
         <v>9331</v>
       </c>
+      <c r="JH33" s="7">
+        <v>9513</v>
+      </c>
     </row>
     <row r="34" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30651,9 +30745,12 @@
       <c r="JG34" s="7">
         <v>42953</v>
       </c>
+      <c r="JH34" s="7">
+        <v>43388</v>
+      </c>
     </row>
     <row r="35" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31452,9 +31549,12 @@
       <c r="JG35" s="7">
         <v>10055</v>
       </c>
+      <c r="JH35" s="7">
+        <v>10224</v>
+      </c>
     </row>
     <row r="36" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32253,9 +32353,12 @@
       <c r="JG36" s="7">
         <v>51431</v>
       </c>
+      <c r="JH36" s="7">
+        <v>52135</v>
+      </c>
     </row>
     <row r="37" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33054,9 +33157,12 @@
       <c r="JG37" s="7">
         <v>61164</v>
       </c>
+      <c r="JH37" s="7">
+        <v>62517</v>
+      </c>
     </row>
     <row r="38" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33855,9 +33961,12 @@
       <c r="JG38" s="7">
         <v>23083</v>
       </c>
+      <c r="JH38" s="7">
+        <v>22864</v>
+      </c>
     </row>
     <row r="39" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34656,9 +34765,12 @@
       <c r="JG39" s="7">
         <v>22697</v>
       </c>
+      <c r="JH39" s="7">
+        <v>22974</v>
+      </c>
     </row>
     <row r="40" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35457,9 +35569,12 @@
       <c r="JG40" s="7">
         <v>11824</v>
       </c>
+      <c r="JH40" s="7">
+        <v>11975</v>
+      </c>
     </row>
     <row r="41" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36258,9 +36373,12 @@
       <c r="JG41" s="7">
         <v>11573</v>
       </c>
+      <c r="JH41" s="7">
+        <v>11620</v>
+      </c>
     </row>
     <row r="42" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37059,9 +37177,12 @@
       <c r="JG42" s="7">
         <v>42870</v>
       </c>
+      <c r="JH42" s="7">
+        <v>43273</v>
+      </c>
     </row>
     <row r="43" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37860,9 +37981,12 @@
       <c r="JG43" s="7">
         <v>4986</v>
       </c>
+      <c r="JH43" s="7">
+        <v>5009</v>
+      </c>
     </row>
     <row r="44" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38661,9 +38785,12 @@
       <c r="JG44" s="7">
         <v>5723</v>
       </c>
+      <c r="JH44" s="7">
+        <v>5773</v>
+      </c>
     </row>
     <row r="45" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39462,9 +39589,12 @@
       <c r="JG45" s="7">
         <v>6370</v>
       </c>
+      <c r="JH45" s="7">
+        <v>6671</v>
+      </c>
     </row>
     <row r="46" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40263,9 +40393,12 @@
       <c r="JG46" s="7">
         <v>12243</v>
       </c>
+      <c r="JH46" s="7">
+        <v>12271</v>
+      </c>
     </row>
     <row r="47" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41064,9 +41197,12 @@
       <c r="JG47" s="8">
         <v>1654</v>
       </c>
+      <c r="JH47" s="8">
+        <v>1632</v>
+      </c>
     </row>
     <row r="48" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -41869,7 +42005,10 @@
         <f>SUM(JG28:JG47)</f>
         <v>483047</v>
       </c>
-      <c r="JH48" s="29"/>
+      <c r="JH48" s="10">
+        <f>SUM(JH28:JH47)</f>
+        <v>487818</v>
+      </c>
       <c r="JI48" s="29"/>
       <c r="JJ48" s="29"/>
       <c r="JK48" s="29"/>
@@ -42510,8 +42649,8 @@
       <c r="AHV48" s="5"/>
       <c r="AHW48" s="5"/>
     </row>
-    <row r="49" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+    <row r="49" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43312,9 +43451,12 @@
       <c r="JG49" s="8">
         <v>21</v>
       </c>
+      <c r="JH49" s="8">
+        <v>21</v>
+      </c>
     </row>
-    <row r="50" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44113,9 +44255,12 @@
       <c r="JG50" s="8">
         <v>2</v>
       </c>
+      <c r="JH50" s="8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="1:267" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+    <row r="51" spans="1:268" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="44"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -44914,9 +45059,12 @@
       <c r="JG51" s="7">
         <v>1492</v>
       </c>
+      <c r="JH51" s="7">
+        <v>1476</v>
+      </c>
     </row>
-    <row r="52" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -45715,9 +45863,12 @@
       <c r="JG52" s="7">
         <v>1127</v>
       </c>
+      <c r="JH52" s="7">
+        <v>1144</v>
+      </c>
     </row>
-    <row r="53" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+    <row r="53" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46520,9 +46671,13 @@
         <f>SUM(JG49:JG52)</f>
         <v>2642</v>
       </c>
+      <c r="JH53" s="10">
+        <f>SUM(JH49:JH52)</f>
+        <v>2643</v>
+      </c>
     </row>
-    <row r="54" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="54" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47323,9 +47478,12 @@
       <c r="JG54" s="7">
         <v>5794</v>
       </c>
+      <c r="JH54" s="35">
+        <v>5843</v>
+      </c>
     </row>
-    <row r="55" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+    <row r="55" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48124,9 +48282,12 @@
       <c r="JG55" s="7">
         <v>51650</v>
       </c>
+      <c r="JH55" s="7">
+        <v>51973</v>
+      </c>
     </row>
-    <row r="56" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -48925,9 +49086,12 @@
       <c r="JG56" s="7">
         <v>6952</v>
       </c>
+      <c r="JH56" s="7">
+        <v>7046</v>
+      </c>
     </row>
-    <row r="57" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -49726,9 +49890,12 @@
       <c r="JG57" s="7">
         <v>187358</v>
       </c>
+      <c r="JH57" s="7">
+        <v>188724</v>
+      </c>
     </row>
-    <row r="58" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -50527,9 +50694,12 @@
       <c r="JG58" s="7">
         <v>30777</v>
       </c>
+      <c r="JH58" s="7">
+        <v>31102</v>
+      </c>
     </row>
-    <row r="59" spans="1:267" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+    <row r="59" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -51328,9 +51498,12 @@
       <c r="JG59" s="7">
         <v>6082</v>
       </c>
+      <c r="JH59" s="7">
+        <v>6102</v>
+      </c>
     </row>
-    <row r="60" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+    <row r="60" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -52129,9 +52302,12 @@
       <c r="JG60" s="7">
         <v>46868</v>
       </c>
+      <c r="JH60" s="7">
+        <v>48190</v>
+      </c>
     </row>
-    <row r="61" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+    <row r="61" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -52930,9 +53106,12 @@
       <c r="JG61" s="8">
         <v>133</v>
       </c>
+      <c r="JH61" s="8">
+        <v>131</v>
+      </c>
     </row>
-    <row r="62" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+    <row r="62" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -53731,9 +53910,12 @@
       <c r="JG62" s="7">
         <v>19595</v>
       </c>
+      <c r="JH62" s="7">
+        <v>19663</v>
+      </c>
     </row>
-    <row r="63" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+    <row r="63" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -54532,9 +54714,12 @@
       <c r="JG63" s="7">
         <v>33470</v>
       </c>
+      <c r="JH63" s="7">
+        <v>33651</v>
+      </c>
     </row>
-    <row r="64" spans="1:267" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:268" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -55333,9 +55518,12 @@
       <c r="JG64" s="7">
         <v>48176</v>
       </c>
+      <c r="JH64" s="7">
+        <v>48539</v>
+      </c>
     </row>
     <row r="65" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -56134,9 +56322,12 @@
       <c r="JG65" s="7">
         <v>161490</v>
       </c>
+      <c r="JH65" s="7">
+        <v>161379</v>
+      </c>
     </row>
     <row r="66" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -56935,9 +57126,12 @@
       <c r="JG66" s="7">
         <v>17459</v>
       </c>
+      <c r="JH66" s="7">
+        <v>17797</v>
+      </c>
     </row>
     <row r="67" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -57736,9 +57930,12 @@
       <c r="JG67" s="7">
         <v>6397</v>
       </c>
+      <c r="JH67" s="7">
+        <v>6490</v>
+      </c>
     </row>
     <row r="68" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -58541,7 +58738,10 @@
         <f>SUM(JG54:JG67)</f>
         <v>622201</v>
       </c>
-      <c r="JH68" s="29"/>
+      <c r="JH68" s="10">
+        <f>SUM(JH54:JH67)</f>
+        <v>626630</v>
+      </c>
       <c r="JI68" s="29"/>
       <c r="JJ68" s="29"/>
       <c r="JK68" s="29"/>
@@ -59183,7 +59383,7 @@
       <c r="AHW68" s="5"/>
     </row>
     <row r="69" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="44" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -59984,9 +60184,12 @@
       <c r="JG69" s="7">
         <v>9657</v>
       </c>
+      <c r="JH69" s="7">
+        <v>9717</v>
+      </c>
     </row>
     <row r="70" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="44"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -60785,9 +60988,12 @@
       <c r="JG70" s="7">
         <v>899</v>
       </c>
+      <c r="JH70" s="7">
+        <v>929</v>
+      </c>
     </row>
     <row r="71" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -61586,9 +61792,12 @@
       <c r="JG71" s="7">
         <v>31695</v>
       </c>
+      <c r="JH71" s="7">
+        <v>32254</v>
+      </c>
     </row>
     <row r="72" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+      <c r="A72" s="44"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -62387,9 +62596,12 @@
       <c r="JG72" s="7">
         <v>3741</v>
       </c>
+      <c r="JH72" s="7">
+        <v>3762</v>
+      </c>
     </row>
     <row r="73" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -63188,9 +63400,12 @@
       <c r="JG73" s="8">
         <v>629</v>
       </c>
+      <c r="JH73" s="8">
+        <v>534</v>
+      </c>
     </row>
     <row r="74" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="44"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -63989,9 +64204,12 @@
       <c r="JG74" s="7">
         <v>51722</v>
       </c>
+      <c r="JH74" s="7">
+        <v>52349</v>
+      </c>
     </row>
     <row r="75" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+      <c r="A75" s="44"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -64794,7 +65012,10 @@
         <f>SUM(JG69:JG74)</f>
         <v>98343</v>
       </c>
-      <c r="JH75" s="29"/>
+      <c r="JH75" s="10">
+        <f>SUM(JH69:JH74)</f>
+        <v>99545</v>
+      </c>
       <c r="JI75" s="29"/>
       <c r="JJ75" s="29"/>
       <c r="JK75" s="29"/>
@@ -66240,6 +66461,10 @@
         <f>JG11+JG21+JG24+JG27+JG48+JG53+JG68+JG75</f>
         <v>1861159</v>
       </c>
+      <c r="JH76" s="19">
+        <f>JH11+JH21+JH24+JH27+JH48+JH53+JH68+JH75</f>
+        <v>1874622</v>
+      </c>
     </row>
     <row r="77" spans="1:907" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
@@ -66504,7 +66729,7 @@
       <c r="JE77" s="30"/>
       <c r="JF77" s="30"/>
       <c r="JG77" s="30"/>
-      <c r="JH77" s="27"/>
+      <c r="JH77" s="30"/>
       <c r="JI77" s="27"/>
       <c r="JJ77" s="27"/>
       <c r="JK77" s="27"/>
@@ -66971,6 +67196,25 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -66984,25 +67228,6 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="343">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1069,6 +1069,9 @@
   <si>
     <t>2022/febrero</t>
   </si>
+  <si>
+    <t>2022/marzo</t>
+  </si>
 </sst>
 </file>
 
@@ -1673,7 +1676,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1780,11 +1783,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,15 +1800,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2159,11 +2156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHW78"/>
+  <dimension ref="A1:AHX78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JJ11" sqref="JJ11"/>
+      <selection pane="topRight" activeCell="JK15" sqref="JK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,345 +2425,344 @@
     <col min="263" max="265" width="16.140625" style="4" customWidth="1"/>
     <col min="266" max="266" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="33.85546875" style="28" customWidth="1"/>
-    <col min="270" max="726" width="10.85546875" style="28"/>
-    <col min="727" max="907" width="10.85546875" style="4"/>
-    <col min="908" max="16384" width="10.85546875" style="3"/>
+    <col min="268" max="268" width="11" style="4" customWidth="1"/>
+    <col min="269" max="269" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="33.85546875" style="28" customWidth="1"/>
+    <col min="271" max="727" width="10.85546875" style="28"/>
+    <col min="728" max="908" width="10.85546875" style="4"/>
+    <col min="909" max="16384" width="10.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:907" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:908" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:907" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:908" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:908" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="43">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="43"/>
-      <c r="BM4" s="43"/>
-      <c r="BN4" s="43"/>
-      <c r="BO4" s="43"/>
-      <c r="BP4" s="43"/>
-      <c r="BQ4" s="43"/>
-      <c r="BR4" s="43"/>
-      <c r="BS4" s="43"/>
-      <c r="BT4" s="43"/>
-      <c r="BU4" s="43"/>
-      <c r="BV4" s="43"/>
-      <c r="BW4" s="43">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="43"/>
-      <c r="BY4" s="43"/>
-      <c r="BZ4" s="43"/>
-      <c r="CA4" s="43"/>
-      <c r="CB4" s="43"/>
-      <c r="CC4" s="43"/>
-      <c r="CD4" s="43"/>
-      <c r="CE4" s="43"/>
-      <c r="CF4" s="43"/>
-      <c r="CG4" s="43"/>
-      <c r="CH4" s="43"/>
-      <c r="CI4" s="43">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="43"/>
-      <c r="CK4" s="43"/>
-      <c r="CL4" s="43"/>
-      <c r="CM4" s="43"/>
-      <c r="CN4" s="43"/>
-      <c r="CO4" s="43"/>
-      <c r="CP4" s="43"/>
-      <c r="CQ4" s="43"/>
-      <c r="CR4" s="43"/>
-      <c r="CS4" s="43"/>
-      <c r="CT4" s="43"/>
-      <c r="CU4" s="43">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="43"/>
-      <c r="CW4" s="43"/>
-      <c r="CX4" s="43"/>
-      <c r="CY4" s="43"/>
-      <c r="CZ4" s="43"/>
-      <c r="DA4" s="43"/>
-      <c r="DB4" s="43"/>
-      <c r="DC4" s="43"/>
-      <c r="DD4" s="43"/>
-      <c r="DE4" s="43"/>
-      <c r="DF4" s="43"/>
-      <c r="DG4" s="43">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="43"/>
-      <c r="DI4" s="43"/>
-      <c r="DJ4" s="43"/>
-      <c r="DK4" s="43"/>
-      <c r="DL4" s="43"/>
-      <c r="DM4" s="43"/>
-      <c r="DN4" s="43"/>
-      <c r="DO4" s="43"/>
-      <c r="DP4" s="43"/>
-      <c r="DQ4" s="43"/>
-      <c r="DR4" s="43"/>
-      <c r="DS4" s="43">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="43"/>
-      <c r="DU4" s="43"/>
-      <c r="DV4" s="43"/>
-      <c r="DW4" s="43"/>
-      <c r="DX4" s="43"/>
-      <c r="DY4" s="43"/>
-      <c r="DZ4" s="43"/>
-      <c r="EA4" s="43"/>
-      <c r="EB4" s="43"/>
-      <c r="EC4" s="43"/>
-      <c r="ED4" s="43"/>
-      <c r="EE4" s="43">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="43"/>
-      <c r="EG4" s="43"/>
-      <c r="EH4" s="43"/>
-      <c r="EI4" s="43"/>
-      <c r="EJ4" s="43"/>
-      <c r="EK4" s="43"/>
-      <c r="EL4" s="43"/>
-      <c r="EM4" s="43"/>
-      <c r="EN4" s="43"/>
-      <c r="EO4" s="43"/>
-      <c r="EP4" s="43"/>
-      <c r="EQ4" s="43">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="43"/>
-      <c r="ES4" s="43"/>
-      <c r="ET4" s="43"/>
-      <c r="EU4" s="43"/>
-      <c r="EV4" s="43"/>
-      <c r="EW4" s="43"/>
-      <c r="EX4" s="43"/>
-      <c r="EY4" s="43"/>
-      <c r="EZ4" s="43"/>
-      <c r="FA4" s="43"/>
-      <c r="FB4" s="43"/>
-      <c r="FC4" s="43">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="43"/>
-      <c r="FE4" s="43"/>
-      <c r="FF4" s="43"/>
-      <c r="FG4" s="43"/>
-      <c r="FH4" s="43"/>
-      <c r="FI4" s="43"/>
-      <c r="FJ4" s="43"/>
-      <c r="FK4" s="43"/>
-      <c r="FL4" s="43"/>
-      <c r="FM4" s="43"/>
-      <c r="FN4" s="43"/>
-      <c r="FO4" s="43">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="43"/>
-      <c r="FQ4" s="43"/>
-      <c r="FR4" s="43"/>
-      <c r="FS4" s="43"/>
-      <c r="FT4" s="43"/>
-      <c r="FU4" s="43"/>
-      <c r="FV4" s="43"/>
-      <c r="FW4" s="43"/>
-      <c r="FX4" s="43"/>
-      <c r="FY4" s="43"/>
-      <c r="FZ4" s="43"/>
-      <c r="GA4" s="43">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="43"/>
-      <c r="GC4" s="43"/>
-      <c r="GD4" s="43"/>
-      <c r="GE4" s="43"/>
-      <c r="GF4" s="43"/>
-      <c r="GG4" s="43"/>
-      <c r="GH4" s="43"/>
-      <c r="GI4" s="43"/>
-      <c r="GJ4" s="43"/>
-      <c r="GK4" s="43"/>
-      <c r="GL4" s="43"/>
-      <c r="GM4" s="43">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="43"/>
-      <c r="GO4" s="43"/>
-      <c r="GP4" s="43"/>
-      <c r="GQ4" s="43"/>
-      <c r="GR4" s="43"/>
-      <c r="GS4" s="43"/>
-      <c r="GT4" s="43"/>
-      <c r="GU4" s="43"/>
-      <c r="GV4" s="43"/>
-      <c r="GW4" s="43"/>
-      <c r="GX4" s="43"/>
-      <c r="GY4" s="43">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="43"/>
-      <c r="HA4" s="43"/>
-      <c r="HB4" s="43"/>
-      <c r="HC4" s="43"/>
-      <c r="HD4" s="43"/>
-      <c r="HE4" s="43"/>
-      <c r="HF4" s="43"/>
-      <c r="HG4" s="43"/>
-      <c r="HH4" s="43"/>
-      <c r="HI4" s="43"/>
-      <c r="HJ4" s="43"/>
-      <c r="HK4" s="43">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="43"/>
-      <c r="HM4" s="43"/>
-      <c r="HN4" s="43"/>
-      <c r="HO4" s="43"/>
-      <c r="HP4" s="43"/>
-      <c r="HQ4" s="43"/>
-      <c r="HR4" s="43"/>
-      <c r="HS4" s="43"/>
-      <c r="HT4" s="43"/>
-      <c r="HU4" s="43"/>
-      <c r="HV4" s="43"/>
-      <c r="HW4" s="43">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="43"/>
-      <c r="HY4" s="43"/>
-      <c r="HZ4" s="43"/>
-      <c r="IA4" s="43"/>
-      <c r="IB4" s="43"/>
-      <c r="IC4" s="43"/>
-      <c r="ID4" s="43"/>
-      <c r="IE4" s="43"/>
-      <c r="IF4" s="43"/>
-      <c r="IG4" s="43"/>
-      <c r="IH4" s="40"/>
-      <c r="II4" s="40">
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="41"/>
+      <c r="II4" s="41">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="41"/>
-      <c r="IK4" s="41"/>
-      <c r="IL4" s="41"/>
-      <c r="IM4" s="41"/>
-      <c r="IN4" s="41"/>
-      <c r="IO4" s="41"/>
-      <c r="IP4" s="41"/>
-      <c r="IQ4" s="41"/>
-      <c r="IR4" s="41"/>
-      <c r="IS4" s="41"/>
-      <c r="IT4" s="42"/>
-      <c r="IU4" s="40">
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="43"/>
+      <c r="IU4" s="41">
         <v>2021</v>
       </c>
-      <c r="IV4" s="41"/>
-      <c r="IW4" s="41"/>
-      <c r="IX4" s="41"/>
-      <c r="IY4" s="41"/>
-      <c r="IZ4" s="41"/>
-      <c r="JA4" s="41"/>
-      <c r="JB4" s="41"/>
-      <c r="JC4" s="41"/>
-      <c r="JD4" s="41"/>
-      <c r="JE4" s="41"/>
-      <c r="JF4" s="42"/>
-      <c r="JG4" s="38">
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
+      <c r="IY4" s="42"/>
+      <c r="IZ4" s="42"/>
+      <c r="JA4" s="42"/>
+      <c r="JB4" s="42"/>
+      <c r="JC4" s="42"/>
+      <c r="JD4" s="42"/>
+      <c r="JE4" s="42"/>
+      <c r="JF4" s="43"/>
+      <c r="JG4" s="41">
         <v>2022</v>
       </c>
-      <c r="JH4" s="39">
-        <v>2022</v>
-      </c>
-      <c r="JI4" s="29"/>
+      <c r="JH4" s="42"/>
+      <c r="JI4" s="43"/>
       <c r="JJ4" s="29"/>
       <c r="JK4" s="29"/>
       <c r="JL4" s="29"/>
@@ -3224,7 +3220,7 @@
       <c r="AAV4" s="29"/>
       <c r="AAW4" s="29"/>
       <c r="AAX4" s="29"/>
-      <c r="AAY4" s="5"/>
+      <c r="AAY4" s="29"/>
       <c r="AAZ4" s="5"/>
       <c r="ABA4" s="5"/>
       <c r="ABB4" s="5"/>
@@ -3405,10 +3401,11 @@
       <c r="AHU4" s="5"/>
       <c r="AHV4" s="5"/>
       <c r="AHW4" s="5"/>
+      <c r="AHX4" s="5"/>
     </row>
-    <row r="5" spans="1:907" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:908" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4207,7 +4204,9 @@
       <c r="JH5" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="JI5" s="29"/>
+      <c r="JI5" s="31" t="s">
+        <v>342</v>
+      </c>
       <c r="JJ5" s="29"/>
       <c r="JK5" s="29"/>
       <c r="JL5" s="29"/>
@@ -4665,7 +4664,7 @@
       <c r="AAV5" s="29"/>
       <c r="AAW5" s="29"/>
       <c r="AAX5" s="29"/>
-      <c r="AAY5" s="5"/>
+      <c r="AAY5" s="29"/>
       <c r="AAZ5" s="5"/>
       <c r="ABA5" s="5"/>
       <c r="ABB5" s="5"/>
@@ -4846,9 +4845,10 @@
       <c r="AHU5" s="5"/>
       <c r="AHV5" s="5"/>
       <c r="AHW5" s="5"/>
+      <c r="AHX5" s="5"/>
     </row>
-    <row r="6" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5652,9 +5652,12 @@
       <c r="JH6" s="7">
         <v>98642</v>
       </c>
+      <c r="JI6" s="7">
+        <v>100243</v>
+      </c>
     </row>
-    <row r="7" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6456,9 +6459,12 @@
       <c r="JH7" s="8">
         <v>45</v>
       </c>
+      <c r="JI7" s="8">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7260,9 +7266,12 @@
       <c r="JH8" s="7">
         <v>23728</v>
       </c>
+      <c r="JI8" s="7">
+        <v>23739</v>
+      </c>
     </row>
-    <row r="9" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8064,9 +8073,12 @@
       <c r="JH9" s="7">
         <v>473</v>
       </c>
+      <c r="JI9" s="7">
+        <v>482</v>
+      </c>
     </row>
-    <row r="10" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+    <row r="10" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8868,9 +8880,12 @@
       <c r="JH10" s="8">
         <v>414</v>
       </c>
+      <c r="JI10" s="8">
+        <v>408</v>
+      </c>
     </row>
-    <row r="11" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:908" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9677,7 +9692,10 @@
         <f>SUM(JH6:JH10)</f>
         <v>123302</v>
       </c>
-      <c r="JI11" s="29"/>
+      <c r="JI11" s="10">
+        <f>SUM(JI6:JI10)</f>
+        <v>124917</v>
+      </c>
       <c r="JJ11" s="29"/>
       <c r="JK11" s="29"/>
       <c r="JL11" s="29"/>
@@ -10135,7 +10153,7 @@
       <c r="AAV11" s="29"/>
       <c r="AAW11" s="29"/>
       <c r="AAX11" s="29"/>
-      <c r="AAY11" s="5"/>
+      <c r="AAY11" s="29"/>
       <c r="AAZ11" s="5"/>
       <c r="ABA11" s="5"/>
       <c r="ABB11" s="5"/>
@@ -10316,9 +10334,10 @@
       <c r="AHU11" s="5"/>
       <c r="AHV11" s="5"/>
       <c r="AHW11" s="5"/>
+      <c r="AHX11" s="5"/>
     </row>
-    <row r="12" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11122,9 +11141,12 @@
       <c r="JH12" s="7">
         <v>77288</v>
       </c>
+      <c r="JI12" s="7">
+        <v>77423</v>
+      </c>
     </row>
-    <row r="13" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11926,9 +11948,12 @@
       <c r="JH13" s="7">
         <v>19888</v>
       </c>
+      <c r="JI13" s="7">
+        <v>20212</v>
+      </c>
     </row>
-    <row r="14" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+    <row r="14" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12730,9 +12755,12 @@
       <c r="JH14" s="7">
         <v>32694</v>
       </c>
+      <c r="JI14" s="7">
+        <v>32846</v>
+      </c>
     </row>
-    <row r="15" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+    <row r="15" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13534,9 +13562,12 @@
       <c r="JH15" s="7">
         <v>22910</v>
       </c>
+      <c r="JI15" s="7">
+        <v>22739</v>
+      </c>
     </row>
-    <row r="16" spans="1:907" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+    <row r="16" spans="1:908" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14338,9 +14369,12 @@
       <c r="JH16" s="7">
         <v>16943</v>
       </c>
+      <c r="JI16" s="7">
+        <v>16798</v>
+      </c>
     </row>
-    <row r="17" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+    <row r="17" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15142,9 +15176,12 @@
       <c r="JH17" s="7">
         <v>47514</v>
       </c>
+      <c r="JI17" s="7">
+        <v>47849</v>
+      </c>
     </row>
-    <row r="18" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+    <row r="18" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -15946,9 +15983,12 @@
       <c r="JH18" s="7">
         <v>58788</v>
       </c>
+      <c r="JI18" s="7">
+        <v>59065</v>
+      </c>
     </row>
-    <row r="19" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+    <row r="19" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16750,9 +16790,12 @@
       <c r="JH19" s="7">
         <v>66880</v>
       </c>
+      <c r="JI19" s="7">
+        <v>66639</v>
+      </c>
     </row>
-    <row r="20" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17554,9 +17597,12 @@
       <c r="JH20" s="7">
         <v>45841</v>
       </c>
+      <c r="JI20" s="7">
+        <v>45465</v>
+      </c>
     </row>
-    <row r="21" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+    <row r="21" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18363,7 +18409,10 @@
         <f>SUM(JH12:JH20)</f>
         <v>388746</v>
       </c>
-      <c r="JI21" s="29"/>
+      <c r="JI21" s="10">
+        <f>SUM(JI12:JI20)</f>
+        <v>389036</v>
+      </c>
       <c r="JJ21" s="29"/>
       <c r="JK21" s="29"/>
       <c r="JL21" s="29"/>
@@ -18821,7 +18870,7 @@
       <c r="AAV21" s="29"/>
       <c r="AAW21" s="29"/>
       <c r="AAX21" s="29"/>
-      <c r="AAY21" s="5"/>
+      <c r="AAY21" s="29"/>
       <c r="AAZ21" s="5"/>
       <c r="ABA21" s="5"/>
       <c r="ABB21" s="5"/>
@@ -19002,9 +19051,10 @@
       <c r="AHU21" s="5"/>
       <c r="AHV21" s="5"/>
       <c r="AHW21" s="5"/>
+      <c r="AHX21" s="5"/>
     </row>
-    <row r="22" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19808,9 +19858,12 @@
       <c r="JH22" s="7">
         <v>101205</v>
       </c>
+      <c r="JI22" s="7">
+        <v>101900</v>
+      </c>
     </row>
-    <row r="23" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20612,9 +20665,12 @@
       <c r="JH23" s="7">
         <v>35183</v>
       </c>
+      <c r="JI23" s="7">
+        <v>35444</v>
+      </c>
     </row>
-    <row r="24" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21421,7 +21477,10 @@
         <f>SUM(JH22:JH23)</f>
         <v>136388</v>
       </c>
-      <c r="JI24" s="29"/>
+      <c r="JI24" s="10">
+        <f>SUM(JI22:JI23)</f>
+        <v>137344</v>
+      </c>
       <c r="JJ24" s="29"/>
       <c r="JK24" s="29"/>
       <c r="JL24" s="29"/>
@@ -21879,7 +21938,7 @@
       <c r="AAV24" s="29"/>
       <c r="AAW24" s="29"/>
       <c r="AAX24" s="29"/>
-      <c r="AAY24" s="5"/>
+      <c r="AAY24" s="29"/>
       <c r="AAZ24" s="5"/>
       <c r="ABA24" s="5"/>
       <c r="ABB24" s="5"/>
@@ -22060,9 +22119,10 @@
       <c r="AHU24" s="5"/>
       <c r="AHV24" s="5"/>
       <c r="AHW24" s="5"/>
+      <c r="AHX24" s="5"/>
     </row>
-    <row r="25" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22866,9 +22926,12 @@
       <c r="JH25" s="7">
         <v>4164</v>
       </c>
+      <c r="JI25" s="7">
+        <v>4259</v>
+      </c>
     </row>
-    <row r="26" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+    <row r="26" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23670,9 +23733,12 @@
       <c r="JH26" s="7">
         <v>5386</v>
       </c>
+      <c r="JI26" s="7">
+        <v>5360</v>
+      </c>
     </row>
-    <row r="27" spans="1:907" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+    <row r="27" spans="1:908" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24479,7 +24545,10 @@
         <f>SUM(JH25:JH26)</f>
         <v>9550</v>
       </c>
-      <c r="JI27" s="29"/>
+      <c r="JI27" s="10">
+        <f>SUM(JI25:JI26)</f>
+        <v>9619</v>
+      </c>
       <c r="JJ27" s="29"/>
       <c r="JK27" s="29"/>
       <c r="JL27" s="29"/>
@@ -24937,7 +25006,7 @@
       <c r="AAV27" s="29"/>
       <c r="AAW27" s="29"/>
       <c r="AAX27" s="29"/>
-      <c r="AAY27" s="5"/>
+      <c r="AAY27" s="29"/>
       <c r="AAZ27" s="5"/>
       <c r="ABA27" s="5"/>
       <c r="ABB27" s="5"/>
@@ -25118,9 +25187,10 @@
       <c r="AHU27" s="5"/>
       <c r="AHV27" s="5"/>
       <c r="AHW27" s="5"/>
+      <c r="AHX27" s="5"/>
     </row>
-    <row r="28" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -25924,9 +25994,12 @@
       <c r="JH28" s="7">
         <v>768</v>
       </c>
+      <c r="JI28" s="7">
+        <v>821</v>
+      </c>
     </row>
-    <row r="29" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26728,9 +26801,12 @@
       <c r="JH29" s="7">
         <v>10285</v>
       </c>
+      <c r="JI29" s="7">
+        <v>10501</v>
+      </c>
     </row>
-    <row r="30" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+    <row r="30" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27532,9 +27608,12 @@
       <c r="JH30" s="7">
         <v>28475</v>
       </c>
+      <c r="JI30" s="7">
+        <v>28833</v>
+      </c>
     </row>
-    <row r="31" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+    <row r="31" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28336,9 +28415,12 @@
       <c r="JH31" s="7">
         <v>102574</v>
       </c>
+      <c r="JI31" s="7">
+        <v>103266</v>
+      </c>
     </row>
-    <row r="32" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+    <row r="32" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29140,9 +29222,12 @@
       <c r="JH32" s="7">
         <v>23877</v>
       </c>
+      <c r="JI32" s="7">
+        <v>24195</v>
+      </c>
     </row>
-    <row r="33" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+    <row r="33" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -29944,9 +30029,12 @@
       <c r="JH33" s="7">
         <v>9513</v>
       </c>
+      <c r="JI33" s="7">
+        <v>9715</v>
+      </c>
     </row>
-    <row r="34" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30748,9 +30836,12 @@
       <c r="JH34" s="7">
         <v>43388</v>
       </c>
+      <c r="JI34" s="7">
+        <v>43753</v>
+      </c>
     </row>
-    <row r="35" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+    <row r="35" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31552,9 +31643,12 @@
       <c r="JH35" s="7">
         <v>10224</v>
       </c>
+      <c r="JI35" s="7">
+        <v>10338</v>
+      </c>
     </row>
-    <row r="36" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+    <row r="36" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32356,9 +32450,12 @@
       <c r="JH36" s="7">
         <v>52135</v>
       </c>
+      <c r="JI36" s="7">
+        <v>52613</v>
+      </c>
     </row>
-    <row r="37" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33160,9 +33257,12 @@
       <c r="JH37" s="7">
         <v>62517</v>
       </c>
+      <c r="JI37" s="7">
+        <v>64469</v>
+      </c>
     </row>
-    <row r="38" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+    <row r="38" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -33964,9 +34064,12 @@
       <c r="JH38" s="7">
         <v>22864</v>
       </c>
+      <c r="JI38" s="7">
+        <v>22932</v>
+      </c>
     </row>
-    <row r="39" spans="1:907" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+    <row r="39" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34768,9 +34871,12 @@
       <c r="JH39" s="7">
         <v>22974</v>
       </c>
+      <c r="JI39" s="7">
+        <v>22990</v>
+      </c>
     </row>
-    <row r="40" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+    <row r="40" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35572,9 +35678,12 @@
       <c r="JH40" s="7">
         <v>11975</v>
       </c>
+      <c r="JI40" s="7">
+        <v>12001</v>
+      </c>
     </row>
-    <row r="41" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+    <row r="41" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36376,9 +36485,12 @@
       <c r="JH41" s="7">
         <v>11620</v>
       </c>
+      <c r="JI41" s="7">
+        <v>11682</v>
+      </c>
     </row>
-    <row r="42" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+    <row r="42" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37180,9 +37292,12 @@
       <c r="JH42" s="7">
         <v>43273</v>
       </c>
+      <c r="JI42" s="7">
+        <v>43761</v>
+      </c>
     </row>
-    <row r="43" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+    <row r="43" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -37984,9 +38099,12 @@
       <c r="JH43" s="7">
         <v>5009</v>
       </c>
+      <c r="JI43" s="7">
+        <v>4998</v>
+      </c>
     </row>
-    <row r="44" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+    <row r="44" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -38788,9 +38906,12 @@
       <c r="JH44" s="7">
         <v>5773</v>
       </c>
+      <c r="JI44" s="7">
+        <v>5839</v>
+      </c>
     </row>
-    <row r="45" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+    <row r="45" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39592,9 +39713,12 @@
       <c r="JH45" s="7">
         <v>6671</v>
       </c>
+      <c r="JI45" s="7">
+        <v>6621</v>
+      </c>
     </row>
-    <row r="46" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
+    <row r="46" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40396,9 +40520,12 @@
       <c r="JH46" s="7">
         <v>12271</v>
       </c>
+      <c r="JI46" s="7">
+        <v>12454</v>
+      </c>
     </row>
-    <row r="47" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+    <row r="47" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41194,15 +41321,18 @@
       <c r="JF47" s="7">
         <v>1646</v>
       </c>
-      <c r="JG47" s="8">
+      <c r="JG47" s="7">
         <v>1654</v>
       </c>
-      <c r="JH47" s="8">
+      <c r="JH47" s="7">
         <v>1632</v>
       </c>
+      <c r="JI47" s="7">
+        <v>1631</v>
+      </c>
     </row>
-    <row r="48" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+    <row r="48" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42009,7 +42139,10 @@
         <f>SUM(JH28:JH47)</f>
         <v>487818</v>
       </c>
-      <c r="JI48" s="29"/>
+      <c r="JI48" s="10">
+        <f>SUM(JI28:JI47)</f>
+        <v>493413</v>
+      </c>
       <c r="JJ48" s="29"/>
       <c r="JK48" s="29"/>
       <c r="JL48" s="29"/>
@@ -42467,7 +42600,7 @@
       <c r="AAV48" s="29"/>
       <c r="AAW48" s="29"/>
       <c r="AAX48" s="29"/>
-      <c r="AAY48" s="5"/>
+      <c r="AAY48" s="29"/>
       <c r="AAZ48" s="5"/>
       <c r="ABA48" s="5"/>
       <c r="ABB48" s="5"/>
@@ -42648,9 +42781,10 @@
       <c r="AHU48" s="5"/>
       <c r="AHV48" s="5"/>
       <c r="AHW48" s="5"/>
+      <c r="AHX48" s="5"/>
     </row>
-    <row r="49" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+    <row r="49" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43454,9 +43588,12 @@
       <c r="JH49" s="8">
         <v>21</v>
       </c>
+      <c r="JI49" s="8">
+        <v>19</v>
+      </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
+    <row r="50" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44258,9 +44395,12 @@
       <c r="JH50" s="8">
         <v>2</v>
       </c>
+      <c r="JI50" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+    <row r="51" spans="1:269" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -45062,9 +45202,12 @@
       <c r="JH51" s="7">
         <v>1476</v>
       </c>
+      <c r="JI51" s="7">
+        <v>1458</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+    <row r="52" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -45866,9 +46009,12 @@
       <c r="JH52" s="7">
         <v>1144</v>
       </c>
+      <c r="JI52" s="7">
+        <v>1096</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+    <row r="53" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46675,9 +46821,13 @@
         <f>SUM(JH49:JH52)</f>
         <v>2643</v>
       </c>
+      <c r="JI53" s="10">
+        <f>SUM(JI49:JI52)</f>
+        <v>2577</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="44" t="s">
+    <row r="54" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47478,12 +47628,15 @@
       <c r="JG54" s="7">
         <v>5794</v>
       </c>
-      <c r="JH54" s="35">
+      <c r="JH54" s="36">
         <v>5843</v>
       </c>
+      <c r="JI54" s="36">
+        <v>5805</v>
+      </c>
     </row>
-    <row r="55" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
+    <row r="55" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48285,9 +48438,12 @@
       <c r="JH55" s="7">
         <v>51973</v>
       </c>
+      <c r="JI55" s="7">
+        <v>51756</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
+    <row r="56" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -49089,9 +49245,12 @@
       <c r="JH56" s="7">
         <v>7046</v>
       </c>
+      <c r="JI56" s="7">
+        <v>7122</v>
+      </c>
     </row>
-    <row r="57" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+    <row r="57" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -49893,9 +50052,12 @@
       <c r="JH57" s="7">
         <v>188724</v>
       </c>
+      <c r="JI57" s="7">
+        <v>189093</v>
+      </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+    <row r="58" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -50697,9 +50859,12 @@
       <c r="JH58" s="7">
         <v>31102</v>
       </c>
+      <c r="JI58" s="7">
+        <v>31677</v>
+      </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
+    <row r="59" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -51501,9 +51666,12 @@
       <c r="JH59" s="7">
         <v>6102</v>
       </c>
+      <c r="JI59" s="7">
+        <v>6176</v>
+      </c>
     </row>
-    <row r="60" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+    <row r="60" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -52305,9 +52473,12 @@
       <c r="JH60" s="7">
         <v>48190</v>
       </c>
+      <c r="JI60" s="7">
+        <v>48399</v>
+      </c>
     </row>
-    <row r="61" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
+    <row r="61" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -53109,9 +53280,12 @@
       <c r="JH61" s="8">
         <v>131</v>
       </c>
+      <c r="JI61" s="8">
+        <v>135</v>
+      </c>
     </row>
-    <row r="62" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
+    <row r="62" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -53913,9 +54087,12 @@
       <c r="JH62" s="7">
         <v>19663</v>
       </c>
+      <c r="JI62" s="7">
+        <v>19716</v>
+      </c>
     </row>
-    <row r="63" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+    <row r="63" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -54717,9 +54894,12 @@
       <c r="JH63" s="7">
         <v>33651</v>
       </c>
+      <c r="JI63" s="7">
+        <v>33848</v>
+      </c>
     </row>
-    <row r="64" spans="1:268" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+    <row r="64" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -55521,9 +55701,12 @@
       <c r="JH64" s="7">
         <v>48539</v>
       </c>
+      <c r="JI64" s="7">
+        <v>48591</v>
+      </c>
     </row>
-    <row r="65" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+    <row r="65" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -56325,9 +56508,12 @@
       <c r="JH65" s="7">
         <v>161379</v>
       </c>
+      <c r="JI65" s="7">
+        <v>163310</v>
+      </c>
     </row>
-    <row r="66" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+    <row r="66" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -57129,9 +57315,12 @@
       <c r="JH66" s="7">
         <v>17797</v>
       </c>
+      <c r="JI66" s="7">
+        <v>18017</v>
+      </c>
     </row>
-    <row r="67" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
+    <row r="67" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -57933,9 +58122,12 @@
       <c r="JH67" s="7">
         <v>6490</v>
       </c>
+      <c r="JI67" s="7">
+        <v>6401</v>
+      </c>
     </row>
-    <row r="68" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
+    <row r="68" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -58742,7 +58934,10 @@
         <f>SUM(JH54:JH67)</f>
         <v>626630</v>
       </c>
-      <c r="JI68" s="29"/>
+      <c r="JI68" s="10">
+        <f>SUM(JI54:JI67)</f>
+        <v>630046</v>
+      </c>
       <c r="JJ68" s="29"/>
       <c r="JK68" s="29"/>
       <c r="JL68" s="29"/>
@@ -59200,7 +59395,7 @@
       <c r="AAV68" s="29"/>
       <c r="AAW68" s="29"/>
       <c r="AAX68" s="29"/>
-      <c r="AAY68" s="5"/>
+      <c r="AAY68" s="29"/>
       <c r="AAZ68" s="5"/>
       <c r="ABA68" s="5"/>
       <c r="ABB68" s="5"/>
@@ -59381,9 +59576,10 @@
       <c r="AHU68" s="5"/>
       <c r="AHV68" s="5"/>
       <c r="AHW68" s="5"/>
+      <c r="AHX68" s="5"/>
     </row>
-    <row r="69" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A69" s="44" t="s">
+    <row r="69" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -60187,9 +60383,12 @@
       <c r="JH69" s="7">
         <v>9717</v>
       </c>
+      <c r="JI69" s="7">
+        <v>9729</v>
+      </c>
     </row>
-    <row r="70" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+    <row r="70" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -60991,9 +61190,12 @@
       <c r="JH70" s="7">
         <v>929</v>
       </c>
+      <c r="JI70" s="7">
+        <v>834</v>
+      </c>
     </row>
-    <row r="71" spans="1:907" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+    <row r="71" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -61795,9 +61997,12 @@
       <c r="JH71" s="7">
         <v>32254</v>
       </c>
+      <c r="JI71" s="7">
+        <v>32322</v>
+      </c>
     </row>
-    <row r="72" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+    <row r="72" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -62599,9 +62804,12 @@
       <c r="JH72" s="7">
         <v>3762</v>
       </c>
+      <c r="JI72" s="7">
+        <v>3784</v>
+      </c>
     </row>
-    <row r="73" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
+    <row r="73" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -63403,9 +63611,12 @@
       <c r="JH73" s="8">
         <v>534</v>
       </c>
+      <c r="JI73" s="8">
+        <v>533</v>
+      </c>
     </row>
-    <row r="74" spans="1:907" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
+    <row r="74" spans="1:908" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -64207,9 +64418,12 @@
       <c r="JH74" s="7">
         <v>52349</v>
       </c>
+      <c r="JI74" s="7">
+        <v>52622</v>
+      </c>
     </row>
-    <row r="75" spans="1:907" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+    <row r="75" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -65016,7 +65230,10 @@
         <f>SUM(JH69:JH74)</f>
         <v>99545</v>
       </c>
-      <c r="JI75" s="29"/>
+      <c r="JI75" s="10">
+        <f>SUM(JI69:JI74)</f>
+        <v>99824</v>
+      </c>
       <c r="JJ75" s="29"/>
       <c r="JK75" s="29"/>
       <c r="JL75" s="29"/>
@@ -65474,7 +65691,7 @@
       <c r="AAV75" s="29"/>
       <c r="AAW75" s="29"/>
       <c r="AAX75" s="29"/>
-      <c r="AAY75" s="5"/>
+      <c r="AAY75" s="29"/>
       <c r="AAZ75" s="5"/>
       <c r="ABA75" s="5"/>
       <c r="ABB75" s="5"/>
@@ -65655,8 +65872,9 @@
       <c r="AHU75" s="5"/>
       <c r="AHV75" s="5"/>
       <c r="AHW75" s="5"/>
+      <c r="AHX75" s="5"/>
     </row>
-    <row r="76" spans="1:907" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:908" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -66465,8 +66683,12 @@
         <f>JH11+JH21+JH24+JH27+JH48+JH53+JH68+JH75</f>
         <v>1874622</v>
       </c>
+      <c r="JI76" s="19">
+        <f>JI11+JI21+JI24+JI27+JI48+JI53+JI68+JI75</f>
+        <v>1886776</v>
+      </c>
     </row>
-    <row r="77" spans="1:907" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:908" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -66730,7 +66952,7 @@
       <c r="JF77" s="30"/>
       <c r="JG77" s="30"/>
       <c r="JH77" s="30"/>
-      <c r="JI77" s="27"/>
+      <c r="JI77" s="30"/>
       <c r="JJ77" s="27"/>
       <c r="JK77" s="27"/>
       <c r="JL77" s="27"/>
@@ -67188,33 +67410,16 @@
       <c r="AAV77" s="27"/>
       <c r="AAW77" s="27"/>
       <c r="AAX77" s="27"/>
+      <c r="AAY77" s="27"/>
     </row>
-    <row r="78" spans="1:907" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:908" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
+  <mergeCells count="33">
+    <mergeCell ref="JG4:JI4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -67228,6 +67433,25 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" tabRatio="598"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="ta_división_grupo" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="344">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1071,6 +1071,9 @@
   </si>
   <si>
     <t>2022/marzo</t>
+  </si>
+  <si>
+    <t>2022/abril</t>
   </si>
 </sst>
 </file>
@@ -2156,294 +2159,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHX78"/>
+  <dimension ref="A1:AHY78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JK15" sqref="JK15"/>
+      <pane xSplit="2" topLeftCell="IZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JK74" sqref="JK74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="188" max="188" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="197" max="197" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="209" max="209" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="221" max="221" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="224" max="224" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="233" max="233" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="10.375" style="3" bestFit="1" customWidth="1"/>
     <col min="236" max="236" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="12.125" style="3" bestFit="1" customWidth="1"/>
     <col min="245" max="245" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="248" max="249" width="10.85546875" style="4"/>
+    <col min="246" max="246" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="10.875" style="4"/>
     <col min="250" max="250" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="252" max="254" width="16.42578125" style="4" customWidth="1"/>
+    <col min="251" max="251" width="16.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="252" max="254" width="16.375" style="4" customWidth="1"/>
     <col min="255" max="255" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.140625" style="4" customWidth="1"/>
-    <col min="260" max="262" width="11.5703125" style="4" customWidth="1"/>
-    <col min="263" max="265" width="16.140625" style="4" customWidth="1"/>
-    <col min="266" max="266" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="10.125" style="4" customWidth="1"/>
+    <col min="260" max="262" width="11.625" style="4" customWidth="1"/>
+    <col min="263" max="265" width="16.125" style="4" customWidth="1"/>
+    <col min="266" max="266" width="16.375" style="4" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="11" style="4" customWidth="1"/>
-    <col min="269" max="269" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="33.85546875" style="28" customWidth="1"/>
-    <col min="271" max="727" width="10.85546875" style="28"/>
-    <col min="728" max="908" width="10.85546875" style="4"/>
-    <col min="909" max="16384" width="10.85546875" style="3"/>
+    <col min="268" max="269" width="11" style="4" customWidth="1"/>
+    <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="33.875" style="28" customWidth="1"/>
+    <col min="272" max="728" width="10.875" style="28"/>
+    <col min="729" max="909" width="10.875" style="4"/>
+    <col min="910" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:908" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
@@ -2762,8 +2765,8 @@
         <v>2022</v>
       </c>
       <c r="JH4" s="42"/>
-      <c r="JI4" s="43"/>
-      <c r="JJ4" s="29"/>
+      <c r="JI4" s="42"/>
+      <c r="JJ4" s="43"/>
       <c r="JK4" s="29"/>
       <c r="JL4" s="29"/>
       <c r="JM4" s="29"/>
@@ -3221,7 +3224,7 @@
       <c r="AAW4" s="29"/>
       <c r="AAX4" s="29"/>
       <c r="AAY4" s="29"/>
-      <c r="AAZ4" s="5"/>
+      <c r="AAZ4" s="29"/>
       <c r="ABA4" s="5"/>
       <c r="ABB4" s="5"/>
       <c r="ABC4" s="5"/>
@@ -3402,8 +3405,9 @@
       <c r="AHV4" s="5"/>
       <c r="AHW4" s="5"/>
       <c r="AHX4" s="5"/>
+      <c r="AHY4" s="5"/>
     </row>
-    <row r="5" spans="1:908" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
@@ -4207,7 +4211,9 @@
       <c r="JI5" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="JJ5" s="29"/>
+      <c r="JJ5" s="31" t="s">
+        <v>343</v>
+      </c>
       <c r="JK5" s="29"/>
       <c r="JL5" s="29"/>
       <c r="JM5" s="29"/>
@@ -4665,7 +4671,7 @@
       <c r="AAW5" s="29"/>
       <c r="AAX5" s="29"/>
       <c r="AAY5" s="29"/>
-      <c r="AAZ5" s="5"/>
+      <c r="AAZ5" s="29"/>
       <c r="ABA5" s="5"/>
       <c r="ABB5" s="5"/>
       <c r="ABC5" s="5"/>
@@ -4846,8 +4852,9 @@
       <c r="AHV5" s="5"/>
       <c r="AHW5" s="5"/>
       <c r="AHX5" s="5"/>
+      <c r="AHY5" s="5"/>
     </row>
-    <row r="6" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
@@ -5655,8 +5662,11 @@
       <c r="JI6" s="7">
         <v>100243</v>
       </c>
+      <c r="JJ6" s="7">
+        <v>96108</v>
+      </c>
     </row>
-    <row r="7" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
@@ -6462,8 +6472,11 @@
       <c r="JI7" s="8">
         <v>45</v>
       </c>
+      <c r="JJ7" s="8">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
@@ -7269,8 +7282,11 @@
       <c r="JI8" s="7">
         <v>23739</v>
       </c>
+      <c r="JJ8" s="7">
+        <v>23648</v>
+      </c>
     </row>
-    <row r="9" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
@@ -8076,8 +8092,11 @@
       <c r="JI9" s="7">
         <v>482</v>
       </c>
+      <c r="JJ9" s="7">
+        <v>501</v>
+      </c>
     </row>
-    <row r="10" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
@@ -8883,8 +8902,11 @@
       <c r="JI10" s="8">
         <v>408</v>
       </c>
+      <c r="JJ10" s="8">
+        <v>406</v>
+      </c>
     </row>
-    <row r="11" spans="1:908" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
@@ -9696,7 +9718,10 @@
         <f>SUM(JI6:JI10)</f>
         <v>124917</v>
       </c>
-      <c r="JJ11" s="29"/>
+      <c r="JJ11" s="10">
+        <f>SUM(JJ6:JJ10)</f>
+        <v>120707</v>
+      </c>
       <c r="JK11" s="29"/>
       <c r="JL11" s="29"/>
       <c r="JM11" s="29"/>
@@ -10154,7 +10179,7 @@
       <c r="AAW11" s="29"/>
       <c r="AAX11" s="29"/>
       <c r="AAY11" s="29"/>
-      <c r="AAZ11" s="5"/>
+      <c r="AAZ11" s="29"/>
       <c r="ABA11" s="5"/>
       <c r="ABB11" s="5"/>
       <c r="ABC11" s="5"/>
@@ -10335,8 +10360,9 @@
       <c r="AHV11" s="5"/>
       <c r="AHW11" s="5"/>
       <c r="AHX11" s="5"/>
+      <c r="AHY11" s="5"/>
     </row>
-    <row r="12" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
@@ -11144,8 +11170,11 @@
       <c r="JI12" s="7">
         <v>77423</v>
       </c>
+      <c r="JJ12" s="7">
+        <v>77135</v>
+      </c>
     </row>
-    <row r="13" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
@@ -11951,8 +11980,11 @@
       <c r="JI13" s="7">
         <v>20212</v>
       </c>
+      <c r="JJ13" s="7">
+        <v>20414</v>
+      </c>
     </row>
-    <row r="14" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
@@ -12758,8 +12790,11 @@
       <c r="JI14" s="7">
         <v>32846</v>
       </c>
+      <c r="JJ14" s="7">
+        <v>32843</v>
+      </c>
     </row>
-    <row r="15" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
@@ -13565,8 +13600,11 @@
       <c r="JI15" s="7">
         <v>22739</v>
       </c>
+      <c r="JJ15" s="7">
+        <v>22664</v>
+      </c>
     </row>
-    <row r="16" spans="1:908" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:909" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
@@ -14372,8 +14410,11 @@
       <c r="JI16" s="7">
         <v>16798</v>
       </c>
+      <c r="JJ16" s="7">
+        <v>16665</v>
+      </c>
     </row>
-    <row r="17" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
@@ -15179,8 +15220,11 @@
       <c r="JI17" s="7">
         <v>47849</v>
       </c>
+      <c r="JJ17" s="7">
+        <v>48027</v>
+      </c>
     </row>
-    <row r="18" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
@@ -15986,8 +16030,11 @@
       <c r="JI18" s="7">
         <v>59065</v>
       </c>
+      <c r="JJ18" s="7">
+        <v>59416</v>
+      </c>
     </row>
-    <row r="19" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
@@ -16793,8 +16840,11 @@
       <c r="JI19" s="7">
         <v>66639</v>
       </c>
+      <c r="JJ19" s="7">
+        <v>66446</v>
+      </c>
     </row>
-    <row r="20" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
@@ -17600,8 +17650,11 @@
       <c r="JI20" s="7">
         <v>45465</v>
       </c>
+      <c r="JJ20" s="7">
+        <v>45762</v>
+      </c>
     </row>
-    <row r="21" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
@@ -18413,7 +18466,10 @@
         <f>SUM(JI12:JI20)</f>
         <v>389036</v>
       </c>
-      <c r="JJ21" s="29"/>
+      <c r="JJ21" s="10">
+        <f>SUM(JJ12:JJ20)</f>
+        <v>389372</v>
+      </c>
       <c r="JK21" s="29"/>
       <c r="JL21" s="29"/>
       <c r="JM21" s="29"/>
@@ -18871,7 +18927,7 @@
       <c r="AAW21" s="29"/>
       <c r="AAX21" s="29"/>
       <c r="AAY21" s="29"/>
-      <c r="AAZ21" s="5"/>
+      <c r="AAZ21" s="29"/>
       <c r="ABA21" s="5"/>
       <c r="ABB21" s="5"/>
       <c r="ABC21" s="5"/>
@@ -19052,8 +19108,9 @@
       <c r="AHV21" s="5"/>
       <c r="AHW21" s="5"/>
       <c r="AHX21" s="5"/>
+      <c r="AHY21" s="5"/>
     </row>
-    <row r="22" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
@@ -19861,8 +19918,11 @@
       <c r="JI22" s="7">
         <v>101900</v>
       </c>
+      <c r="JJ22" s="7">
+        <v>102081</v>
+      </c>
     </row>
-    <row r="23" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
@@ -20668,8 +20728,11 @@
       <c r="JI23" s="7">
         <v>35444</v>
       </c>
+      <c r="JJ23" s="7">
+        <v>35054</v>
+      </c>
     </row>
-    <row r="24" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
@@ -21481,7 +21544,10 @@
         <f>SUM(JI22:JI23)</f>
         <v>137344</v>
       </c>
-      <c r="JJ24" s="29"/>
+      <c r="JJ24" s="10">
+        <f>SUM(JJ22:JJ23)</f>
+        <v>137135</v>
+      </c>
       <c r="JK24" s="29"/>
       <c r="JL24" s="29"/>
       <c r="JM24" s="29"/>
@@ -21939,7 +22005,7 @@
       <c r="AAW24" s="29"/>
       <c r="AAX24" s="29"/>
       <c r="AAY24" s="29"/>
-      <c r="AAZ24" s="5"/>
+      <c r="AAZ24" s="29"/>
       <c r="ABA24" s="5"/>
       <c r="ABB24" s="5"/>
       <c r="ABC24" s="5"/>
@@ -22120,8 +22186,9 @@
       <c r="AHV24" s="5"/>
       <c r="AHW24" s="5"/>
       <c r="AHX24" s="5"/>
+      <c r="AHY24" s="5"/>
     </row>
-    <row r="25" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
@@ -22929,8 +22996,11 @@
       <c r="JI25" s="7">
         <v>4259</v>
       </c>
+      <c r="JJ25" s="7">
+        <v>4209</v>
+      </c>
     </row>
-    <row r="26" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
@@ -23736,8 +23806,11 @@
       <c r="JI26" s="7">
         <v>5360</v>
       </c>
+      <c r="JJ26" s="7">
+        <v>5331</v>
+      </c>
     </row>
-    <row r="27" spans="1:908" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
@@ -24549,7 +24622,10 @@
         <f>SUM(JI25:JI26)</f>
         <v>9619</v>
       </c>
-      <c r="JJ27" s="29"/>
+      <c r="JJ27" s="10">
+        <f>SUM(JJ25:JJ26)</f>
+        <v>9540</v>
+      </c>
       <c r="JK27" s="29"/>
       <c r="JL27" s="29"/>
       <c r="JM27" s="29"/>
@@ -25007,7 +25083,7 @@
       <c r="AAW27" s="29"/>
       <c r="AAX27" s="29"/>
       <c r="AAY27" s="29"/>
-      <c r="AAZ27" s="5"/>
+      <c r="AAZ27" s="29"/>
       <c r="ABA27" s="5"/>
       <c r="ABB27" s="5"/>
       <c r="ABC27" s="5"/>
@@ -25188,8 +25264,9 @@
       <c r="AHV27" s="5"/>
       <c r="AHW27" s="5"/>
       <c r="AHX27" s="5"/>
+      <c r="AHY27" s="5"/>
     </row>
-    <row r="28" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
@@ -25997,8 +26074,11 @@
       <c r="JI28" s="7">
         <v>821</v>
       </c>
+      <c r="JJ28" s="7">
+        <v>831</v>
+      </c>
     </row>
-    <row r="29" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
@@ -26804,8 +26884,11 @@
       <c r="JI29" s="7">
         <v>10501</v>
       </c>
+      <c r="JJ29" s="7">
+        <v>10470</v>
+      </c>
     </row>
-    <row r="30" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
@@ -27611,8 +27694,11 @@
       <c r="JI30" s="7">
         <v>28833</v>
       </c>
+      <c r="JJ30" s="7">
+        <v>28785</v>
+      </c>
     </row>
-    <row r="31" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
@@ -28418,8 +28504,11 @@
       <c r="JI31" s="7">
         <v>103266</v>
       </c>
+      <c r="JJ31" s="7">
+        <v>103501</v>
+      </c>
     </row>
-    <row r="32" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
@@ -29225,8 +29314,11 @@
       <c r="JI32" s="7">
         <v>24195</v>
       </c>
+      <c r="JJ32" s="7">
+        <v>24426</v>
+      </c>
     </row>
-    <row r="33" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
@@ -30032,8 +30124,11 @@
       <c r="JI33" s="7">
         <v>9715</v>
       </c>
+      <c r="JJ33" s="7">
+        <v>9862</v>
+      </c>
     </row>
-    <row r="34" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
@@ -30839,8 +30934,11 @@
       <c r="JI34" s="7">
         <v>43753</v>
       </c>
+      <c r="JJ34" s="7">
+        <v>43672</v>
+      </c>
     </row>
-    <row r="35" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
@@ -31646,8 +31744,11 @@
       <c r="JI35" s="7">
         <v>10338</v>
       </c>
+      <c r="JJ35" s="7">
+        <v>10468</v>
+      </c>
     </row>
-    <row r="36" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
@@ -32453,8 +32554,11 @@
       <c r="JI36" s="7">
         <v>52613</v>
       </c>
+      <c r="JJ36" s="7">
+        <v>52851</v>
+      </c>
     </row>
-    <row r="37" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
@@ -33260,8 +33364,11 @@
       <c r="JI37" s="7">
         <v>64469</v>
       </c>
+      <c r="JJ37" s="7">
+        <v>65421</v>
+      </c>
     </row>
-    <row r="38" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
@@ -34067,8 +34174,11 @@
       <c r="JI38" s="7">
         <v>22932</v>
       </c>
+      <c r="JJ38" s="7">
+        <v>22862</v>
+      </c>
     </row>
-    <row r="39" spans="1:908" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
@@ -34874,8 +34984,11 @@
       <c r="JI39" s="7">
         <v>22990</v>
       </c>
+      <c r="JJ39" s="7">
+        <v>22961</v>
+      </c>
     </row>
-    <row r="40" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
@@ -35681,8 +35794,11 @@
       <c r="JI40" s="7">
         <v>12001</v>
       </c>
+      <c r="JJ40" s="7">
+        <v>11923</v>
+      </c>
     </row>
-    <row r="41" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
@@ -36488,8 +36604,11 @@
       <c r="JI41" s="7">
         <v>11682</v>
       </c>
+      <c r="JJ41" s="7">
+        <v>11637</v>
+      </c>
     </row>
-    <row r="42" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
@@ -37295,8 +37414,11 @@
       <c r="JI42" s="7">
         <v>43761</v>
       </c>
+      <c r="JJ42" s="7">
+        <v>43688</v>
+      </c>
     </row>
-    <row r="43" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
@@ -38102,8 +38224,11 @@
       <c r="JI43" s="7">
         <v>4998</v>
       </c>
+      <c r="JJ43" s="7">
+        <v>4968</v>
+      </c>
     </row>
-    <row r="44" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
@@ -38909,8 +39034,11 @@
       <c r="JI44" s="7">
         <v>5839</v>
       </c>
+      <c r="JJ44" s="7">
+        <v>5822</v>
+      </c>
     </row>
-    <row r="45" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
@@ -39716,8 +39844,11 @@
       <c r="JI45" s="7">
         <v>6621</v>
       </c>
+      <c r="JJ45" s="7">
+        <v>6564</v>
+      </c>
     </row>
-    <row r="46" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
@@ -40523,8 +40654,11 @@
       <c r="JI46" s="7">
         <v>12454</v>
       </c>
+      <c r="JJ46" s="7">
+        <v>12462</v>
+      </c>
     </row>
-    <row r="47" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
@@ -41330,8 +41464,11 @@
       <c r="JI47" s="7">
         <v>1631</v>
       </c>
+      <c r="JJ47" s="7">
+        <v>1650</v>
+      </c>
     </row>
-    <row r="48" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
@@ -42143,7 +42280,10 @@
         <f>SUM(JI28:JI47)</f>
         <v>493413</v>
       </c>
-      <c r="JJ48" s="29"/>
+      <c r="JJ48" s="10">
+        <f>SUM(JJ28:JJ47)</f>
+        <v>494824</v>
+      </c>
       <c r="JK48" s="29"/>
       <c r="JL48" s="29"/>
       <c r="JM48" s="29"/>
@@ -42601,7 +42741,7 @@
       <c r="AAW48" s="29"/>
       <c r="AAX48" s="29"/>
       <c r="AAY48" s="29"/>
-      <c r="AAZ48" s="5"/>
+      <c r="AAZ48" s="29"/>
       <c r="ABA48" s="5"/>
       <c r="ABB48" s="5"/>
       <c r="ABC48" s="5"/>
@@ -42782,8 +42922,9 @@
       <c r="AHV48" s="5"/>
       <c r="AHW48" s="5"/>
       <c r="AHX48" s="5"/>
+      <c r="AHY48" s="5"/>
     </row>
-    <row r="49" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
@@ -43591,8 +43732,11 @@
       <c r="JI49" s="8">
         <v>19</v>
       </c>
+      <c r="JJ49" s="8">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
@@ -44398,8 +44542,11 @@
       <c r="JI50" s="8">
         <v>4</v>
       </c>
+      <c r="JJ50" s="8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="51" spans="1:269" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:270" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
@@ -45205,8 +45352,11 @@
       <c r="JI51" s="7">
         <v>1458</v>
       </c>
+      <c r="JJ51" s="7">
+        <v>1447</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
@@ -46012,8 +46162,11 @@
       <c r="JI52" s="7">
         <v>1096</v>
       </c>
+      <c r="JJ52" s="7">
+        <v>1085</v>
+      </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
@@ -46825,8 +46978,12 @@
         <f>SUM(JI49:JI52)</f>
         <v>2577</v>
       </c>
+      <c r="JJ53" s="10">
+        <f>SUM(JJ49:JJ52)</f>
+        <v>2556</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
@@ -47634,8 +47791,11 @@
       <c r="JI54" s="36">
         <v>5805</v>
       </c>
+      <c r="JJ54" s="36">
+        <v>5806</v>
+      </c>
     </row>
-    <row r="55" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
@@ -48441,8 +48601,11 @@
       <c r="JI55" s="7">
         <v>51756</v>
       </c>
+      <c r="JJ55" s="7">
+        <v>51776</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
@@ -49248,8 +49411,11 @@
       <c r="JI56" s="7">
         <v>7122</v>
       </c>
+      <c r="JJ56" s="7">
+        <v>7279</v>
+      </c>
     </row>
-    <row r="57" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
@@ -50055,8 +50221,11 @@
       <c r="JI57" s="7">
         <v>189093</v>
       </c>
+      <c r="JJ57" s="7">
+        <v>189528</v>
+      </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
@@ -50862,8 +51031,11 @@
       <c r="JI58" s="7">
         <v>31677</v>
       </c>
+      <c r="JJ58" s="7">
+        <v>31858</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
@@ -51669,8 +51841,11 @@
       <c r="JI59" s="7">
         <v>6176</v>
       </c>
+      <c r="JJ59" s="7">
+        <v>6256</v>
+      </c>
     </row>
-    <row r="60" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
@@ -52476,8 +52651,11 @@
       <c r="JI60" s="7">
         <v>48399</v>
       </c>
+      <c r="JJ60" s="7">
+        <v>47390</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
@@ -53283,8 +53461,11 @@
       <c r="JI61" s="8">
         <v>135</v>
       </c>
+      <c r="JJ61" s="8">
+        <v>136</v>
+      </c>
     </row>
-    <row r="62" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
@@ -54090,8 +54271,11 @@
       <c r="JI62" s="7">
         <v>19716</v>
       </c>
+      <c r="JJ62" s="7">
+        <v>19723</v>
+      </c>
     </row>
-    <row r="63" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
@@ -54897,8 +55081,11 @@
       <c r="JI63" s="7">
         <v>33848</v>
       </c>
+      <c r="JJ63" s="7">
+        <v>34047</v>
+      </c>
     </row>
-    <row r="64" spans="1:269" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
@@ -55704,8 +55891,11 @@
       <c r="JI64" s="7">
         <v>48591</v>
       </c>
+      <c r="JJ64" s="7">
+        <v>48767</v>
+      </c>
     </row>
-    <row r="65" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
@@ -56511,8 +56701,11 @@
       <c r="JI65" s="7">
         <v>163310</v>
       </c>
+      <c r="JJ65" s="7">
+        <v>163198</v>
+      </c>
     </row>
-    <row r="66" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
@@ -57318,8 +57511,11 @@
       <c r="JI66" s="7">
         <v>18017</v>
       </c>
+      <c r="JJ66" s="7">
+        <v>18310</v>
+      </c>
     </row>
-    <row r="67" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
@@ -58125,8 +58321,11 @@
       <c r="JI67" s="7">
         <v>6401</v>
       </c>
+      <c r="JJ67" s="7">
+        <v>6347</v>
+      </c>
     </row>
-    <row r="68" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
@@ -58938,7 +59137,10 @@
         <f>SUM(JI54:JI67)</f>
         <v>630046</v>
       </c>
-      <c r="JJ68" s="29"/>
+      <c r="JJ68" s="10">
+        <f>SUM(JJ54:JJ67)</f>
+        <v>630421</v>
+      </c>
       <c r="JK68" s="29"/>
       <c r="JL68" s="29"/>
       <c r="JM68" s="29"/>
@@ -59396,7 +59598,7 @@
       <c r="AAW68" s="29"/>
       <c r="AAX68" s="29"/>
       <c r="AAY68" s="29"/>
-      <c r="AAZ68" s="5"/>
+      <c r="AAZ68" s="29"/>
       <c r="ABA68" s="5"/>
       <c r="ABB68" s="5"/>
       <c r="ABC68" s="5"/>
@@ -59577,8 +59779,9 @@
       <c r="AHV68" s="5"/>
       <c r="AHW68" s="5"/>
       <c r="AHX68" s="5"/>
+      <c r="AHY68" s="5"/>
     </row>
-    <row r="69" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
@@ -60386,8 +60589,11 @@
       <c r="JI69" s="7">
         <v>9729</v>
       </c>
+      <c r="JJ69" s="7">
+        <v>9619</v>
+      </c>
     </row>
-    <row r="70" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
@@ -61193,8 +61399,11 @@
       <c r="JI70" s="7">
         <v>834</v>
       </c>
+      <c r="JJ70" s="7">
+        <v>839</v>
+      </c>
     </row>
-    <row r="71" spans="1:908" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
@@ -62000,8 +62209,11 @@
       <c r="JI71" s="7">
         <v>32322</v>
       </c>
+      <c r="JJ71" s="7">
+        <v>32362</v>
+      </c>
     </row>
-    <row r="72" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
@@ -62807,8 +63019,11 @@
       <c r="JI72" s="7">
         <v>3784</v>
       </c>
+      <c r="JJ72" s="7">
+        <v>4005</v>
+      </c>
     </row>
-    <row r="73" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
@@ -63614,8 +63829,11 @@
       <c r="JI73" s="8">
         <v>533</v>
       </c>
+      <c r="JJ73" s="8">
+        <v>534</v>
+      </c>
     </row>
-    <row r="74" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
@@ -64421,8 +64639,11 @@
       <c r="JI74" s="7">
         <v>52622</v>
       </c>
+      <c r="JJ74" s="7">
+        <v>52801</v>
+      </c>
     </row>
-    <row r="75" spans="1:908" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
@@ -65234,7 +65455,10 @@
         <f>SUM(JI69:JI74)</f>
         <v>99824</v>
       </c>
-      <c r="JJ75" s="29"/>
+      <c r="JJ75" s="10">
+        <f>SUM(JJ69:JJ74)</f>
+        <v>100160</v>
+      </c>
       <c r="JK75" s="29"/>
       <c r="JL75" s="29"/>
       <c r="JM75" s="29"/>
@@ -65692,7 +65916,7 @@
       <c r="AAW75" s="29"/>
       <c r="AAX75" s="29"/>
       <c r="AAY75" s="29"/>
-      <c r="AAZ75" s="5"/>
+      <c r="AAZ75" s="29"/>
       <c r="ABA75" s="5"/>
       <c r="ABB75" s="5"/>
       <c r="ABC75" s="5"/>
@@ -65873,8 +66097,9 @@
       <c r="AHV75" s="5"/>
       <c r="AHW75" s="5"/>
       <c r="AHX75" s="5"/>
+      <c r="AHY75" s="5"/>
     </row>
-    <row r="76" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -66687,8 +66912,12 @@
         <f>JI11+JI21+JI24+JI27+JI48+JI53+JI68+JI75</f>
         <v>1886776</v>
       </c>
+      <c r="JJ76" s="19">
+        <f>JJ11+JJ21+JJ24+JJ27+JJ48+JJ53+JJ68+JJ75</f>
+        <v>1884715</v>
+      </c>
     </row>
-    <row r="77" spans="1:908" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:909" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -66953,7 +67182,7 @@
       <c r="JG77" s="30"/>
       <c r="JH77" s="30"/>
       <c r="JI77" s="30"/>
-      <c r="JJ77" s="27"/>
+      <c r="JJ77" s="30"/>
       <c r="JK77" s="27"/>
       <c r="JL77" s="27"/>
       <c r="JM77" s="27"/>
@@ -67411,15 +67640,16 @@
       <c r="AAW77" s="27"/>
       <c r="AAX77" s="27"/>
       <c r="AAY77" s="27"/>
+      <c r="AAZ77" s="27"/>
     </row>
-    <row r="78" spans="1:908" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:909" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="JG4:JI4"/>
+    <mergeCell ref="JG4:JJ4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="345">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1075,6 +1075,9 @@
   <si>
     <t>2022/abril</t>
   </si>
+  <si>
+    <t>2022/mayo</t>
+  </si>
 </sst>
 </file>
 
@@ -1786,13 +1789,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2162,8 +2165,8 @@
   <dimension ref="A1:AHY78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="IZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JK74" sqref="JK74"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JD84" sqref="JD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2429,8 +2432,7 @@
     <col min="266" max="266" width="16.375" style="4" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="268" max="269" width="11" style="4" customWidth="1"/>
-    <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="33.875" style="28" customWidth="1"/>
+    <col min="270" max="271" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="272" max="728" width="10.875" style="28"/>
     <col min="729" max="909" width="10.875" style="4"/>
     <col min="910" max="16384" width="10.875" style="3"/>
@@ -2447,291 +2449,291 @@
       </c>
     </row>
     <row r="4" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38"/>
+      <c r="DG4" s="38">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
+      <c r="DJ4" s="38"/>
+      <c r="DK4" s="38"/>
+      <c r="DL4" s="38"/>
+      <c r="DM4" s="38"/>
+      <c r="DN4" s="38"/>
+      <c r="DO4" s="38"/>
+      <c r="DP4" s="38"/>
+      <c r="DQ4" s="38"/>
+      <c r="DR4" s="38"/>
+      <c r="DS4" s="38">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="38"/>
+      <c r="DU4" s="38"/>
+      <c r="DV4" s="38"/>
+      <c r="DW4" s="38"/>
+      <c r="DX4" s="38"/>
+      <c r="DY4" s="38"/>
+      <c r="DZ4" s="38"/>
+      <c r="EA4" s="38"/>
+      <c r="EB4" s="38"/>
+      <c r="EC4" s="38"/>
+      <c r="ED4" s="38"/>
+      <c r="EE4" s="38">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="38"/>
+      <c r="EG4" s="38"/>
+      <c r="EH4" s="38"/>
+      <c r="EI4" s="38"/>
+      <c r="EJ4" s="38"/>
+      <c r="EK4" s="38"/>
+      <c r="EL4" s="38"/>
+      <c r="EM4" s="38"/>
+      <c r="EN4" s="38"/>
+      <c r="EO4" s="38"/>
+      <c r="EP4" s="38"/>
+      <c r="EQ4" s="38">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="38"/>
+      <c r="ES4" s="38"/>
+      <c r="ET4" s="38"/>
+      <c r="EU4" s="38"/>
+      <c r="EV4" s="38"/>
+      <c r="EW4" s="38"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38"/>
+      <c r="FC4" s="38">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="38"/>
+      <c r="FJ4" s="38"/>
+      <c r="FK4" s="38"/>
+      <c r="FL4" s="38"/>
+      <c r="FM4" s="38"/>
+      <c r="FN4" s="38"/>
+      <c r="FO4" s="38">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="38"/>
+      <c r="FQ4" s="38"/>
+      <c r="FR4" s="38"/>
+      <c r="FS4" s="38"/>
+      <c r="FT4" s="38"/>
+      <c r="FU4" s="38"/>
+      <c r="FV4" s="38"/>
+      <c r="FW4" s="38"/>
+      <c r="FX4" s="38"/>
+      <c r="FY4" s="38"/>
+      <c r="FZ4" s="38"/>
+      <c r="GA4" s="38">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="38"/>
+      <c r="GC4" s="38"/>
+      <c r="GD4" s="38"/>
+      <c r="GE4" s="38"/>
+      <c r="GF4" s="38"/>
+      <c r="GG4" s="38"/>
+      <c r="GH4" s="38"/>
+      <c r="GI4" s="38"/>
+      <c r="GJ4" s="38"/>
+      <c r="GK4" s="38"/>
+      <c r="GL4" s="38"/>
+      <c r="GM4" s="38">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="38"/>
+      <c r="GO4" s="38"/>
+      <c r="GP4" s="38"/>
+      <c r="GQ4" s="38"/>
+      <c r="GR4" s="38"/>
+      <c r="GS4" s="38"/>
+      <c r="GT4" s="38"/>
+      <c r="GU4" s="38"/>
+      <c r="GV4" s="38"/>
+      <c r="GW4" s="38"/>
+      <c r="GX4" s="38"/>
+      <c r="GY4" s="38">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="38"/>
+      <c r="HA4" s="38"/>
+      <c r="HB4" s="38"/>
+      <c r="HC4" s="38"/>
+      <c r="HD4" s="38"/>
+      <c r="HE4" s="38"/>
+      <c r="HF4" s="38"/>
+      <c r="HG4" s="38"/>
+      <c r="HH4" s="38"/>
+      <c r="HI4" s="38"/>
+      <c r="HJ4" s="38"/>
+      <c r="HK4" s="38">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="38"/>
+      <c r="HM4" s="38"/>
+      <c r="HN4" s="38"/>
+      <c r="HO4" s="38"/>
+      <c r="HP4" s="38"/>
+      <c r="HQ4" s="38"/>
+      <c r="HR4" s="38"/>
+      <c r="HS4" s="38"/>
+      <c r="HT4" s="38"/>
+      <c r="HU4" s="38"/>
+      <c r="HV4" s="38"/>
+      <c r="HW4" s="38">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
+      <c r="HX4" s="38"/>
+      <c r="HY4" s="38"/>
+      <c r="HZ4" s="38"/>
+      <c r="IA4" s="38"/>
+      <c r="IB4" s="38"/>
+      <c r="IC4" s="38"/>
+      <c r="ID4" s="38"/>
+      <c r="IE4" s="38"/>
+      <c r="IF4" s="38"/>
+      <c r="IG4" s="38"/>
       <c r="IH4" s="41"/>
       <c r="II4" s="41">
         <v>2020</v>
@@ -2761,13 +2763,13 @@
       <c r="JD4" s="42"/>
       <c r="JE4" s="42"/>
       <c r="JF4" s="43"/>
-      <c r="JG4" s="41">
+      <c r="JG4" s="38">
         <v>2022</v>
       </c>
-      <c r="JH4" s="42"/>
-      <c r="JI4" s="42"/>
-      <c r="JJ4" s="43"/>
-      <c r="JK4" s="29"/>
+      <c r="JH4" s="38"/>
+      <c r="JI4" s="38"/>
+      <c r="JJ4" s="38"/>
+      <c r="JK4" s="38"/>
       <c r="JL4" s="29"/>
       <c r="JM4" s="29"/>
       <c r="JN4" s="29"/>
@@ -3408,8 +3410,8 @@
       <c r="AHY4" s="5"/>
     </row>
     <row r="5" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4214,7 +4216,9 @@
       <c r="JJ5" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="JK5" s="29"/>
+      <c r="JK5" s="31" t="s">
+        <v>344</v>
+      </c>
       <c r="JL5" s="29"/>
       <c r="JM5" s="29"/>
       <c r="JN5" s="29"/>
@@ -4855,7 +4859,7 @@
       <c r="AHY5" s="5"/>
     </row>
     <row r="6" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5665,9 +5669,12 @@
       <c r="JJ6" s="7">
         <v>96108</v>
       </c>
+      <c r="JK6" s="7">
+        <v>92092</v>
+      </c>
     </row>
     <row r="7" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6475,9 +6482,12 @@
       <c r="JJ7" s="8">
         <v>44</v>
       </c>
+      <c r="JK7" s="8">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7285,9 +7295,12 @@
       <c r="JJ8" s="7">
         <v>23648</v>
       </c>
+      <c r="JK8" s="7">
+        <v>23489</v>
+      </c>
     </row>
     <row r="9" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8095,9 +8108,12 @@
       <c r="JJ9" s="7">
         <v>501</v>
       </c>
+      <c r="JK9" s="7">
+        <v>481</v>
+      </c>
     </row>
     <row r="10" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8905,9 +8921,12 @@
       <c r="JJ10" s="8">
         <v>406</v>
       </c>
+      <c r="JK10" s="8">
+        <v>419</v>
+      </c>
     </row>
     <row r="11" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9703,26 +9722,29 @@
         <v>119220</v>
       </c>
       <c r="JF11" s="10">
-        <f>SUM(JF6:JF10)</f>
+        <f t="shared" ref="JF11:JK11" si="0">SUM(JF6:JF10)</f>
         <v>116251</v>
       </c>
       <c r="JG11" s="10">
-        <f>SUM(JG6:JG10)</f>
+        <f t="shared" si="0"/>
         <v>121583</v>
       </c>
       <c r="JH11" s="10">
-        <f>SUM(JH6:JH10)</f>
+        <f t="shared" si="0"/>
         <v>123302</v>
       </c>
       <c r="JI11" s="10">
-        <f>SUM(JI6:JI10)</f>
+        <f t="shared" si="0"/>
         <v>124917</v>
       </c>
       <c r="JJ11" s="10">
-        <f>SUM(JJ6:JJ10)</f>
+        <f t="shared" si="0"/>
         <v>120707</v>
       </c>
-      <c r="JK11" s="29"/>
+      <c r="JK11" s="10">
+        <f t="shared" si="0"/>
+        <v>116527</v>
+      </c>
       <c r="JL11" s="29"/>
       <c r="JM11" s="29"/>
       <c r="JN11" s="29"/>
@@ -10363,7 +10385,7 @@
       <c r="AHY11" s="5"/>
     </row>
     <row r="12" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="40" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11173,9 +11195,12 @@
       <c r="JJ12" s="7">
         <v>77135</v>
       </c>
+      <c r="JK12" s="7">
+        <v>77058</v>
+      </c>
     </row>
     <row r="13" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -11983,9 +12008,12 @@
       <c r="JJ13" s="7">
         <v>20414</v>
       </c>
+      <c r="JK13" s="7">
+        <v>20603</v>
+      </c>
     </row>
     <row r="14" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12793,9 +12821,12 @@
       <c r="JJ14" s="7">
         <v>32843</v>
       </c>
+      <c r="JK14" s="7">
+        <v>32937</v>
+      </c>
     </row>
     <row r="15" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13603,9 +13634,12 @@
       <c r="JJ15" s="7">
         <v>22664</v>
       </c>
+      <c r="JK15" s="7">
+        <v>22645</v>
+      </c>
     </row>
     <row r="16" spans="1:909" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14413,9 +14447,12 @@
       <c r="JJ16" s="7">
         <v>16665</v>
       </c>
+      <c r="JK16" s="7">
+        <v>15962</v>
+      </c>
     </row>
     <row r="17" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15223,9 +15260,12 @@
       <c r="JJ17" s="7">
         <v>48027</v>
       </c>
+      <c r="JK17" s="7">
+        <v>48430</v>
+      </c>
     </row>
     <row r="18" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16033,9 +16073,12 @@
       <c r="JJ18" s="7">
         <v>59416</v>
       </c>
+      <c r="JK18" s="7">
+        <v>59698</v>
+      </c>
     </row>
     <row r="19" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16843,9 +16886,12 @@
       <c r="JJ19" s="7">
         <v>66446</v>
       </c>
+      <c r="JK19" s="7">
+        <v>66743</v>
+      </c>
     </row>
     <row r="20" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17653,9 +17699,12 @@
       <c r="JJ20" s="7">
         <v>45762</v>
       </c>
+      <c r="JK20" s="7">
+        <v>46081</v>
+      </c>
     </row>
     <row r="21" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18451,26 +18500,29 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f>SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JK21" si="1">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
-        <f>SUM(JG12:JG20)</f>
+        <f t="shared" si="1"/>
         <v>388222</v>
       </c>
       <c r="JH21" s="10">
-        <f>SUM(JH12:JH20)</f>
+        <f t="shared" si="1"/>
         <v>388746</v>
       </c>
       <c r="JI21" s="10">
-        <f>SUM(JI12:JI20)</f>
+        <f t="shared" si="1"/>
         <v>389036</v>
       </c>
       <c r="JJ21" s="10">
-        <f>SUM(JJ12:JJ20)</f>
+        <f t="shared" si="1"/>
         <v>389372</v>
       </c>
-      <c r="JK21" s="29"/>
+      <c r="JK21" s="10">
+        <f t="shared" si="1"/>
+        <v>390157</v>
+      </c>
       <c r="JL21" s="29"/>
       <c r="JM21" s="29"/>
       <c r="JN21" s="29"/>
@@ -19111,7 +19163,7 @@
       <c r="AHY21" s="5"/>
     </row>
     <row r="22" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="40" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19921,9 +19973,12 @@
       <c r="JJ22" s="7">
         <v>102081</v>
       </c>
+      <c r="JK22" s="7">
+        <v>103997</v>
+      </c>
     </row>
     <row r="23" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20731,9 +20786,12 @@
       <c r="JJ23" s="7">
         <v>35054</v>
       </c>
+      <c r="JK23" s="7">
+        <v>35465</v>
+      </c>
     </row>
     <row r="24" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21529,26 +21587,29 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f>SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JK24" si="2">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
-        <f>SUM(JG22:JG23)</f>
+        <f t="shared" si="2"/>
         <v>135688</v>
       </c>
       <c r="JH24" s="10">
-        <f>SUM(JH22:JH23)</f>
+        <f t="shared" si="2"/>
         <v>136388</v>
       </c>
       <c r="JI24" s="10">
-        <f>SUM(JI22:JI23)</f>
+        <f t="shared" si="2"/>
         <v>137344</v>
       </c>
       <c r="JJ24" s="10">
-        <f>SUM(JJ22:JJ23)</f>
+        <f t="shared" si="2"/>
         <v>137135</v>
       </c>
-      <c r="JK24" s="29"/>
+      <c r="JK24" s="10">
+        <f t="shared" si="2"/>
+        <v>139462</v>
+      </c>
       <c r="JL24" s="29"/>
       <c r="JM24" s="29"/>
       <c r="JN24" s="29"/>
@@ -22189,7 +22250,7 @@
       <c r="AHY24" s="5"/>
     </row>
     <row r="25" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -22999,9 +23060,12 @@
       <c r="JJ25" s="7">
         <v>4209</v>
       </c>
+      <c r="JK25" s="7">
+        <v>4269</v>
+      </c>
     </row>
     <row r="26" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23809,9 +23873,12 @@
       <c r="JJ26" s="7">
         <v>5331</v>
       </c>
+      <c r="JK26" s="7">
+        <v>5331</v>
+      </c>
     </row>
     <row r="27" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24607,26 +24674,29 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f>SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JK27" si="3">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
-        <f>SUM(JG25:JG26)</f>
+        <f t="shared" si="3"/>
         <v>9433</v>
       </c>
       <c r="JH27" s="10">
-        <f>SUM(JH25:JH26)</f>
+        <f t="shared" si="3"/>
         <v>9550</v>
       </c>
       <c r="JI27" s="10">
-        <f>SUM(JI25:JI26)</f>
+        <f t="shared" si="3"/>
         <v>9619</v>
       </c>
       <c r="JJ27" s="10">
-        <f>SUM(JJ25:JJ26)</f>
+        <f t="shared" si="3"/>
         <v>9540</v>
       </c>
-      <c r="JK27" s="29"/>
+      <c r="JK27" s="10">
+        <f t="shared" si="3"/>
+        <v>9600</v>
+      </c>
       <c r="JL27" s="29"/>
       <c r="JM27" s="29"/>
       <c r="JN27" s="29"/>
@@ -25267,7 +25337,7 @@
       <c r="AHY27" s="5"/>
     </row>
     <row r="28" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="40" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26077,9 +26147,12 @@
       <c r="JJ28" s="7">
         <v>831</v>
       </c>
+      <c r="JK28" s="7">
+        <v>838</v>
+      </c>
     </row>
     <row r="29" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26887,9 +26960,12 @@
       <c r="JJ29" s="7">
         <v>10470</v>
       </c>
+      <c r="JK29" s="7">
+        <v>10607</v>
+      </c>
     </row>
     <row r="30" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27697,9 +27773,12 @@
       <c r="JJ30" s="7">
         <v>28785</v>
       </c>
+      <c r="JK30" s="7">
+        <v>28915</v>
+      </c>
     </row>
     <row r="31" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28507,9 +28586,12 @@
       <c r="JJ31" s="7">
         <v>103501</v>
       </c>
+      <c r="JK31" s="7">
+        <v>103188</v>
+      </c>
     </row>
     <row r="32" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29317,9 +29399,12 @@
       <c r="JJ32" s="7">
         <v>24426</v>
       </c>
+      <c r="JK32" s="7">
+        <v>24776</v>
+      </c>
     </row>
     <row r="33" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30127,9 +30212,12 @@
       <c r="JJ33" s="7">
         <v>9862</v>
       </c>
+      <c r="JK33" s="7">
+        <v>9619</v>
+      </c>
     </row>
     <row r="34" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -30937,9 +31025,12 @@
       <c r="JJ34" s="7">
         <v>43672</v>
       </c>
+      <c r="JK34" s="7">
+        <v>43728</v>
+      </c>
     </row>
     <row r="35" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31747,9 +31838,12 @@
       <c r="JJ35" s="7">
         <v>10468</v>
       </c>
+      <c r="JK35" s="7">
+        <v>10421</v>
+      </c>
     </row>
     <row r="36" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32557,9 +32651,12 @@
       <c r="JJ36" s="7">
         <v>52851</v>
       </c>
+      <c r="JK36" s="7">
+        <v>52959</v>
+      </c>
     </row>
     <row r="37" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33367,9 +33464,12 @@
       <c r="JJ37" s="7">
         <v>65421</v>
       </c>
+      <c r="JK37" s="7">
+        <v>66631</v>
+      </c>
     </row>
     <row r="38" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34177,9 +34277,12 @@
       <c r="JJ38" s="7">
         <v>22862</v>
       </c>
+      <c r="JK38" s="7">
+        <v>22565</v>
+      </c>
     </row>
     <row r="39" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -34987,9 +35090,12 @@
       <c r="JJ39" s="7">
         <v>22961</v>
       </c>
+      <c r="JK39" s="7">
+        <v>23081</v>
+      </c>
     </row>
     <row r="40" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35797,9 +35903,12 @@
       <c r="JJ40" s="7">
         <v>11923</v>
       </c>
+      <c r="JK40" s="7">
+        <v>11956</v>
+      </c>
     </row>
     <row r="41" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36607,9 +36716,12 @@
       <c r="JJ41" s="7">
         <v>11637</v>
       </c>
+      <c r="JK41" s="7">
+        <v>11525</v>
+      </c>
     </row>
     <row r="42" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37417,9 +37529,12 @@
       <c r="JJ42" s="7">
         <v>43688</v>
       </c>
+      <c r="JK42" s="7">
+        <v>43891</v>
+      </c>
     </row>
     <row r="43" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38227,9 +38342,12 @@
       <c r="JJ43" s="7">
         <v>4968</v>
       </c>
+      <c r="JK43" s="7">
+        <v>5016</v>
+      </c>
     </row>
     <row r="44" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -39037,9 +39155,12 @@
       <c r="JJ44" s="7">
         <v>5822</v>
       </c>
+      <c r="JK44" s="7">
+        <v>5951</v>
+      </c>
     </row>
     <row r="45" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39847,9 +39968,12 @@
       <c r="JJ45" s="7">
         <v>6564</v>
       </c>
+      <c r="JK45" s="7">
+        <v>6623</v>
+      </c>
     </row>
     <row r="46" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40657,9 +40781,12 @@
       <c r="JJ46" s="7">
         <v>12462</v>
       </c>
+      <c r="JK46" s="7">
+        <v>12742</v>
+      </c>
     </row>
     <row r="47" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41467,9 +41594,12 @@
       <c r="JJ47" s="7">
         <v>1650</v>
       </c>
+      <c r="JK47" s="7">
+        <v>1650</v>
+      </c>
     </row>
     <row r="48" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42265,26 +42395,29 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f>SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JK48" si="4">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
-        <f>SUM(JG28:JG47)</f>
+        <f t="shared" si="4"/>
         <v>483047</v>
       </c>
       <c r="JH48" s="10">
-        <f>SUM(JH28:JH47)</f>
+        <f t="shared" si="4"/>
         <v>487818</v>
       </c>
       <c r="JI48" s="10">
-        <f>SUM(JI28:JI47)</f>
+        <f t="shared" si="4"/>
         <v>493413</v>
       </c>
       <c r="JJ48" s="10">
-        <f>SUM(JJ28:JJ47)</f>
+        <f t="shared" si="4"/>
         <v>494824</v>
       </c>
-      <c r="JK48" s="29"/>
+      <c r="JK48" s="10">
+        <f t="shared" si="4"/>
+        <v>496682</v>
+      </c>
       <c r="JL48" s="29"/>
       <c r="JM48" s="29"/>
       <c r="JN48" s="29"/>
@@ -42924,8 +43057,8 @@
       <c r="AHX48" s="5"/>
       <c r="AHY48" s="5"/>
     </row>
-    <row r="49" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43735,9 +43868,12 @@
       <c r="JJ49" s="8">
         <v>18</v>
       </c>
+      <c r="JK49" s="8">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44545,9 +44681,12 @@
       <c r="JJ50" s="8">
         <v>6</v>
       </c>
+      <c r="JK50" s="8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:271" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -45355,9 +45494,12 @@
       <c r="JJ51" s="7">
         <v>1447</v>
       </c>
+      <c r="JK51" s="7">
+        <v>1451</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -46165,9 +46307,12 @@
       <c r="JJ52" s="7">
         <v>1085</v>
       </c>
+      <c r="JK52" s="7">
+        <v>1061</v>
+      </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -46963,28 +47108,32 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f>SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JK53" si="5">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
-        <f>SUM(JG49:JG52)</f>
+        <f t="shared" si="5"/>
         <v>2642</v>
       </c>
       <c r="JH53" s="10">
-        <f>SUM(JH49:JH52)</f>
+        <f t="shared" si="5"/>
         <v>2643</v>
       </c>
       <c r="JI53" s="10">
-        <f>SUM(JI49:JI52)</f>
+        <f t="shared" si="5"/>
         <v>2577</v>
       </c>
       <c r="JJ53" s="10">
-        <f>SUM(JJ49:JJ52)</f>
+        <f t="shared" si="5"/>
         <v>2556</v>
       </c>
+      <c r="JK53" s="10">
+        <f t="shared" si="5"/>
+        <v>2538</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47794,9 +47943,12 @@
       <c r="JJ54" s="36">
         <v>5806</v>
       </c>
+      <c r="JK54" s="36">
+        <v>5754</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48604,9 +48756,12 @@
       <c r="JJ55" s="7">
         <v>51776</v>
       </c>
+      <c r="JK55" s="7">
+        <v>51651</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+    <row r="56" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="40"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -49414,9 +49569,12 @@
       <c r="JJ56" s="7">
         <v>7279</v>
       </c>
+      <c r="JK56" s="7">
+        <v>7293</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="40"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -50224,9 +50382,12 @@
       <c r="JJ57" s="7">
         <v>189528</v>
       </c>
+      <c r="JK57" s="7">
+        <v>189901</v>
+      </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A58" s="40"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -51034,9 +51195,12 @@
       <c r="JJ58" s="7">
         <v>31858</v>
       </c>
+      <c r="JK58" s="7">
+        <v>31996</v>
+      </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+    <row r="59" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -51844,9 +52008,12 @@
       <c r="JJ59" s="7">
         <v>6256</v>
       </c>
+      <c r="JK59" s="7">
+        <v>6297</v>
+      </c>
     </row>
-    <row r="60" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -52654,9 +52821,12 @@
       <c r="JJ60" s="7">
         <v>47390</v>
       </c>
+      <c r="JK60" s="7">
+        <v>47280</v>
+      </c>
     </row>
-    <row r="61" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+    <row r="61" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -53464,9 +53634,12 @@
       <c r="JJ61" s="8">
         <v>136</v>
       </c>
+      <c r="JK61" s="8">
+        <v>135</v>
+      </c>
     </row>
-    <row r="62" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+    <row r="62" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -54274,9 +54447,12 @@
       <c r="JJ62" s="7">
         <v>19723</v>
       </c>
+      <c r="JK62" s="7">
+        <v>19761</v>
+      </c>
     </row>
-    <row r="63" spans="1:270" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+    <row r="63" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -55084,9 +55260,12 @@
       <c r="JJ63" s="7">
         <v>34047</v>
       </c>
+      <c r="JK63" s="7">
+        <v>34024</v>
+      </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+    <row r="64" spans="1:271" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -55894,9 +56073,12 @@
       <c r="JJ64" s="7">
         <v>48767</v>
       </c>
+      <c r="JK64" s="7">
+        <v>48362</v>
+      </c>
     </row>
     <row r="65" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+      <c r="A65" s="40"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -56704,9 +56886,12 @@
       <c r="JJ65" s="7">
         <v>163198</v>
       </c>
+      <c r="JK65" s="7">
+        <v>164779</v>
+      </c>
     </row>
     <row r="66" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -57514,9 +57699,12 @@
       <c r="JJ66" s="7">
         <v>18310</v>
       </c>
+      <c r="JK66" s="7">
+        <v>19033</v>
+      </c>
     </row>
     <row r="67" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+      <c r="A67" s="40"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -58324,9 +58512,12 @@
       <c r="JJ67" s="7">
         <v>6347</v>
       </c>
+      <c r="JK67" s="7">
+        <v>6344</v>
+      </c>
     </row>
     <row r="68" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -59122,26 +59313,29 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f>SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JK68" si="6">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
-        <f>SUM(JG54:JG67)</f>
+        <f t="shared" si="6"/>
         <v>622201</v>
       </c>
       <c r="JH68" s="10">
-        <f>SUM(JH54:JH67)</f>
+        <f t="shared" si="6"/>
         <v>626630</v>
       </c>
       <c r="JI68" s="10">
-        <f>SUM(JI54:JI67)</f>
+        <f t="shared" si="6"/>
         <v>630046</v>
       </c>
       <c r="JJ68" s="10">
-        <f>SUM(JJ54:JJ67)</f>
+        <f t="shared" si="6"/>
         <v>630421</v>
       </c>
-      <c r="JK68" s="29"/>
+      <c r="JK68" s="10">
+        <f t="shared" si="6"/>
+        <v>632610</v>
+      </c>
       <c r="JL68" s="29"/>
       <c r="JM68" s="29"/>
       <c r="JN68" s="29"/>
@@ -59782,7 +59976,7 @@
       <c r="AHY68" s="5"/>
     </row>
     <row r="69" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="40" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -60592,9 +60786,12 @@
       <c r="JJ69" s="7">
         <v>9619</v>
       </c>
+      <c r="JK69" s="7">
+        <v>9650</v>
+      </c>
     </row>
     <row r="70" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -61402,9 +61599,12 @@
       <c r="JJ70" s="7">
         <v>839</v>
       </c>
+      <c r="JK70" s="7">
+        <v>851</v>
+      </c>
     </row>
     <row r="71" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -62212,9 +62412,12 @@
       <c r="JJ71" s="7">
         <v>32362</v>
       </c>
+      <c r="JK71" s="7">
+        <v>32656</v>
+      </c>
     </row>
     <row r="72" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -63022,9 +63225,12 @@
       <c r="JJ72" s="7">
         <v>4005</v>
       </c>
+      <c r="JK72" s="7">
+        <v>4079</v>
+      </c>
     </row>
     <row r="73" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+      <c r="A73" s="40"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -63832,9 +64038,12 @@
       <c r="JJ73" s="8">
         <v>534</v>
       </c>
+      <c r="JK73" s="8">
+        <v>689</v>
+      </c>
     </row>
     <row r="74" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -64642,9 +64851,12 @@
       <c r="JJ74" s="7">
         <v>52801</v>
       </c>
+      <c r="JK74" s="7">
+        <v>52731</v>
+      </c>
     </row>
     <row r="75" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="40"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -65440,26 +65652,29 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f>SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JK75" si="7">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
-        <f>SUM(JG69:JG74)</f>
+        <f t="shared" si="7"/>
         <v>98343</v>
       </c>
       <c r="JH75" s="10">
-        <f>SUM(JH69:JH74)</f>
+        <f t="shared" si="7"/>
         <v>99545</v>
       </c>
       <c r="JI75" s="10">
-        <f>SUM(JI69:JI74)</f>
+        <f t="shared" si="7"/>
         <v>99824</v>
       </c>
       <c r="JJ75" s="10">
-        <f>SUM(JJ69:JJ74)</f>
+        <f t="shared" si="7"/>
         <v>100160</v>
       </c>
-      <c r="JK75" s="29"/>
+      <c r="JK75" s="10">
+        <f t="shared" si="7"/>
+        <v>100656</v>
+      </c>
       <c r="JL75" s="29"/>
       <c r="JM75" s="29"/>
       <c r="JN75" s="29"/>
@@ -66897,24 +67112,28 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f>JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JK76" si="8">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
-        <f>JG11+JG21+JG24+JG27+JG48+JG53+JG68+JG75</f>
+        <f t="shared" si="8"/>
         <v>1861159</v>
       </c>
       <c r="JH76" s="19">
-        <f>JH11+JH21+JH24+JH27+JH48+JH53+JH68+JH75</f>
+        <f t="shared" si="8"/>
         <v>1874622</v>
       </c>
       <c r="JI76" s="19">
-        <f>JI11+JI21+JI24+JI27+JI48+JI53+JI68+JI75</f>
+        <f t="shared" si="8"/>
         <v>1886776</v>
       </c>
       <c r="JJ76" s="19">
-        <f>JJ11+JJ21+JJ24+JJ27+JJ48+JJ53+JJ68+JJ75</f>
+        <f t="shared" si="8"/>
         <v>1884715</v>
+      </c>
+      <c r="JK76" s="19">
+        <f t="shared" si="8"/>
+        <v>1888232</v>
       </c>
     </row>
     <row r="77" spans="1:909" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -67183,7 +67402,7 @@
       <c r="JH77" s="30"/>
       <c r="JI77" s="30"/>
       <c r="JJ77" s="30"/>
-      <c r="JK77" s="27"/>
+      <c r="JK77" s="30"/>
       <c r="JL77" s="27"/>
       <c r="JM77" s="27"/>
       <c r="JN77" s="27"/>
@@ -67649,7 +67868,28 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="JG4:JJ4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="JG4:JK4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -67661,27 +67901,6 @@
     <mergeCell ref="GY4:HJ4"/>
     <mergeCell ref="GM4:GX4"/>
     <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="346">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1078,6 +1078,9 @@
   <si>
     <t>2022/mayo</t>
   </si>
+  <si>
+    <t>2022/junio</t>
+  </si>
 </sst>
 </file>
 
@@ -1792,10 +1795,10 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2162,11 +2165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHY78"/>
+  <dimension ref="A1:AHZ78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JD84" sqref="JD84"/>
+      <selection pane="topRight" activeCell="JO7" sqref="JO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2432,27 +2435,29 @@
     <col min="266" max="266" width="16.375" style="4" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="268" max="269" width="11" style="4" customWidth="1"/>
-    <col min="270" max="271" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="272" max="728" width="10.875" style="28"/>
-    <col min="729" max="909" width="10.875" style="4"/>
-    <col min="910" max="16384" width="10.875" style="3"/>
+    <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="12.625" style="4" customWidth="1"/>
+    <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="273" max="729" width="10.875" style="28"/>
+    <col min="730" max="910" width="10.875" style="4"/>
+    <col min="911" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:909" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:910" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:909" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:910" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
       <c r="C4" s="38">
@@ -2770,7 +2775,7 @@
       <c r="JI4" s="38"/>
       <c r="JJ4" s="38"/>
       <c r="JK4" s="38"/>
-      <c r="JL4" s="29"/>
+      <c r="JL4" s="38"/>
       <c r="JM4" s="29"/>
       <c r="JN4" s="29"/>
       <c r="JO4" s="29"/>
@@ -3227,7 +3232,7 @@
       <c r="AAX4" s="29"/>
       <c r="AAY4" s="29"/>
       <c r="AAZ4" s="29"/>
-      <c r="ABA4" s="5"/>
+      <c r="ABA4" s="29"/>
       <c r="ABB4" s="5"/>
       <c r="ABC4" s="5"/>
       <c r="ABD4" s="5"/>
@@ -3408,10 +3413,11 @@
       <c r="AHW4" s="5"/>
       <c r="AHX4" s="5"/>
       <c r="AHY4" s="5"/>
+      <c r="AHZ4" s="5"/>
     </row>
-    <row r="5" spans="1:909" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4219,7 +4225,9 @@
       <c r="JK5" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="JL5" s="29"/>
+      <c r="JL5" s="31" t="s">
+        <v>345</v>
+      </c>
       <c r="JM5" s="29"/>
       <c r="JN5" s="29"/>
       <c r="JO5" s="29"/>
@@ -4676,7 +4684,7 @@
       <c r="AAX5" s="29"/>
       <c r="AAY5" s="29"/>
       <c r="AAZ5" s="29"/>
-      <c r="ABA5" s="5"/>
+      <c r="ABA5" s="29"/>
       <c r="ABB5" s="5"/>
       <c r="ABC5" s="5"/>
       <c r="ABD5" s="5"/>
@@ -4857,9 +4865,10 @@
       <c r="AHW5" s="5"/>
       <c r="AHX5" s="5"/>
       <c r="AHY5" s="5"/>
+      <c r="AHZ5" s="5"/>
     </row>
-    <row r="6" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5672,9 +5681,12 @@
       <c r="JK6" s="7">
         <v>92092</v>
       </c>
+      <c r="JL6" s="7">
+        <v>90670</v>
+      </c>
     </row>
-    <row r="7" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+    <row r="7" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6485,9 +6497,12 @@
       <c r="JK7" s="8">
         <v>46</v>
       </c>
+      <c r="JL7" s="8">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7298,9 +7313,12 @@
       <c r="JK8" s="7">
         <v>23489</v>
       </c>
+      <c r="JL8" s="7">
+        <v>23288</v>
+      </c>
     </row>
-    <row r="9" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+    <row r="9" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8111,9 +8129,12 @@
       <c r="JK9" s="7">
         <v>481</v>
       </c>
+      <c r="JL9" s="7">
+        <v>337</v>
+      </c>
     </row>
-    <row r="10" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+    <row r="10" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8924,9 +8945,12 @@
       <c r="JK10" s="8">
         <v>419</v>
       </c>
+      <c r="JL10" s="8">
+        <v>426</v>
+      </c>
     </row>
-    <row r="11" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:910" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9722,7 +9746,7 @@
         <v>119220</v>
       </c>
       <c r="JF11" s="10">
-        <f t="shared" ref="JF11:JK11" si="0">SUM(JF6:JF10)</f>
+        <f t="shared" ref="JF11:JL11" si="0">SUM(JF6:JF10)</f>
         <v>116251</v>
       </c>
       <c r="JG11" s="10">
@@ -9742,10 +9766,13 @@
         <v>120707</v>
       </c>
       <c r="JK11" s="10">
+        <f t="shared" ref="JK11" si="1">SUM(JK6:JK10)</f>
+        <v>116527</v>
+      </c>
+      <c r="JL11" s="10">
         <f t="shared" si="0"/>
-        <v>116527</v>
-      </c>
-      <c r="JL11" s="29"/>
+        <v>114765</v>
+      </c>
       <c r="JM11" s="29"/>
       <c r="JN11" s="29"/>
       <c r="JO11" s="29"/>
@@ -10202,7 +10229,7 @@
       <c r="AAX11" s="29"/>
       <c r="AAY11" s="29"/>
       <c r="AAZ11" s="29"/>
-      <c r="ABA11" s="5"/>
+      <c r="ABA11" s="29"/>
       <c r="ABB11" s="5"/>
       <c r="ABC11" s="5"/>
       <c r="ABD11" s="5"/>
@@ -10383,9 +10410,10 @@
       <c r="AHW11" s="5"/>
       <c r="AHX11" s="5"/>
       <c r="AHY11" s="5"/>
+      <c r="AHZ11" s="5"/>
     </row>
-    <row r="12" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11198,9 +11226,12 @@
       <c r="JK12" s="7">
         <v>77058</v>
       </c>
+      <c r="JL12" s="7">
+        <v>77371</v>
+      </c>
     </row>
-    <row r="13" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12011,9 +12042,12 @@
       <c r="JK13" s="7">
         <v>20603</v>
       </c>
+      <c r="JL13" s="7">
+        <v>20479</v>
+      </c>
     </row>
-    <row r="14" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+    <row r="14" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12824,9 +12858,12 @@
       <c r="JK14" s="7">
         <v>32937</v>
       </c>
+      <c r="JL14" s="7">
+        <v>33210</v>
+      </c>
     </row>
-    <row r="15" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13637,9 +13674,12 @@
       <c r="JK15" s="7">
         <v>22645</v>
       </c>
+      <c r="JL15" s="7">
+        <v>22624</v>
+      </c>
     </row>
-    <row r="16" spans="1:909" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:910" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14450,9 +14490,12 @@
       <c r="JK16" s="7">
         <v>15962</v>
       </c>
+      <c r="JL16" s="7">
+        <v>15446</v>
+      </c>
     </row>
-    <row r="17" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15263,9 +15306,12 @@
       <c r="JK17" s="7">
         <v>48430</v>
       </c>
+      <c r="JL17" s="7">
+        <v>48641</v>
+      </c>
     </row>
-    <row r="18" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+    <row r="18" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16076,9 +16122,12 @@
       <c r="JK18" s="7">
         <v>59698</v>
       </c>
+      <c r="JL18" s="7">
+        <v>59930</v>
+      </c>
     </row>
-    <row r="19" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+    <row r="19" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16889,9 +16938,12 @@
       <c r="JK19" s="7">
         <v>66743</v>
       </c>
+      <c r="JL19" s="7">
+        <v>67725</v>
+      </c>
     </row>
-    <row r="20" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17702,9 +17754,12 @@
       <c r="JK20" s="7">
         <v>46081</v>
       </c>
+      <c r="JL20" s="7">
+        <v>47817</v>
+      </c>
     </row>
-    <row r="21" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18500,30 +18555,33 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f t="shared" ref="JF21:JK21" si="1">SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JL21" si="2">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>388222</v>
       </c>
       <c r="JH21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>388746</v>
       </c>
       <c r="JI21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>389036</v>
       </c>
       <c r="JJ21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>389372</v>
       </c>
       <c r="JK21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="JK21" si="3">SUM(JK12:JK20)</f>
         <v>390157</v>
       </c>
-      <c r="JL21" s="29"/>
+      <c r="JL21" s="10">
+        <f t="shared" si="2"/>
+        <v>393243</v>
+      </c>
       <c r="JM21" s="29"/>
       <c r="JN21" s="29"/>
       <c r="JO21" s="29"/>
@@ -18980,7 +19038,7 @@
       <c r="AAX21" s="29"/>
       <c r="AAY21" s="29"/>
       <c r="AAZ21" s="29"/>
-      <c r="ABA21" s="5"/>
+      <c r="ABA21" s="29"/>
       <c r="ABB21" s="5"/>
       <c r="ABC21" s="5"/>
       <c r="ABD21" s="5"/>
@@ -19161,9 +19219,10 @@
       <c r="AHW21" s="5"/>
       <c r="AHX21" s="5"/>
       <c r="AHY21" s="5"/>
+      <c r="AHZ21" s="5"/>
     </row>
-    <row r="22" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -19976,9 +20035,12 @@
       <c r="JK22" s="7">
         <v>103997</v>
       </c>
+      <c r="JL22" s="7">
+        <v>104996</v>
+      </c>
     </row>
-    <row r="23" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+    <row r="23" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20789,9 +20851,12 @@
       <c r="JK23" s="7">
         <v>35465</v>
       </c>
+      <c r="JL23" s="7">
+        <v>35591</v>
+      </c>
     </row>
-    <row r="24" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+    <row r="24" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21587,30 +21652,33 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f t="shared" ref="JF24:JK24" si="2">SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JL24" si="4">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>135688</v>
       </c>
       <c r="JH24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>136388</v>
       </c>
       <c r="JI24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>137344</v>
       </c>
       <c r="JJ24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>137135</v>
       </c>
       <c r="JK24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="JK24" si="5">SUM(JK22:JK23)</f>
         <v>139462</v>
       </c>
-      <c r="JL24" s="29"/>
+      <c r="JL24" s="10">
+        <f t="shared" si="4"/>
+        <v>140587</v>
+      </c>
       <c r="JM24" s="29"/>
       <c r="JN24" s="29"/>
       <c r="JO24" s="29"/>
@@ -22067,7 +22135,7 @@
       <c r="AAX24" s="29"/>
       <c r="AAY24" s="29"/>
       <c r="AAZ24" s="29"/>
-      <c r="ABA24" s="5"/>
+      <c r="ABA24" s="29"/>
       <c r="ABB24" s="5"/>
       <c r="ABC24" s="5"/>
       <c r="ABD24" s="5"/>
@@ -22248,9 +22316,10 @@
       <c r="AHW24" s="5"/>
       <c r="AHX24" s="5"/>
       <c r="AHY24" s="5"/>
+      <c r="AHZ24" s="5"/>
     </row>
-    <row r="25" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23063,9 +23132,12 @@
       <c r="JK25" s="7">
         <v>4269</v>
       </c>
+      <c r="JL25" s="7">
+        <v>4315</v>
+      </c>
     </row>
-    <row r="26" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+    <row r="26" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23876,9 +23948,12 @@
       <c r="JK26" s="7">
         <v>5331</v>
       </c>
+      <c r="JL26" s="7">
+        <v>5423</v>
+      </c>
     </row>
-    <row r="27" spans="1:909" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+    <row r="27" spans="1:910" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24674,30 +24749,33 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f t="shared" ref="JF27:JK27" si="3">SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JL27" si="6">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9433</v>
       </c>
       <c r="JH27" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9550</v>
       </c>
       <c r="JI27" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9619</v>
       </c>
       <c r="JJ27" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9540</v>
       </c>
       <c r="JK27" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="JK27" si="7">SUM(JK25:JK26)</f>
         <v>9600</v>
       </c>
-      <c r="JL27" s="29"/>
+      <c r="JL27" s="10">
+        <f t="shared" si="6"/>
+        <v>9738</v>
+      </c>
       <c r="JM27" s="29"/>
       <c r="JN27" s="29"/>
       <c r="JO27" s="29"/>
@@ -25154,7 +25232,7 @@
       <c r="AAX27" s="29"/>
       <c r="AAY27" s="29"/>
       <c r="AAZ27" s="29"/>
-      <c r="ABA27" s="5"/>
+      <c r="ABA27" s="29"/>
       <c r="ABB27" s="5"/>
       <c r="ABC27" s="5"/>
       <c r="ABD27" s="5"/>
@@ -25335,9 +25413,10 @@
       <c r="AHW27" s="5"/>
       <c r="AHX27" s="5"/>
       <c r="AHY27" s="5"/>
+      <c r="AHZ27" s="5"/>
     </row>
-    <row r="28" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26150,9 +26229,12 @@
       <c r="JK28" s="7">
         <v>838</v>
       </c>
+      <c r="JL28" s="7">
+        <v>842</v>
+      </c>
     </row>
-    <row r="29" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+    <row r="29" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -26963,9 +27045,12 @@
       <c r="JK29" s="7">
         <v>10607</v>
       </c>
+      <c r="JL29" s="7">
+        <v>10539</v>
+      </c>
     </row>
-    <row r="30" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+    <row r="30" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27776,9 +27861,12 @@
       <c r="JK30" s="7">
         <v>28915</v>
       </c>
+      <c r="JL30" s="7">
+        <v>29221</v>
+      </c>
     </row>
-    <row r="31" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+    <row r="31" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28589,9 +28677,12 @@
       <c r="JK31" s="7">
         <v>103188</v>
       </c>
+      <c r="JL31" s="7">
+        <v>102974</v>
+      </c>
     </row>
-    <row r="32" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+    <row r="32" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29402,9 +29493,12 @@
       <c r="JK32" s="7">
         <v>24776</v>
       </c>
+      <c r="JL32" s="7">
+        <v>25049</v>
+      </c>
     </row>
-    <row r="33" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+    <row r="33" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30215,9 +30309,12 @@
       <c r="JK33" s="7">
         <v>9619</v>
       </c>
+      <c r="JL33" s="7">
+        <v>9712</v>
+      </c>
     </row>
-    <row r="34" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+    <row r="34" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31028,9 +31125,12 @@
       <c r="JK34" s="7">
         <v>43728</v>
       </c>
+      <c r="JL34" s="7">
+        <v>43387</v>
+      </c>
     </row>
-    <row r="35" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+    <row r="35" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31841,9 +31941,12 @@
       <c r="JK35" s="7">
         <v>10421</v>
       </c>
+      <c r="JL35" s="7">
+        <v>10417</v>
+      </c>
     </row>
-    <row r="36" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+    <row r="36" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32654,9 +32757,12 @@
       <c r="JK36" s="7">
         <v>52959</v>
       </c>
+      <c r="JL36" s="7">
+        <v>53162</v>
+      </c>
     </row>
-    <row r="37" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+    <row r="37" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33467,9 +33573,12 @@
       <c r="JK37" s="7">
         <v>66631</v>
       </c>
+      <c r="JL37" s="7">
+        <v>68492</v>
+      </c>
     </row>
-    <row r="38" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+    <row r="38" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34280,9 +34389,12 @@
       <c r="JK38" s="7">
         <v>22565</v>
       </c>
+      <c r="JL38" s="7">
+        <v>22395</v>
+      </c>
     </row>
-    <row r="39" spans="1:909" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+    <row r="39" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35093,9 +35205,12 @@
       <c r="JK39" s="7">
         <v>23081</v>
       </c>
+      <c r="JL39" s="7">
+        <v>23161</v>
+      </c>
     </row>
-    <row r="40" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+    <row r="40" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -35906,9 +36021,12 @@
       <c r="JK40" s="7">
         <v>11956</v>
       </c>
+      <c r="JL40" s="7">
+        <v>12034</v>
+      </c>
     </row>
-    <row r="41" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+    <row r="41" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36719,9 +36837,12 @@
       <c r="JK41" s="7">
         <v>11525</v>
       </c>
+      <c r="JL41" s="7">
+        <v>11175</v>
+      </c>
     </row>
-    <row r="42" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+    <row r="42" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37532,9 +37653,12 @@
       <c r="JK42" s="7">
         <v>43891</v>
       </c>
+      <c r="JL42" s="7">
+        <v>44082</v>
+      </c>
     </row>
-    <row r="43" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+    <row r="43" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38345,9 +38469,12 @@
       <c r="JK43" s="7">
         <v>5016</v>
       </c>
+      <c r="JL43" s="7">
+        <v>4936</v>
+      </c>
     </row>
-    <row r="44" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+    <row r="44" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -39158,9 +39285,12 @@
       <c r="JK44" s="7">
         <v>5951</v>
       </c>
+      <c r="JL44" s="7">
+        <v>5991</v>
+      </c>
     </row>
-    <row r="45" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+    <row r="45" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -39971,9 +40101,12 @@
       <c r="JK45" s="7">
         <v>6623</v>
       </c>
+      <c r="JL45" s="7">
+        <v>7233</v>
+      </c>
     </row>
-    <row r="46" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
+    <row r="46" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40784,9 +40917,12 @@
       <c r="JK46" s="7">
         <v>12742</v>
       </c>
+      <c r="JL46" s="7">
+        <v>13086</v>
+      </c>
     </row>
-    <row r="47" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+    <row r="47" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41597,9 +41733,12 @@
       <c r="JK47" s="7">
         <v>1650</v>
       </c>
+      <c r="JL47" s="7">
+        <v>1653</v>
+      </c>
     </row>
-    <row r="48" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+    <row r="48" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42395,30 +42534,33 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f t="shared" ref="JF48:JK48" si="4">SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JL48" si="8">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>483047</v>
       </c>
       <c r="JH48" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>487818</v>
       </c>
       <c r="JI48" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>493413</v>
       </c>
       <c r="JJ48" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>494824</v>
       </c>
       <c r="JK48" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="JK48" si="9">SUM(JK28:JK47)</f>
         <v>496682</v>
       </c>
-      <c r="JL48" s="29"/>
+      <c r="JL48" s="10">
+        <f t="shared" si="8"/>
+        <v>499541</v>
+      </c>
       <c r="JM48" s="29"/>
       <c r="JN48" s="29"/>
       <c r="JO48" s="29"/>
@@ -42875,7 +43017,7 @@
       <c r="AAX48" s="29"/>
       <c r="AAY48" s="29"/>
       <c r="AAZ48" s="29"/>
-      <c r="ABA48" s="5"/>
+      <c r="ABA48" s="29"/>
       <c r="ABB48" s="5"/>
       <c r="ABC48" s="5"/>
       <c r="ABD48" s="5"/>
@@ -43056,9 +43198,10 @@
       <c r="AHW48" s="5"/>
       <c r="AHX48" s="5"/>
       <c r="AHY48" s="5"/>
+      <c r="AHZ48" s="5"/>
     </row>
-    <row r="49" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+    <row r="49" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -43871,9 +44014,12 @@
       <c r="JK49" s="8">
         <v>18</v>
       </c>
+      <c r="JL49" s="8">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+    <row r="50" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44684,9 +44830,12 @@
       <c r="JK50" s="8">
         <v>8</v>
       </c>
+      <c r="JL50" s="8">
+        <v>11</v>
+      </c>
     </row>
-    <row r="51" spans="1:271" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+    <row r="51" spans="1:272" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -45497,9 +45646,12 @@
       <c r="JK51" s="7">
         <v>1451</v>
       </c>
+      <c r="JL51" s="7">
+        <v>1444</v>
+      </c>
     </row>
-    <row r="52" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+    <row r="52" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -46310,9 +46462,12 @@
       <c r="JK52" s="7">
         <v>1061</v>
       </c>
+      <c r="JL52" s="7">
+        <v>1065</v>
+      </c>
     </row>
-    <row r="53" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
+    <row r="53" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -47108,32 +47263,36 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f t="shared" ref="JF53:JK53" si="5">SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JL53" si="10">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2642</v>
       </c>
       <c r="JH53" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2643</v>
       </c>
       <c r="JI53" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2577</v>
       </c>
       <c r="JJ53" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2556</v>
       </c>
       <c r="JK53" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="JK53" si="11">SUM(JK49:JK52)</f>
         <v>2538</v>
       </c>
+      <c r="JL53" s="10">
+        <f t="shared" si="10"/>
+        <v>2538</v>
+      </c>
     </row>
-    <row r="54" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+    <row r="54" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -47946,9 +48105,12 @@
       <c r="JK54" s="36">
         <v>5754</v>
       </c>
+      <c r="JL54" s="36">
+        <v>5726</v>
+      </c>
     </row>
-    <row r="55" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+    <row r="55" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48759,9 +48921,12 @@
       <c r="JK55" s="7">
         <v>51651</v>
       </c>
+      <c r="JL55" s="7">
+        <v>52128</v>
+      </c>
     </row>
-    <row r="56" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+    <row r="56" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -49572,9 +49737,12 @@
       <c r="JK56" s="7">
         <v>7293</v>
       </c>
+      <c r="JL56" s="7">
+        <v>7276</v>
+      </c>
     </row>
-    <row r="57" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+    <row r="57" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -50385,9 +50553,12 @@
       <c r="JK57" s="7">
         <v>189901</v>
       </c>
+      <c r="JL57" s="7">
+        <v>190156</v>
+      </c>
     </row>
-    <row r="58" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+    <row r="58" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -51198,9 +51369,12 @@
       <c r="JK58" s="7">
         <v>31996</v>
       </c>
+      <c r="JL58" s="7">
+        <v>32399</v>
+      </c>
     </row>
-    <row r="59" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+    <row r="59" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -52011,9 +52185,12 @@
       <c r="JK59" s="7">
         <v>6297</v>
       </c>
+      <c r="JL59" s="7">
+        <v>6394</v>
+      </c>
     </row>
-    <row r="60" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+    <row r="60" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -52824,9 +53001,12 @@
       <c r="JK60" s="7">
         <v>47280</v>
       </c>
+      <c r="JL60" s="7">
+        <v>46963</v>
+      </c>
     </row>
-    <row r="61" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+    <row r="61" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -53637,9 +53817,12 @@
       <c r="JK61" s="8">
         <v>135</v>
       </c>
+      <c r="JL61" s="8">
+        <v>136</v>
+      </c>
     </row>
-    <row r="62" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+    <row r="62" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -54450,9 +54633,12 @@
       <c r="JK62" s="7">
         <v>19761</v>
       </c>
+      <c r="JL62" s="7">
+        <v>19845</v>
+      </c>
     </row>
-    <row r="63" spans="1:271" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+    <row r="63" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -55263,9 +55449,12 @@
       <c r="JK63" s="7">
         <v>34024</v>
       </c>
+      <c r="JL63" s="7">
+        <v>33982</v>
+      </c>
     </row>
-    <row r="64" spans="1:271" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+    <row r="64" spans="1:272" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -56076,9 +56265,12 @@
       <c r="JK64" s="7">
         <v>48362</v>
       </c>
+      <c r="JL64" s="7">
+        <v>48607</v>
+      </c>
     </row>
-    <row r="65" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+    <row r="65" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -56889,9 +57081,12 @@
       <c r="JK65" s="7">
         <v>164779</v>
       </c>
+      <c r="JL65" s="7">
+        <v>165666</v>
+      </c>
     </row>
-    <row r="66" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+    <row r="66" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -57702,9 +57897,12 @@
       <c r="JK66" s="7">
         <v>19033</v>
       </c>
+      <c r="JL66" s="7">
+        <v>19304</v>
+      </c>
     </row>
-    <row r="67" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
+    <row r="67" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -58515,9 +58713,12 @@
       <c r="JK67" s="7">
         <v>6344</v>
       </c>
+      <c r="JL67" s="7">
+        <v>6182</v>
+      </c>
     </row>
-    <row r="68" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+    <row r="68" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -59313,30 +59514,33 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f t="shared" ref="JF68:JK68" si="6">SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JL68" si="12">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>622201</v>
       </c>
       <c r="JH68" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>626630</v>
       </c>
       <c r="JI68" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>630046</v>
       </c>
       <c r="JJ68" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>630421</v>
       </c>
       <c r="JK68" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="JK68" si="13">SUM(JK54:JK67)</f>
         <v>632610</v>
       </c>
-      <c r="JL68" s="29"/>
+      <c r="JL68" s="10">
+        <f t="shared" si="12"/>
+        <v>634764</v>
+      </c>
       <c r="JM68" s="29"/>
       <c r="JN68" s="29"/>
       <c r="JO68" s="29"/>
@@ -59793,7 +59997,7 @@
       <c r="AAX68" s="29"/>
       <c r="AAY68" s="29"/>
       <c r="AAZ68" s="29"/>
-      <c r="ABA68" s="5"/>
+      <c r="ABA68" s="29"/>
       <c r="ABB68" s="5"/>
       <c r="ABC68" s="5"/>
       <c r="ABD68" s="5"/>
@@ -59974,9 +60178,10 @@
       <c r="AHW68" s="5"/>
       <c r="AHX68" s="5"/>
       <c r="AHY68" s="5"/>
+      <c r="AHZ68" s="5"/>
     </row>
-    <row r="69" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A69" s="40" t="s">
+    <row r="69" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A69" s="39" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -60789,9 +60994,12 @@
       <c r="JK69" s="7">
         <v>9650</v>
       </c>
+      <c r="JL69" s="7">
+        <v>9729</v>
+      </c>
     </row>
-    <row r="70" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+    <row r="70" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -61602,9 +61810,12 @@
       <c r="JK70" s="7">
         <v>851</v>
       </c>
+      <c r="JL70" s="7">
+        <v>854</v>
+      </c>
     </row>
-    <row r="71" spans="1:909" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+    <row r="71" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -62415,9 +62626,12 @@
       <c r="JK71" s="7">
         <v>32656</v>
       </c>
+      <c r="JL71" s="7">
+        <v>33193</v>
+      </c>
     </row>
-    <row r="72" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+    <row r="72" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -63228,9 +63442,12 @@
       <c r="JK72" s="7">
         <v>4079</v>
       </c>
+      <c r="JL72" s="7">
+        <v>4176</v>
+      </c>
     </row>
-    <row r="73" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+    <row r="73" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -64041,9 +64258,12 @@
       <c r="JK73" s="8">
         <v>689</v>
       </c>
+      <c r="JL73" s="8">
+        <v>543</v>
+      </c>
     </row>
-    <row r="74" spans="1:909" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+    <row r="74" spans="1:910" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -64854,9 +65074,12 @@
       <c r="JK74" s="7">
         <v>52731</v>
       </c>
+      <c r="JL74" s="7">
+        <v>53084</v>
+      </c>
     </row>
-    <row r="75" spans="1:909" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+    <row r="75" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -65652,30 +65875,33 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f t="shared" ref="JF75:JK75" si="7">SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JL75" si="14">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>98343</v>
       </c>
       <c r="JH75" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>99545</v>
       </c>
       <c r="JI75" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>99824</v>
       </c>
       <c r="JJ75" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>100160</v>
       </c>
       <c r="JK75" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="JK75" si="15">SUM(JK69:JK74)</f>
         <v>100656</v>
       </c>
-      <c r="JL75" s="29"/>
+      <c r="JL75" s="10">
+        <f t="shared" si="14"/>
+        <v>101579</v>
+      </c>
       <c r="JM75" s="29"/>
       <c r="JN75" s="29"/>
       <c r="JO75" s="29"/>
@@ -66132,7 +66358,7 @@
       <c r="AAX75" s="29"/>
       <c r="AAY75" s="29"/>
       <c r="AAZ75" s="29"/>
-      <c r="ABA75" s="5"/>
+      <c r="ABA75" s="29"/>
       <c r="ABB75" s="5"/>
       <c r="ABC75" s="5"/>
       <c r="ABD75" s="5"/>
@@ -66313,8 +66539,9 @@
       <c r="AHW75" s="5"/>
       <c r="AHX75" s="5"/>
       <c r="AHY75" s="5"/>
+      <c r="AHZ75" s="5"/>
     </row>
-    <row r="76" spans="1:909" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:910" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -67112,31 +67339,35 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f t="shared" ref="JF76:JK76" si="8">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JL76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1861159</v>
       </c>
       <c r="JH76" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1874622</v>
       </c>
       <c r="JI76" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1886776</v>
       </c>
       <c r="JJ76" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1884715</v>
       </c>
       <c r="JK76" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="JK76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
         <v>1888232</v>
       </c>
+      <c r="JL76" s="19">
+        <f t="shared" si="16"/>
+        <v>1896755</v>
+      </c>
     </row>
-    <row r="77" spans="1:909" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:910" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -67403,7 +67634,7 @@
       <c r="JI77" s="30"/>
       <c r="JJ77" s="30"/>
       <c r="JK77" s="30"/>
-      <c r="JL77" s="27"/>
+      <c r="JL77" s="30"/>
       <c r="JM77" s="27"/>
       <c r="JN77" s="27"/>
       <c r="JO77" s="27"/>
@@ -67860,36 +68091,16 @@
       <c r="AAX77" s="27"/>
       <c r="AAY77" s="27"/>
       <c r="AAZ77" s="27"/>
+      <c r="ABA77" s="27"/>
     </row>
-    <row r="78" spans="1:909" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:910" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="JG4:JK4"/>
+    <mergeCell ref="JG4:JL4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -67901,6 +68112,27 @@
     <mergeCell ref="GY4:HJ4"/>
     <mergeCell ref="GM4:GX4"/>
     <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="347">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1081,6 +1081,9 @@
   <si>
     <t>2022/junio</t>
   </si>
+  <si>
+    <t>2022/julio</t>
+  </si>
 </sst>
 </file>
 
@@ -1795,12 +1798,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1809,6 +1806,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2165,7 +2168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHZ78"/>
+  <dimension ref="A1:AIA78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -2437,27 +2440,27 @@
     <col min="268" max="269" width="11" style="4" customWidth="1"/>
     <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="271" max="271" width="12.625" style="4" customWidth="1"/>
-    <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="273" max="729" width="10.875" style="28"/>
-    <col min="730" max="910" width="10.875" style="4"/>
-    <col min="911" max="16384" width="10.875" style="3"/>
+    <col min="272" max="273" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="274" max="730" width="10.875" style="28"/>
+    <col min="731" max="911" width="10.875" style="4"/>
+    <col min="912" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:910" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:911" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:910" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:911" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:911" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>314</v>
       </c>
       <c r="C4" s="38">
@@ -2739,35 +2742,35 @@
       <c r="IE4" s="38"/>
       <c r="IF4" s="38"/>
       <c r="IG4" s="38"/>
-      <c r="IH4" s="41"/>
-      <c r="II4" s="41">
+      <c r="IH4" s="39"/>
+      <c r="II4" s="39">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="42"/>
-      <c r="IK4" s="42"/>
-      <c r="IL4" s="42"/>
-      <c r="IM4" s="42"/>
-      <c r="IN4" s="42"/>
-      <c r="IO4" s="42"/>
-      <c r="IP4" s="42"/>
-      <c r="IQ4" s="42"/>
-      <c r="IR4" s="42"/>
-      <c r="IS4" s="42"/>
-      <c r="IT4" s="43"/>
-      <c r="IU4" s="41">
+      <c r="IJ4" s="40"/>
+      <c r="IK4" s="40"/>
+      <c r="IL4" s="40"/>
+      <c r="IM4" s="40"/>
+      <c r="IN4" s="40"/>
+      <c r="IO4" s="40"/>
+      <c r="IP4" s="40"/>
+      <c r="IQ4" s="40"/>
+      <c r="IR4" s="40"/>
+      <c r="IS4" s="40"/>
+      <c r="IT4" s="41"/>
+      <c r="IU4" s="39">
         <v>2021</v>
       </c>
-      <c r="IV4" s="42"/>
-      <c r="IW4" s="42"/>
-      <c r="IX4" s="42"/>
-      <c r="IY4" s="42"/>
-      <c r="IZ4" s="42"/>
-      <c r="JA4" s="42"/>
-      <c r="JB4" s="42"/>
-      <c r="JC4" s="42"/>
-      <c r="JD4" s="42"/>
-      <c r="JE4" s="42"/>
-      <c r="JF4" s="43"/>
+      <c r="IV4" s="40"/>
+      <c r="IW4" s="40"/>
+      <c r="IX4" s="40"/>
+      <c r="IY4" s="40"/>
+      <c r="IZ4" s="40"/>
+      <c r="JA4" s="40"/>
+      <c r="JB4" s="40"/>
+      <c r="JC4" s="40"/>
+      <c r="JD4" s="40"/>
+      <c r="JE4" s="40"/>
+      <c r="JF4" s="41"/>
       <c r="JG4" s="38">
         <v>2022</v>
       </c>
@@ -2776,7 +2779,7 @@
       <c r="JJ4" s="38"/>
       <c r="JK4" s="38"/>
       <c r="JL4" s="38"/>
-      <c r="JM4" s="29"/>
+      <c r="JM4" s="38"/>
       <c r="JN4" s="29"/>
       <c r="JO4" s="29"/>
       <c r="JP4" s="29"/>
@@ -3233,7 +3236,7 @@
       <c r="AAY4" s="29"/>
       <c r="AAZ4" s="29"/>
       <c r="ABA4" s="29"/>
-      <c r="ABB4" s="5"/>
+      <c r="ABB4" s="29"/>
       <c r="ABC4" s="5"/>
       <c r="ABD4" s="5"/>
       <c r="ABE4" s="5"/>
@@ -3414,10 +3417,11 @@
       <c r="AHX4" s="5"/>
       <c r="AHY4" s="5"/>
       <c r="AHZ4" s="5"/>
+      <c r="AIA4" s="5"/>
     </row>
-    <row r="5" spans="1:910" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:911" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
-      <c r="B5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4232,9 @@
       <c r="JL5" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="JM5" s="29"/>
+      <c r="JM5" s="31" t="s">
+        <v>346</v>
+      </c>
       <c r="JN5" s="29"/>
       <c r="JO5" s="29"/>
       <c r="JP5" s="29"/>
@@ -4685,7 +4691,7 @@
       <c r="AAY5" s="29"/>
       <c r="AAZ5" s="29"/>
       <c r="ABA5" s="29"/>
-      <c r="ABB5" s="5"/>
+      <c r="ABB5" s="29"/>
       <c r="ABC5" s="5"/>
       <c r="ABD5" s="5"/>
       <c r="ABE5" s="5"/>
@@ -4866,9 +4872,10 @@
       <c r="AHX5" s="5"/>
       <c r="AHY5" s="5"/>
       <c r="AHZ5" s="5"/>
+      <c r="AIA5" s="5"/>
     </row>
-    <row r="6" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5684,9 +5691,12 @@
       <c r="JL6" s="7">
         <v>90670</v>
       </c>
+      <c r="JM6" s="7">
+        <v>87732</v>
+      </c>
     </row>
-    <row r="7" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6500,9 +6510,12 @@
       <c r="JL7" s="8">
         <v>44</v>
       </c>
+      <c r="JM7" s="8">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7316,9 +7329,12 @@
       <c r="JL8" s="7">
         <v>23288</v>
       </c>
+      <c r="JM8" s="7">
+        <v>23374</v>
+      </c>
     </row>
-    <row r="9" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8132,9 +8148,12 @@
       <c r="JL9" s="7">
         <v>337</v>
       </c>
+      <c r="JM9" s="7">
+        <v>1303</v>
+      </c>
     </row>
-    <row r="10" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -8948,9 +8967,12 @@
       <c r="JL10" s="8">
         <v>426</v>
       </c>
+      <c r="JM10" s="8">
+        <v>410</v>
+      </c>
     </row>
-    <row r="11" spans="1:910" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:911" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9746,7 +9768,7 @@
         <v>119220</v>
       </c>
       <c r="JF11" s="10">
-        <f t="shared" ref="JF11:JL11" si="0">SUM(JF6:JF10)</f>
+        <f t="shared" ref="JF11:JM11" si="0">SUM(JF6:JF10)</f>
         <v>116251</v>
       </c>
       <c r="JG11" s="10">
@@ -9766,14 +9788,17 @@
         <v>120707</v>
       </c>
       <c r="JK11" s="10">
-        <f t="shared" ref="JK11" si="1">SUM(JK6:JK10)</f>
+        <f t="shared" ref="JK11:JL11" si="1">SUM(JK6:JK10)</f>
         <v>116527</v>
       </c>
       <c r="JL11" s="10">
+        <f t="shared" si="1"/>
+        <v>114765</v>
+      </c>
+      <c r="JM11" s="10">
         <f t="shared" si="0"/>
-        <v>114765</v>
-      </c>
-      <c r="JM11" s="29"/>
+        <v>112865</v>
+      </c>
       <c r="JN11" s="29"/>
       <c r="JO11" s="29"/>
       <c r="JP11" s="29"/>
@@ -10230,7 +10255,7 @@
       <c r="AAY11" s="29"/>
       <c r="AAZ11" s="29"/>
       <c r="ABA11" s="29"/>
-      <c r="ABB11" s="5"/>
+      <c r="ABB11" s="29"/>
       <c r="ABC11" s="5"/>
       <c r="ABD11" s="5"/>
       <c r="ABE11" s="5"/>
@@ -10411,9 +10436,10 @@
       <c r="AHX11" s="5"/>
       <c r="AHY11" s="5"/>
       <c r="AHZ11" s="5"/>
+      <c r="AIA11" s="5"/>
     </row>
-    <row r="12" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11229,9 +11255,12 @@
       <c r="JL12" s="7">
         <v>77371</v>
       </c>
+      <c r="JM12" s="7">
+        <v>77524</v>
+      </c>
     </row>
-    <row r="13" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12045,9 +12074,12 @@
       <c r="JL13" s="7">
         <v>20479</v>
       </c>
+      <c r="JM13" s="7">
+        <v>20623</v>
+      </c>
     </row>
-    <row r="14" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12861,9 +12893,12 @@
       <c r="JL14" s="7">
         <v>33210</v>
       </c>
+      <c r="JM14" s="7">
+        <v>33489</v>
+      </c>
     </row>
-    <row r="15" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13677,9 +13712,12 @@
       <c r="JL15" s="7">
         <v>22624</v>
       </c>
+      <c r="JM15" s="7">
+        <v>22634</v>
+      </c>
     </row>
-    <row r="16" spans="1:910" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:911" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14493,9 +14531,12 @@
       <c r="JL16" s="7">
         <v>15446</v>
       </c>
+      <c r="JM16" s="7">
+        <v>15588</v>
+      </c>
     </row>
-    <row r="17" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15309,9 +15350,12 @@
       <c r="JL17" s="7">
         <v>48641</v>
       </c>
+      <c r="JM17" s="7">
+        <v>48716</v>
+      </c>
     </row>
-    <row r="18" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16125,9 +16169,12 @@
       <c r="JL18" s="7">
         <v>59930</v>
       </c>
+      <c r="JM18" s="7">
+        <v>60250</v>
+      </c>
     </row>
-    <row r="19" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -16941,9 +16988,12 @@
       <c r="JL19" s="7">
         <v>67725</v>
       </c>
+      <c r="JM19" s="7">
+        <v>67829</v>
+      </c>
     </row>
-    <row r="20" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17757,9 +17807,12 @@
       <c r="JL20" s="7">
         <v>47817</v>
       </c>
+      <c r="JM20" s="7">
+        <v>45928</v>
+      </c>
     </row>
-    <row r="21" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+    <row r="21" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18555,7 +18608,7 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f t="shared" ref="JF21:JL21" si="2">SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JM21" si="2">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
@@ -18575,14 +18628,17 @@
         <v>389372</v>
       </c>
       <c r="JK21" s="10">
-        <f t="shared" ref="JK21" si="3">SUM(JK12:JK20)</f>
+        <f t="shared" ref="JK21:JL21" si="3">SUM(JK12:JK20)</f>
         <v>390157</v>
       </c>
       <c r="JL21" s="10">
+        <f t="shared" si="3"/>
+        <v>393243</v>
+      </c>
+      <c r="JM21" s="10">
         <f t="shared" si="2"/>
-        <v>393243</v>
-      </c>
-      <c r="JM21" s="29"/>
+        <v>392581</v>
+      </c>
       <c r="JN21" s="29"/>
       <c r="JO21" s="29"/>
       <c r="JP21" s="29"/>
@@ -19039,7 +19095,7 @@
       <c r="AAY21" s="29"/>
       <c r="AAZ21" s="29"/>
       <c r="ABA21" s="29"/>
-      <c r="ABB21" s="5"/>
+      <c r="ABB21" s="29"/>
       <c r="ABC21" s="5"/>
       <c r="ABD21" s="5"/>
       <c r="ABE21" s="5"/>
@@ -19220,9 +19276,10 @@
       <c r="AHX21" s="5"/>
       <c r="AHY21" s="5"/>
       <c r="AHZ21" s="5"/>
+      <c r="AIA21" s="5"/>
     </row>
-    <row r="22" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -20038,9 +20095,12 @@
       <c r="JL22" s="7">
         <v>104996</v>
       </c>
+      <c r="JM22" s="7">
+        <v>106727</v>
+      </c>
     </row>
-    <row r="23" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+    <row r="23" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -20854,9 +20914,12 @@
       <c r="JL23" s="7">
         <v>35591</v>
       </c>
+      <c r="JM23" s="7">
+        <v>35615</v>
+      </c>
     </row>
-    <row r="24" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21652,7 +21715,7 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f t="shared" ref="JF24:JL24" si="4">SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JM24" si="4">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
@@ -21672,14 +21735,17 @@
         <v>137135</v>
       </c>
       <c r="JK24" s="10">
-        <f t="shared" ref="JK24" si="5">SUM(JK22:JK23)</f>
+        <f t="shared" ref="JK24:JL24" si="5">SUM(JK22:JK23)</f>
         <v>139462</v>
       </c>
       <c r="JL24" s="10">
+        <f t="shared" si="5"/>
+        <v>140587</v>
+      </c>
+      <c r="JM24" s="10">
         <f t="shared" si="4"/>
-        <v>140587</v>
-      </c>
-      <c r="JM24" s="29"/>
+        <v>142342</v>
+      </c>
       <c r="JN24" s="29"/>
       <c r="JO24" s="29"/>
       <c r="JP24" s="29"/>
@@ -22136,7 +22202,7 @@
       <c r="AAY24" s="29"/>
       <c r="AAZ24" s="29"/>
       <c r="ABA24" s="29"/>
-      <c r="ABB24" s="5"/>
+      <c r="ABB24" s="29"/>
       <c r="ABC24" s="5"/>
       <c r="ABD24" s="5"/>
       <c r="ABE24" s="5"/>
@@ -22317,9 +22383,10 @@
       <c r="AHX24" s="5"/>
       <c r="AHY24" s="5"/>
       <c r="AHZ24" s="5"/>
+      <c r="AIA24" s="5"/>
     </row>
-    <row r="25" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23135,9 +23202,12 @@
       <c r="JL25" s="7">
         <v>4315</v>
       </c>
+      <c r="JM25" s="7">
+        <v>4266</v>
+      </c>
     </row>
-    <row r="26" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -23951,9 +24021,12 @@
       <c r="JL26" s="7">
         <v>5423</v>
       </c>
+      <c r="JM26" s="7">
+        <v>5416</v>
+      </c>
     </row>
-    <row r="27" spans="1:910" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:911" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -24749,7 +24822,7 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f t="shared" ref="JF27:JL27" si="6">SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JM27" si="6">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
@@ -24769,14 +24842,17 @@
         <v>9540</v>
       </c>
       <c r="JK27" s="10">
-        <f t="shared" ref="JK27" si="7">SUM(JK25:JK26)</f>
+        <f t="shared" ref="JK27:JL27" si="7">SUM(JK25:JK26)</f>
         <v>9600</v>
       </c>
       <c r="JL27" s="10">
+        <f t="shared" si="7"/>
+        <v>9738</v>
+      </c>
+      <c r="JM27" s="10">
         <f t="shared" si="6"/>
-        <v>9738</v>
-      </c>
-      <c r="JM27" s="29"/>
+        <v>9682</v>
+      </c>
       <c r="JN27" s="29"/>
       <c r="JO27" s="29"/>
       <c r="JP27" s="29"/>
@@ -25233,7 +25309,7 @@
       <c r="AAY27" s="29"/>
       <c r="AAZ27" s="29"/>
       <c r="ABA27" s="29"/>
-      <c r="ABB27" s="5"/>
+      <c r="ABB27" s="29"/>
       <c r="ABC27" s="5"/>
       <c r="ABD27" s="5"/>
       <c r="ABE27" s="5"/>
@@ -25414,9 +25490,10 @@
       <c r="AHX27" s="5"/>
       <c r="AHY27" s="5"/>
       <c r="AHZ27" s="5"/>
+      <c r="AIA27" s="5"/>
     </row>
-    <row r="28" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26232,9 +26309,12 @@
       <c r="JL28" s="7">
         <v>842</v>
       </c>
+      <c r="JM28" s="7">
+        <v>863</v>
+      </c>
     </row>
-    <row r="29" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+    <row r="29" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -27048,9 +27128,12 @@
       <c r="JL29" s="7">
         <v>10539</v>
       </c>
+      <c r="JM29" s="7">
+        <v>10598</v>
+      </c>
     </row>
-    <row r="30" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+    <row r="30" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -27864,9 +27947,12 @@
       <c r="JL30" s="7">
         <v>29221</v>
       </c>
+      <c r="JM30" s="7">
+        <v>29478</v>
+      </c>
     </row>
-    <row r="31" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+    <row r="31" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28680,9 +28766,12 @@
       <c r="JL31" s="7">
         <v>102974</v>
       </c>
+      <c r="JM31" s="7">
+        <v>103257</v>
+      </c>
     </row>
-    <row r="32" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+    <row r="32" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29496,9 +29585,12 @@
       <c r="JL32" s="7">
         <v>25049</v>
       </c>
+      <c r="JM32" s="7">
+        <v>25371</v>
+      </c>
     </row>
-    <row r="33" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+    <row r="33" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30312,9 +30404,12 @@
       <c r="JL33" s="7">
         <v>9712</v>
       </c>
+      <c r="JM33" s="7">
+        <v>9767</v>
+      </c>
     </row>
-    <row r="34" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+    <row r="34" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31128,9 +31223,12 @@
       <c r="JL34" s="7">
         <v>43387</v>
       </c>
+      <c r="JM34" s="7">
+        <v>43964</v>
+      </c>
     </row>
-    <row r="35" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+    <row r="35" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -31944,9 +32042,12 @@
       <c r="JL35" s="7">
         <v>10417</v>
       </c>
+      <c r="JM35" s="7">
+        <v>10524</v>
+      </c>
     </row>
-    <row r="36" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+    <row r="36" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -32760,9 +32861,12 @@
       <c r="JL36" s="7">
         <v>53162</v>
       </c>
+      <c r="JM36" s="7">
+        <v>53575</v>
+      </c>
     </row>
-    <row r="37" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33576,9 +33680,12 @@
       <c r="JL37" s="7">
         <v>68492</v>
       </c>
+      <c r="JM37" s="7">
+        <v>69684</v>
+      </c>
     </row>
-    <row r="38" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+    <row r="38" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34392,9 +34499,12 @@
       <c r="JL38" s="7">
         <v>22395</v>
       </c>
+      <c r="JM38" s="7">
+        <v>21982</v>
+      </c>
     </row>
-    <row r="39" spans="1:910" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+    <row r="39" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35208,9 +35318,12 @@
       <c r="JL39" s="7">
         <v>23161</v>
       </c>
+      <c r="JM39" s="7">
+        <v>23442</v>
+      </c>
     </row>
-    <row r="40" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+    <row r="40" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -36024,9 +36137,12 @@
       <c r="JL40" s="7">
         <v>12034</v>
       </c>
+      <c r="JM40" s="7">
+        <v>12036</v>
+      </c>
     </row>
-    <row r="41" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+    <row r="41" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -36840,9 +36956,12 @@
       <c r="JL41" s="7">
         <v>11175</v>
       </c>
+      <c r="JM41" s="7">
+        <v>10870</v>
+      </c>
     </row>
-    <row r="42" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+    <row r="42" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -37656,9 +37775,12 @@
       <c r="JL42" s="7">
         <v>44082</v>
       </c>
+      <c r="JM42" s="7">
+        <v>44194</v>
+      </c>
     </row>
-    <row r="43" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+    <row r="43" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38472,9 +38594,12 @@
       <c r="JL43" s="7">
         <v>4936</v>
       </c>
+      <c r="JM43" s="7">
+        <v>4928</v>
+      </c>
     </row>
-    <row r="44" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+    <row r="44" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -39288,9 +39413,12 @@
       <c r="JL44" s="7">
         <v>5991</v>
       </c>
+      <c r="JM44" s="7">
+        <v>5763</v>
+      </c>
     </row>
-    <row r="45" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+    <row r="45" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -40104,9 +40232,12 @@
       <c r="JL45" s="7">
         <v>7233</v>
       </c>
+      <c r="JM45" s="7">
+        <v>7163</v>
+      </c>
     </row>
-    <row r="46" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+    <row r="46" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -40920,9 +41051,12 @@
       <c r="JL46" s="7">
         <v>13086</v>
       </c>
+      <c r="JM46" s="7">
+        <v>13286</v>
+      </c>
     </row>
-    <row r="47" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -41736,9 +41870,12 @@
       <c r="JL47" s="7">
         <v>1653</v>
       </c>
+      <c r="JM47" s="7">
+        <v>1604</v>
+      </c>
     </row>
-    <row r="48" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42534,7 +42671,7 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f t="shared" ref="JF48:JL48" si="8">SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JM48" si="8">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
@@ -42554,14 +42691,17 @@
         <v>494824</v>
       </c>
       <c r="JK48" s="10">
-        <f t="shared" ref="JK48" si="9">SUM(JK28:JK47)</f>
+        <f t="shared" ref="JK48:JL48" si="9">SUM(JK28:JK47)</f>
         <v>496682</v>
       </c>
       <c r="JL48" s="10">
+        <f t="shared" si="9"/>
+        <v>499541</v>
+      </c>
+      <c r="JM48" s="10">
         <f t="shared" si="8"/>
-        <v>499541</v>
-      </c>
-      <c r="JM48" s="29"/>
+        <v>502349</v>
+      </c>
       <c r="JN48" s="29"/>
       <c r="JO48" s="29"/>
       <c r="JP48" s="29"/>
@@ -43018,7 +43158,7 @@
       <c r="AAY48" s="29"/>
       <c r="AAZ48" s="29"/>
       <c r="ABA48" s="29"/>
-      <c r="ABB48" s="5"/>
+      <c r="ABB48" s="29"/>
       <c r="ABC48" s="5"/>
       <c r="ABD48" s="5"/>
       <c r="ABE48" s="5"/>
@@ -43199,9 +43339,10 @@
       <c r="AHX48" s="5"/>
       <c r="AHY48" s="5"/>
       <c r="AHZ48" s="5"/>
+      <c r="AIA48" s="5"/>
     </row>
-    <row r="49" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+    <row r="49" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -44017,9 +44158,12 @@
       <c r="JL49" s="8">
         <v>18</v>
       </c>
+      <c r="JM49" s="8">
+        <v>11</v>
+      </c>
     </row>
-    <row r="50" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -44833,9 +44977,12 @@
       <c r="JL50" s="8">
         <v>11</v>
       </c>
+      <c r="JM50" s="8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="51" spans="1:272" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+    <row r="51" spans="1:273" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -45649,9 +45796,12 @@
       <c r="JL51" s="7">
         <v>1444</v>
       </c>
+      <c r="JM51" s="7">
+        <v>1414</v>
+      </c>
     </row>
-    <row r="52" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -46465,9 +46615,12 @@
       <c r="JL52" s="7">
         <v>1065</v>
       </c>
+      <c r="JM52" s="7">
+        <v>1028</v>
+      </c>
     </row>
-    <row r="53" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+    <row r="53" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -47263,7 +47416,7 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f t="shared" ref="JF53:JL53" si="10">SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JM53" si="10">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
@@ -47283,16 +47436,20 @@
         <v>2556</v>
       </c>
       <c r="JK53" s="10">
-        <f t="shared" ref="JK53" si="11">SUM(JK49:JK52)</f>
+        <f t="shared" ref="JK53:JL53" si="11">SUM(JK49:JK52)</f>
         <v>2538</v>
       </c>
       <c r="JL53" s="10">
+        <f t="shared" si="11"/>
+        <v>2538</v>
+      </c>
+      <c r="JM53" s="10">
         <f t="shared" si="10"/>
-        <v>2538</v>
+        <v>2465</v>
       </c>
     </row>
-    <row r="54" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="54" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -48108,9 +48265,12 @@
       <c r="JL54" s="36">
         <v>5726</v>
       </c>
+      <c r="JM54" s="36">
+        <v>5713</v>
+      </c>
     </row>
-    <row r="55" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+    <row r="55" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -48924,9 +49084,12 @@
       <c r="JL55" s="7">
         <v>52128</v>
       </c>
+      <c r="JM55" s="7">
+        <v>52455</v>
+      </c>
     </row>
-    <row r="56" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -49740,9 +49903,12 @@
       <c r="JL56" s="7">
         <v>7276</v>
       </c>
+      <c r="JM56" s="7">
+        <v>7234</v>
+      </c>
     </row>
-    <row r="57" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -50556,9 +50722,12 @@
       <c r="JL57" s="7">
         <v>190156</v>
       </c>
+      <c r="JM57" s="7">
+        <v>190203</v>
+      </c>
     </row>
-    <row r="58" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -51372,9 +51541,12 @@
       <c r="JL58" s="7">
         <v>32399</v>
       </c>
+      <c r="JM58" s="7">
+        <v>32677</v>
+      </c>
     </row>
-    <row r="59" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+    <row r="59" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -52188,9 +52360,12 @@
       <c r="JL59" s="7">
         <v>6394</v>
       </c>
+      <c r="JM59" s="7">
+        <v>6406</v>
+      </c>
     </row>
-    <row r="60" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+    <row r="60" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -53004,9 +53179,12 @@
       <c r="JL60" s="7">
         <v>46963</v>
       </c>
+      <c r="JM60" s="7">
+        <v>43708</v>
+      </c>
     </row>
-    <row r="61" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+    <row r="61" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -53820,9 +53998,12 @@
       <c r="JL61" s="8">
         <v>136</v>
       </c>
+      <c r="JM61" s="8">
+        <v>139</v>
+      </c>
     </row>
-    <row r="62" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+    <row r="62" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -54636,9 +54817,12 @@
       <c r="JL62" s="7">
         <v>19845</v>
       </c>
+      <c r="JM62" s="7">
+        <v>19992</v>
+      </c>
     </row>
-    <row r="63" spans="1:272" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+    <row r="63" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -55452,9 +55636,12 @@
       <c r="JL63" s="7">
         <v>33982</v>
       </c>
+      <c r="JM63" s="7">
+        <v>33889</v>
+      </c>
     </row>
-    <row r="64" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -56268,9 +56455,12 @@
       <c r="JL64" s="7">
         <v>48607</v>
       </c>
+      <c r="JM64" s="7">
+        <v>48719</v>
+      </c>
     </row>
-    <row r="65" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+    <row r="65" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -57084,9 +57274,12 @@
       <c r="JL65" s="7">
         <v>165666</v>
       </c>
+      <c r="JM65" s="7">
+        <v>166373</v>
+      </c>
     </row>
-    <row r="66" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+    <row r="66" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -57900,9 +58093,12 @@
       <c r="JL66" s="7">
         <v>19304</v>
       </c>
+      <c r="JM66" s="7">
+        <v>19119</v>
+      </c>
     </row>
-    <row r="67" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+    <row r="67" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -58716,9 +58912,12 @@
       <c r="JL67" s="7">
         <v>6182</v>
       </c>
+      <c r="JM67" s="7">
+        <v>6221</v>
+      </c>
     </row>
-    <row r="68" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+    <row r="68" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -59514,7 +59713,7 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f t="shared" ref="JF68:JL68" si="12">SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JM68" si="12">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
@@ -59534,14 +59733,17 @@
         <v>630421</v>
       </c>
       <c r="JK68" s="10">
-        <f t="shared" ref="JK68" si="13">SUM(JK54:JK67)</f>
+        <f t="shared" ref="JK68:JL68" si="13">SUM(JK54:JK67)</f>
         <v>632610</v>
       </c>
       <c r="JL68" s="10">
+        <f t="shared" si="13"/>
+        <v>634764</v>
+      </c>
+      <c r="JM68" s="10">
         <f t="shared" si="12"/>
-        <v>634764</v>
-      </c>
-      <c r="JM68" s="29"/>
+        <v>632848</v>
+      </c>
       <c r="JN68" s="29"/>
       <c r="JO68" s="29"/>
       <c r="JP68" s="29"/>
@@ -59998,7 +60200,7 @@
       <c r="AAY68" s="29"/>
       <c r="AAZ68" s="29"/>
       <c r="ABA68" s="29"/>
-      <c r="ABB68" s="5"/>
+      <c r="ABB68" s="29"/>
       <c r="ABC68" s="5"/>
       <c r="ABD68" s="5"/>
       <c r="ABE68" s="5"/>
@@ -60179,9 +60381,10 @@
       <c r="AHX68" s="5"/>
       <c r="AHY68" s="5"/>
       <c r="AHZ68" s="5"/>
+      <c r="AIA68" s="5"/>
     </row>
-    <row r="69" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+    <row r="69" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -60997,9 +61200,12 @@
       <c r="JL69" s="7">
         <v>9729</v>
       </c>
+      <c r="JM69" s="7">
+        <v>9745</v>
+      </c>
     </row>
-    <row r="70" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+    <row r="70" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -61813,9 +62019,12 @@
       <c r="JL70" s="7">
         <v>854</v>
       </c>
+      <c r="JM70" s="7">
+        <v>862</v>
+      </c>
     </row>
-    <row r="71" spans="1:910" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+    <row r="71" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -62629,9 +62838,12 @@
       <c r="JL71" s="7">
         <v>33193</v>
       </c>
+      <c r="JM71" s="7">
+        <v>32774</v>
+      </c>
     </row>
-    <row r="72" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+    <row r="72" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -63445,9 +63657,12 @@
       <c r="JL72" s="7">
         <v>4176</v>
       </c>
+      <c r="JM72" s="7">
+        <v>4258</v>
+      </c>
     </row>
-    <row r="73" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+    <row r="73" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -64261,9 +64476,12 @@
       <c r="JL73" s="8">
         <v>543</v>
       </c>
+      <c r="JM73" s="8">
+        <v>548</v>
+      </c>
     </row>
-    <row r="74" spans="1:910" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+    <row r="74" spans="1:911" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -65077,9 +65295,12 @@
       <c r="JL74" s="7">
         <v>53084</v>
       </c>
+      <c r="JM74" s="7">
+        <v>53198</v>
+      </c>
     </row>
-    <row r="75" spans="1:910" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+    <row r="75" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -65875,7 +66096,7 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f t="shared" ref="JF75:JL75" si="14">SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JM75" si="14">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
@@ -65895,14 +66116,17 @@
         <v>100160</v>
       </c>
       <c r="JK75" s="10">
-        <f t="shared" ref="JK75" si="15">SUM(JK69:JK74)</f>
+        <f t="shared" ref="JK75:JL75" si="15">SUM(JK69:JK74)</f>
         <v>100656</v>
       </c>
       <c r="JL75" s="10">
+        <f t="shared" si="15"/>
+        <v>101579</v>
+      </c>
+      <c r="JM75" s="10">
         <f t="shared" si="14"/>
-        <v>101579</v>
-      </c>
-      <c r="JM75" s="29"/>
+        <v>101385</v>
+      </c>
       <c r="JN75" s="29"/>
       <c r="JO75" s="29"/>
       <c r="JP75" s="29"/>
@@ -66359,7 +66583,7 @@
       <c r="AAY75" s="29"/>
       <c r="AAZ75" s="29"/>
       <c r="ABA75" s="29"/>
-      <c r="ABB75" s="5"/>
+      <c r="ABB75" s="29"/>
       <c r="ABC75" s="5"/>
       <c r="ABD75" s="5"/>
       <c r="ABE75" s="5"/>
@@ -66540,8 +66764,9 @@
       <c r="AHX75" s="5"/>
       <c r="AHY75" s="5"/>
       <c r="AHZ75" s="5"/>
+      <c r="AIA75" s="5"/>
     </row>
-    <row r="76" spans="1:910" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:911" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -67339,7 +67564,7 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f t="shared" ref="JF76:JL76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JM76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
@@ -67359,15 +67584,19 @@
         <v>1884715</v>
       </c>
       <c r="JK76" s="19">
-        <f t="shared" ref="JK76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
+        <f t="shared" ref="JK76:JL76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
         <v>1888232</v>
       </c>
       <c r="JL76" s="19">
+        <f t="shared" si="17"/>
+        <v>1896755</v>
+      </c>
+      <c r="JM76" s="19">
         <f t="shared" si="16"/>
-        <v>1896755</v>
+        <v>1896517</v>
       </c>
     </row>
-    <row r="77" spans="1:910" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:911" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -67635,7 +67864,7 @@
       <c r="JJ77" s="30"/>
       <c r="JK77" s="30"/>
       <c r="JL77" s="30"/>
-      <c r="JM77" s="27"/>
+      <c r="JM77" s="30"/>
       <c r="JN77" s="27"/>
       <c r="JO77" s="27"/>
       <c r="JP77" s="27"/>
@@ -68092,35 +68321,15 @@
       <c r="AAY77" s="27"/>
       <c r="AAZ77" s="27"/>
       <c r="ABA77" s="27"/>
+      <c r="ABB77" s="27"/>
     </row>
-    <row r="78" spans="1:910" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:911" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="JG4:JL4"/>
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:JF4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -68133,6 +68342,27 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="JG4:JM4"/>
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JF4"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="348">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1084,6 +1084,9 @@
   <si>
     <t>2022/julio</t>
   </si>
+  <si>
+    <t>2022/agosto</t>
+  </si>
 </sst>
 </file>
 
@@ -1688,7 +1691,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1812,6 +1815,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2168,11 +2174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIA78"/>
+  <dimension ref="A1:AIB78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JO7" sqref="JO7"/>
+      <pane xSplit="2" topLeftCell="JF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JP33" sqref="JP33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2440,23 +2446,25 @@
     <col min="268" max="269" width="11" style="4" customWidth="1"/>
     <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="271" max="271" width="12.625" style="4" customWidth="1"/>
-    <col min="272" max="273" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="274" max="730" width="10.875" style="28"/>
-    <col min="731" max="911" width="10.875" style="4"/>
-    <col min="912" max="16384" width="10.875" style="3"/>
+    <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
+    <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="275" max="731" width="10.875" style="28"/>
+    <col min="732" max="912" width="10.875" style="4"/>
+    <col min="913" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:911" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
@@ -2780,7 +2788,7 @@
       <c r="JK4" s="38"/>
       <c r="JL4" s="38"/>
       <c r="JM4" s="38"/>
-      <c r="JN4" s="29"/>
+      <c r="JN4" s="38"/>
       <c r="JO4" s="29"/>
       <c r="JP4" s="29"/>
       <c r="JQ4" s="29"/>
@@ -3237,7 +3245,7 @@
       <c r="AAZ4" s="29"/>
       <c r="ABA4" s="29"/>
       <c r="ABB4" s="29"/>
-      <c r="ABC4" s="5"/>
+      <c r="ABC4" s="29"/>
       <c r="ABD4" s="5"/>
       <c r="ABE4" s="5"/>
       <c r="ABF4" s="5"/>
@@ -3418,8 +3426,9 @@
       <c r="AHY4" s="5"/>
       <c r="AHZ4" s="5"/>
       <c r="AIA4" s="5"/>
+      <c r="AIB4" s="5"/>
     </row>
-    <row r="5" spans="1:911" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
@@ -4235,7 +4244,9 @@
       <c r="JM5" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="JN5" s="29"/>
+      <c r="JN5" s="31" t="s">
+        <v>347</v>
+      </c>
       <c r="JO5" s="29"/>
       <c r="JP5" s="29"/>
       <c r="JQ5" s="29"/>
@@ -4692,7 +4703,7 @@
       <c r="AAZ5" s="29"/>
       <c r="ABA5" s="29"/>
       <c r="ABB5" s="29"/>
-      <c r="ABC5" s="5"/>
+      <c r="ABC5" s="29"/>
       <c r="ABD5" s="5"/>
       <c r="ABE5" s="5"/>
       <c r="ABF5" s="5"/>
@@ -4873,8 +4884,9 @@
       <c r="AHY5" s="5"/>
       <c r="AHZ5" s="5"/>
       <c r="AIA5" s="5"/>
+      <c r="AIB5" s="5"/>
     </row>
-    <row r="6" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>244</v>
       </c>
@@ -5694,8 +5706,12 @@
       <c r="JM6" s="7">
         <v>87732</v>
       </c>
+      <c r="JN6" s="7">
+        <v>90473</v>
+      </c>
+      <c r="JO6" s="44"/>
     </row>
-    <row r="7" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
@@ -6513,8 +6529,12 @@
       <c r="JM7" s="8">
         <v>46</v>
       </c>
+      <c r="JN7" s="8">
+        <v>47</v>
+      </c>
+      <c r="JO7" s="44"/>
     </row>
-    <row r="8" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
@@ -7332,8 +7352,12 @@
       <c r="JM8" s="7">
         <v>23374</v>
       </c>
+      <c r="JN8" s="7">
+        <v>23221</v>
+      </c>
+      <c r="JO8" s="44"/>
     </row>
-    <row r="9" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
@@ -8151,8 +8175,12 @@
       <c r="JM9" s="7">
         <v>1303</v>
       </c>
+      <c r="JN9" s="7">
+        <v>1067</v>
+      </c>
+      <c r="JO9" s="44"/>
     </row>
-    <row r="10" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
@@ -8970,8 +8998,12 @@
       <c r="JM10" s="8">
         <v>410</v>
       </c>
+      <c r="JN10" s="8">
+        <v>411</v>
+      </c>
+      <c r="JO10" s="44"/>
     </row>
-    <row r="11" spans="1:911" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
@@ -9768,7 +9800,7 @@
         <v>119220</v>
       </c>
       <c r="JF11" s="10">
-        <f t="shared" ref="JF11:JM11" si="0">SUM(JF6:JF10)</f>
+        <f t="shared" ref="JF11:JN11" si="0">SUM(JF6:JF10)</f>
         <v>116251</v>
       </c>
       <c r="JG11" s="10">
@@ -9788,7 +9820,7 @@
         <v>120707</v>
       </c>
       <c r="JK11" s="10">
-        <f t="shared" ref="JK11:JL11" si="1">SUM(JK6:JK10)</f>
+        <f t="shared" ref="JK11:JM11" si="1">SUM(JK6:JK10)</f>
         <v>116527</v>
       </c>
       <c r="JL11" s="10">
@@ -9796,11 +9828,14 @@
         <v>114765</v>
       </c>
       <c r="JM11" s="10">
+        <f t="shared" si="1"/>
+        <v>112865</v>
+      </c>
+      <c r="JN11" s="10">
         <f t="shared" si="0"/>
-        <v>112865</v>
-      </c>
-      <c r="JN11" s="29"/>
-      <c r="JO11" s="29"/>
+        <v>115219</v>
+      </c>
+      <c r="JO11" s="44"/>
       <c r="JP11" s="29"/>
       <c r="JQ11" s="29"/>
       <c r="JR11" s="29"/>
@@ -10256,7 +10291,7 @@
       <c r="AAZ11" s="29"/>
       <c r="ABA11" s="29"/>
       <c r="ABB11" s="29"/>
-      <c r="ABC11" s="5"/>
+      <c r="ABC11" s="29"/>
       <c r="ABD11" s="5"/>
       <c r="ABE11" s="5"/>
       <c r="ABF11" s="5"/>
@@ -10437,8 +10472,9 @@
       <c r="AHY11" s="5"/>
       <c r="AHZ11" s="5"/>
       <c r="AIA11" s="5"/>
+      <c r="AIB11" s="5"/>
     </row>
-    <row r="12" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>249</v>
       </c>
@@ -11258,8 +11294,12 @@
       <c r="JM12" s="7">
         <v>77524</v>
       </c>
+      <c r="JN12" s="7">
+        <v>78354</v>
+      </c>
+      <c r="JO12" s="44"/>
     </row>
-    <row r="13" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
@@ -12077,8 +12117,12 @@
       <c r="JM13" s="7">
         <v>20623</v>
       </c>
+      <c r="JN13" s="7">
+        <v>20836</v>
+      </c>
+      <c r="JO13" s="44"/>
     </row>
-    <row r="14" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
@@ -12896,8 +12940,12 @@
       <c r="JM14" s="7">
         <v>33489</v>
       </c>
+      <c r="JN14" s="7">
+        <v>33678</v>
+      </c>
+      <c r="JO14" s="44"/>
     </row>
-    <row r="15" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
@@ -13715,8 +13763,12 @@
       <c r="JM15" s="7">
         <v>22634</v>
       </c>
+      <c r="JN15" s="7">
+        <v>22637</v>
+      </c>
+      <c r="JO15" s="44"/>
     </row>
-    <row r="16" spans="1:911" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:912" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
@@ -14534,8 +14586,12 @@
       <c r="JM16" s="7">
         <v>15588</v>
       </c>
+      <c r="JN16" s="7">
+        <v>15162</v>
+      </c>
+      <c r="JO16" s="44"/>
     </row>
-    <row r="17" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
@@ -15353,8 +15409,12 @@
       <c r="JM17" s="7">
         <v>48716</v>
       </c>
+      <c r="JN17" s="7">
+        <v>48963</v>
+      </c>
+      <c r="JO17" s="44"/>
     </row>
-    <row r="18" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
@@ -16172,8 +16232,12 @@
       <c r="JM18" s="7">
         <v>60250</v>
       </c>
+      <c r="JN18" s="7">
+        <v>60592</v>
+      </c>
+      <c r="JO18" s="44"/>
     </row>
-    <row r="19" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
@@ -16991,8 +17055,12 @@
       <c r="JM19" s="7">
         <v>67829</v>
       </c>
+      <c r="JN19" s="7">
+        <v>68068</v>
+      </c>
+      <c r="JO19" s="44"/>
     </row>
-    <row r="20" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
@@ -17810,8 +17878,12 @@
       <c r="JM20" s="7">
         <v>45928</v>
       </c>
+      <c r="JN20" s="7">
+        <v>46170</v>
+      </c>
+      <c r="JO20" s="44"/>
     </row>
-    <row r="21" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
@@ -18608,7 +18680,7 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f t="shared" ref="JF21:JM21" si="2">SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JN21" si="2">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
@@ -18628,7 +18700,7 @@
         <v>389372</v>
       </c>
       <c r="JK21" s="10">
-        <f t="shared" ref="JK21:JL21" si="3">SUM(JK12:JK20)</f>
+        <f t="shared" ref="JK21:JM21" si="3">SUM(JK12:JK20)</f>
         <v>390157</v>
       </c>
       <c r="JL21" s="10">
@@ -18636,11 +18708,14 @@
         <v>393243</v>
       </c>
       <c r="JM21" s="10">
+        <f t="shared" si="3"/>
+        <v>392581</v>
+      </c>
+      <c r="JN21" s="10">
         <f t="shared" si="2"/>
-        <v>392581</v>
-      </c>
-      <c r="JN21" s="29"/>
-      <c r="JO21" s="29"/>
+        <v>394460</v>
+      </c>
+      <c r="JO21" s="44"/>
       <c r="JP21" s="29"/>
       <c r="JQ21" s="29"/>
       <c r="JR21" s="29"/>
@@ -19096,7 +19171,7 @@
       <c r="AAZ21" s="29"/>
       <c r="ABA21" s="29"/>
       <c r="ABB21" s="29"/>
-      <c r="ABC21" s="5"/>
+      <c r="ABC21" s="29"/>
       <c r="ABD21" s="5"/>
       <c r="ABE21" s="5"/>
       <c r="ABF21" s="5"/>
@@ -19277,8 +19352,9 @@
       <c r="AHY21" s="5"/>
       <c r="AHZ21" s="5"/>
       <c r="AIA21" s="5"/>
+      <c r="AIB21" s="5"/>
     </row>
-    <row r="22" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>259</v>
       </c>
@@ -20098,8 +20174,12 @@
       <c r="JM22" s="7">
         <v>106727</v>
       </c>
+      <c r="JN22" s="7">
+        <v>108318</v>
+      </c>
+      <c r="JO22" s="44"/>
     </row>
-    <row r="23" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
@@ -20917,8 +20997,12 @@
       <c r="JM23" s="7">
         <v>35615</v>
       </c>
+      <c r="JN23" s="7">
+        <v>36323</v>
+      </c>
+      <c r="JO23" s="44"/>
     </row>
-    <row r="24" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
@@ -21715,7 +21799,7 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f t="shared" ref="JF24:JM24" si="4">SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JN24" si="4">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
@@ -21735,7 +21819,7 @@
         <v>137135</v>
       </c>
       <c r="JK24" s="10">
-        <f t="shared" ref="JK24:JL24" si="5">SUM(JK22:JK23)</f>
+        <f t="shared" ref="JK24:JM24" si="5">SUM(JK22:JK23)</f>
         <v>139462</v>
       </c>
       <c r="JL24" s="10">
@@ -21743,11 +21827,14 @@
         <v>140587</v>
       </c>
       <c r="JM24" s="10">
+        <f t="shared" si="5"/>
+        <v>142342</v>
+      </c>
+      <c r="JN24" s="10">
         <f t="shared" si="4"/>
-        <v>142342</v>
-      </c>
-      <c r="JN24" s="29"/>
-      <c r="JO24" s="29"/>
+        <v>144641</v>
+      </c>
+      <c r="JO24" s="44"/>
       <c r="JP24" s="29"/>
       <c r="JQ24" s="29"/>
       <c r="JR24" s="29"/>
@@ -22203,7 +22290,7 @@
       <c r="AAZ24" s="29"/>
       <c r="ABA24" s="29"/>
       <c r="ABB24" s="29"/>
-      <c r="ABC24" s="5"/>
+      <c r="ABC24" s="29"/>
       <c r="ABD24" s="5"/>
       <c r="ABE24" s="5"/>
       <c r="ABF24" s="5"/>
@@ -22384,8 +22471,9 @@
       <c r="AHY24" s="5"/>
       <c r="AHZ24" s="5"/>
       <c r="AIA24" s="5"/>
+      <c r="AIB24" s="5"/>
     </row>
-    <row r="25" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>262</v>
       </c>
@@ -23205,8 +23293,12 @@
       <c r="JM25" s="7">
         <v>4266</v>
       </c>
+      <c r="JN25" s="7">
+        <v>4326</v>
+      </c>
+      <c r="JO25" s="44"/>
     </row>
-    <row r="26" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
@@ -24024,8 +24116,12 @@
       <c r="JM26" s="7">
         <v>5416</v>
       </c>
+      <c r="JN26" s="7">
+        <v>5437</v>
+      </c>
+      <c r="JO26" s="44"/>
     </row>
-    <row r="27" spans="1:911" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
@@ -24822,7 +24918,7 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f t="shared" ref="JF27:JM27" si="6">SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JN27" si="6">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
@@ -24842,7 +24938,7 @@
         <v>9540</v>
       </c>
       <c r="JK27" s="10">
-        <f t="shared" ref="JK27:JL27" si="7">SUM(JK25:JK26)</f>
+        <f t="shared" ref="JK27:JM27" si="7">SUM(JK25:JK26)</f>
         <v>9600</v>
       </c>
       <c r="JL27" s="10">
@@ -24850,11 +24946,14 @@
         <v>9738</v>
       </c>
       <c r="JM27" s="10">
+        <f t="shared" si="7"/>
+        <v>9682</v>
+      </c>
+      <c r="JN27" s="10">
         <f t="shared" si="6"/>
-        <v>9682</v>
-      </c>
-      <c r="JN27" s="29"/>
-      <c r="JO27" s="29"/>
+        <v>9763</v>
+      </c>
+      <c r="JO27" s="44"/>
       <c r="JP27" s="29"/>
       <c r="JQ27" s="29"/>
       <c r="JR27" s="29"/>
@@ -25310,7 +25409,7 @@
       <c r="AAZ27" s="29"/>
       <c r="ABA27" s="29"/>
       <c r="ABB27" s="29"/>
-      <c r="ABC27" s="5"/>
+      <c r="ABC27" s="29"/>
       <c r="ABD27" s="5"/>
       <c r="ABE27" s="5"/>
       <c r="ABF27" s="5"/>
@@ -25491,8 +25590,9 @@
       <c r="AHY27" s="5"/>
       <c r="AHZ27" s="5"/>
       <c r="AIA27" s="5"/>
+      <c r="AIB27" s="5"/>
     </row>
-    <row r="28" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>265</v>
       </c>
@@ -26312,8 +26412,12 @@
       <c r="JM28" s="7">
         <v>863</v>
       </c>
+      <c r="JN28" s="7">
+        <v>883</v>
+      </c>
+      <c r="JO28" s="44"/>
     </row>
-    <row r="29" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
@@ -27131,8 +27235,12 @@
       <c r="JM29" s="7">
         <v>10598</v>
       </c>
+      <c r="JN29" s="7">
+        <v>10614</v>
+      </c>
+      <c r="JO29" s="44"/>
     </row>
-    <row r="30" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
@@ -27950,8 +28058,12 @@
       <c r="JM30" s="7">
         <v>29478</v>
       </c>
+      <c r="JN30" s="7">
+        <v>29700</v>
+      </c>
+      <c r="JO30" s="44"/>
     </row>
-    <row r="31" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
@@ -28769,8 +28881,12 @@
       <c r="JM31" s="7">
         <v>103257</v>
       </c>
+      <c r="JN31" s="7">
+        <v>104119</v>
+      </c>
+      <c r="JO31" s="44"/>
     </row>
-    <row r="32" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
@@ -29588,8 +29704,12 @@
       <c r="JM32" s="7">
         <v>25371</v>
       </c>
+      <c r="JN32" s="7">
+        <v>25657</v>
+      </c>
+      <c r="JO32" s="44"/>
     </row>
-    <row r="33" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
@@ -30407,8 +30527,12 @@
       <c r="JM33" s="7">
         <v>9767</v>
       </c>
+      <c r="JN33" s="7">
+        <v>9812</v>
+      </c>
+      <c r="JO33" s="44"/>
     </row>
-    <row r="34" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
@@ -31226,8 +31350,12 @@
       <c r="JM34" s="7">
         <v>43964</v>
       </c>
+      <c r="JN34" s="7">
+        <v>44139</v>
+      </c>
+      <c r="JO34" s="44"/>
     </row>
-    <row r="35" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
@@ -32045,8 +32173,12 @@
       <c r="JM35" s="7">
         <v>10524</v>
       </c>
+      <c r="JN35" s="7">
+        <v>10621</v>
+      </c>
+      <c r="JO35" s="44"/>
     </row>
-    <row r="36" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
@@ -32864,8 +32996,12 @@
       <c r="JM36" s="7">
         <v>53575</v>
       </c>
+      <c r="JN36" s="7">
+        <v>53618</v>
+      </c>
+      <c r="JO36" s="44"/>
     </row>
-    <row r="37" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
@@ -33683,8 +33819,12 @@
       <c r="JM37" s="7">
         <v>69684</v>
       </c>
+      <c r="JN37" s="7">
+        <v>70608</v>
+      </c>
+      <c r="JO37" s="44"/>
     </row>
-    <row r="38" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
@@ -34502,8 +34642,12 @@
       <c r="JM38" s="7">
         <v>21982</v>
       </c>
+      <c r="JN38" s="7">
+        <v>21970</v>
+      </c>
+      <c r="JO38" s="44"/>
     </row>
-    <row r="39" spans="1:911" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
@@ -35321,8 +35465,12 @@
       <c r="JM39" s="7">
         <v>23442</v>
       </c>
+      <c r="JN39" s="7">
+        <v>23733</v>
+      </c>
+      <c r="JO39" s="44"/>
     </row>
-    <row r="40" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
@@ -36140,8 +36288,12 @@
       <c r="JM40" s="7">
         <v>12036</v>
       </c>
+      <c r="JN40" s="7">
+        <v>12070</v>
+      </c>
+      <c r="JO40" s="44"/>
     </row>
-    <row r="41" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
@@ -36959,8 +37111,12 @@
       <c r="JM41" s="7">
         <v>10870</v>
       </c>
+      <c r="JN41" s="7">
+        <v>10909</v>
+      </c>
+      <c r="JO41" s="44"/>
     </row>
-    <row r="42" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
@@ -37778,8 +37934,12 @@
       <c r="JM42" s="7">
         <v>44194</v>
       </c>
+      <c r="JN42" s="7">
+        <v>44320</v>
+      </c>
+      <c r="JO42" s="44"/>
     </row>
-    <row r="43" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
@@ -38597,8 +38757,12 @@
       <c r="JM43" s="7">
         <v>4928</v>
       </c>
+      <c r="JN43" s="7">
+        <v>4927</v>
+      </c>
+      <c r="JO43" s="44"/>
     </row>
-    <row r="44" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
@@ -39416,8 +39580,12 @@
       <c r="JM44" s="7">
         <v>5763</v>
       </c>
+      <c r="JN44" s="7">
+        <v>5824</v>
+      </c>
+      <c r="JO44" s="44"/>
     </row>
-    <row r="45" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
@@ -40235,8 +40403,12 @@
       <c r="JM45" s="7">
         <v>7163</v>
       </c>
+      <c r="JN45" s="7">
+        <v>7197</v>
+      </c>
+      <c r="JO45" s="44"/>
     </row>
-    <row r="46" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
@@ -41054,8 +41226,12 @@
       <c r="JM46" s="7">
         <v>13286</v>
       </c>
+      <c r="JN46" s="7">
+        <v>13280</v>
+      </c>
+      <c r="JO46" s="44"/>
     </row>
-    <row r="47" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
@@ -41873,8 +42049,12 @@
       <c r="JM47" s="7">
         <v>1604</v>
       </c>
+      <c r="JN47" s="7">
+        <v>1596</v>
+      </c>
+      <c r="JO47" s="44"/>
     </row>
-    <row r="48" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
@@ -42671,7 +42851,7 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f t="shared" ref="JF48:JM48" si="8">SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JN48" si="8">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
@@ -42691,7 +42871,7 @@
         <v>494824</v>
       </c>
       <c r="JK48" s="10">
-        <f t="shared" ref="JK48:JL48" si="9">SUM(JK28:JK47)</f>
+        <f t="shared" ref="JK48:JM48" si="9">SUM(JK28:JK47)</f>
         <v>496682</v>
       </c>
       <c r="JL48" s="10">
@@ -42699,11 +42879,14 @@
         <v>499541</v>
       </c>
       <c r="JM48" s="10">
+        <f t="shared" si="9"/>
+        <v>502349</v>
+      </c>
+      <c r="JN48" s="10">
         <f t="shared" si="8"/>
-        <v>502349</v>
-      </c>
-      <c r="JN48" s="29"/>
-      <c r="JO48" s="29"/>
+        <v>505597</v>
+      </c>
+      <c r="JO48" s="44"/>
       <c r="JP48" s="29"/>
       <c r="JQ48" s="29"/>
       <c r="JR48" s="29"/>
@@ -43159,7 +43342,7 @@
       <c r="AAZ48" s="29"/>
       <c r="ABA48" s="29"/>
       <c r="ABB48" s="29"/>
-      <c r="ABC48" s="5"/>
+      <c r="ABC48" s="29"/>
       <c r="ABD48" s="5"/>
       <c r="ABE48" s="5"/>
       <c r="ABF48" s="5"/>
@@ -43340,8 +43523,9 @@
       <c r="AHY48" s="5"/>
       <c r="AHZ48" s="5"/>
       <c r="AIA48" s="5"/>
+      <c r="AIB48" s="5"/>
     </row>
-    <row r="49" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
@@ -44161,8 +44345,12 @@
       <c r="JM49" s="8">
         <v>11</v>
       </c>
+      <c r="JN49" s="8">
+        <v>13</v>
+      </c>
+      <c r="JO49" s="44"/>
     </row>
-    <row r="50" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
@@ -44980,8 +45168,12 @@
       <c r="JM50" s="8">
         <v>12</v>
       </c>
+      <c r="JN50" s="8">
+        <v>14</v>
+      </c>
+      <c r="JO50" s="44"/>
     </row>
-    <row r="51" spans="1:273" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:275" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
@@ -45799,8 +45991,12 @@
       <c r="JM51" s="7">
         <v>1414</v>
       </c>
+      <c r="JN51" s="7">
+        <v>1439</v>
+      </c>
+      <c r="JO51" s="44"/>
     </row>
-    <row r="52" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
@@ -46618,8 +46814,12 @@
       <c r="JM52" s="7">
         <v>1028</v>
       </c>
+      <c r="JN52" s="7">
+        <v>1011</v>
+      </c>
+      <c r="JO52" s="44"/>
     </row>
-    <row r="53" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
@@ -47416,7 +47616,7 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f t="shared" ref="JF53:JM53" si="10">SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JN53" si="10">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
@@ -47436,7 +47636,7 @@
         <v>2556</v>
       </c>
       <c r="JK53" s="10">
-        <f t="shared" ref="JK53:JL53" si="11">SUM(JK49:JK52)</f>
+        <f t="shared" ref="JK53:JM53" si="11">SUM(JK49:JK52)</f>
         <v>2538</v>
       </c>
       <c r="JL53" s="10">
@@ -47444,11 +47644,16 @@
         <v>2538</v>
       </c>
       <c r="JM53" s="10">
+        <f t="shared" si="11"/>
+        <v>2465</v>
+      </c>
+      <c r="JN53" s="10">
         <f t="shared" si="10"/>
-        <v>2465</v>
-      </c>
+        <v>2477</v>
+      </c>
+      <c r="JO53" s="44"/>
     </row>
-    <row r="54" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
@@ -48268,8 +48473,12 @@
       <c r="JM54" s="36">
         <v>5713</v>
       </c>
+      <c r="JN54" s="36">
+        <v>5710</v>
+      </c>
+      <c r="JO54" s="44"/>
     </row>
-    <row r="55" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
@@ -49087,8 +49296,12 @@
       <c r="JM55" s="7">
         <v>52455</v>
       </c>
+      <c r="JN55" s="7">
+        <v>52859</v>
+      </c>
+      <c r="JO55" s="44"/>
     </row>
-    <row r="56" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
@@ -49906,8 +50119,12 @@
       <c r="JM56" s="7">
         <v>7234</v>
       </c>
+      <c r="JN56" s="7">
+        <v>7204</v>
+      </c>
+      <c r="JO56" s="44"/>
     </row>
-    <row r="57" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
@@ -50725,8 +50942,12 @@
       <c r="JM57" s="7">
         <v>190203</v>
       </c>
+      <c r="JN57" s="7">
+        <v>190019</v>
+      </c>
+      <c r="JO57" s="44"/>
     </row>
-    <row r="58" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
@@ -51544,8 +51765,12 @@
       <c r="JM58" s="7">
         <v>32677</v>
       </c>
+      <c r="JN58" s="7">
+        <v>32687</v>
+      </c>
+      <c r="JO58" s="44"/>
     </row>
-    <row r="59" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
@@ -52363,8 +52588,12 @@
       <c r="JM59" s="7">
         <v>6406</v>
       </c>
+      <c r="JN59" s="7">
+        <v>6473</v>
+      </c>
+      <c r="JO59" s="44"/>
     </row>
-    <row r="60" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
@@ -53182,8 +53411,12 @@
       <c r="JM60" s="7">
         <v>43708</v>
       </c>
+      <c r="JN60" s="7">
+        <v>46510</v>
+      </c>
+      <c r="JO60" s="44"/>
     </row>
-    <row r="61" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
@@ -54001,8 +54234,12 @@
       <c r="JM61" s="8">
         <v>139</v>
       </c>
+      <c r="JN61" s="8">
+        <v>140</v>
+      </c>
+      <c r="JO61" s="44"/>
     </row>
-    <row r="62" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
@@ -54820,8 +55057,12 @@
       <c r="JM62" s="7">
         <v>19992</v>
       </c>
+      <c r="JN62" s="7">
+        <v>20112</v>
+      </c>
+      <c r="JO62" s="44"/>
     </row>
-    <row r="63" spans="1:273" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
@@ -55639,8 +55880,12 @@
       <c r="JM63" s="7">
         <v>33889</v>
       </c>
+      <c r="JN63" s="7">
+        <v>33993</v>
+      </c>
+      <c r="JO63" s="44"/>
     </row>
-    <row r="64" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
@@ -56458,8 +56703,12 @@
       <c r="JM64" s="7">
         <v>48719</v>
       </c>
+      <c r="JN64" s="7">
+        <v>48426</v>
+      </c>
+      <c r="JO64" s="44"/>
     </row>
-    <row r="65" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
@@ -57277,8 +57526,12 @@
       <c r="JM65" s="7">
         <v>166373</v>
       </c>
+      <c r="JN65" s="7">
+        <v>167622</v>
+      </c>
+      <c r="JO65" s="44"/>
     </row>
-    <row r="66" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
@@ -58096,8 +58349,12 @@
       <c r="JM66" s="7">
         <v>19119</v>
       </c>
+      <c r="JN66" s="7">
+        <v>18822</v>
+      </c>
+      <c r="JO66" s="44"/>
     </row>
-    <row r="67" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
@@ -58915,8 +59172,12 @@
       <c r="JM67" s="7">
         <v>6221</v>
       </c>
+      <c r="JN67" s="7">
+        <v>6285</v>
+      </c>
+      <c r="JO67" s="44"/>
     </row>
-    <row r="68" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
@@ -59713,7 +59974,7 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f t="shared" ref="JF68:JM68" si="12">SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JN68" si="12">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
@@ -59733,7 +59994,7 @@
         <v>630421</v>
       </c>
       <c r="JK68" s="10">
-        <f t="shared" ref="JK68:JL68" si="13">SUM(JK54:JK67)</f>
+        <f t="shared" ref="JK68:JM68" si="13">SUM(JK54:JK67)</f>
         <v>632610</v>
       </c>
       <c r="JL68" s="10">
@@ -59741,11 +60002,14 @@
         <v>634764</v>
       </c>
       <c r="JM68" s="10">
+        <f t="shared" si="13"/>
+        <v>632848</v>
+      </c>
+      <c r="JN68" s="10">
         <f t="shared" si="12"/>
-        <v>632848</v>
-      </c>
-      <c r="JN68" s="29"/>
-      <c r="JO68" s="29"/>
+        <v>636862</v>
+      </c>
+      <c r="JO68" s="44"/>
       <c r="JP68" s="29"/>
       <c r="JQ68" s="29"/>
       <c r="JR68" s="29"/>
@@ -60201,7 +60465,7 @@
       <c r="AAZ68" s="29"/>
       <c r="ABA68" s="29"/>
       <c r="ABB68" s="29"/>
-      <c r="ABC68" s="5"/>
+      <c r="ABC68" s="29"/>
       <c r="ABD68" s="5"/>
       <c r="ABE68" s="5"/>
       <c r="ABF68" s="5"/>
@@ -60382,8 +60646,9 @@
       <c r="AHY68" s="5"/>
       <c r="AHZ68" s="5"/>
       <c r="AIA68" s="5"/>
+      <c r="AIB68" s="5"/>
     </row>
-    <row r="69" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A69" s="42" t="s">
         <v>306</v>
       </c>
@@ -61203,8 +61468,12 @@
       <c r="JM69" s="7">
         <v>9745</v>
       </c>
+      <c r="JN69" s="7">
+        <v>9704</v>
+      </c>
+      <c r="JO69" s="44"/>
     </row>
-    <row r="70" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
@@ -62022,8 +62291,12 @@
       <c r="JM70" s="7">
         <v>862</v>
       </c>
+      <c r="JN70" s="7">
+        <v>870</v>
+      </c>
+      <c r="JO70" s="44"/>
     </row>
-    <row r="71" spans="1:911" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
@@ -62841,8 +63114,12 @@
       <c r="JM71" s="7">
         <v>32774</v>
       </c>
+      <c r="JN71" s="7">
+        <v>33027</v>
+      </c>
+      <c r="JO71" s="44"/>
     </row>
-    <row r="72" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
@@ -63660,8 +63937,12 @@
       <c r="JM72" s="7">
         <v>4258</v>
       </c>
+      <c r="JN72" s="7">
+        <v>4286</v>
+      </c>
+      <c r="JO72" s="44"/>
     </row>
-    <row r="73" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
@@ -64479,8 +64760,12 @@
       <c r="JM73" s="8">
         <v>548</v>
       </c>
+      <c r="JN73" s="8">
+        <v>514</v>
+      </c>
+      <c r="JO73" s="44"/>
     </row>
-    <row r="74" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
@@ -65298,8 +65583,12 @@
       <c r="JM74" s="7">
         <v>53198</v>
       </c>
+      <c r="JN74" s="7">
+        <v>53207</v>
+      </c>
+      <c r="JO74" s="44"/>
     </row>
-    <row r="75" spans="1:911" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
@@ -66096,7 +66385,7 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f t="shared" ref="JF75:JM75" si="14">SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JN75" si="14">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
@@ -66116,7 +66405,7 @@
         <v>100160</v>
       </c>
       <c r="JK75" s="10">
-        <f t="shared" ref="JK75:JL75" si="15">SUM(JK69:JK74)</f>
+        <f t="shared" ref="JK75:JM75" si="15">SUM(JK69:JK74)</f>
         <v>100656</v>
       </c>
       <c r="JL75" s="10">
@@ -66124,11 +66413,14 @@
         <v>101579</v>
       </c>
       <c r="JM75" s="10">
+        <f t="shared" si="15"/>
+        <v>101385</v>
+      </c>
+      <c r="JN75" s="10">
         <f t="shared" si="14"/>
-        <v>101385</v>
-      </c>
-      <c r="JN75" s="29"/>
-      <c r="JO75" s="29"/>
+        <v>101608</v>
+      </c>
+      <c r="JO75" s="44"/>
       <c r="JP75" s="29"/>
       <c r="JQ75" s="29"/>
       <c r="JR75" s="29"/>
@@ -66584,7 +66876,7 @@
       <c r="AAZ75" s="29"/>
       <c r="ABA75" s="29"/>
       <c r="ABB75" s="29"/>
-      <c r="ABC75" s="5"/>
+      <c r="ABC75" s="29"/>
       <c r="ABD75" s="5"/>
       <c r="ABE75" s="5"/>
       <c r="ABF75" s="5"/>
@@ -66765,8 +67057,9 @@
       <c r="AHY75" s="5"/>
       <c r="AHZ75" s="5"/>
       <c r="AIA75" s="5"/>
+      <c r="AIB75" s="5"/>
     </row>
-    <row r="76" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -67564,7 +67857,7 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f t="shared" ref="JF76:JM76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JN76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
@@ -67584,7 +67877,7 @@
         <v>1884715</v>
       </c>
       <c r="JK76" s="19">
-        <f t="shared" ref="JK76:JL76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
+        <f t="shared" ref="JK76:JM76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
         <v>1888232</v>
       </c>
       <c r="JL76" s="19">
@@ -67592,11 +67885,15 @@
         <v>1896755</v>
       </c>
       <c r="JM76" s="19">
+        <f t="shared" si="17"/>
+        <v>1896517</v>
+      </c>
+      <c r="JN76" s="19">
         <f t="shared" si="16"/>
-        <v>1896517</v>
+        <v>1910627</v>
       </c>
     </row>
-    <row r="77" spans="1:911" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:912" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -67865,7 +68162,7 @@
       <c r="JK77" s="30"/>
       <c r="JL77" s="30"/>
       <c r="JM77" s="30"/>
-      <c r="JN77" s="27"/>
+      <c r="JN77" s="30"/>
       <c r="JO77" s="27"/>
       <c r="JP77" s="27"/>
       <c r="JQ77" s="27"/>
@@ -68322,8 +68619,9 @@
       <c r="AAZ77" s="27"/>
       <c r="ABA77" s="27"/>
       <c r="ABB77" s="27"/>
+      <c r="ABC77" s="27"/>
     </row>
-    <row r="78" spans="1:911" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
@@ -68349,7 +68647,7 @@
     <mergeCell ref="A28:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
-    <mergeCell ref="JG4:JM4"/>
+    <mergeCell ref="JG4:JN4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="349">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1087,6 +1087,9 @@
   <si>
     <t>2022/agosto</t>
   </si>
+  <si>
+    <t>2022/septiembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1691,7 +1694,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1815,9 +1818,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2178,7 +2178,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="JF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JP33" sqref="JP33"/>
+      <selection pane="topRight" activeCell="JQ11" sqref="JQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2449,8 @@
     <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
     <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="275" max="731" width="10.875" style="28"/>
+    <col min="275" max="275" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="276" max="731" width="10.875" style="28"/>
     <col min="732" max="912" width="10.875" style="4"/>
     <col min="913" max="16384" width="10.875" style="3"/>
   </cols>
@@ -2789,7 +2790,7 @@
       <c r="JL4" s="38"/>
       <c r="JM4" s="38"/>
       <c r="JN4" s="38"/>
-      <c r="JO4" s="29"/>
+      <c r="JO4" s="38"/>
       <c r="JP4" s="29"/>
       <c r="JQ4" s="29"/>
       <c r="JR4" s="29"/>
@@ -4247,7 +4248,9 @@
       <c r="JN5" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="JO5" s="29"/>
+      <c r="JO5" s="31" t="s">
+        <v>348</v>
+      </c>
       <c r="JP5" s="29"/>
       <c r="JQ5" s="29"/>
       <c r="JR5" s="29"/>
@@ -5709,7 +5712,9 @@
       <c r="JN6" s="7">
         <v>90473</v>
       </c>
-      <c r="JO6" s="44"/>
+      <c r="JO6" s="7">
+        <v>94353</v>
+      </c>
     </row>
     <row r="7" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
@@ -6532,7 +6537,9 @@
       <c r="JN7" s="8">
         <v>47</v>
       </c>
-      <c r="JO7" s="44"/>
+      <c r="JO7" s="8">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
@@ -7355,7 +7362,9 @@
       <c r="JN8" s="7">
         <v>23221</v>
       </c>
-      <c r="JO8" s="44"/>
+      <c r="JO8" s="7">
+        <v>23448</v>
+      </c>
     </row>
     <row r="9" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
@@ -8178,7 +8187,9 @@
       <c r="JN9" s="7">
         <v>1067</v>
       </c>
-      <c r="JO9" s="44"/>
+      <c r="JO9" s="7">
+        <v>835</v>
+      </c>
     </row>
     <row r="10" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
@@ -9001,7 +9012,9 @@
       <c r="JN10" s="8">
         <v>411</v>
       </c>
-      <c r="JO10" s="44"/>
+      <c r="JO10" s="8">
+        <v>405</v>
+      </c>
     </row>
     <row r="11" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
@@ -9835,7 +9848,10 @@
         <f t="shared" si="0"/>
         <v>115219</v>
       </c>
-      <c r="JO11" s="44"/>
+      <c r="JO11" s="10">
+        <f t="shared" ref="JO11" si="2">SUM(JO6:JO10)</f>
+        <v>119089</v>
+      </c>
       <c r="JP11" s="29"/>
       <c r="JQ11" s="29"/>
       <c r="JR11" s="29"/>
@@ -11297,7 +11313,9 @@
       <c r="JN12" s="7">
         <v>78354</v>
       </c>
-      <c r="JO12" s="44"/>
+      <c r="JO12" s="7">
+        <v>78693</v>
+      </c>
     </row>
     <row r="13" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
@@ -12120,7 +12138,9 @@
       <c r="JN13" s="7">
         <v>20836</v>
       </c>
-      <c r="JO13" s="44"/>
+      <c r="JO13" s="7">
+        <v>20883</v>
+      </c>
     </row>
     <row r="14" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
@@ -12943,7 +12963,9 @@
       <c r="JN14" s="7">
         <v>33678</v>
       </c>
-      <c r="JO14" s="44"/>
+      <c r="JO14" s="7">
+        <v>33945</v>
+      </c>
     </row>
     <row r="15" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
@@ -13766,7 +13788,9 @@
       <c r="JN15" s="7">
         <v>22637</v>
       </c>
-      <c r="JO15" s="44"/>
+      <c r="JO15" s="7">
+        <v>22472</v>
+      </c>
     </row>
     <row r="16" spans="1:912" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
@@ -14589,7 +14613,9 @@
       <c r="JN16" s="7">
         <v>15162</v>
       </c>
-      <c r="JO16" s="44"/>
+      <c r="JO16" s="7">
+        <v>15872</v>
+      </c>
     </row>
     <row r="17" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
@@ -15412,7 +15438,9 @@
       <c r="JN17" s="7">
         <v>48963</v>
       </c>
-      <c r="JO17" s="44"/>
+      <c r="JO17" s="7">
+        <v>49096</v>
+      </c>
     </row>
     <row r="18" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
@@ -16235,7 +16263,9 @@
       <c r="JN18" s="7">
         <v>60592</v>
       </c>
-      <c r="JO18" s="44"/>
+      <c r="JO18" s="7">
+        <v>60738</v>
+      </c>
     </row>
     <row r="19" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
@@ -17058,7 +17088,9 @@
       <c r="JN19" s="7">
         <v>68068</v>
       </c>
-      <c r="JO19" s="44"/>
+      <c r="JO19" s="7">
+        <v>68456</v>
+      </c>
     </row>
     <row r="20" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
@@ -17881,7 +17913,9 @@
       <c r="JN20" s="7">
         <v>46170</v>
       </c>
-      <c r="JO20" s="44"/>
+      <c r="JO20" s="7">
+        <v>46857</v>
+      </c>
     </row>
     <row r="21" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
@@ -18680,42 +18714,45 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f t="shared" ref="JF21:JN21" si="2">SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JN21" si="3">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>388222</v>
       </c>
       <c r="JH21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>388746</v>
       </c>
       <c r="JI21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>389036</v>
       </c>
       <c r="JJ21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>389372</v>
       </c>
       <c r="JK21" s="10">
-        <f t="shared" ref="JK21:JM21" si="3">SUM(JK12:JK20)</f>
+        <f t="shared" ref="JK21:JM21" si="4">SUM(JK12:JK20)</f>
         <v>390157</v>
       </c>
       <c r="JL21" s="10">
+        <f t="shared" si="4"/>
+        <v>393243</v>
+      </c>
+      <c r="JM21" s="10">
+        <f t="shared" si="4"/>
+        <v>392581</v>
+      </c>
+      <c r="JN21" s="10">
         <f t="shared" si="3"/>
-        <v>393243</v>
-      </c>
-      <c r="JM21" s="10">
-        <f t="shared" si="3"/>
-        <v>392581</v>
-      </c>
-      <c r="JN21" s="10">
-        <f t="shared" si="2"/>
         <v>394460</v>
       </c>
-      <c r="JO21" s="44"/>
+      <c r="JO21" s="10">
+        <f t="shared" ref="JO21" si="5">SUM(JO12:JO20)</f>
+        <v>397012</v>
+      </c>
       <c r="JP21" s="29"/>
       <c r="JQ21" s="29"/>
       <c r="JR21" s="29"/>
@@ -20177,7 +20214,9 @@
       <c r="JN22" s="7">
         <v>108318</v>
       </c>
-      <c r="JO22" s="44"/>
+      <c r="JO22" s="7">
+        <v>108423</v>
+      </c>
     </row>
     <row r="23" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
@@ -21000,7 +21039,9 @@
       <c r="JN23" s="7">
         <v>36323</v>
       </c>
-      <c r="JO23" s="44"/>
+      <c r="JO23" s="7">
+        <v>36740</v>
+      </c>
     </row>
     <row r="24" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
@@ -21799,42 +21840,45 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f t="shared" ref="JF24:JN24" si="4">SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JN24" si="6">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>135688</v>
       </c>
       <c r="JH24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>136388</v>
       </c>
       <c r="JI24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>137344</v>
       </c>
       <c r="JJ24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>137135</v>
       </c>
       <c r="JK24" s="10">
-        <f t="shared" ref="JK24:JM24" si="5">SUM(JK22:JK23)</f>
+        <f t="shared" ref="JK24:JM24" si="7">SUM(JK22:JK23)</f>
         <v>139462</v>
       </c>
       <c r="JL24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>140587</v>
       </c>
       <c r="JM24" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>142342</v>
       </c>
       <c r="JN24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>144641</v>
       </c>
-      <c r="JO24" s="44"/>
+      <c r="JO24" s="10">
+        <f t="shared" ref="JO24" si="8">SUM(JO22:JO23)</f>
+        <v>145163</v>
+      </c>
       <c r="JP24" s="29"/>
       <c r="JQ24" s="29"/>
       <c r="JR24" s="29"/>
@@ -23296,7 +23340,9 @@
       <c r="JN25" s="7">
         <v>4326</v>
       </c>
-      <c r="JO25" s="44"/>
+      <c r="JO25" s="7">
+        <v>4292</v>
+      </c>
     </row>
     <row r="26" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
@@ -24119,7 +24165,9 @@
       <c r="JN26" s="7">
         <v>5437</v>
       </c>
-      <c r="JO26" s="44"/>
+      <c r="JO26" s="7">
+        <v>5394</v>
+      </c>
     </row>
     <row r="27" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
@@ -24918,42 +24966,45 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f t="shared" ref="JF27:JN27" si="6">SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JN27" si="9">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9433</v>
       </c>
       <c r="JH27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9550</v>
       </c>
       <c r="JI27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9619</v>
       </c>
       <c r="JJ27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9540</v>
       </c>
       <c r="JK27" s="10">
-        <f t="shared" ref="JK27:JM27" si="7">SUM(JK25:JK26)</f>
+        <f t="shared" ref="JK27:JM27" si="10">SUM(JK25:JK26)</f>
         <v>9600</v>
       </c>
       <c r="JL27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9738</v>
       </c>
       <c r="JM27" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9682</v>
       </c>
       <c r="JN27" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9763</v>
       </c>
-      <c r="JO27" s="44"/>
+      <c r="JO27" s="10">
+        <f t="shared" ref="JO27" si="11">SUM(JO25:JO26)</f>
+        <v>9686</v>
+      </c>
       <c r="JP27" s="29"/>
       <c r="JQ27" s="29"/>
       <c r="JR27" s="29"/>
@@ -26415,7 +26466,9 @@
       <c r="JN28" s="7">
         <v>883</v>
       </c>
-      <c r="JO28" s="44"/>
+      <c r="JO28" s="7">
+        <v>886</v>
+      </c>
     </row>
     <row r="29" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
@@ -27238,7 +27291,9 @@
       <c r="JN29" s="7">
         <v>10614</v>
       </c>
-      <c r="JO29" s="44"/>
+      <c r="JO29" s="7">
+        <v>11561</v>
+      </c>
     </row>
     <row r="30" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
@@ -28061,7 +28116,9 @@
       <c r="JN30" s="7">
         <v>29700</v>
       </c>
-      <c r="JO30" s="44"/>
+      <c r="JO30" s="7">
+        <v>29640</v>
+      </c>
     </row>
     <row r="31" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
@@ -28884,7 +28941,9 @@
       <c r="JN31" s="7">
         <v>104119</v>
       </c>
-      <c r="JO31" s="44"/>
+      <c r="JO31" s="7">
+        <v>104468</v>
+      </c>
     </row>
     <row r="32" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
@@ -29707,7 +29766,9 @@
       <c r="JN32" s="7">
         <v>25657</v>
       </c>
-      <c r="JO32" s="44"/>
+      <c r="JO32" s="7">
+        <v>26088</v>
+      </c>
     </row>
     <row r="33" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
@@ -30530,7 +30591,9 @@
       <c r="JN33" s="7">
         <v>9812</v>
       </c>
-      <c r="JO33" s="44"/>
+      <c r="JO33" s="7">
+        <v>9833</v>
+      </c>
     </row>
     <row r="34" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
@@ -31353,7 +31416,9 @@
       <c r="JN34" s="7">
         <v>44139</v>
       </c>
-      <c r="JO34" s="44"/>
+      <c r="JO34" s="7">
+        <v>44045</v>
+      </c>
     </row>
     <row r="35" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
@@ -32176,7 +32241,9 @@
       <c r="JN35" s="7">
         <v>10621</v>
       </c>
-      <c r="JO35" s="44"/>
+      <c r="JO35" s="7">
+        <v>10855</v>
+      </c>
     </row>
     <row r="36" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
@@ -32999,7 +33066,9 @@
       <c r="JN36" s="7">
         <v>53618</v>
       </c>
-      <c r="JO36" s="44"/>
+      <c r="JO36" s="7">
+        <v>53957</v>
+      </c>
     </row>
     <row r="37" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
@@ -33822,7 +33891,9 @@
       <c r="JN37" s="7">
         <v>70608</v>
       </c>
-      <c r="JO37" s="44"/>
+      <c r="JO37" s="7">
+        <v>72034</v>
+      </c>
     </row>
     <row r="38" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
@@ -34645,7 +34716,9 @@
       <c r="JN38" s="7">
         <v>21970</v>
       </c>
-      <c r="JO38" s="44"/>
+      <c r="JO38" s="7">
+        <v>21986</v>
+      </c>
     </row>
     <row r="39" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
@@ -35468,7 +35541,9 @@
       <c r="JN39" s="7">
         <v>23733</v>
       </c>
-      <c r="JO39" s="44"/>
+      <c r="JO39" s="7">
+        <v>23991</v>
+      </c>
     </row>
     <row r="40" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
@@ -36291,7 +36366,9 @@
       <c r="JN40" s="7">
         <v>12070</v>
       </c>
-      <c r="JO40" s="44"/>
+      <c r="JO40" s="7">
+        <v>12107</v>
+      </c>
     </row>
     <row r="41" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
@@ -37114,7 +37191,9 @@
       <c r="JN41" s="7">
         <v>10909</v>
       </c>
-      <c r="JO41" s="44"/>
+      <c r="JO41" s="7">
+        <v>11124</v>
+      </c>
     </row>
     <row r="42" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
@@ -37937,7 +38016,9 @@
       <c r="JN42" s="7">
         <v>44320</v>
       </c>
-      <c r="JO42" s="44"/>
+      <c r="JO42" s="7">
+        <v>44328</v>
+      </c>
     </row>
     <row r="43" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
@@ -38760,7 +38841,9 @@
       <c r="JN43" s="7">
         <v>4927</v>
       </c>
-      <c r="JO43" s="44"/>
+      <c r="JO43" s="7">
+        <v>4923</v>
+      </c>
     </row>
     <row r="44" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
@@ -39583,7 +39666,9 @@
       <c r="JN44" s="7">
         <v>5824</v>
       </c>
-      <c r="JO44" s="44"/>
+      <c r="JO44" s="7">
+        <v>5943</v>
+      </c>
     </row>
     <row r="45" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
@@ -40406,7 +40491,9 @@
       <c r="JN45" s="7">
         <v>7197</v>
       </c>
-      <c r="JO45" s="44"/>
+      <c r="JO45" s="7">
+        <v>7193</v>
+      </c>
     </row>
     <row r="46" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
@@ -41229,7 +41316,9 @@
       <c r="JN46" s="7">
         <v>13280</v>
       </c>
-      <c r="JO46" s="44"/>
+      <c r="JO46" s="7">
+        <v>13316</v>
+      </c>
     </row>
     <row r="47" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
@@ -42052,7 +42141,9 @@
       <c r="JN47" s="7">
         <v>1596</v>
       </c>
-      <c r="JO47" s="44"/>
+      <c r="JO47" s="7">
+        <v>1596</v>
+      </c>
     </row>
     <row r="48" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
@@ -42851,42 +42942,45 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f t="shared" ref="JF48:JN48" si="8">SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JN48" si="12">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>483047</v>
       </c>
       <c r="JH48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>487818</v>
       </c>
       <c r="JI48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>493413</v>
       </c>
       <c r="JJ48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>494824</v>
       </c>
       <c r="JK48" s="10">
-        <f t="shared" ref="JK48:JM48" si="9">SUM(JK28:JK47)</f>
+        <f t="shared" ref="JK48:JM48" si="13">SUM(JK28:JK47)</f>
         <v>496682</v>
       </c>
       <c r="JL48" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>499541</v>
       </c>
       <c r="JM48" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>502349</v>
       </c>
       <c r="JN48" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>505597</v>
       </c>
-      <c r="JO48" s="44"/>
+      <c r="JO48" s="10">
+        <f t="shared" ref="JO48" si="14">SUM(JO28:JO47)</f>
+        <v>509874</v>
+      </c>
       <c r="JP48" s="29"/>
       <c r="JQ48" s="29"/>
       <c r="JR48" s="29"/>
@@ -44348,7 +44442,9 @@
       <c r="JN49" s="8">
         <v>13</v>
       </c>
-      <c r="JO49" s="44"/>
+      <c r="JO49" s="8">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
@@ -45171,7 +45267,9 @@
       <c r="JN50" s="8">
         <v>14</v>
       </c>
-      <c r="JO50" s="44"/>
+      <c r="JO50" s="8">
+        <v>24</v>
+      </c>
     </row>
     <row r="51" spans="1:275" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
@@ -45994,7 +46092,9 @@
       <c r="JN51" s="7">
         <v>1439</v>
       </c>
-      <c r="JO51" s="44"/>
+      <c r="JO51" s="7">
+        <v>1490</v>
+      </c>
     </row>
     <row r="52" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
@@ -46817,7 +46917,9 @@
       <c r="JN52" s="7">
         <v>1011</v>
       </c>
-      <c r="JO52" s="44"/>
+      <c r="JO52" s="7">
+        <v>992</v>
+      </c>
     </row>
     <row r="53" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
@@ -47616,42 +47718,45 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f t="shared" ref="JF53:JN53" si="10">SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JN53" si="15">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2642</v>
       </c>
       <c r="JH53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2643</v>
       </c>
       <c r="JI53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2577</v>
       </c>
       <c r="JJ53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2556</v>
       </c>
       <c r="JK53" s="10">
-        <f t="shared" ref="JK53:JM53" si="11">SUM(JK49:JK52)</f>
+        <f t="shared" ref="JK53:JM53" si="16">SUM(JK49:JK52)</f>
         <v>2538</v>
       </c>
       <c r="JL53" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2538</v>
       </c>
       <c r="JM53" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2465</v>
       </c>
       <c r="JN53" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2477</v>
       </c>
-      <c r="JO53" s="44"/>
+      <c r="JO53" s="10">
+        <f t="shared" ref="JO53" si="17">SUM(JO49:JO52)</f>
+        <v>2518</v>
+      </c>
     </row>
     <row r="54" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
@@ -48476,7 +48581,9 @@
       <c r="JN54" s="36">
         <v>5710</v>
       </c>
-      <c r="JO54" s="44"/>
+      <c r="JO54" s="36">
+        <v>5669</v>
+      </c>
     </row>
     <row r="55" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
@@ -49299,7 +49406,9 @@
       <c r="JN55" s="7">
         <v>52859</v>
       </c>
-      <c r="JO55" s="44"/>
+      <c r="JO55" s="7">
+        <v>52860</v>
+      </c>
     </row>
     <row r="56" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
@@ -50122,7 +50231,9 @@
       <c r="JN56" s="7">
         <v>7204</v>
       </c>
-      <c r="JO56" s="44"/>
+      <c r="JO56" s="7">
+        <v>7199</v>
+      </c>
     </row>
     <row r="57" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
@@ -50945,7 +51056,9 @@
       <c r="JN57" s="7">
         <v>190019</v>
       </c>
-      <c r="JO57" s="44"/>
+      <c r="JO57" s="7">
+        <v>189397</v>
+      </c>
     </row>
     <row r="58" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
@@ -51768,7 +51881,9 @@
       <c r="JN58" s="7">
         <v>32687</v>
       </c>
-      <c r="JO58" s="44"/>
+      <c r="JO58" s="7">
+        <v>33538</v>
+      </c>
     </row>
     <row r="59" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
@@ -52591,7 +52706,9 @@
       <c r="JN59" s="7">
         <v>6473</v>
       </c>
-      <c r="JO59" s="44"/>
+      <c r="JO59" s="7">
+        <v>6516</v>
+      </c>
     </row>
     <row r="60" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
@@ -53414,7 +53531,9 @@
       <c r="JN60" s="7">
         <v>46510</v>
       </c>
-      <c r="JO60" s="44"/>
+      <c r="JO60" s="7">
+        <v>49446</v>
+      </c>
     </row>
     <row r="61" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
@@ -54237,7 +54356,9 @@
       <c r="JN61" s="8">
         <v>140</v>
       </c>
-      <c r="JO61" s="44"/>
+      <c r="JO61" s="8">
+        <v>139</v>
+      </c>
     </row>
     <row r="62" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
@@ -55060,7 +55181,9 @@
       <c r="JN62" s="7">
         <v>20112</v>
       </c>
-      <c r="JO62" s="44"/>
+      <c r="JO62" s="7">
+        <v>20170</v>
+      </c>
     </row>
     <row r="63" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
@@ -55883,7 +56006,9 @@
       <c r="JN63" s="7">
         <v>33993</v>
       </c>
-      <c r="JO63" s="44"/>
+      <c r="JO63" s="7">
+        <v>34047</v>
+      </c>
     </row>
     <row r="64" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
@@ -56706,7 +56831,9 @@
       <c r="JN64" s="7">
         <v>48426</v>
       </c>
-      <c r="JO64" s="44"/>
+      <c r="JO64" s="7">
+        <v>48792</v>
+      </c>
     </row>
     <row r="65" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
@@ -57529,7 +57656,9 @@
       <c r="JN65" s="7">
         <v>167622</v>
       </c>
-      <c r="JO65" s="44"/>
+      <c r="JO65" s="7">
+        <v>167313</v>
+      </c>
     </row>
     <row r="66" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
@@ -58352,7 +58481,9 @@
       <c r="JN66" s="7">
         <v>18822</v>
       </c>
-      <c r="JO66" s="44"/>
+      <c r="JO66" s="7">
+        <v>18847</v>
+      </c>
     </row>
     <row r="67" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
@@ -59175,7 +59306,9 @@
       <c r="JN67" s="7">
         <v>6285</v>
       </c>
-      <c r="JO67" s="44"/>
+      <c r="JO67" s="7">
+        <v>6324</v>
+      </c>
     </row>
     <row r="68" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
@@ -59974,42 +60107,45 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f t="shared" ref="JF68:JN68" si="12">SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JN68" si="18">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>622201</v>
       </c>
       <c r="JH68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>626630</v>
       </c>
       <c r="JI68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>630046</v>
       </c>
       <c r="JJ68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>630421</v>
       </c>
       <c r="JK68" s="10">
-        <f t="shared" ref="JK68:JM68" si="13">SUM(JK54:JK67)</f>
+        <f t="shared" ref="JK68:JM68" si="19">SUM(JK54:JK67)</f>
         <v>632610</v>
       </c>
       <c r="JL68" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>634764</v>
       </c>
       <c r="JM68" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>632848</v>
       </c>
       <c r="JN68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>636862</v>
       </c>
-      <c r="JO68" s="44"/>
+      <c r="JO68" s="10">
+        <f t="shared" ref="JO68" si="20">SUM(JO54:JO67)</f>
+        <v>640257</v>
+      </c>
       <c r="JP68" s="29"/>
       <c r="JQ68" s="29"/>
       <c r="JR68" s="29"/>
@@ -61471,7 +61607,9 @@
       <c r="JN69" s="7">
         <v>9704</v>
       </c>
-      <c r="JO69" s="44"/>
+      <c r="JO69" s="7">
+        <v>9776</v>
+      </c>
     </row>
     <row r="70" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
@@ -62294,7 +62432,9 @@
       <c r="JN70" s="7">
         <v>870</v>
       </c>
-      <c r="JO70" s="44"/>
+      <c r="JO70" s="7">
+        <v>855</v>
+      </c>
     </row>
     <row r="71" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
@@ -63117,7 +63257,9 @@
       <c r="JN71" s="7">
         <v>33027</v>
       </c>
-      <c r="JO71" s="44"/>
+      <c r="JO71" s="7">
+        <v>34548</v>
+      </c>
     </row>
     <row r="72" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
@@ -63940,7 +64082,9 @@
       <c r="JN72" s="7">
         <v>4286</v>
       </c>
-      <c r="JO72" s="44"/>
+      <c r="JO72" s="7">
+        <v>4302</v>
+      </c>
     </row>
     <row r="73" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
@@ -64763,7 +64907,9 @@
       <c r="JN73" s="8">
         <v>514</v>
       </c>
-      <c r="JO73" s="44"/>
+      <c r="JO73" s="8">
+        <v>569</v>
+      </c>
     </row>
     <row r="74" spans="1:912" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
@@ -65586,7 +65732,9 @@
       <c r="JN74" s="7">
         <v>53207</v>
       </c>
-      <c r="JO74" s="44"/>
+      <c r="JO74" s="7">
+        <v>53998</v>
+      </c>
     </row>
     <row r="75" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
@@ -66385,42 +66533,45 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f t="shared" ref="JF75:JN75" si="14">SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JN75" si="21">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>98343</v>
       </c>
       <c r="JH75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>99545</v>
       </c>
       <c r="JI75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>99824</v>
       </c>
       <c r="JJ75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>100160</v>
       </c>
       <c r="JK75" s="10">
-        <f t="shared" ref="JK75:JM75" si="15">SUM(JK69:JK74)</f>
+        <f t="shared" ref="JK75:JM75" si="22">SUM(JK69:JK74)</f>
         <v>100656</v>
       </c>
       <c r="JL75" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>101579</v>
       </c>
       <c r="JM75" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>101385</v>
       </c>
       <c r="JN75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>101608</v>
       </c>
-      <c r="JO75" s="44"/>
+      <c r="JO75" s="10">
+        <f t="shared" ref="JO75" si="23">SUM(JO69:JO74)</f>
+        <v>104048</v>
+      </c>
       <c r="JP75" s="29"/>
       <c r="JQ75" s="29"/>
       <c r="JR75" s="29"/>
@@ -67857,40 +68008,44 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f t="shared" ref="JF76:JN76" si="16">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JN76" si="24">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1861159</v>
       </c>
       <c r="JH76" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1874622</v>
       </c>
       <c r="JI76" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1886776</v>
       </c>
       <c r="JJ76" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1884715</v>
       </c>
       <c r="JK76" s="19">
-        <f t="shared" ref="JK76:JM76" si="17">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
+        <f t="shared" ref="JK76:JM76" si="25">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
         <v>1888232</v>
       </c>
       <c r="JL76" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1896755</v>
       </c>
       <c r="JM76" s="19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1896517</v>
       </c>
       <c r="JN76" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1910627</v>
+      </c>
+      <c r="JO76" s="19">
+        <f t="shared" ref="JO76" si="26">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <v>1927647</v>
       </c>
     </row>
     <row r="77" spans="1:912" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -68163,7 +68318,7 @@
       <c r="JL77" s="30"/>
       <c r="JM77" s="30"/>
       <c r="JN77" s="30"/>
-      <c r="JO77" s="27"/>
+      <c r="JO77" s="30"/>
       <c r="JP77" s="27"/>
       <c r="JQ77" s="27"/>
       <c r="JR77" s="27"/>
@@ -68647,7 +68802,7 @@
     <mergeCell ref="A28:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
-    <mergeCell ref="JG4:JN4"/>
+    <mergeCell ref="JG4:JO4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="350">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1090,6 +1090,9 @@
   <si>
     <t>2022/septiembre</t>
   </si>
+  <si>
+    <t>2022/octubre</t>
+  </si>
 </sst>
 </file>
 
@@ -1801,8 +1804,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1812,12 +1821,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2174,11 +2177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIB78"/>
+  <dimension ref="A1:AIC78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JQ11" sqref="JQ11"/>
+      <pane xSplit="2" topLeftCell="JI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JS76" sqref="JS76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2449,349 +2452,349 @@
     <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
     <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="276" max="731" width="10.875" style="28"/>
-    <col min="732" max="912" width="10.875" style="4"/>
-    <col min="913" max="16384" width="10.875" style="3"/>
+    <col min="275" max="276" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="277" max="732" width="10.875" style="28"/>
+    <col min="733" max="913" width="10.875" style="4"/>
+    <col min="914" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <v>2000</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39">
         <v>2001</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39">
         <v>2002</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38">
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39">
         <v>2003</v>
       </c>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38">
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38">
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
+      <c r="BI4" s="39"/>
+      <c r="BJ4" s="39"/>
+      <c r="BK4" s="39">
         <v>2005</v>
       </c>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38">
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39"/>
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39">
         <v>2006</v>
       </c>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38">
+      <c r="BX4" s="39"/>
+      <c r="BY4" s="39"/>
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="38"/>
-      <c r="CU4" s="38">
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="39"/>
+      <c r="CL4" s="39"/>
+      <c r="CM4" s="39"/>
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39">
         <v>2008</v>
       </c>
-      <c r="CV4" s="38"/>
-      <c r="CW4" s="38"/>
-      <c r="CX4" s="38"/>
-      <c r="CY4" s="38"/>
-      <c r="CZ4" s="38"/>
-      <c r="DA4" s="38"/>
-      <c r="DB4" s="38"/>
-      <c r="DC4" s="38"/>
-      <c r="DD4" s="38"/>
-      <c r="DE4" s="38"/>
-      <c r="DF4" s="38"/>
-      <c r="DG4" s="38">
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
+      <c r="DA4" s="39"/>
+      <c r="DB4" s="39"/>
+      <c r="DC4" s="39"/>
+      <c r="DD4" s="39"/>
+      <c r="DE4" s="39"/>
+      <c r="DF4" s="39"/>
+      <c r="DG4" s="39">
         <v>2009</v>
       </c>
-      <c r="DH4" s="38"/>
-      <c r="DI4" s="38"/>
-      <c r="DJ4" s="38"/>
-      <c r="DK4" s="38"/>
-      <c r="DL4" s="38"/>
-      <c r="DM4" s="38"/>
-      <c r="DN4" s="38"/>
-      <c r="DO4" s="38"/>
-      <c r="DP4" s="38"/>
-      <c r="DQ4" s="38"/>
-      <c r="DR4" s="38"/>
-      <c r="DS4" s="38">
+      <c r="DH4" s="39"/>
+      <c r="DI4" s="39"/>
+      <c r="DJ4" s="39"/>
+      <c r="DK4" s="39"/>
+      <c r="DL4" s="39"/>
+      <c r="DM4" s="39"/>
+      <c r="DN4" s="39"/>
+      <c r="DO4" s="39"/>
+      <c r="DP4" s="39"/>
+      <c r="DQ4" s="39"/>
+      <c r="DR4" s="39"/>
+      <c r="DS4" s="39">
         <v>2010</v>
       </c>
-      <c r="DT4" s="38"/>
-      <c r="DU4" s="38"/>
-      <c r="DV4" s="38"/>
-      <c r="DW4" s="38"/>
-      <c r="DX4" s="38"/>
-      <c r="DY4" s="38"/>
-      <c r="DZ4" s="38"/>
-      <c r="EA4" s="38"/>
-      <c r="EB4" s="38"/>
-      <c r="EC4" s="38"/>
-      <c r="ED4" s="38"/>
-      <c r="EE4" s="38">
+      <c r="DT4" s="39"/>
+      <c r="DU4" s="39"/>
+      <c r="DV4" s="39"/>
+      <c r="DW4" s="39"/>
+      <c r="DX4" s="39"/>
+      <c r="DY4" s="39"/>
+      <c r="DZ4" s="39"/>
+      <c r="EA4" s="39"/>
+      <c r="EB4" s="39"/>
+      <c r="EC4" s="39"/>
+      <c r="ED4" s="39"/>
+      <c r="EE4" s="39">
         <v>2011</v>
       </c>
-      <c r="EF4" s="38"/>
-      <c r="EG4" s="38"/>
-      <c r="EH4" s="38"/>
-      <c r="EI4" s="38"/>
-      <c r="EJ4" s="38"/>
-      <c r="EK4" s="38"/>
-      <c r="EL4" s="38"/>
-      <c r="EM4" s="38"/>
-      <c r="EN4" s="38"/>
-      <c r="EO4" s="38"/>
-      <c r="EP4" s="38"/>
-      <c r="EQ4" s="38">
+      <c r="EF4" s="39"/>
+      <c r="EG4" s="39"/>
+      <c r="EH4" s="39"/>
+      <c r="EI4" s="39"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="39"/>
+      <c r="EO4" s="39"/>
+      <c r="EP4" s="39"/>
+      <c r="EQ4" s="39">
         <v>2012</v>
       </c>
-      <c r="ER4" s="38"/>
-      <c r="ES4" s="38"/>
-      <c r="ET4" s="38"/>
-      <c r="EU4" s="38"/>
-      <c r="EV4" s="38"/>
-      <c r="EW4" s="38"/>
-      <c r="EX4" s="38"/>
-      <c r="EY4" s="38"/>
-      <c r="EZ4" s="38"/>
-      <c r="FA4" s="38"/>
-      <c r="FB4" s="38"/>
-      <c r="FC4" s="38">
+      <c r="ER4" s="39"/>
+      <c r="ES4" s="39"/>
+      <c r="ET4" s="39"/>
+      <c r="EU4" s="39"/>
+      <c r="EV4" s="39"/>
+      <c r="EW4" s="39"/>
+      <c r="EX4" s="39"/>
+      <c r="EY4" s="39"/>
+      <c r="EZ4" s="39"/>
+      <c r="FA4" s="39"/>
+      <c r="FB4" s="39"/>
+      <c r="FC4" s="39">
         <v>2013</v>
       </c>
-      <c r="FD4" s="38"/>
-      <c r="FE4" s="38"/>
-      <c r="FF4" s="38"/>
-      <c r="FG4" s="38"/>
-      <c r="FH4" s="38"/>
-      <c r="FI4" s="38"/>
-      <c r="FJ4" s="38"/>
-      <c r="FK4" s="38"/>
-      <c r="FL4" s="38"/>
-      <c r="FM4" s="38"/>
-      <c r="FN4" s="38"/>
-      <c r="FO4" s="38">
+      <c r="FD4" s="39"/>
+      <c r="FE4" s="39"/>
+      <c r="FF4" s="39"/>
+      <c r="FG4" s="39"/>
+      <c r="FH4" s="39"/>
+      <c r="FI4" s="39"/>
+      <c r="FJ4" s="39"/>
+      <c r="FK4" s="39"/>
+      <c r="FL4" s="39"/>
+      <c r="FM4" s="39"/>
+      <c r="FN4" s="39"/>
+      <c r="FO4" s="39">
         <v>2014</v>
       </c>
-      <c r="FP4" s="38"/>
-      <c r="FQ4" s="38"/>
-      <c r="FR4" s="38"/>
-      <c r="FS4" s="38"/>
-      <c r="FT4" s="38"/>
-      <c r="FU4" s="38"/>
-      <c r="FV4" s="38"/>
-      <c r="FW4" s="38"/>
-      <c r="FX4" s="38"/>
-      <c r="FY4" s="38"/>
-      <c r="FZ4" s="38"/>
-      <c r="GA4" s="38">
+      <c r="FP4" s="39"/>
+      <c r="FQ4" s="39"/>
+      <c r="FR4" s="39"/>
+      <c r="FS4" s="39"/>
+      <c r="FT4" s="39"/>
+      <c r="FU4" s="39"/>
+      <c r="FV4" s="39"/>
+      <c r="FW4" s="39"/>
+      <c r="FX4" s="39"/>
+      <c r="FY4" s="39"/>
+      <c r="FZ4" s="39"/>
+      <c r="GA4" s="39">
         <v>2015</v>
       </c>
-      <c r="GB4" s="38"/>
-      <c r="GC4" s="38"/>
-      <c r="GD4" s="38"/>
-      <c r="GE4" s="38"/>
-      <c r="GF4" s="38"/>
-      <c r="GG4" s="38"/>
-      <c r="GH4" s="38"/>
-      <c r="GI4" s="38"/>
-      <c r="GJ4" s="38"/>
-      <c r="GK4" s="38"/>
-      <c r="GL4" s="38"/>
-      <c r="GM4" s="38">
+      <c r="GB4" s="39"/>
+      <c r="GC4" s="39"/>
+      <c r="GD4" s="39"/>
+      <c r="GE4" s="39"/>
+      <c r="GF4" s="39"/>
+      <c r="GG4" s="39"/>
+      <c r="GH4" s="39"/>
+      <c r="GI4" s="39"/>
+      <c r="GJ4" s="39"/>
+      <c r="GK4" s="39"/>
+      <c r="GL4" s="39"/>
+      <c r="GM4" s="39">
         <v>2016</v>
       </c>
-      <c r="GN4" s="38"/>
-      <c r="GO4" s="38"/>
-      <c r="GP4" s="38"/>
-      <c r="GQ4" s="38"/>
-      <c r="GR4" s="38"/>
-      <c r="GS4" s="38"/>
-      <c r="GT4" s="38"/>
-      <c r="GU4" s="38"/>
-      <c r="GV4" s="38"/>
-      <c r="GW4" s="38"/>
-      <c r="GX4" s="38"/>
-      <c r="GY4" s="38">
+      <c r="GN4" s="39"/>
+      <c r="GO4" s="39"/>
+      <c r="GP4" s="39"/>
+      <c r="GQ4" s="39"/>
+      <c r="GR4" s="39"/>
+      <c r="GS4" s="39"/>
+      <c r="GT4" s="39"/>
+      <c r="GU4" s="39"/>
+      <c r="GV4" s="39"/>
+      <c r="GW4" s="39"/>
+      <c r="GX4" s="39"/>
+      <c r="GY4" s="39">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="38"/>
-      <c r="HA4" s="38"/>
-      <c r="HB4" s="38"/>
-      <c r="HC4" s="38"/>
-      <c r="HD4" s="38"/>
-      <c r="HE4" s="38"/>
-      <c r="HF4" s="38"/>
-      <c r="HG4" s="38"/>
-      <c r="HH4" s="38"/>
-      <c r="HI4" s="38"/>
-      <c r="HJ4" s="38"/>
-      <c r="HK4" s="38">
+      <c r="GZ4" s="39"/>
+      <c r="HA4" s="39"/>
+      <c r="HB4" s="39"/>
+      <c r="HC4" s="39"/>
+      <c r="HD4" s="39"/>
+      <c r="HE4" s="39"/>
+      <c r="HF4" s="39"/>
+      <c r="HG4" s="39"/>
+      <c r="HH4" s="39"/>
+      <c r="HI4" s="39"/>
+      <c r="HJ4" s="39"/>
+      <c r="HK4" s="39">
         <v>2018</v>
       </c>
-      <c r="HL4" s="38"/>
-      <c r="HM4" s="38"/>
-      <c r="HN4" s="38"/>
-      <c r="HO4" s="38"/>
-      <c r="HP4" s="38"/>
-      <c r="HQ4" s="38"/>
-      <c r="HR4" s="38"/>
-      <c r="HS4" s="38"/>
-      <c r="HT4" s="38"/>
-      <c r="HU4" s="38"/>
-      <c r="HV4" s="38"/>
-      <c r="HW4" s="38">
+      <c r="HL4" s="39"/>
+      <c r="HM4" s="39"/>
+      <c r="HN4" s="39"/>
+      <c r="HO4" s="39"/>
+      <c r="HP4" s="39"/>
+      <c r="HQ4" s="39"/>
+      <c r="HR4" s="39"/>
+      <c r="HS4" s="39"/>
+      <c r="HT4" s="39"/>
+      <c r="HU4" s="39"/>
+      <c r="HV4" s="39"/>
+      <c r="HW4" s="39">
         <v>2019</v>
       </c>
-      <c r="HX4" s="38"/>
-      <c r="HY4" s="38"/>
-      <c r="HZ4" s="38"/>
-      <c r="IA4" s="38"/>
-      <c r="IB4" s="38"/>
-      <c r="IC4" s="38"/>
-      <c r="ID4" s="38"/>
-      <c r="IE4" s="38"/>
-      <c r="IF4" s="38"/>
-      <c r="IG4" s="38"/>
-      <c r="IH4" s="39"/>
-      <c r="II4" s="39">
+      <c r="HX4" s="39"/>
+      <c r="HY4" s="39"/>
+      <c r="HZ4" s="39"/>
+      <c r="IA4" s="39"/>
+      <c r="IB4" s="39"/>
+      <c r="IC4" s="39"/>
+      <c r="ID4" s="39"/>
+      <c r="IE4" s="39"/>
+      <c r="IF4" s="39"/>
+      <c r="IG4" s="39"/>
+      <c r="IH4" s="41"/>
+      <c r="II4" s="41">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="40"/>
-      <c r="IK4" s="40"/>
-      <c r="IL4" s="40"/>
-      <c r="IM4" s="40"/>
-      <c r="IN4" s="40"/>
-      <c r="IO4" s="40"/>
-      <c r="IP4" s="40"/>
-      <c r="IQ4" s="40"/>
-      <c r="IR4" s="40"/>
-      <c r="IS4" s="40"/>
-      <c r="IT4" s="41"/>
-      <c r="IU4" s="39">
+      <c r="IJ4" s="42"/>
+      <c r="IK4" s="42"/>
+      <c r="IL4" s="42"/>
+      <c r="IM4" s="42"/>
+      <c r="IN4" s="42"/>
+      <c r="IO4" s="42"/>
+      <c r="IP4" s="42"/>
+      <c r="IQ4" s="42"/>
+      <c r="IR4" s="42"/>
+      <c r="IS4" s="42"/>
+      <c r="IT4" s="43"/>
+      <c r="IU4" s="41">
         <v>2021</v>
       </c>
-      <c r="IV4" s="40"/>
-      <c r="IW4" s="40"/>
-      <c r="IX4" s="40"/>
-      <c r="IY4" s="40"/>
-      <c r="IZ4" s="40"/>
-      <c r="JA4" s="40"/>
-      <c r="JB4" s="40"/>
-      <c r="JC4" s="40"/>
-      <c r="JD4" s="40"/>
-      <c r="JE4" s="40"/>
-      <c r="JF4" s="41"/>
-      <c r="JG4" s="38">
+      <c r="IV4" s="42"/>
+      <c r="IW4" s="42"/>
+      <c r="IX4" s="42"/>
+      <c r="IY4" s="42"/>
+      <c r="IZ4" s="42"/>
+      <c r="JA4" s="42"/>
+      <c r="JB4" s="42"/>
+      <c r="JC4" s="42"/>
+      <c r="JD4" s="42"/>
+      <c r="JE4" s="42"/>
+      <c r="JF4" s="43"/>
+      <c r="JG4" s="39">
         <v>2022</v>
       </c>
-      <c r="JH4" s="38"/>
-      <c r="JI4" s="38"/>
-      <c r="JJ4" s="38"/>
-      <c r="JK4" s="38"/>
-      <c r="JL4" s="38"/>
-      <c r="JM4" s="38"/>
-      <c r="JN4" s="38"/>
-      <c r="JO4" s="38"/>
-      <c r="JP4" s="29"/>
+      <c r="JH4" s="39"/>
+      <c r="JI4" s="39"/>
+      <c r="JJ4" s="39"/>
+      <c r="JK4" s="39"/>
+      <c r="JL4" s="39"/>
+      <c r="JM4" s="39"/>
+      <c r="JN4" s="39"/>
+      <c r="JO4" s="39"/>
+      <c r="JP4" s="39"/>
       <c r="JQ4" s="29"/>
       <c r="JR4" s="29"/>
       <c r="JS4" s="29"/>
@@ -3247,7 +3250,7 @@
       <c r="ABA4" s="29"/>
       <c r="ABB4" s="29"/>
       <c r="ABC4" s="29"/>
-      <c r="ABD4" s="5"/>
+      <c r="ABD4" s="29"/>
       <c r="ABE4" s="5"/>
       <c r="ABF4" s="5"/>
       <c r="ABG4" s="5"/>
@@ -3428,10 +3431,11 @@
       <c r="AHZ4" s="5"/>
       <c r="AIA4" s="5"/>
       <c r="AIB4" s="5"/>
+      <c r="AIC4" s="5"/>
     </row>
-    <row r="5" spans="1:912" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="43"/>
+    <row r="5" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4251,7 +4255,9 @@
       <c r="JO5" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="JP5" s="29"/>
+      <c r="JP5" s="31" t="s">
+        <v>349</v>
+      </c>
       <c r="JQ5" s="29"/>
       <c r="JR5" s="29"/>
       <c r="JS5" s="29"/>
@@ -4707,7 +4713,7 @@
       <c r="ABA5" s="29"/>
       <c r="ABB5" s="29"/>
       <c r="ABC5" s="29"/>
-      <c r="ABD5" s="5"/>
+      <c r="ABD5" s="29"/>
       <c r="ABE5" s="5"/>
       <c r="ABF5" s="5"/>
       <c r="ABG5" s="5"/>
@@ -4888,9 +4894,10 @@
       <c r="AHZ5" s="5"/>
       <c r="AIA5" s="5"/>
       <c r="AIB5" s="5"/>
+      <c r="AIC5" s="5"/>
     </row>
-    <row r="6" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5715,9 +5722,12 @@
       <c r="JO6" s="7">
         <v>94353</v>
       </c>
+      <c r="JP6" s="7">
+        <v>96089</v>
+      </c>
     </row>
-    <row r="7" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6540,9 +6550,12 @@
       <c r="JO7" s="8">
         <v>48</v>
       </c>
+      <c r="JP7" s="8">
+        <v>48</v>
+      </c>
     </row>
-    <row r="8" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+    <row r="8" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7365,9 +7378,12 @@
       <c r="JO8" s="7">
         <v>23448</v>
       </c>
+      <c r="JP8" s="7">
+        <v>23820</v>
+      </c>
     </row>
-    <row r="9" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+    <row r="9" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8190,9 +8206,12 @@
       <c r="JO9" s="7">
         <v>835</v>
       </c>
+      <c r="JP9" s="7">
+        <v>867</v>
+      </c>
     </row>
-    <row r="10" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -9015,9 +9034,12 @@
       <c r="JO10" s="8">
         <v>405</v>
       </c>
+      <c r="JP10" s="8">
+        <v>431</v>
+      </c>
     </row>
-    <row r="11" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:913" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9849,10 +9871,13 @@
         <v>115219</v>
       </c>
       <c r="JO11" s="10">
-        <f t="shared" ref="JO11" si="2">SUM(JO6:JO10)</f>
+        <f t="shared" ref="JO11:JP11" si="2">SUM(JO6:JO10)</f>
         <v>119089</v>
       </c>
-      <c r="JP11" s="29"/>
+      <c r="JP11" s="10">
+        <f t="shared" si="2"/>
+        <v>121255</v>
+      </c>
       <c r="JQ11" s="29"/>
       <c r="JR11" s="29"/>
       <c r="JS11" s="29"/>
@@ -10308,7 +10333,7 @@
       <c r="ABA11" s="29"/>
       <c r="ABB11" s="29"/>
       <c r="ABC11" s="29"/>
-      <c r="ABD11" s="5"/>
+      <c r="ABD11" s="29"/>
       <c r="ABE11" s="5"/>
       <c r="ABF11" s="5"/>
       <c r="ABG11" s="5"/>
@@ -10489,9 +10514,10 @@
       <c r="AHZ11" s="5"/>
       <c r="AIA11" s="5"/>
       <c r="AIB11" s="5"/>
+      <c r="AIC11" s="5"/>
     </row>
-    <row r="12" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11316,9 +11342,12 @@
       <c r="JO12" s="7">
         <v>78693</v>
       </c>
+      <c r="JP12" s="7">
+        <v>79258</v>
+      </c>
     </row>
-    <row r="13" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12141,9 +12170,12 @@
       <c r="JO13" s="7">
         <v>20883</v>
       </c>
+      <c r="JP13" s="7">
+        <v>20915</v>
+      </c>
     </row>
-    <row r="14" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+    <row r="14" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -12966,9 +12998,12 @@
       <c r="JO14" s="7">
         <v>33945</v>
       </c>
+      <c r="JP14" s="7">
+        <v>34037</v>
+      </c>
     </row>
-    <row r="15" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13791,9 +13826,12 @@
       <c r="JO15" s="7">
         <v>22472</v>
       </c>
+      <c r="JP15" s="7">
+        <v>22521</v>
+      </c>
     </row>
-    <row r="16" spans="1:912" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:913" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14616,9 +14654,12 @@
       <c r="JO16" s="7">
         <v>15872</v>
       </c>
+      <c r="JP16" s="7">
+        <v>16025</v>
+      </c>
     </row>
-    <row r="17" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15441,9 +15482,12 @@
       <c r="JO17" s="7">
         <v>49096</v>
       </c>
+      <c r="JP17" s="7">
+        <v>50090</v>
+      </c>
     </row>
-    <row r="18" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+    <row r="18" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16266,9 +16310,12 @@
       <c r="JO18" s="7">
         <v>60738</v>
       </c>
+      <c r="JP18" s="7">
+        <v>61672</v>
+      </c>
     </row>
-    <row r="19" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+    <row r="19" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -17091,9 +17138,12 @@
       <c r="JO19" s="7">
         <v>68456</v>
       </c>
+      <c r="JP19" s="7">
+        <v>69447</v>
+      </c>
     </row>
-    <row r="20" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+    <row r="20" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17916,9 +17966,12 @@
       <c r="JO20" s="7">
         <v>46857</v>
       </c>
+      <c r="JP20" s="7">
+        <v>48903</v>
+      </c>
     </row>
-    <row r="21" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+    <row r="21" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18750,10 +18803,13 @@
         <v>394460</v>
       </c>
       <c r="JO21" s="10">
-        <f t="shared" ref="JO21" si="5">SUM(JO12:JO20)</f>
+        <f t="shared" ref="JO21:JP21" si="5">SUM(JO12:JO20)</f>
         <v>397012</v>
       </c>
-      <c r="JP21" s="29"/>
+      <c r="JP21" s="10">
+        <f t="shared" si="5"/>
+        <v>402868</v>
+      </c>
       <c r="JQ21" s="29"/>
       <c r="JR21" s="29"/>
       <c r="JS21" s="29"/>
@@ -19209,7 +19265,7 @@
       <c r="ABA21" s="29"/>
       <c r="ABB21" s="29"/>
       <c r="ABC21" s="29"/>
-      <c r="ABD21" s="5"/>
+      <c r="ABD21" s="29"/>
       <c r="ABE21" s="5"/>
       <c r="ABF21" s="5"/>
       <c r="ABG21" s="5"/>
@@ -19390,9 +19446,10 @@
       <c r="AHZ21" s="5"/>
       <c r="AIA21" s="5"/>
       <c r="AIB21" s="5"/>
+      <c r="AIC21" s="5"/>
     </row>
-    <row r="22" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -20217,9 +20274,12 @@
       <c r="JO22" s="7">
         <v>108423</v>
       </c>
+      <c r="JP22" s="7">
+        <v>113781</v>
+      </c>
     </row>
-    <row r="23" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+    <row r="23" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -21042,9 +21102,12 @@
       <c r="JO23" s="7">
         <v>36740</v>
       </c>
+      <c r="JP23" s="7">
+        <v>36800</v>
+      </c>
     </row>
-    <row r="24" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21876,10 +21939,13 @@
         <v>144641</v>
       </c>
       <c r="JO24" s="10">
-        <f t="shared" ref="JO24" si="8">SUM(JO22:JO23)</f>
+        <f t="shared" ref="JO24:JP24" si="8">SUM(JO22:JO23)</f>
         <v>145163</v>
       </c>
-      <c r="JP24" s="29"/>
+      <c r="JP24" s="10">
+        <f t="shared" si="8"/>
+        <v>150581</v>
+      </c>
       <c r="JQ24" s="29"/>
       <c r="JR24" s="29"/>
       <c r="JS24" s="29"/>
@@ -22335,7 +22401,7 @@
       <c r="ABA24" s="29"/>
       <c r="ABB24" s="29"/>
       <c r="ABC24" s="29"/>
-      <c r="ABD24" s="5"/>
+      <c r="ABD24" s="29"/>
       <c r="ABE24" s="5"/>
       <c r="ABF24" s="5"/>
       <c r="ABG24" s="5"/>
@@ -22516,9 +22582,10 @@
       <c r="AHZ24" s="5"/>
       <c r="AIA24" s="5"/>
       <c r="AIB24" s="5"/>
+      <c r="AIC24" s="5"/>
     </row>
-    <row r="25" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+    <row r="25" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23343,9 +23410,12 @@
       <c r="JO25" s="7">
         <v>4292</v>
       </c>
+      <c r="JP25" s="7">
+        <v>4302</v>
+      </c>
     </row>
-    <row r="26" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+    <row r="26" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -24168,9 +24238,12 @@
       <c r="JO26" s="7">
         <v>5394</v>
       </c>
+      <c r="JP26" s="7">
+        <v>5443</v>
+      </c>
     </row>
-    <row r="27" spans="1:912" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+    <row r="27" spans="1:913" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -25002,10 +25075,13 @@
         <v>9763</v>
       </c>
       <c r="JO27" s="10">
-        <f t="shared" ref="JO27" si="11">SUM(JO25:JO26)</f>
+        <f t="shared" ref="JO27:JP27" si="11">SUM(JO25:JO26)</f>
         <v>9686</v>
       </c>
-      <c r="JP27" s="29"/>
+      <c r="JP27" s="10">
+        <f t="shared" si="11"/>
+        <v>9745</v>
+      </c>
       <c r="JQ27" s="29"/>
       <c r="JR27" s="29"/>
       <c r="JS27" s="29"/>
@@ -25461,7 +25537,7 @@
       <c r="ABA27" s="29"/>
       <c r="ABB27" s="29"/>
       <c r="ABC27" s="29"/>
-      <c r="ABD27" s="5"/>
+      <c r="ABD27" s="29"/>
       <c r="ABE27" s="5"/>
       <c r="ABF27" s="5"/>
       <c r="ABG27" s="5"/>
@@ -25642,9 +25718,10 @@
       <c r="AHZ27" s="5"/>
       <c r="AIA27" s="5"/>
       <c r="AIB27" s="5"/>
+      <c r="AIC27" s="5"/>
     </row>
-    <row r="28" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26469,9 +26546,12 @@
       <c r="JO28" s="7">
         <v>886</v>
       </c>
+      <c r="JP28" s="7">
+        <v>908</v>
+      </c>
     </row>
-    <row r="29" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+    <row r="29" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -27294,9 +27374,12 @@
       <c r="JO29" s="7">
         <v>11561</v>
       </c>
+      <c r="JP29" s="7">
+        <v>11376</v>
+      </c>
     </row>
-    <row r="30" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+    <row r="30" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -28119,9 +28202,12 @@
       <c r="JO30" s="7">
         <v>29640</v>
       </c>
+      <c r="JP30" s="7">
+        <v>29921</v>
+      </c>
     </row>
-    <row r="31" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+    <row r="31" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -28944,9 +29030,12 @@
       <c r="JO31" s="7">
         <v>104468</v>
       </c>
+      <c r="JP31" s="7">
+        <v>105547</v>
+      </c>
     </row>
-    <row r="32" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+    <row r="32" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29769,9 +29858,12 @@
       <c r="JO32" s="7">
         <v>26088</v>
       </c>
+      <c r="JP32" s="7">
+        <v>26441</v>
+      </c>
     </row>
-    <row r="33" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+    <row r="33" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30594,9 +30686,12 @@
       <c r="JO33" s="7">
         <v>9833</v>
       </c>
+      <c r="JP33" s="7">
+        <v>9796</v>
+      </c>
     </row>
-    <row r="34" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+    <row r="34" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31419,9 +31514,12 @@
       <c r="JO34" s="7">
         <v>44045</v>
       </c>
+      <c r="JP34" s="7">
+        <v>44276</v>
+      </c>
     </row>
-    <row r="35" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+    <row r="35" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -32244,9 +32342,12 @@
       <c r="JO35" s="7">
         <v>10855</v>
       </c>
+      <c r="JP35" s="7">
+        <v>11192</v>
+      </c>
     </row>
-    <row r="36" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+    <row r="36" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -33069,9 +33170,12 @@
       <c r="JO36" s="7">
         <v>53957</v>
       </c>
+      <c r="JP36" s="7">
+        <v>54063</v>
+      </c>
     </row>
-    <row r="37" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+    <row r="37" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -33894,9 +33998,12 @@
       <c r="JO37" s="7">
         <v>72034</v>
       </c>
+      <c r="JP37" s="7">
+        <v>73425</v>
+      </c>
     </row>
-    <row r="38" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+    <row r="38" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34719,9 +34826,12 @@
       <c r="JO38" s="7">
         <v>21986</v>
       </c>
+      <c r="JP38" s="7">
+        <v>22004</v>
+      </c>
     </row>
-    <row r="39" spans="1:912" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+    <row r="39" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35544,9 +35654,12 @@
       <c r="JO39" s="7">
         <v>23991</v>
       </c>
+      <c r="JP39" s="7">
+        <v>24094</v>
+      </c>
     </row>
-    <row r="40" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+    <row r="40" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -36369,9 +36482,12 @@
       <c r="JO40" s="7">
         <v>12107</v>
       </c>
+      <c r="JP40" s="7">
+        <v>12176</v>
+      </c>
     </row>
-    <row r="41" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+    <row r="41" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -37194,9 +37310,12 @@
       <c r="JO41" s="7">
         <v>11124</v>
       </c>
+      <c r="JP41" s="7">
+        <v>11090</v>
+      </c>
     </row>
-    <row r="42" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+    <row r="42" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -38019,9 +38138,12 @@
       <c r="JO42" s="7">
         <v>44328</v>
       </c>
+      <c r="JP42" s="7">
+        <v>44392</v>
+      </c>
     </row>
-    <row r="43" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+    <row r="43" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38844,9 +38966,12 @@
       <c r="JO43" s="7">
         <v>4923</v>
       </c>
+      <c r="JP43" s="7">
+        <v>4831</v>
+      </c>
     </row>
-    <row r="44" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+    <row r="44" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -39669,9 +39794,12 @@
       <c r="JO44" s="7">
         <v>5943</v>
       </c>
+      <c r="JP44" s="7">
+        <v>5960</v>
+      </c>
     </row>
-    <row r="45" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+    <row r="45" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -40494,9 +40622,12 @@
       <c r="JO45" s="7">
         <v>7193</v>
       </c>
+      <c r="JP45" s="7">
+        <v>7209</v>
+      </c>
     </row>
-    <row r="46" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+    <row r="46" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -41319,9 +41450,12 @@
       <c r="JO46" s="7">
         <v>13316</v>
       </c>
+      <c r="JP46" s="7">
+        <v>13420</v>
+      </c>
     </row>
-    <row r="47" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+    <row r="47" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -42144,9 +42278,12 @@
       <c r="JO47" s="7">
         <v>1596</v>
       </c>
+      <c r="JP47" s="7">
+        <v>1613</v>
+      </c>
     </row>
-    <row r="48" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+    <row r="48" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -42978,10 +43115,13 @@
         <v>505597</v>
       </c>
       <c r="JO48" s="10">
-        <f t="shared" ref="JO48" si="14">SUM(JO28:JO47)</f>
+        <f t="shared" ref="JO48:JP48" si="14">SUM(JO28:JO47)</f>
         <v>509874</v>
       </c>
-      <c r="JP48" s="29"/>
+      <c r="JP48" s="10">
+        <f t="shared" si="14"/>
+        <v>513734</v>
+      </c>
       <c r="JQ48" s="29"/>
       <c r="JR48" s="29"/>
       <c r="JS48" s="29"/>
@@ -43437,7 +43577,7 @@
       <c r="ABA48" s="29"/>
       <c r="ABB48" s="29"/>
       <c r="ABC48" s="29"/>
-      <c r="ABD48" s="5"/>
+      <c r="ABD48" s="29"/>
       <c r="ABE48" s="5"/>
       <c r="ABF48" s="5"/>
       <c r="ABG48" s="5"/>
@@ -43618,9 +43758,10 @@
       <c r="AHZ48" s="5"/>
       <c r="AIA48" s="5"/>
       <c r="AIB48" s="5"/>
+      <c r="AIC48" s="5"/>
     </row>
-    <row r="49" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -44445,9 +44586,12 @@
       <c r="JO49" s="8">
         <v>12</v>
       </c>
+      <c r="JP49" s="8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="50" spans="1:275" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+    <row r="50" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -45270,9 +45414,12 @@
       <c r="JO50" s="8">
         <v>24</v>
       </c>
+      <c r="JP50" s="8">
+        <v>30</v>
+      </c>
     </row>
-    <row r="51" spans="1:275" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+    <row r="51" spans="1:276" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -46095,9 +46242,12 @@
       <c r="JO51" s="7">
         <v>1490</v>
       </c>
+      <c r="JP51" s="7">
+        <v>1488</v>
+      </c>
     </row>
-    <row r="52" spans="1:275" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -46920,9 +47070,12 @@
       <c r="JO52" s="7">
         <v>992</v>
       </c>
+      <c r="JP52" s="7">
+        <v>975</v>
+      </c>
     </row>
-    <row r="53" spans="1:275" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+    <row r="53" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -47754,12 +47907,16 @@
         <v>2477</v>
       </c>
       <c r="JO53" s="10">
-        <f t="shared" ref="JO53" si="17">SUM(JO49:JO52)</f>
+        <f t="shared" ref="JO53:JP53" si="17">SUM(JO49:JO52)</f>
         <v>2518</v>
       </c>
+      <c r="JP53" s="10">
+        <f t="shared" si="17"/>
+        <v>2505</v>
+      </c>
     </row>
-    <row r="54" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -48584,9 +48741,12 @@
       <c r="JO54" s="36">
         <v>5669</v>
       </c>
+      <c r="JP54" s="36">
+        <v>5809</v>
+      </c>
     </row>
-    <row r="55" spans="1:275" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+    <row r="55" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -49409,9 +49569,12 @@
       <c r="JO55" s="7">
         <v>52860</v>
       </c>
+      <c r="JP55" s="7">
+        <v>53691</v>
+      </c>
     </row>
-    <row r="56" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
+    <row r="56" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -50234,9 +50397,12 @@
       <c r="JO56" s="7">
         <v>7199</v>
       </c>
+      <c r="JP56" s="7">
+        <v>6989</v>
+      </c>
     </row>
-    <row r="57" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+    <row r="57" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -51059,9 +51225,12 @@
       <c r="JO57" s="7">
         <v>189397</v>
       </c>
+      <c r="JP57" s="7">
+        <v>190438</v>
+      </c>
     </row>
-    <row r="58" spans="1:275" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+    <row r="58" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A58" s="38"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -51884,9 +52053,12 @@
       <c r="JO58" s="7">
         <v>33538</v>
       </c>
+      <c r="JP58" s="7">
+        <v>34008</v>
+      </c>
     </row>
-    <row r="59" spans="1:275" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+    <row r="59" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A59" s="38"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -52709,9 +52881,12 @@
       <c r="JO59" s="7">
         <v>6516</v>
       </c>
+      <c r="JP59" s="7">
+        <v>6702</v>
+      </c>
     </row>
-    <row r="60" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+    <row r="60" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="38"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -53534,9 +53709,12 @@
       <c r="JO60" s="7">
         <v>49446</v>
       </c>
+      <c r="JP60" s="7">
+        <v>49906</v>
+      </c>
     </row>
-    <row r="61" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+    <row r="61" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="38"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -54359,9 +54537,12 @@
       <c r="JO61" s="8">
         <v>139</v>
       </c>
+      <c r="JP61" s="8">
+        <v>141</v>
+      </c>
     </row>
-    <row r="62" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+    <row r="62" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="38"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -55184,9 +55365,12 @@
       <c r="JO62" s="7">
         <v>20170</v>
       </c>
+      <c r="JP62" s="7">
+        <v>20296</v>
+      </c>
     </row>
-    <row r="63" spans="1:275" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+    <row r="63" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="38"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -56009,9 +56193,12 @@
       <c r="JO63" s="7">
         <v>34047</v>
       </c>
+      <c r="JP63" s="7">
+        <v>34207</v>
+      </c>
     </row>
-    <row r="64" spans="1:275" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+    <row r="64" spans="1:276" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -56834,9 +57021,12 @@
       <c r="JO64" s="7">
         <v>48792</v>
       </c>
+      <c r="JP64" s="7">
+        <v>48805</v>
+      </c>
     </row>
-    <row r="65" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+    <row r="65" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A65" s="38"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -57659,9 +57849,12 @@
       <c r="JO65" s="7">
         <v>167313</v>
       </c>
+      <c r="JP65" s="7">
+        <v>168418</v>
+      </c>
     </row>
-    <row r="66" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+    <row r="66" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A66" s="38"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -58484,9 +58677,12 @@
       <c r="JO66" s="7">
         <v>18847</v>
       </c>
+      <c r="JP66" s="7">
+        <v>19623</v>
+      </c>
     </row>
-    <row r="67" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+    <row r="67" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -59309,9 +59505,12 @@
       <c r="JO67" s="7">
         <v>6324</v>
       </c>
+      <c r="JP67" s="7">
+        <v>6376</v>
+      </c>
     </row>
-    <row r="68" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+    <row r="68" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -60143,10 +60342,13 @@
         <v>636862</v>
       </c>
       <c r="JO68" s="10">
-        <f t="shared" ref="JO68" si="20">SUM(JO54:JO67)</f>
+        <f t="shared" ref="JO68:JP68" si="20">SUM(JO54:JO67)</f>
         <v>640257</v>
       </c>
-      <c r="JP68" s="29"/>
+      <c r="JP68" s="10">
+        <f t="shared" si="20"/>
+        <v>645409</v>
+      </c>
       <c r="JQ68" s="29"/>
       <c r="JR68" s="29"/>
       <c r="JS68" s="29"/>
@@ -60602,7 +60804,7 @@
       <c r="ABA68" s="29"/>
       <c r="ABB68" s="29"/>
       <c r="ABC68" s="29"/>
-      <c r="ABD68" s="5"/>
+      <c r="ABD68" s="29"/>
       <c r="ABE68" s="5"/>
       <c r="ABF68" s="5"/>
       <c r="ABG68" s="5"/>
@@ -60783,9 +60985,10 @@
       <c r="AHZ68" s="5"/>
       <c r="AIA68" s="5"/>
       <c r="AIB68" s="5"/>
+      <c r="AIC68" s="5"/>
     </row>
-    <row r="69" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+    <row r="69" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -61610,9 +61813,12 @@
       <c r="JO69" s="7">
         <v>9776</v>
       </c>
+      <c r="JP69" s="7">
+        <v>9799</v>
+      </c>
     </row>
-    <row r="70" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+    <row r="70" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -62435,9 +62641,12 @@
       <c r="JO70" s="7">
         <v>855</v>
       </c>
+      <c r="JP70" s="7">
+        <v>875</v>
+      </c>
     </row>
-    <row r="71" spans="1:912" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+    <row r="71" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -63260,9 +63469,12 @@
       <c r="JO71" s="7">
         <v>34548</v>
       </c>
+      <c r="JP71" s="7">
+        <v>34816</v>
+      </c>
     </row>
-    <row r="72" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+    <row r="72" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -64085,9 +64297,12 @@
       <c r="JO72" s="7">
         <v>4302</v>
       </c>
+      <c r="JP72" s="7">
+        <v>4430</v>
+      </c>
     </row>
-    <row r="73" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+    <row r="73" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A73" s="38"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -64910,9 +65125,12 @@
       <c r="JO73" s="8">
         <v>569</v>
       </c>
+      <c r="JP73" s="8">
+        <v>574</v>
+      </c>
     </row>
-    <row r="74" spans="1:912" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+    <row r="74" spans="1:913" x14ac:dyDescent="0.25">
+      <c r="A74" s="38"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -65735,9 +65953,12 @@
       <c r="JO74" s="7">
         <v>53998</v>
       </c>
+      <c r="JP74" s="7">
+        <v>54350</v>
+      </c>
     </row>
-    <row r="75" spans="1:912" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+    <row r="75" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -66569,10 +66790,13 @@
         <v>101608</v>
       </c>
       <c r="JO75" s="10">
-        <f t="shared" ref="JO75" si="23">SUM(JO69:JO74)</f>
+        <f t="shared" ref="JO75:JP75" si="23">SUM(JO69:JO74)</f>
         <v>104048</v>
       </c>
-      <c r="JP75" s="29"/>
+      <c r="JP75" s="10">
+        <f t="shared" si="23"/>
+        <v>104844</v>
+      </c>
       <c r="JQ75" s="29"/>
       <c r="JR75" s="29"/>
       <c r="JS75" s="29"/>
@@ -67028,7 +67252,7 @@
       <c r="ABA75" s="29"/>
       <c r="ABB75" s="29"/>
       <c r="ABC75" s="29"/>
-      <c r="ABD75" s="5"/>
+      <c r="ABD75" s="29"/>
       <c r="ABE75" s="5"/>
       <c r="ABF75" s="5"/>
       <c r="ABG75" s="5"/>
@@ -67209,8 +67433,9 @@
       <c r="AHZ75" s="5"/>
       <c r="AIA75" s="5"/>
       <c r="AIB75" s="5"/>
+      <c r="AIC75" s="5"/>
     </row>
-    <row r="76" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -68044,11 +68269,15 @@
         <v>1910627</v>
       </c>
       <c r="JO76" s="19">
-        <f t="shared" ref="JO76" si="26">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <f t="shared" ref="JO76:JP76" si="26">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
         <v>1927647</v>
       </c>
+      <c r="JP76" s="19">
+        <f t="shared" si="26"/>
+        <v>1950941</v>
+      </c>
     </row>
-    <row r="77" spans="1:912" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:913" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -68319,7 +68548,7 @@
       <c r="JM77" s="30"/>
       <c r="JN77" s="30"/>
       <c r="JO77" s="30"/>
-      <c r="JP77" s="27"/>
+      <c r="JP77" s="30"/>
       <c r="JQ77" s="27"/>
       <c r="JR77" s="27"/>
       <c r="JS77" s="27"/>
@@ -68775,34 +69004,16 @@
       <c r="ABA77" s="27"/>
       <c r="ABB77" s="27"/>
       <c r="ABC77" s="27"/>
+      <c r="ABD77" s="27"/>
     </row>
-    <row r="78" spans="1:912" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="JG4:JO4"/>
+    <mergeCell ref="JG4:JP4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -68816,6 +69027,25 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="351">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1093,6 +1093,9 @@
   <si>
     <t>2022/octubre</t>
   </si>
+  <si>
+    <t>2022/noviembre</t>
+  </si>
 </sst>
 </file>
 
@@ -1804,14 +1807,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,6 +1818,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2177,11 +2180,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIC78"/>
+  <dimension ref="A1:AID78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JS76" sqref="JS76"/>
+      <pane xSplit="2" topLeftCell="JF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JS74" sqref="JS74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2452,350 +2455,350 @@
     <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
     <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="275" max="276" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="277" max="732" width="10.875" style="28"/>
-    <col min="733" max="913" width="10.875" style="4"/>
-    <col min="914" max="16384" width="10.875" style="3"/>
+    <col min="275" max="277" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="278" max="733" width="10.875" style="28"/>
+    <col min="734" max="914" width="10.875" style="4"/>
+    <col min="915" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:913" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:914" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:913" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:914" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:914" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <v>2000</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38">
         <v>2001</v>
       </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38">
         <v>2002</v>
       </c>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38">
         <v>2003</v>
       </c>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39">
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39">
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38">
         <v>2005</v>
       </c>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39">
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38">
         <v>2006</v>
       </c>
-      <c r="BX4" s="39"/>
-      <c r="BY4" s="39"/>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39"/>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39">
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
-      <c r="CL4" s="39"/>
-      <c r="CM4" s="39"/>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39"/>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39">
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38">
         <v>2008</v>
       </c>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
-      <c r="DA4" s="39"/>
-      <c r="DB4" s="39"/>
-      <c r="DC4" s="39"/>
-      <c r="DD4" s="39"/>
-      <c r="DE4" s="39"/>
-      <c r="DF4" s="39"/>
-      <c r="DG4" s="39">
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38"/>
+      <c r="DG4" s="38">
         <v>2009</v>
       </c>
-      <c r="DH4" s="39"/>
-      <c r="DI4" s="39"/>
-      <c r="DJ4" s="39"/>
-      <c r="DK4" s="39"/>
-      <c r="DL4" s="39"/>
-      <c r="DM4" s="39"/>
-      <c r="DN4" s="39"/>
-      <c r="DO4" s="39"/>
-      <c r="DP4" s="39"/>
-      <c r="DQ4" s="39"/>
-      <c r="DR4" s="39"/>
-      <c r="DS4" s="39">
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
+      <c r="DJ4" s="38"/>
+      <c r="DK4" s="38"/>
+      <c r="DL4" s="38"/>
+      <c r="DM4" s="38"/>
+      <c r="DN4" s="38"/>
+      <c r="DO4" s="38"/>
+      <c r="DP4" s="38"/>
+      <c r="DQ4" s="38"/>
+      <c r="DR4" s="38"/>
+      <c r="DS4" s="38">
         <v>2010</v>
       </c>
-      <c r="DT4" s="39"/>
-      <c r="DU4" s="39"/>
-      <c r="DV4" s="39"/>
-      <c r="DW4" s="39"/>
-      <c r="DX4" s="39"/>
-      <c r="DY4" s="39"/>
-      <c r="DZ4" s="39"/>
-      <c r="EA4" s="39"/>
-      <c r="EB4" s="39"/>
-      <c r="EC4" s="39"/>
-      <c r="ED4" s="39"/>
-      <c r="EE4" s="39">
+      <c r="DT4" s="38"/>
+      <c r="DU4" s="38"/>
+      <c r="DV4" s="38"/>
+      <c r="DW4" s="38"/>
+      <c r="DX4" s="38"/>
+      <c r="DY4" s="38"/>
+      <c r="DZ4" s="38"/>
+      <c r="EA4" s="38"/>
+      <c r="EB4" s="38"/>
+      <c r="EC4" s="38"/>
+      <c r="ED4" s="38"/>
+      <c r="EE4" s="38">
         <v>2011</v>
       </c>
-      <c r="EF4" s="39"/>
-      <c r="EG4" s="39"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="39"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="39"/>
-      <c r="EO4" s="39"/>
-      <c r="EP4" s="39"/>
-      <c r="EQ4" s="39">
+      <c r="EF4" s="38"/>
+      <c r="EG4" s="38"/>
+      <c r="EH4" s="38"/>
+      <c r="EI4" s="38"/>
+      <c r="EJ4" s="38"/>
+      <c r="EK4" s="38"/>
+      <c r="EL4" s="38"/>
+      <c r="EM4" s="38"/>
+      <c r="EN4" s="38"/>
+      <c r="EO4" s="38"/>
+      <c r="EP4" s="38"/>
+      <c r="EQ4" s="38">
         <v>2012</v>
       </c>
-      <c r="ER4" s="39"/>
-      <c r="ES4" s="39"/>
-      <c r="ET4" s="39"/>
-      <c r="EU4" s="39"/>
-      <c r="EV4" s="39"/>
-      <c r="EW4" s="39"/>
-      <c r="EX4" s="39"/>
-      <c r="EY4" s="39"/>
-      <c r="EZ4" s="39"/>
-      <c r="FA4" s="39"/>
-      <c r="FB4" s="39"/>
-      <c r="FC4" s="39">
+      <c r="ER4" s="38"/>
+      <c r="ES4" s="38"/>
+      <c r="ET4" s="38"/>
+      <c r="EU4" s="38"/>
+      <c r="EV4" s="38"/>
+      <c r="EW4" s="38"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38"/>
+      <c r="FC4" s="38">
         <v>2013</v>
       </c>
-      <c r="FD4" s="39"/>
-      <c r="FE4" s="39"/>
-      <c r="FF4" s="39"/>
-      <c r="FG4" s="39"/>
-      <c r="FH4" s="39"/>
-      <c r="FI4" s="39"/>
-      <c r="FJ4" s="39"/>
-      <c r="FK4" s="39"/>
-      <c r="FL4" s="39"/>
-      <c r="FM4" s="39"/>
-      <c r="FN4" s="39"/>
-      <c r="FO4" s="39">
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="38"/>
+      <c r="FJ4" s="38"/>
+      <c r="FK4" s="38"/>
+      <c r="FL4" s="38"/>
+      <c r="FM4" s="38"/>
+      <c r="FN4" s="38"/>
+      <c r="FO4" s="38">
         <v>2014</v>
       </c>
-      <c r="FP4" s="39"/>
-      <c r="FQ4" s="39"/>
-      <c r="FR4" s="39"/>
-      <c r="FS4" s="39"/>
-      <c r="FT4" s="39"/>
-      <c r="FU4" s="39"/>
-      <c r="FV4" s="39"/>
-      <c r="FW4" s="39"/>
-      <c r="FX4" s="39"/>
-      <c r="FY4" s="39"/>
-      <c r="FZ4" s="39"/>
-      <c r="GA4" s="39">
+      <c r="FP4" s="38"/>
+      <c r="FQ4" s="38"/>
+      <c r="FR4" s="38"/>
+      <c r="FS4" s="38"/>
+      <c r="FT4" s="38"/>
+      <c r="FU4" s="38"/>
+      <c r="FV4" s="38"/>
+      <c r="FW4" s="38"/>
+      <c r="FX4" s="38"/>
+      <c r="FY4" s="38"/>
+      <c r="FZ4" s="38"/>
+      <c r="GA4" s="38">
         <v>2015</v>
       </c>
-      <c r="GB4" s="39"/>
-      <c r="GC4" s="39"/>
-      <c r="GD4" s="39"/>
-      <c r="GE4" s="39"/>
-      <c r="GF4" s="39"/>
-      <c r="GG4" s="39"/>
-      <c r="GH4" s="39"/>
-      <c r="GI4" s="39"/>
-      <c r="GJ4" s="39"/>
-      <c r="GK4" s="39"/>
-      <c r="GL4" s="39"/>
-      <c r="GM4" s="39">
+      <c r="GB4" s="38"/>
+      <c r="GC4" s="38"/>
+      <c r="GD4" s="38"/>
+      <c r="GE4" s="38"/>
+      <c r="GF4" s="38"/>
+      <c r="GG4" s="38"/>
+      <c r="GH4" s="38"/>
+      <c r="GI4" s="38"/>
+      <c r="GJ4" s="38"/>
+      <c r="GK4" s="38"/>
+      <c r="GL4" s="38"/>
+      <c r="GM4" s="38">
         <v>2016</v>
       </c>
-      <c r="GN4" s="39"/>
-      <c r="GO4" s="39"/>
-      <c r="GP4" s="39"/>
-      <c r="GQ4" s="39"/>
-      <c r="GR4" s="39"/>
-      <c r="GS4" s="39"/>
-      <c r="GT4" s="39"/>
-      <c r="GU4" s="39"/>
-      <c r="GV4" s="39"/>
-      <c r="GW4" s="39"/>
-      <c r="GX4" s="39"/>
-      <c r="GY4" s="39">
+      <c r="GN4" s="38"/>
+      <c r="GO4" s="38"/>
+      <c r="GP4" s="38"/>
+      <c r="GQ4" s="38"/>
+      <c r="GR4" s="38"/>
+      <c r="GS4" s="38"/>
+      <c r="GT4" s="38"/>
+      <c r="GU4" s="38"/>
+      <c r="GV4" s="38"/>
+      <c r="GW4" s="38"/>
+      <c r="GX4" s="38"/>
+      <c r="GY4" s="38">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="39"/>
-      <c r="HA4" s="39"/>
-      <c r="HB4" s="39"/>
-      <c r="HC4" s="39"/>
-      <c r="HD4" s="39"/>
-      <c r="HE4" s="39"/>
-      <c r="HF4" s="39"/>
-      <c r="HG4" s="39"/>
-      <c r="HH4" s="39"/>
-      <c r="HI4" s="39"/>
-      <c r="HJ4" s="39"/>
-      <c r="HK4" s="39">
+      <c r="GZ4" s="38"/>
+      <c r="HA4" s="38"/>
+      <c r="HB4" s="38"/>
+      <c r="HC4" s="38"/>
+      <c r="HD4" s="38"/>
+      <c r="HE4" s="38"/>
+      <c r="HF4" s="38"/>
+      <c r="HG4" s="38"/>
+      <c r="HH4" s="38"/>
+      <c r="HI4" s="38"/>
+      <c r="HJ4" s="38"/>
+      <c r="HK4" s="38">
         <v>2018</v>
       </c>
-      <c r="HL4" s="39"/>
-      <c r="HM4" s="39"/>
-      <c r="HN4" s="39"/>
-      <c r="HO4" s="39"/>
-      <c r="HP4" s="39"/>
-      <c r="HQ4" s="39"/>
-      <c r="HR4" s="39"/>
-      <c r="HS4" s="39"/>
-      <c r="HT4" s="39"/>
-      <c r="HU4" s="39"/>
-      <c r="HV4" s="39"/>
-      <c r="HW4" s="39">
+      <c r="HL4" s="38"/>
+      <c r="HM4" s="38"/>
+      <c r="HN4" s="38"/>
+      <c r="HO4" s="38"/>
+      <c r="HP4" s="38"/>
+      <c r="HQ4" s="38"/>
+      <c r="HR4" s="38"/>
+      <c r="HS4" s="38"/>
+      <c r="HT4" s="38"/>
+      <c r="HU4" s="38"/>
+      <c r="HV4" s="38"/>
+      <c r="HW4" s="38">
         <v>2019</v>
       </c>
-      <c r="HX4" s="39"/>
-      <c r="HY4" s="39"/>
-      <c r="HZ4" s="39"/>
-      <c r="IA4" s="39"/>
-      <c r="IB4" s="39"/>
-      <c r="IC4" s="39"/>
-      <c r="ID4" s="39"/>
-      <c r="IE4" s="39"/>
-      <c r="IF4" s="39"/>
-      <c r="IG4" s="39"/>
-      <c r="IH4" s="41"/>
-      <c r="II4" s="41">
+      <c r="HX4" s="38"/>
+      <c r="HY4" s="38"/>
+      <c r="HZ4" s="38"/>
+      <c r="IA4" s="38"/>
+      <c r="IB4" s="38"/>
+      <c r="IC4" s="38"/>
+      <c r="ID4" s="38"/>
+      <c r="IE4" s="38"/>
+      <c r="IF4" s="38"/>
+      <c r="IG4" s="38"/>
+      <c r="IH4" s="39"/>
+      <c r="II4" s="39">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="42"/>
-      <c r="IK4" s="42"/>
-      <c r="IL4" s="42"/>
-      <c r="IM4" s="42"/>
-      <c r="IN4" s="42"/>
-      <c r="IO4" s="42"/>
-      <c r="IP4" s="42"/>
-      <c r="IQ4" s="42"/>
-      <c r="IR4" s="42"/>
-      <c r="IS4" s="42"/>
-      <c r="IT4" s="43"/>
-      <c r="IU4" s="41">
+      <c r="IJ4" s="40"/>
+      <c r="IK4" s="40"/>
+      <c r="IL4" s="40"/>
+      <c r="IM4" s="40"/>
+      <c r="IN4" s="40"/>
+      <c r="IO4" s="40"/>
+      <c r="IP4" s="40"/>
+      <c r="IQ4" s="40"/>
+      <c r="IR4" s="40"/>
+      <c r="IS4" s="40"/>
+      <c r="IT4" s="41"/>
+      <c r="IU4" s="39">
         <v>2021</v>
       </c>
-      <c r="IV4" s="42"/>
-      <c r="IW4" s="42"/>
-      <c r="IX4" s="42"/>
-      <c r="IY4" s="42"/>
-      <c r="IZ4" s="42"/>
-      <c r="JA4" s="42"/>
-      <c r="JB4" s="42"/>
-      <c r="JC4" s="42"/>
-      <c r="JD4" s="42"/>
-      <c r="JE4" s="42"/>
-      <c r="JF4" s="43"/>
-      <c r="JG4" s="39">
+      <c r="IV4" s="40"/>
+      <c r="IW4" s="40"/>
+      <c r="IX4" s="40"/>
+      <c r="IY4" s="40"/>
+      <c r="IZ4" s="40"/>
+      <c r="JA4" s="40"/>
+      <c r="JB4" s="40"/>
+      <c r="JC4" s="40"/>
+      <c r="JD4" s="40"/>
+      <c r="JE4" s="40"/>
+      <c r="JF4" s="41"/>
+      <c r="JG4" s="38">
         <v>2022</v>
       </c>
-      <c r="JH4" s="39"/>
-      <c r="JI4" s="39"/>
-      <c r="JJ4" s="39"/>
-      <c r="JK4" s="39"/>
-      <c r="JL4" s="39"/>
-      <c r="JM4" s="39"/>
-      <c r="JN4" s="39"/>
-      <c r="JO4" s="39"/>
-      <c r="JP4" s="39"/>
-      <c r="JQ4" s="29"/>
+      <c r="JH4" s="38"/>
+      <c r="JI4" s="38"/>
+      <c r="JJ4" s="38"/>
+      <c r="JK4" s="38"/>
+      <c r="JL4" s="38"/>
+      <c r="JM4" s="38"/>
+      <c r="JN4" s="38"/>
+      <c r="JO4" s="38"/>
+      <c r="JP4" s="38"/>
+      <c r="JQ4" s="38"/>
       <c r="JR4" s="29"/>
       <c r="JS4" s="29"/>
       <c r="JT4" s="29"/>
@@ -3251,7 +3254,7 @@
       <c r="ABB4" s="29"/>
       <c r="ABC4" s="29"/>
       <c r="ABD4" s="29"/>
-      <c r="ABE4" s="5"/>
+      <c r="ABE4" s="29"/>
       <c r="ABF4" s="5"/>
       <c r="ABG4" s="5"/>
       <c r="ABH4" s="5"/>
@@ -3432,10 +3435,11 @@
       <c r="AIA4" s="5"/>
       <c r="AIB4" s="5"/>
       <c r="AIC4" s="5"/>
+      <c r="AID4" s="5"/>
     </row>
-    <row r="5" spans="1:913" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:914" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4258,7 +4262,9 @@
       <c r="JP5" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="JQ5" s="29"/>
+      <c r="JQ5" s="31" t="s">
+        <v>350</v>
+      </c>
       <c r="JR5" s="29"/>
       <c r="JS5" s="29"/>
       <c r="JT5" s="29"/>
@@ -4714,7 +4720,7 @@
       <c r="ABB5" s="29"/>
       <c r="ABC5" s="29"/>
       <c r="ABD5" s="29"/>
-      <c r="ABE5" s="5"/>
+      <c r="ABE5" s="29"/>
       <c r="ABF5" s="5"/>
       <c r="ABG5" s="5"/>
       <c r="ABH5" s="5"/>
@@ -4895,9 +4901,10 @@
       <c r="AIA5" s="5"/>
       <c r="AIB5" s="5"/>
       <c r="AIC5" s="5"/>
+      <c r="AID5" s="5"/>
     </row>
-    <row r="6" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5725,9 +5732,12 @@
       <c r="JP6" s="7">
         <v>96089</v>
       </c>
+      <c r="JQ6" s="7">
+        <v>96008</v>
+      </c>
     </row>
-    <row r="7" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6553,9 +6563,12 @@
       <c r="JP7" s="8">
         <v>48</v>
       </c>
+      <c r="JQ7" s="8">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7381,9 +7394,12 @@
       <c r="JP8" s="7">
         <v>23820</v>
       </c>
+      <c r="JQ8" s="7">
+        <v>23917</v>
+      </c>
     </row>
-    <row r="9" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8209,9 +8225,12 @@
       <c r="JP9" s="7">
         <v>867</v>
       </c>
+      <c r="JQ9" s="7">
+        <v>480</v>
+      </c>
     </row>
-    <row r="10" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+    <row r="10" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -9037,9 +9056,12 @@
       <c r="JP10" s="8">
         <v>431</v>
       </c>
+      <c r="JQ10" s="8">
+        <v>465</v>
+      </c>
     </row>
-    <row r="11" spans="1:913" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+    <row r="11" spans="1:914" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9871,14 +9893,17 @@
         <v>115219</v>
       </c>
       <c r="JO11" s="10">
-        <f t="shared" ref="JO11:JP11" si="2">SUM(JO6:JO10)</f>
+        <f t="shared" ref="JO11:JQ11" si="2">SUM(JO6:JO10)</f>
         <v>119089</v>
       </c>
       <c r="JP11" s="10">
+        <f t="shared" ref="JP11" si="3">SUM(JP6:JP10)</f>
+        <v>121255</v>
+      </c>
+      <c r="JQ11" s="10">
         <f t="shared" si="2"/>
-        <v>121255</v>
-      </c>
-      <c r="JQ11" s="29"/>
+        <v>120917</v>
+      </c>
       <c r="JR11" s="29"/>
       <c r="JS11" s="29"/>
       <c r="JT11" s="29"/>
@@ -10334,7 +10359,7 @@
       <c r="ABB11" s="29"/>
       <c r="ABC11" s="29"/>
       <c r="ABD11" s="29"/>
-      <c r="ABE11" s="5"/>
+      <c r="ABE11" s="29"/>
       <c r="ABF11" s="5"/>
       <c r="ABG11" s="5"/>
       <c r="ABH11" s="5"/>
@@ -10515,9 +10540,10 @@
       <c r="AIA11" s="5"/>
       <c r="AIB11" s="5"/>
       <c r="AIC11" s="5"/>
+      <c r="AID11" s="5"/>
     </row>
-    <row r="12" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11345,9 +11371,12 @@
       <c r="JP12" s="7">
         <v>79258</v>
       </c>
+      <c r="JQ12" s="7">
+        <v>79770</v>
+      </c>
     </row>
-    <row r="13" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12173,9 +12202,12 @@
       <c r="JP13" s="7">
         <v>20915</v>
       </c>
+      <c r="JQ13" s="7">
+        <v>21079</v>
+      </c>
     </row>
-    <row r="14" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+    <row r="14" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -13001,9 +13033,12 @@
       <c r="JP14" s="7">
         <v>34037</v>
       </c>
+      <c r="JQ14" s="7">
+        <v>34398</v>
+      </c>
     </row>
-    <row r="15" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13829,9 +13864,12 @@
       <c r="JP15" s="7">
         <v>22521</v>
       </c>
+      <c r="JQ15" s="7">
+        <v>22432</v>
+      </c>
     </row>
-    <row r="16" spans="1:913" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:914" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14657,9 +14695,12 @@
       <c r="JP16" s="7">
         <v>16025</v>
       </c>
+      <c r="JQ16" s="7">
+        <v>14058</v>
+      </c>
     </row>
-    <row r="17" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15485,9 +15526,12 @@
       <c r="JP17" s="7">
         <v>50090</v>
       </c>
+      <c r="JQ17" s="7">
+        <v>50150</v>
+      </c>
     </row>
-    <row r="18" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+    <row r="18" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16313,9 +16357,12 @@
       <c r="JP18" s="7">
         <v>61672</v>
       </c>
+      <c r="JQ18" s="7">
+        <v>61621</v>
+      </c>
     </row>
-    <row r="19" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+    <row r="19" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -17141,9 +17188,12 @@
       <c r="JP19" s="7">
         <v>69447</v>
       </c>
+      <c r="JQ19" s="7">
+        <v>70647</v>
+      </c>
     </row>
-    <row r="20" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -17969,9 +18019,12 @@
       <c r="JP20" s="7">
         <v>48903</v>
       </c>
+      <c r="JQ20" s="7">
+        <v>49834</v>
+      </c>
     </row>
-    <row r="21" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18767,50 +18820,53 @@
         <v>391234</v>
       </c>
       <c r="JF21" s="10">
-        <f t="shared" ref="JF21:JN21" si="3">SUM(JF12:JF20)</f>
+        <f t="shared" ref="JF21:JN21" si="4">SUM(JF12:JF20)</f>
         <v>388949</v>
       </c>
       <c r="JG21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>388222</v>
       </c>
       <c r="JH21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>388746</v>
       </c>
       <c r="JI21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389036</v>
       </c>
       <c r="JJ21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389372</v>
       </c>
       <c r="JK21" s="10">
-        <f t="shared" ref="JK21:JM21" si="4">SUM(JK12:JK20)</f>
+        <f t="shared" ref="JK21:JM21" si="5">SUM(JK12:JK20)</f>
         <v>390157</v>
       </c>
       <c r="JL21" s="10">
+        <f t="shared" si="5"/>
+        <v>393243</v>
+      </c>
+      <c r="JM21" s="10">
+        <f t="shared" si="5"/>
+        <v>392581</v>
+      </c>
+      <c r="JN21" s="10">
         <f t="shared" si="4"/>
-        <v>393243</v>
-      </c>
-      <c r="JM21" s="10">
-        <f t="shared" si="4"/>
-        <v>392581</v>
-      </c>
-      <c r="JN21" s="10">
-        <f t="shared" si="3"/>
         <v>394460</v>
       </c>
       <c r="JO21" s="10">
-        <f t="shared" ref="JO21:JP21" si="5">SUM(JO12:JO20)</f>
+        <f t="shared" ref="JO21:JQ21" si="6">SUM(JO12:JO20)</f>
         <v>397012</v>
       </c>
       <c r="JP21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="JP21" si="7">SUM(JP12:JP20)</f>
         <v>402868</v>
       </c>
-      <c r="JQ21" s="29"/>
+      <c r="JQ21" s="10">
+        <f t="shared" si="6"/>
+        <v>403989</v>
+      </c>
       <c r="JR21" s="29"/>
       <c r="JS21" s="29"/>
       <c r="JT21" s="29"/>
@@ -19266,7 +19322,7 @@
       <c r="ABB21" s="29"/>
       <c r="ABC21" s="29"/>
       <c r="ABD21" s="29"/>
-      <c r="ABE21" s="5"/>
+      <c r="ABE21" s="29"/>
       <c r="ABF21" s="5"/>
       <c r="ABG21" s="5"/>
       <c r="ABH21" s="5"/>
@@ -19447,9 +19503,10 @@
       <c r="AIA21" s="5"/>
       <c r="AIB21" s="5"/>
       <c r="AIC21" s="5"/>
+      <c r="AID21" s="5"/>
     </row>
-    <row r="22" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -20277,9 +20334,12 @@
       <c r="JP22" s="7">
         <v>113781</v>
       </c>
+      <c r="JQ22" s="7">
+        <v>115311</v>
+      </c>
     </row>
-    <row r="23" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+    <row r="23" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -21105,9 +21165,12 @@
       <c r="JP23" s="7">
         <v>36800</v>
       </c>
+      <c r="JQ23" s="7">
+        <v>36817</v>
+      </c>
     </row>
-    <row r="24" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+    <row r="24" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -21903,50 +21966,53 @@
         <v>141823</v>
       </c>
       <c r="JF24" s="10">
-        <f t="shared" ref="JF24:JN24" si="6">SUM(JF22:JF23)</f>
+        <f t="shared" ref="JF24:JN24" si="8">SUM(JF22:JF23)</f>
         <v>134547</v>
       </c>
       <c r="JG24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>135688</v>
       </c>
       <c r="JH24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>136388</v>
       </c>
       <c r="JI24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>137344</v>
       </c>
       <c r="JJ24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>137135</v>
       </c>
       <c r="JK24" s="10">
-        <f t="shared" ref="JK24:JM24" si="7">SUM(JK22:JK23)</f>
+        <f t="shared" ref="JK24:JM24" si="9">SUM(JK22:JK23)</f>
         <v>139462</v>
       </c>
       <c r="JL24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>140587</v>
       </c>
       <c r="JM24" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>142342</v>
       </c>
       <c r="JN24" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>144641</v>
       </c>
       <c r="JO24" s="10">
-        <f t="shared" ref="JO24:JP24" si="8">SUM(JO22:JO23)</f>
+        <f t="shared" ref="JO24:JQ24" si="10">SUM(JO22:JO23)</f>
         <v>145163</v>
       </c>
       <c r="JP24" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="JP24" si="11">SUM(JP22:JP23)</f>
         <v>150581</v>
       </c>
-      <c r="JQ24" s="29"/>
+      <c r="JQ24" s="10">
+        <f t="shared" si="10"/>
+        <v>152128</v>
+      </c>
       <c r="JR24" s="29"/>
       <c r="JS24" s="29"/>
       <c r="JT24" s="29"/>
@@ -22402,7 +22468,7 @@
       <c r="ABB24" s="29"/>
       <c r="ABC24" s="29"/>
       <c r="ABD24" s="29"/>
-      <c r="ABE24" s="5"/>
+      <c r="ABE24" s="29"/>
       <c r="ABF24" s="5"/>
       <c r="ABG24" s="5"/>
       <c r="ABH24" s="5"/>
@@ -22583,9 +22649,10 @@
       <c r="AIA24" s="5"/>
       <c r="AIB24" s="5"/>
       <c r="AIC24" s="5"/>
+      <c r="AID24" s="5"/>
     </row>
-    <row r="25" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23413,9 +23480,12 @@
       <c r="JP25" s="7">
         <v>4302</v>
       </c>
+      <c r="JQ25" s="7">
+        <v>4331</v>
+      </c>
     </row>
-    <row r="26" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+    <row r="26" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -24241,9 +24311,12 @@
       <c r="JP26" s="7">
         <v>5443</v>
       </c>
+      <c r="JQ26" s="7">
+        <v>5516</v>
+      </c>
     </row>
-    <row r="27" spans="1:913" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+    <row r="27" spans="1:914" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -25039,50 +25112,53 @@
         <v>9570</v>
       </c>
       <c r="JF27" s="10">
-        <f t="shared" ref="JF27:JN27" si="9">SUM(JF25:JF26)</f>
+        <f t="shared" ref="JF27:JN27" si="12">SUM(JF25:JF26)</f>
         <v>9393</v>
       </c>
       <c r="JG27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9433</v>
       </c>
       <c r="JH27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9550</v>
       </c>
       <c r="JI27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9619</v>
       </c>
       <c r="JJ27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9540</v>
       </c>
       <c r="JK27" s="10">
-        <f t="shared" ref="JK27:JM27" si="10">SUM(JK25:JK26)</f>
+        <f t="shared" ref="JK27:JM27" si="13">SUM(JK25:JK26)</f>
         <v>9600</v>
       </c>
       <c r="JL27" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9738</v>
       </c>
       <c r="JM27" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9682</v>
       </c>
       <c r="JN27" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9763</v>
       </c>
       <c r="JO27" s="10">
-        <f t="shared" ref="JO27:JP27" si="11">SUM(JO25:JO26)</f>
+        <f t="shared" ref="JO27:JQ27" si="14">SUM(JO25:JO26)</f>
         <v>9686</v>
       </c>
       <c r="JP27" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="JP27" si="15">SUM(JP25:JP26)</f>
         <v>9745</v>
       </c>
-      <c r="JQ27" s="29"/>
+      <c r="JQ27" s="10">
+        <f t="shared" si="14"/>
+        <v>9847</v>
+      </c>
       <c r="JR27" s="29"/>
       <c r="JS27" s="29"/>
       <c r="JT27" s="29"/>
@@ -25538,7 +25614,7 @@
       <c r="ABB27" s="29"/>
       <c r="ABC27" s="29"/>
       <c r="ABD27" s="29"/>
-      <c r="ABE27" s="5"/>
+      <c r="ABE27" s="29"/>
       <c r="ABF27" s="5"/>
       <c r="ABG27" s="5"/>
       <c r="ABH27" s="5"/>
@@ -25719,9 +25795,10 @@
       <c r="AIA27" s="5"/>
       <c r="AIB27" s="5"/>
       <c r="AIC27" s="5"/>
+      <c r="AID27" s="5"/>
     </row>
-    <row r="28" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26549,9 +26626,12 @@
       <c r="JP28" s="7">
         <v>908</v>
       </c>
+      <c r="JQ28" s="7">
+        <v>910</v>
+      </c>
     </row>
-    <row r="29" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -27377,9 +27457,12 @@
       <c r="JP29" s="7">
         <v>11376</v>
       </c>
+      <c r="JQ29" s="7">
+        <v>11478</v>
+      </c>
     </row>
-    <row r="30" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -28205,9 +28288,12 @@
       <c r="JP30" s="7">
         <v>29921</v>
       </c>
+      <c r="JQ30" s="7">
+        <v>29825</v>
+      </c>
     </row>
-    <row r="31" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -29033,9 +29119,12 @@
       <c r="JP31" s="7">
         <v>105547</v>
       </c>
+      <c r="JQ31" s="7">
+        <v>106421</v>
+      </c>
     </row>
-    <row r="32" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -29861,9 +29950,12 @@
       <c r="JP32" s="7">
         <v>26441</v>
       </c>
+      <c r="JQ32" s="7">
+        <v>26724</v>
+      </c>
     </row>
-    <row r="33" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30689,9 +30781,12 @@
       <c r="JP33" s="7">
         <v>9796</v>
       </c>
+      <c r="JQ33" s="7">
+        <v>9836</v>
+      </c>
     </row>
-    <row r="34" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31517,9 +31612,12 @@
       <c r="JP34" s="7">
         <v>44276</v>
       </c>
+      <c r="JQ34" s="7">
+        <v>44425</v>
+      </c>
     </row>
-    <row r="35" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:914" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -32345,9 +32443,12 @@
       <c r="JP35" s="7">
         <v>11192</v>
       </c>
+      <c r="JQ35" s="7">
+        <v>11168</v>
+      </c>
     </row>
-    <row r="36" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -33173,9 +33274,12 @@
       <c r="JP36" s="7">
         <v>54063</v>
       </c>
+      <c r="JQ36" s="7">
+        <v>53863</v>
+      </c>
     </row>
-    <row r="37" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -34001,9 +34105,12 @@
       <c r="JP37" s="7">
         <v>73425</v>
       </c>
+      <c r="JQ37" s="7">
+        <v>73848</v>
+      </c>
     </row>
-    <row r="38" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -34829,9 +34936,12 @@
       <c r="JP38" s="7">
         <v>22004</v>
       </c>
+      <c r="JQ38" s="7">
+        <v>21938</v>
+      </c>
     </row>
-    <row r="39" spans="1:913" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35657,9 +35767,12 @@
       <c r="JP39" s="7">
         <v>24094</v>
       </c>
+      <c r="JQ39" s="7">
+        <v>24203</v>
+      </c>
     </row>
-    <row r="40" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -36485,9 +36598,12 @@
       <c r="JP40" s="7">
         <v>12176</v>
       </c>
+      <c r="JQ40" s="7">
+        <v>12161</v>
+      </c>
     </row>
-    <row r="41" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -37313,9 +37429,12 @@
       <c r="JP41" s="7">
         <v>11090</v>
       </c>
+      <c r="JQ41" s="7">
+        <v>11172</v>
+      </c>
     </row>
-    <row r="42" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -38141,9 +38260,12 @@
       <c r="JP42" s="7">
         <v>44392</v>
       </c>
+      <c r="JQ42" s="7">
+        <v>44490</v>
+      </c>
     </row>
-    <row r="43" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -38969,9 +39091,12 @@
       <c r="JP43" s="7">
         <v>4831</v>
       </c>
+      <c r="JQ43" s="7">
+        <v>4792</v>
+      </c>
     </row>
-    <row r="44" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+    <row r="44" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -39797,9 +39922,12 @@
       <c r="JP44" s="7">
         <v>5960</v>
       </c>
+      <c r="JQ44" s="7">
+        <v>5885</v>
+      </c>
     </row>
-    <row r="45" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
+    <row r="45" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -40625,9 +40753,12 @@
       <c r="JP45" s="7">
         <v>7209</v>
       </c>
+      <c r="JQ45" s="7">
+        <v>7249</v>
+      </c>
     </row>
-    <row r="46" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
+    <row r="46" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -41453,9 +41584,12 @@
       <c r="JP46" s="7">
         <v>13420</v>
       </c>
+      <c r="JQ46" s="7">
+        <v>13324</v>
+      </c>
     </row>
-    <row r="47" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+    <row r="47" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -42281,9 +42415,12 @@
       <c r="JP47" s="7">
         <v>1613</v>
       </c>
+      <c r="JQ47" s="7">
+        <v>1591</v>
+      </c>
     </row>
-    <row r="48" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
+    <row r="48" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -43079,50 +43216,53 @@
         <v>484648</v>
       </c>
       <c r="JF48" s="10">
-        <f t="shared" ref="JF48:JN48" si="12">SUM(JF28:JF47)</f>
+        <f t="shared" ref="JF48:JN48" si="16">SUM(JF28:JF47)</f>
         <v>480660</v>
       </c>
       <c r="JG48" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>483047</v>
       </c>
       <c r="JH48" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>487818</v>
       </c>
       <c r="JI48" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>493413</v>
       </c>
       <c r="JJ48" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>494824</v>
       </c>
       <c r="JK48" s="10">
-        <f t="shared" ref="JK48:JM48" si="13">SUM(JK28:JK47)</f>
+        <f t="shared" ref="JK48:JM48" si="17">SUM(JK28:JK47)</f>
         <v>496682</v>
       </c>
       <c r="JL48" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>499541</v>
       </c>
       <c r="JM48" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>502349</v>
       </c>
       <c r="JN48" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>505597</v>
       </c>
       <c r="JO48" s="10">
-        <f t="shared" ref="JO48:JP48" si="14">SUM(JO28:JO47)</f>
+        <f t="shared" ref="JO48:JQ48" si="18">SUM(JO28:JO47)</f>
         <v>509874</v>
       </c>
       <c r="JP48" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="JP48" si="19">SUM(JP28:JP47)</f>
         <v>513734</v>
       </c>
-      <c r="JQ48" s="29"/>
+      <c r="JQ48" s="10">
+        <f t="shared" si="18"/>
+        <v>515303</v>
+      </c>
       <c r="JR48" s="29"/>
       <c r="JS48" s="29"/>
       <c r="JT48" s="29"/>
@@ -43578,7 +43718,7 @@
       <c r="ABB48" s="29"/>
       <c r="ABC48" s="29"/>
       <c r="ABD48" s="29"/>
-      <c r="ABE48" s="5"/>
+      <c r="ABE48" s="29"/>
       <c r="ABF48" s="5"/>
       <c r="ABG48" s="5"/>
       <c r="ABH48" s="5"/>
@@ -43759,9 +43899,10 @@
       <c r="AIA48" s="5"/>
       <c r="AIB48" s="5"/>
       <c r="AIC48" s="5"/>
+      <c r="AID48" s="5"/>
     </row>
-    <row r="49" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+    <row r="49" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -44589,9 +44730,12 @@
       <c r="JP49" s="8">
         <v>12</v>
       </c>
+      <c r="JQ49" s="8">
+        <v>13</v>
+      </c>
     </row>
-    <row r="50" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+    <row r="50" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -45417,9 +45561,12 @@
       <c r="JP50" s="8">
         <v>30</v>
       </c>
+      <c r="JQ50" s="8">
+        <v>37</v>
+      </c>
     </row>
-    <row r="51" spans="1:276" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
+    <row r="51" spans="1:277" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -46245,9 +46392,12 @@
       <c r="JP51" s="7">
         <v>1488</v>
       </c>
+      <c r="JQ51" s="7">
+        <v>1495</v>
+      </c>
     </row>
-    <row r="52" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
+    <row r="52" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -47073,9 +47223,12 @@
       <c r="JP52" s="7">
         <v>975</v>
       </c>
+      <c r="JQ52" s="7">
+        <v>970</v>
+      </c>
     </row>
-    <row r="53" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
+    <row r="53" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -47871,52 +48024,56 @@
         <v>2646</v>
       </c>
       <c r="JF53" s="10">
-        <f t="shared" ref="JF53:JN53" si="15">SUM(JF49:JF52)</f>
+        <f t="shared" ref="JF53:JN53" si="20">SUM(JF49:JF52)</f>
         <v>2624</v>
       </c>
       <c r="JG53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2642</v>
       </c>
       <c r="JH53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2643</v>
       </c>
       <c r="JI53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2577</v>
       </c>
       <c r="JJ53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2556</v>
       </c>
       <c r="JK53" s="10">
-        <f t="shared" ref="JK53:JM53" si="16">SUM(JK49:JK52)</f>
+        <f t="shared" ref="JK53:JM53" si="21">SUM(JK49:JK52)</f>
         <v>2538</v>
       </c>
       <c r="JL53" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2538</v>
       </c>
       <c r="JM53" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2465</v>
       </c>
       <c r="JN53" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>2477</v>
       </c>
       <c r="JO53" s="10">
-        <f t="shared" ref="JO53:JP53" si="17">SUM(JO49:JO52)</f>
+        <f t="shared" ref="JO53:JQ53" si="22">SUM(JO49:JO52)</f>
         <v>2518</v>
       </c>
       <c r="JP53" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="JP53" si="23">SUM(JP49:JP52)</f>
         <v>2505</v>
       </c>
+      <c r="JQ53" s="10">
+        <f t="shared" si="22"/>
+        <v>2515</v>
+      </c>
     </row>
-    <row r="54" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+    <row r="54" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -48744,9 +48901,12 @@
       <c r="JP54" s="36">
         <v>5809</v>
       </c>
+      <c r="JQ54" s="36">
+        <v>5746</v>
+      </c>
     </row>
-    <row r="55" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
+    <row r="55" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -49572,9 +49732,12 @@
       <c r="JP55" s="7">
         <v>53691</v>
       </c>
+      <c r="JQ55" s="7">
+        <v>54539</v>
+      </c>
     </row>
-    <row r="56" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
+    <row r="56" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -50400,9 +50563,12 @@
       <c r="JP56" s="7">
         <v>6989</v>
       </c>
+      <c r="JQ56" s="7">
+        <v>7037</v>
+      </c>
     </row>
-    <row r="57" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+    <row r="57" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -51228,9 +51394,12 @@
       <c r="JP57" s="7">
         <v>190438</v>
       </c>
+      <c r="JQ57" s="7">
+        <v>191103</v>
+      </c>
     </row>
-    <row r="58" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
+    <row r="58" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -52056,9 +52225,12 @@
       <c r="JP58" s="7">
         <v>34008</v>
       </c>
+      <c r="JQ58" s="7">
+        <v>34882</v>
+      </c>
     </row>
-    <row r="59" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
+    <row r="59" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -52884,9 +53056,12 @@
       <c r="JP59" s="7">
         <v>6702</v>
       </c>
+      <c r="JQ59" s="7">
+        <v>6902</v>
+      </c>
     </row>
-    <row r="60" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -53712,9 +53887,12 @@
       <c r="JP60" s="7">
         <v>49906</v>
       </c>
+      <c r="JQ60" s="7">
+        <v>50301</v>
+      </c>
     </row>
-    <row r="61" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
+    <row r="61" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -54540,9 +54718,12 @@
       <c r="JP61" s="8">
         <v>141</v>
       </c>
+      <c r="JQ61" s="8">
+        <v>145</v>
+      </c>
     </row>
-    <row r="62" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+    <row r="62" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -55368,9 +55549,12 @@
       <c r="JP62" s="7">
         <v>20296</v>
       </c>
+      <c r="JQ62" s="7">
+        <v>20120</v>
+      </c>
     </row>
-    <row r="63" spans="1:276" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
+    <row r="63" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -56196,9 +56380,12 @@
       <c r="JP63" s="7">
         <v>34207</v>
       </c>
+      <c r="JQ63" s="7">
+        <v>34426</v>
+      </c>
     </row>
-    <row r="64" spans="1:276" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
+    <row r="64" spans="1:277" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -57024,9 +57211,12 @@
       <c r="JP64" s="7">
         <v>48805</v>
       </c>
+      <c r="JQ64" s="7">
+        <v>48887</v>
+      </c>
     </row>
-    <row r="65" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
+    <row r="65" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -57852,9 +58042,12 @@
       <c r="JP65" s="7">
         <v>168418</v>
       </c>
+      <c r="JQ65" s="7">
+        <v>170137</v>
+      </c>
     </row>
-    <row r="66" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
+    <row r="66" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -58680,9 +58873,12 @@
       <c r="JP66" s="7">
         <v>19623</v>
       </c>
+      <c r="JQ66" s="7">
+        <v>20167</v>
+      </c>
     </row>
-    <row r="67" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+    <row r="67" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A67" s="42"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -59508,9 +59704,12 @@
       <c r="JP67" s="7">
         <v>6376</v>
       </c>
+      <c r="JQ67" s="7">
+        <v>6387</v>
+      </c>
     </row>
-    <row r="68" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38"/>
+    <row r="68" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -60306,50 +60505,53 @@
         <v>626463</v>
       </c>
       <c r="JF68" s="10">
-        <f t="shared" ref="JF68:JN68" si="18">SUM(JF54:JF67)</f>
+        <f t="shared" ref="JF68:JN68" si="24">SUM(JF54:JF67)</f>
         <v>620320</v>
       </c>
       <c r="JG68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>622201</v>
       </c>
       <c r="JH68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>626630</v>
       </c>
       <c r="JI68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>630046</v>
       </c>
       <c r="JJ68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>630421</v>
       </c>
       <c r="JK68" s="10">
-        <f t="shared" ref="JK68:JM68" si="19">SUM(JK54:JK67)</f>
+        <f t="shared" ref="JK68:JM68" si="25">SUM(JK54:JK67)</f>
         <v>632610</v>
       </c>
       <c r="JL68" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>634764</v>
       </c>
       <c r="JM68" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>632848</v>
       </c>
       <c r="JN68" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>636862</v>
       </c>
       <c r="JO68" s="10">
-        <f t="shared" ref="JO68:JP68" si="20">SUM(JO54:JO67)</f>
+        <f t="shared" ref="JO68:JQ68" si="26">SUM(JO54:JO67)</f>
         <v>640257</v>
       </c>
       <c r="JP68" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="JP68" si="27">SUM(JP54:JP67)</f>
         <v>645409</v>
       </c>
-      <c r="JQ68" s="29"/>
+      <c r="JQ68" s="10">
+        <f t="shared" si="26"/>
+        <v>650779</v>
+      </c>
       <c r="JR68" s="29"/>
       <c r="JS68" s="29"/>
       <c r="JT68" s="29"/>
@@ -60805,7 +61007,7 @@
       <c r="ABB68" s="29"/>
       <c r="ABC68" s="29"/>
       <c r="ABD68" s="29"/>
-      <c r="ABE68" s="5"/>
+      <c r="ABE68" s="29"/>
       <c r="ABF68" s="5"/>
       <c r="ABG68" s="5"/>
       <c r="ABH68" s="5"/>
@@ -60986,9 +61188,10 @@
       <c r="AIA68" s="5"/>
       <c r="AIB68" s="5"/>
       <c r="AIC68" s="5"/>
+      <c r="AID68" s="5"/>
     </row>
-    <row r="69" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A69" s="38" t="s">
+    <row r="69" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -61816,9 +62019,12 @@
       <c r="JP69" s="7">
         <v>9799</v>
       </c>
+      <c r="JQ69" s="7">
+        <v>9906</v>
+      </c>
     </row>
-    <row r="70" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+    <row r="70" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -62644,9 +62850,12 @@
       <c r="JP70" s="7">
         <v>875</v>
       </c>
+      <c r="JQ70" s="7">
+        <v>883</v>
+      </c>
     </row>
-    <row r="71" spans="1:913" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+    <row r="71" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -63472,9 +63681,12 @@
       <c r="JP71" s="7">
         <v>34816</v>
       </c>
+      <c r="JQ71" s="7">
+        <v>34790</v>
+      </c>
     </row>
-    <row r="72" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+    <row r="72" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -64300,9 +64512,12 @@
       <c r="JP72" s="7">
         <v>4430</v>
       </c>
+      <c r="JQ72" s="7">
+        <v>4381</v>
+      </c>
     </row>
-    <row r="73" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A73" s="38"/>
+    <row r="73" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -65128,9 +65343,12 @@
       <c r="JP73" s="8">
         <v>574</v>
       </c>
+      <c r="JQ73" s="8">
+        <v>570</v>
+      </c>
     </row>
-    <row r="74" spans="1:913" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
+    <row r="74" spans="1:914" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -65956,9 +66174,12 @@
       <c r="JP74" s="7">
         <v>54350</v>
       </c>
+      <c r="JQ74" s="7">
+        <v>54502</v>
+      </c>
     </row>
-    <row r="75" spans="1:913" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+    <row r="75" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -66754,50 +66975,53 @@
         <v>97872</v>
       </c>
       <c r="JF75" s="10">
-        <f t="shared" ref="JF75:JN75" si="21">SUM(JF69:JF74)</f>
+        <f t="shared" ref="JF75:JN75" si="28">SUM(JF69:JF74)</f>
         <v>97255</v>
       </c>
       <c r="JG75" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>98343</v>
       </c>
       <c r="JH75" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>99545</v>
       </c>
       <c r="JI75" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>99824</v>
       </c>
       <c r="JJ75" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>100160</v>
       </c>
       <c r="JK75" s="10">
-        <f t="shared" ref="JK75:JM75" si="22">SUM(JK69:JK74)</f>
+        <f t="shared" ref="JK75:JM75" si="29">SUM(JK69:JK74)</f>
         <v>100656</v>
       </c>
       <c r="JL75" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>101579</v>
       </c>
       <c r="JM75" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>101385</v>
       </c>
       <c r="JN75" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>101608</v>
       </c>
       <c r="JO75" s="10">
-        <f t="shared" ref="JO75:JP75" si="23">SUM(JO69:JO74)</f>
+        <f t="shared" ref="JO75:JQ75" si="30">SUM(JO69:JO74)</f>
         <v>104048</v>
       </c>
       <c r="JP75" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="JP75" si="31">SUM(JP69:JP74)</f>
         <v>104844</v>
       </c>
-      <c r="JQ75" s="29"/>
+      <c r="JQ75" s="10">
+        <f t="shared" si="30"/>
+        <v>105032</v>
+      </c>
       <c r="JR75" s="29"/>
       <c r="JS75" s="29"/>
       <c r="JT75" s="29"/>
@@ -67253,7 +67477,7 @@
       <c r="ABB75" s="29"/>
       <c r="ABC75" s="29"/>
       <c r="ABD75" s="29"/>
-      <c r="ABE75" s="5"/>
+      <c r="ABE75" s="29"/>
       <c r="ABF75" s="5"/>
       <c r="ABG75" s="5"/>
       <c r="ABH75" s="5"/>
@@ -67434,8 +67658,9 @@
       <c r="AIA75" s="5"/>
       <c r="AIB75" s="5"/>
       <c r="AIC75" s="5"/>
+      <c r="AID75" s="5"/>
     </row>
-    <row r="76" spans="1:913" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:914" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -68233,51 +68458,55 @@
         <v>1873476</v>
       </c>
       <c r="JF76" s="19">
-        <f t="shared" ref="JF76:JN76" si="24">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
+        <f t="shared" ref="JF76:JN76" si="32">JF11+JF21+JF24+JF27+JF48+JF53+JF68+JF75</f>
         <v>1849999</v>
       </c>
       <c r="JG76" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1861159</v>
       </c>
       <c r="JH76" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1874622</v>
       </c>
       <c r="JI76" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1886776</v>
       </c>
       <c r="JJ76" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1884715</v>
       </c>
       <c r="JK76" s="19">
-        <f t="shared" ref="JK76:JM76" si="25">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
+        <f t="shared" ref="JK76:JM76" si="33">JK11+JK21+JK24+JK27+JK48+JK53+JK68+JK75</f>
         <v>1888232</v>
       </c>
       <c r="JL76" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1896755</v>
       </c>
       <c r="JM76" s="19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1896517</v>
       </c>
       <c r="JN76" s="19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>1910627</v>
       </c>
       <c r="JO76" s="19">
-        <f t="shared" ref="JO76:JP76" si="26">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <f t="shared" ref="JO76:JQ76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
         <v>1927647</v>
       </c>
       <c r="JP76" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="JP76" si="35">JP11+JP21+JP24+JP27+JP48+JP53+JP68+JP75</f>
         <v>1950941</v>
       </c>
+      <c r="JQ76" s="19">
+        <f t="shared" si="34"/>
+        <v>1960510</v>
+      </c>
     </row>
-    <row r="77" spans="1:913" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:914" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -68549,7 +68778,7 @@
       <c r="JN77" s="30"/>
       <c r="JO77" s="30"/>
       <c r="JP77" s="30"/>
-      <c r="JQ77" s="27"/>
+      <c r="JQ77" s="30"/>
       <c r="JR77" s="27"/>
       <c r="JS77" s="27"/>
       <c r="JT77" s="27"/>
@@ -69005,15 +69234,35 @@
       <c r="ABB77" s="27"/>
       <c r="ABC77" s="27"/>
       <c r="ABD77" s="27"/>
+      <c r="ABE77" s="27"/>
     </row>
-    <row r="78" spans="1:913" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:914" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="JG4:JP4"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="JG4:JQ4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>
@@ -69027,25 +69276,6 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="352">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1095,6 +1095,9 @@
   </si>
   <si>
     <t>2022/noviembre</t>
+  </si>
+  <si>
+    <t>2022/diciembre</t>
   </si>
 </sst>
 </file>
@@ -2180,11 +2183,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AID78"/>
+  <dimension ref="A1:AIE78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JS74" sqref="JS74"/>
+      <pane xSplit="2" topLeftCell="JG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JP90" sqref="JP90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2455,23 +2458,23 @@
     <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
     <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="275" max="277" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="278" max="733" width="10.875" style="28"/>
-    <col min="734" max="914" width="10.875" style="4"/>
-    <col min="915" max="16384" width="10.875" style="3"/>
+    <col min="275" max="278" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="279" max="734" width="10.875" style="28"/>
+    <col min="735" max="915" width="10.875" style="4"/>
+    <col min="916" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:914" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
@@ -2799,7 +2802,7 @@
       <c r="JO4" s="38"/>
       <c r="JP4" s="38"/>
       <c r="JQ4" s="38"/>
-      <c r="JR4" s="29"/>
+      <c r="JR4" s="38"/>
       <c r="JS4" s="29"/>
       <c r="JT4" s="29"/>
       <c r="JU4" s="29"/>
@@ -3255,7 +3258,7 @@
       <c r="ABC4" s="29"/>
       <c r="ABD4" s="29"/>
       <c r="ABE4" s="29"/>
-      <c r="ABF4" s="5"/>
+      <c r="ABF4" s="29"/>
       <c r="ABG4" s="5"/>
       <c r="ABH4" s="5"/>
       <c r="ABI4" s="5"/>
@@ -3436,8 +3439,9 @@
       <c r="AIB4" s="5"/>
       <c r="AIC4" s="5"/>
       <c r="AID4" s="5"/>
+      <c r="AIE4" s="5"/>
     </row>
-    <row r="5" spans="1:914" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
@@ -4265,7 +4269,9 @@
       <c r="JQ5" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="JR5" s="29"/>
+      <c r="JR5" s="31" t="s">
+        <v>351</v>
+      </c>
       <c r="JS5" s="29"/>
       <c r="JT5" s="29"/>
       <c r="JU5" s="29"/>
@@ -4721,7 +4727,7 @@
       <c r="ABC5" s="29"/>
       <c r="ABD5" s="29"/>
       <c r="ABE5" s="29"/>
-      <c r="ABF5" s="5"/>
+      <c r="ABF5" s="29"/>
       <c r="ABG5" s="5"/>
       <c r="ABH5" s="5"/>
       <c r="ABI5" s="5"/>
@@ -4902,8 +4908,9 @@
       <c r="AIB5" s="5"/>
       <c r="AIC5" s="5"/>
       <c r="AID5" s="5"/>
+      <c r="AIE5" s="5"/>
     </row>
-    <row r="6" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>244</v>
       </c>
@@ -5735,8 +5742,11 @@
       <c r="JQ6" s="7">
         <v>96008</v>
       </c>
+      <c r="JR6" s="7">
+        <v>94055</v>
+      </c>
     </row>
-    <row r="7" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
@@ -6566,8 +6576,11 @@
       <c r="JQ7" s="8">
         <v>47</v>
       </c>
+      <c r="JR7" s="8">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
@@ -7397,8 +7410,11 @@
       <c r="JQ8" s="7">
         <v>23917</v>
       </c>
+      <c r="JR8" s="7">
+        <v>23769</v>
+      </c>
     </row>
-    <row r="9" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
@@ -8228,8 +8244,11 @@
       <c r="JQ9" s="7">
         <v>480</v>
       </c>
+      <c r="JR9" s="7">
+        <v>428</v>
+      </c>
     </row>
-    <row r="10" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
@@ -9059,8 +9078,11 @@
       <c r="JQ10" s="8">
         <v>465</v>
       </c>
+      <c r="JR10" s="8">
+        <v>409</v>
+      </c>
     </row>
-    <row r="11" spans="1:914" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:915" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
@@ -9893,18 +9915,21 @@
         <v>115219</v>
       </c>
       <c r="JO11" s="10">
-        <f t="shared" ref="JO11:JQ11" si="2">SUM(JO6:JO10)</f>
+        <f t="shared" ref="JO11:JR11" si="2">SUM(JO6:JO10)</f>
         <v>119089</v>
       </c>
       <c r="JP11" s="10">
-        <f t="shared" ref="JP11" si="3">SUM(JP6:JP10)</f>
+        <f t="shared" ref="JP11:JQ11" si="3">SUM(JP6:JP10)</f>
         <v>121255</v>
       </c>
       <c r="JQ11" s="10">
+        <f t="shared" si="3"/>
+        <v>120917</v>
+      </c>
+      <c r="JR11" s="10">
         <f t="shared" si="2"/>
-        <v>120917</v>
-      </c>
-      <c r="JR11" s="29"/>
+        <v>118708</v>
+      </c>
       <c r="JS11" s="29"/>
       <c r="JT11" s="29"/>
       <c r="JU11" s="29"/>
@@ -10360,7 +10385,7 @@
       <c r="ABC11" s="29"/>
       <c r="ABD11" s="29"/>
       <c r="ABE11" s="29"/>
-      <c r="ABF11" s="5"/>
+      <c r="ABF11" s="29"/>
       <c r="ABG11" s="5"/>
       <c r="ABH11" s="5"/>
       <c r="ABI11" s="5"/>
@@ -10541,8 +10566,9 @@
       <c r="AIB11" s="5"/>
       <c r="AIC11" s="5"/>
       <c r="AID11" s="5"/>
+      <c r="AIE11" s="5"/>
     </row>
-    <row r="12" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>249</v>
       </c>
@@ -11374,8 +11400,11 @@
       <c r="JQ12" s="7">
         <v>79770</v>
       </c>
+      <c r="JR12" s="7">
+        <v>79016</v>
+      </c>
     </row>
-    <row r="13" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
@@ -12205,8 +12234,11 @@
       <c r="JQ13" s="7">
         <v>21079</v>
       </c>
+      <c r="JR13" s="7">
+        <v>20604</v>
+      </c>
     </row>
-    <row r="14" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
@@ -13036,8 +13068,11 @@
       <c r="JQ14" s="7">
         <v>34398</v>
       </c>
+      <c r="JR14" s="7">
+        <v>34405</v>
+      </c>
     </row>
-    <row r="15" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
@@ -13867,8 +13902,11 @@
       <c r="JQ15" s="7">
         <v>22432</v>
       </c>
+      <c r="JR15" s="7">
+        <v>22400</v>
+      </c>
     </row>
-    <row r="16" spans="1:914" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:915" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
@@ -14698,8 +14736,11 @@
       <c r="JQ16" s="7">
         <v>14058</v>
       </c>
+      <c r="JR16" s="7">
+        <v>13723</v>
+      </c>
     </row>
-    <row r="17" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
@@ -15529,8 +15570,11 @@
       <c r="JQ17" s="7">
         <v>50150</v>
       </c>
+      <c r="JR17" s="7">
+        <v>49835</v>
+      </c>
     </row>
-    <row r="18" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
@@ -16360,8 +16404,11 @@
       <c r="JQ18" s="7">
         <v>61621</v>
       </c>
+      <c r="JR18" s="7">
+        <v>61234</v>
+      </c>
     </row>
-    <row r="19" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
@@ -17191,8 +17238,11 @@
       <c r="JQ19" s="7">
         <v>70647</v>
       </c>
+      <c r="JR19" s="7">
+        <v>70017</v>
+      </c>
     </row>
-    <row r="20" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
@@ -18022,8 +18072,11 @@
       <c r="JQ20" s="7">
         <v>49834</v>
       </c>
+      <c r="JR20" s="7">
+        <v>48373</v>
+      </c>
     </row>
-    <row r="21" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
@@ -18856,18 +18909,21 @@
         <v>394460</v>
       </c>
       <c r="JO21" s="10">
-        <f t="shared" ref="JO21:JQ21" si="6">SUM(JO12:JO20)</f>
+        <f t="shared" ref="JO21:JR21" si="6">SUM(JO12:JO20)</f>
         <v>397012</v>
       </c>
       <c r="JP21" s="10">
-        <f t="shared" ref="JP21" si="7">SUM(JP12:JP20)</f>
+        <f t="shared" ref="JP21:JQ21" si="7">SUM(JP12:JP20)</f>
         <v>402868</v>
       </c>
       <c r="JQ21" s="10">
+        <f t="shared" si="7"/>
+        <v>403989</v>
+      </c>
+      <c r="JR21" s="10">
         <f t="shared" si="6"/>
-        <v>403989</v>
-      </c>
-      <c r="JR21" s="29"/>
+        <v>399607</v>
+      </c>
       <c r="JS21" s="29"/>
       <c r="JT21" s="29"/>
       <c r="JU21" s="29"/>
@@ -19323,7 +19379,7 @@
       <c r="ABC21" s="29"/>
       <c r="ABD21" s="29"/>
       <c r="ABE21" s="29"/>
-      <c r="ABF21" s="5"/>
+      <c r="ABF21" s="29"/>
       <c r="ABG21" s="5"/>
       <c r="ABH21" s="5"/>
       <c r="ABI21" s="5"/>
@@ -19504,8 +19560,9 @@
       <c r="AIB21" s="5"/>
       <c r="AIC21" s="5"/>
       <c r="AID21" s="5"/>
+      <c r="AIE21" s="5"/>
     </row>
-    <row r="22" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>259</v>
       </c>
@@ -20337,8 +20394,11 @@
       <c r="JQ22" s="7">
         <v>115311</v>
       </c>
+      <c r="JR22" s="7">
+        <v>109309</v>
+      </c>
     </row>
-    <row r="23" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
@@ -21168,8 +21228,11 @@
       <c r="JQ23" s="7">
         <v>36817</v>
       </c>
+      <c r="JR23" s="7">
+        <v>36037</v>
+      </c>
     </row>
-    <row r="24" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
@@ -22002,18 +22065,21 @@
         <v>144641</v>
       </c>
       <c r="JO24" s="10">
-        <f t="shared" ref="JO24:JQ24" si="10">SUM(JO22:JO23)</f>
+        <f t="shared" ref="JO24:JR24" si="10">SUM(JO22:JO23)</f>
         <v>145163</v>
       </c>
       <c r="JP24" s="10">
-        <f t="shared" ref="JP24" si="11">SUM(JP22:JP23)</f>
+        <f t="shared" ref="JP24:JQ24" si="11">SUM(JP22:JP23)</f>
         <v>150581</v>
       </c>
       <c r="JQ24" s="10">
+        <f t="shared" si="11"/>
+        <v>152128</v>
+      </c>
+      <c r="JR24" s="10">
         <f t="shared" si="10"/>
-        <v>152128</v>
-      </c>
-      <c r="JR24" s="29"/>
+        <v>145346</v>
+      </c>
       <c r="JS24" s="29"/>
       <c r="JT24" s="29"/>
       <c r="JU24" s="29"/>
@@ -22469,7 +22535,7 @@
       <c r="ABC24" s="29"/>
       <c r="ABD24" s="29"/>
       <c r="ABE24" s="29"/>
-      <c r="ABF24" s="5"/>
+      <c r="ABF24" s="29"/>
       <c r="ABG24" s="5"/>
       <c r="ABH24" s="5"/>
       <c r="ABI24" s="5"/>
@@ -22650,8 +22716,9 @@
       <c r="AIB24" s="5"/>
       <c r="AIC24" s="5"/>
       <c r="AID24" s="5"/>
+      <c r="AIE24" s="5"/>
     </row>
-    <row r="25" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>262</v>
       </c>
@@ -23483,8 +23550,11 @@
       <c r="JQ25" s="7">
         <v>4331</v>
       </c>
+      <c r="JR25" s="7">
+        <v>4282</v>
+      </c>
     </row>
-    <row r="26" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A26" s="42"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
@@ -24314,8 +24384,11 @@
       <c r="JQ26" s="7">
         <v>5516</v>
       </c>
+      <c r="JR26" s="7">
+        <v>5532</v>
+      </c>
     </row>
-    <row r="27" spans="1:914" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:915" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
@@ -25148,18 +25221,21 @@
         <v>9763</v>
       </c>
       <c r="JO27" s="10">
-        <f t="shared" ref="JO27:JQ27" si="14">SUM(JO25:JO26)</f>
+        <f t="shared" ref="JO27:JR27" si="14">SUM(JO25:JO26)</f>
         <v>9686</v>
       </c>
       <c r="JP27" s="10">
-        <f t="shared" ref="JP27" si="15">SUM(JP25:JP26)</f>
+        <f t="shared" ref="JP27:JQ27" si="15">SUM(JP25:JP26)</f>
         <v>9745</v>
       </c>
       <c r="JQ27" s="10">
+        <f t="shared" si="15"/>
+        <v>9847</v>
+      </c>
+      <c r="JR27" s="10">
         <f t="shared" si="14"/>
-        <v>9847</v>
-      </c>
-      <c r="JR27" s="29"/>
+        <v>9814</v>
+      </c>
       <c r="JS27" s="29"/>
       <c r="JT27" s="29"/>
       <c r="JU27" s="29"/>
@@ -25615,7 +25691,7 @@
       <c r="ABC27" s="29"/>
       <c r="ABD27" s="29"/>
       <c r="ABE27" s="29"/>
-      <c r="ABF27" s="5"/>
+      <c r="ABF27" s="29"/>
       <c r="ABG27" s="5"/>
       <c r="ABH27" s="5"/>
       <c r="ABI27" s="5"/>
@@ -25796,8 +25872,9 @@
       <c r="AIB27" s="5"/>
       <c r="AIC27" s="5"/>
       <c r="AID27" s="5"/>
+      <c r="AIE27" s="5"/>
     </row>
-    <row r="28" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>265</v>
       </c>
@@ -26629,8 +26706,11 @@
       <c r="JQ28" s="7">
         <v>910</v>
       </c>
+      <c r="JR28" s="7">
+        <v>882</v>
+      </c>
     </row>
-    <row r="29" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
@@ -27460,8 +27540,11 @@
       <c r="JQ29" s="7">
         <v>11478</v>
       </c>
+      <c r="JR29" s="7">
+        <v>11464</v>
+      </c>
     </row>
-    <row r="30" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
@@ -28291,8 +28374,11 @@
       <c r="JQ30" s="7">
         <v>29825</v>
       </c>
+      <c r="JR30" s="7">
+        <v>29463</v>
+      </c>
     </row>
-    <row r="31" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
@@ -29122,8 +29208,11 @@
       <c r="JQ31" s="7">
         <v>106421</v>
       </c>
+      <c r="JR31" s="7">
+        <v>105116</v>
+      </c>
     </row>
-    <row r="32" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
@@ -29953,8 +30042,11 @@
       <c r="JQ32" s="7">
         <v>26724</v>
       </c>
+      <c r="JR32" s="7">
+        <v>26425</v>
+      </c>
     </row>
-    <row r="33" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
@@ -30784,8 +30876,11 @@
       <c r="JQ33" s="7">
         <v>9836</v>
       </c>
+      <c r="JR33" s="7">
+        <v>9720</v>
+      </c>
     </row>
-    <row r="34" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
@@ -31615,8 +31710,11 @@
       <c r="JQ34" s="7">
         <v>44425</v>
       </c>
+      <c r="JR34" s="7">
+        <v>43400</v>
+      </c>
     </row>
-    <row r="35" spans="1:914" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:915" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
@@ -32446,8 +32544,11 @@
       <c r="JQ35" s="7">
         <v>11168</v>
       </c>
+      <c r="JR35" s="7">
+        <v>11052</v>
+      </c>
     </row>
-    <row r="36" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A36" s="42"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
@@ -33277,8 +33378,11 @@
       <c r="JQ36" s="7">
         <v>53863</v>
       </c>
+      <c r="JR36" s="7">
+        <v>52413</v>
+      </c>
     </row>
-    <row r="37" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
@@ -34108,8 +34212,11 @@
       <c r="JQ37" s="7">
         <v>73848</v>
       </c>
+      <c r="JR37" s="7">
+        <v>73539</v>
+      </c>
     </row>
-    <row r="38" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
@@ -34939,8 +35046,11 @@
       <c r="JQ38" s="7">
         <v>21938</v>
       </c>
+      <c r="JR38" s="7">
+        <v>21607</v>
+      </c>
     </row>
-    <row r="39" spans="1:914" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
@@ -35770,8 +35880,11 @@
       <c r="JQ39" s="7">
         <v>24203</v>
       </c>
+      <c r="JR39" s="7">
+        <v>23937</v>
+      </c>
     </row>
-    <row r="40" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
@@ -36601,8 +36714,11 @@
       <c r="JQ40" s="7">
         <v>12161</v>
       </c>
+      <c r="JR40" s="7">
+        <v>11936</v>
+      </c>
     </row>
-    <row r="41" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
@@ -37432,8 +37548,11 @@
       <c r="JQ41" s="7">
         <v>11172</v>
       </c>
+      <c r="JR41" s="7">
+        <v>10936</v>
+      </c>
     </row>
-    <row r="42" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
@@ -38263,8 +38382,11 @@
       <c r="JQ42" s="7">
         <v>44490</v>
       </c>
+      <c r="JR42" s="7">
+        <v>44022</v>
+      </c>
     </row>
-    <row r="43" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
@@ -39094,8 +39216,11 @@
       <c r="JQ43" s="7">
         <v>4792</v>
       </c>
+      <c r="JR43" s="7">
+        <v>4653</v>
+      </c>
     </row>
-    <row r="44" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
@@ -39925,8 +40050,11 @@
       <c r="JQ44" s="7">
         <v>5885</v>
       </c>
+      <c r="JR44" s="7">
+        <v>5827</v>
+      </c>
     </row>
-    <row r="45" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
@@ -40756,8 +40884,11 @@
       <c r="JQ45" s="7">
         <v>7249</v>
       </c>
+      <c r="JR45" s="7">
+        <v>7147</v>
+      </c>
     </row>
-    <row r="46" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
@@ -41587,8 +41718,11 @@
       <c r="JQ46" s="7">
         <v>13324</v>
       </c>
+      <c r="JR46" s="7">
+        <v>13200</v>
+      </c>
     </row>
-    <row r="47" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
@@ -42418,8 +42552,11 @@
       <c r="JQ47" s="7">
         <v>1591</v>
       </c>
+      <c r="JR47" s="7">
+        <v>1407</v>
+      </c>
     </row>
-    <row r="48" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
@@ -43252,18 +43389,21 @@
         <v>505597</v>
       </c>
       <c r="JO48" s="10">
-        <f t="shared" ref="JO48:JQ48" si="18">SUM(JO28:JO47)</f>
+        <f t="shared" ref="JO48:JR48" si="18">SUM(JO28:JO47)</f>
         <v>509874</v>
       </c>
       <c r="JP48" s="10">
-        <f t="shared" ref="JP48" si="19">SUM(JP28:JP47)</f>
+        <f t="shared" ref="JP48:JQ48" si="19">SUM(JP28:JP47)</f>
         <v>513734</v>
       </c>
       <c r="JQ48" s="10">
+        <f t="shared" si="19"/>
+        <v>515303</v>
+      </c>
+      <c r="JR48" s="10">
         <f t="shared" si="18"/>
-        <v>515303</v>
-      </c>
-      <c r="JR48" s="29"/>
+        <v>508146</v>
+      </c>
       <c r="JS48" s="29"/>
       <c r="JT48" s="29"/>
       <c r="JU48" s="29"/>
@@ -43719,7 +43859,7 @@
       <c r="ABC48" s="29"/>
       <c r="ABD48" s="29"/>
       <c r="ABE48" s="29"/>
-      <c r="ABF48" s="5"/>
+      <c r="ABF48" s="29"/>
       <c r="ABG48" s="5"/>
       <c r="ABH48" s="5"/>
       <c r="ABI48" s="5"/>
@@ -43900,8 +44040,9 @@
       <c r="AIB48" s="5"/>
       <c r="AIC48" s="5"/>
       <c r="AID48" s="5"/>
+      <c r="AIE48" s="5"/>
     </row>
-    <row r="49" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>286</v>
       </c>
@@ -44733,8 +44874,11 @@
       <c r="JQ49" s="8">
         <v>13</v>
       </c>
+      <c r="JR49" s="8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="50" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
@@ -45564,8 +45708,11 @@
       <c r="JQ50" s="8">
         <v>37</v>
       </c>
+      <c r="JR50" s="8">
+        <v>40</v>
+      </c>
     </row>
-    <row r="51" spans="1:277" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:278" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
@@ -46395,8 +46542,11 @@
       <c r="JQ51" s="7">
         <v>1495</v>
       </c>
+      <c r="JR51" s="7">
+        <v>1504</v>
+      </c>
     </row>
-    <row r="52" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
@@ -47226,8 +47376,11 @@
       <c r="JQ52" s="7">
         <v>970</v>
       </c>
+      <c r="JR52" s="7">
+        <v>944</v>
+      </c>
     </row>
-    <row r="53" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
@@ -48060,19 +48213,23 @@
         <v>2477</v>
       </c>
       <c r="JO53" s="10">
-        <f t="shared" ref="JO53:JQ53" si="22">SUM(JO49:JO52)</f>
+        <f t="shared" ref="JO53:JR53" si="22">SUM(JO49:JO52)</f>
         <v>2518</v>
       </c>
       <c r="JP53" s="10">
-        <f t="shared" ref="JP53" si="23">SUM(JP49:JP52)</f>
+        <f t="shared" ref="JP53:JQ53" si="23">SUM(JP49:JP52)</f>
         <v>2505</v>
       </c>
       <c r="JQ53" s="10">
+        <f t="shared" si="23"/>
+        <v>2515</v>
+      </c>
+      <c r="JR53" s="10">
         <f t="shared" si="22"/>
-        <v>2515</v>
+        <v>2500</v>
       </c>
     </row>
-    <row r="54" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>291</v>
       </c>
@@ -48904,8 +49061,11 @@
       <c r="JQ54" s="36">
         <v>5746</v>
       </c>
+      <c r="JR54" s="36">
+        <v>5740</v>
+      </c>
     </row>
-    <row r="55" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A55" s="42"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
@@ -49735,8 +49895,11 @@
       <c r="JQ55" s="7">
         <v>54539</v>
       </c>
+      <c r="JR55" s="7">
+        <v>54061</v>
+      </c>
     </row>
-    <row r="56" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
@@ -50566,8 +50729,11 @@
       <c r="JQ56" s="7">
         <v>7037</v>
       </c>
+      <c r="JR56" s="7">
+        <v>7002</v>
+      </c>
     </row>
-    <row r="57" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A57" s="42"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
@@ -51397,8 +51563,11 @@
       <c r="JQ57" s="7">
         <v>191103</v>
       </c>
+      <c r="JR57" s="7">
+        <v>191123</v>
+      </c>
     </row>
-    <row r="58" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A58" s="42"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
@@ -52228,8 +52397,11 @@
       <c r="JQ58" s="7">
         <v>34882</v>
       </c>
+      <c r="JR58" s="7">
+        <v>34825</v>
+      </c>
     </row>
-    <row r="59" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
@@ -53059,8 +53231,11 @@
       <c r="JQ59" s="7">
         <v>6902</v>
       </c>
+      <c r="JR59" s="7">
+        <v>6872</v>
+      </c>
     </row>
-    <row r="60" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
@@ -53890,8 +54065,11 @@
       <c r="JQ60" s="7">
         <v>50301</v>
       </c>
+      <c r="JR60" s="7">
+        <v>46723</v>
+      </c>
     </row>
-    <row r="61" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
@@ -54721,8 +54899,11 @@
       <c r="JQ61" s="8">
         <v>145</v>
       </c>
+      <c r="JR61" s="8">
+        <v>146</v>
+      </c>
     </row>
-    <row r="62" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
@@ -55552,8 +55733,11 @@
       <c r="JQ62" s="7">
         <v>20120</v>
       </c>
+      <c r="JR62" s="7">
+        <v>20229</v>
+      </c>
     </row>
-    <row r="63" spans="1:277" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
@@ -56383,8 +56567,11 @@
       <c r="JQ63" s="7">
         <v>34426</v>
       </c>
+      <c r="JR63" s="7">
+        <v>34258</v>
+      </c>
     </row>
-    <row r="64" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
@@ -57214,8 +57401,11 @@
       <c r="JQ64" s="7">
         <v>48887</v>
       </c>
+      <c r="JR64" s="7">
+        <v>47971</v>
+      </c>
     </row>
-    <row r="65" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
@@ -58045,8 +58235,11 @@
       <c r="JQ65" s="7">
         <v>170137</v>
       </c>
+      <c r="JR65" s="7">
+        <v>169070</v>
+      </c>
     </row>
-    <row r="66" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
@@ -58876,8 +59069,11 @@
       <c r="JQ66" s="7">
         <v>20167</v>
       </c>
+      <c r="JR66" s="7">
+        <v>20116</v>
+      </c>
     </row>
-    <row r="67" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A67" s="42"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
@@ -59707,8 +59903,11 @@
       <c r="JQ67" s="7">
         <v>6387</v>
       </c>
+      <c r="JR67" s="7">
+        <v>6261</v>
+      </c>
     </row>
-    <row r="68" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="42"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
@@ -60541,18 +60740,21 @@
         <v>636862</v>
       </c>
       <c r="JO68" s="10">
-        <f t="shared" ref="JO68:JQ68" si="26">SUM(JO54:JO67)</f>
+        <f t="shared" ref="JO68:JR68" si="26">SUM(JO54:JO67)</f>
         <v>640257</v>
       </c>
       <c r="JP68" s="10">
-        <f t="shared" ref="JP68" si="27">SUM(JP54:JP67)</f>
+        <f t="shared" ref="JP68:JQ68" si="27">SUM(JP54:JP67)</f>
         <v>645409</v>
       </c>
       <c r="JQ68" s="10">
+        <f t="shared" si="27"/>
+        <v>650779</v>
+      </c>
+      <c r="JR68" s="10">
         <f t="shared" si="26"/>
-        <v>650779</v>
-      </c>
-      <c r="JR68" s="29"/>
+        <v>644397</v>
+      </c>
       <c r="JS68" s="29"/>
       <c r="JT68" s="29"/>
       <c r="JU68" s="29"/>
@@ -61008,7 +61210,7 @@
       <c r="ABC68" s="29"/>
       <c r="ABD68" s="29"/>
       <c r="ABE68" s="29"/>
-      <c r="ABF68" s="5"/>
+      <c r="ABF68" s="29"/>
       <c r="ABG68" s="5"/>
       <c r="ABH68" s="5"/>
       <c r="ABI68" s="5"/>
@@ -61189,8 +61391,9 @@
       <c r="AIB68" s="5"/>
       <c r="AIC68" s="5"/>
       <c r="AID68" s="5"/>
+      <c r="AIE68" s="5"/>
     </row>
-    <row r="69" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A69" s="42" t="s">
         <v>306</v>
       </c>
@@ -62022,8 +62225,11 @@
       <c r="JQ69" s="7">
         <v>9906</v>
       </c>
+      <c r="JR69" s="7">
+        <v>9835</v>
+      </c>
     </row>
-    <row r="70" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A70" s="42"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
@@ -62853,8 +63059,11 @@
       <c r="JQ70" s="7">
         <v>883</v>
       </c>
+      <c r="JR70" s="7">
+        <v>876</v>
+      </c>
     </row>
-    <row r="71" spans="1:914" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
@@ -63684,8 +63893,11 @@
       <c r="JQ71" s="7">
         <v>34790</v>
       </c>
+      <c r="JR71" s="7">
+        <v>34493</v>
+      </c>
     </row>
-    <row r="72" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
@@ -64515,8 +64727,11 @@
       <c r="JQ72" s="7">
         <v>4381</v>
       </c>
+      <c r="JR72" s="7">
+        <v>4603</v>
+      </c>
     </row>
-    <row r="73" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
@@ -65346,8 +65561,11 @@
       <c r="JQ73" s="8">
         <v>570</v>
       </c>
+      <c r="JR73" s="8">
+        <v>569</v>
+      </c>
     </row>
-    <row r="74" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A74" s="42"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
@@ -66177,8 +66395,11 @@
       <c r="JQ74" s="7">
         <v>54502</v>
       </c>
+      <c r="JR74" s="7">
+        <v>54068</v>
+      </c>
     </row>
-    <row r="75" spans="1:914" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
@@ -67011,18 +67232,21 @@
         <v>101608</v>
       </c>
       <c r="JO75" s="10">
-        <f t="shared" ref="JO75:JQ75" si="30">SUM(JO69:JO74)</f>
+        <f t="shared" ref="JO75:JR75" si="30">SUM(JO69:JO74)</f>
         <v>104048</v>
       </c>
       <c r="JP75" s="10">
-        <f t="shared" ref="JP75" si="31">SUM(JP69:JP74)</f>
+        <f t="shared" ref="JP75:JQ75" si="31">SUM(JP69:JP74)</f>
         <v>104844</v>
       </c>
       <c r="JQ75" s="10">
+        <f t="shared" si="31"/>
+        <v>105032</v>
+      </c>
+      <c r="JR75" s="10">
         <f t="shared" si="30"/>
-        <v>105032</v>
-      </c>
-      <c r="JR75" s="29"/>
+        <v>104444</v>
+      </c>
       <c r="JS75" s="29"/>
       <c r="JT75" s="29"/>
       <c r="JU75" s="29"/>
@@ -67478,7 +67702,7 @@
       <c r="ABC75" s="29"/>
       <c r="ABD75" s="29"/>
       <c r="ABE75" s="29"/>
-      <c r="ABF75" s="5"/>
+      <c r="ABF75" s="29"/>
       <c r="ABG75" s="5"/>
       <c r="ABH75" s="5"/>
       <c r="ABI75" s="5"/>
@@ -67659,8 +67883,9 @@
       <c r="AIB75" s="5"/>
       <c r="AIC75" s="5"/>
       <c r="AID75" s="5"/>
+      <c r="AIE75" s="5"/>
     </row>
-    <row r="76" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -68494,19 +68719,23 @@
         <v>1910627</v>
       </c>
       <c r="JO76" s="19">
-        <f t="shared" ref="JO76:JQ76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <f t="shared" ref="JO76:JR76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
         <v>1927647</v>
       </c>
       <c r="JP76" s="19">
-        <f t="shared" ref="JP76" si="35">JP11+JP21+JP24+JP27+JP48+JP53+JP68+JP75</f>
+        <f t="shared" ref="JP76:JQ76" si="35">JP11+JP21+JP24+JP27+JP48+JP53+JP68+JP75</f>
         <v>1950941</v>
       </c>
       <c r="JQ76" s="19">
+        <f t="shared" si="35"/>
+        <v>1960510</v>
+      </c>
+      <c r="JR76" s="19">
         <f t="shared" si="34"/>
-        <v>1960510</v>
+        <v>1932962</v>
       </c>
     </row>
-    <row r="77" spans="1:914" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:915" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -68779,7 +69008,7 @@
       <c r="JO77" s="30"/>
       <c r="JP77" s="30"/>
       <c r="JQ77" s="30"/>
-      <c r="JR77" s="27"/>
+      <c r="JR77" s="30"/>
       <c r="JS77" s="27"/>
       <c r="JT77" s="27"/>
       <c r="JU77" s="27"/>
@@ -69235,8 +69464,9 @@
       <c r="ABC77" s="27"/>
       <c r="ABD77" s="27"/>
       <c r="ABE77" s="27"/>
+      <c r="ABF77" s="27"/>
     </row>
-    <row r="78" spans="1:914" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
@@ -69262,7 +69492,7 @@
     <mergeCell ref="A28:A48"/>
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="A54:A68"/>
-    <mergeCell ref="JG4:JQ4"/>
+    <mergeCell ref="JG4:JR4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
     <mergeCell ref="DG4:DR4"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="352">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1061,9 +1061,6 @@
     <t>2021/Diciembre</t>
   </si>
   <si>
-    <t>2000-2022</t>
-  </si>
-  <si>
     <t>2022/Enero</t>
   </si>
   <si>
@@ -1098,6 +1095,9 @@
   </si>
   <si>
     <t>2022/diciembre</t>
+  </si>
+  <si>
+    <t>2000-2023</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1703,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1813,6 +1813,15 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1821,12 +1830,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2186,8 +2189,8 @@
   <dimension ref="A1:AIE78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JP90" sqref="JP90"/>
+      <pane xSplit="2" topLeftCell="JI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JW11" sqref="JW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2459,7 +2462,8 @@
     <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
     <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
     <col min="275" max="278" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="279" max="734" width="10.875" style="28"/>
+    <col min="279" max="279" width="14.375" style="4" customWidth="1"/>
+    <col min="280" max="734" width="10.875" style="28"/>
     <col min="735" max="915" width="10.875" style="4"/>
     <col min="916" max="16384" width="10.875" style="3"/>
   </cols>
@@ -2471,339 +2475,341 @@
     </row>
     <row r="2" spans="1:915" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="40">
         <v>2000</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40">
         <v>2001</v>
       </c>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40">
         <v>2002</v>
       </c>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40">
         <v>2003</v>
       </c>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38">
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+      <c r="AU4" s="40"/>
+      <c r="AV4" s="40"/>
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38">
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="40"/>
+      <c r="BK4" s="40">
         <v>2005</v>
       </c>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38"/>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38">
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40"/>
+      <c r="BQ4" s="40"/>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="40"/>
+      <c r="BV4" s="40"/>
+      <c r="BW4" s="40">
         <v>2006</v>
       </c>
-      <c r="BX4" s="38"/>
-      <c r="BY4" s="38"/>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38"/>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38">
+      <c r="BX4" s="40"/>
+      <c r="BY4" s="40"/>
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
+      <c r="CC4" s="40"/>
+      <c r="CD4" s="40"/>
+      <c r="CE4" s="40"/>
+      <c r="CF4" s="40"/>
+      <c r="CG4" s="40"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="40">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="38"/>
-      <c r="CL4" s="38"/>
-      <c r="CM4" s="38"/>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38"/>
-      <c r="CT4" s="38"/>
-      <c r="CU4" s="38">
+      <c r="CJ4" s="40"/>
+      <c r="CK4" s="40"/>
+      <c r="CL4" s="40"/>
+      <c r="CM4" s="40"/>
+      <c r="CN4" s="40"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="40"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="40"/>
+      <c r="CS4" s="40"/>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="40">
         <v>2008</v>
       </c>
-      <c r="CV4" s="38"/>
-      <c r="CW4" s="38"/>
-      <c r="CX4" s="38"/>
-      <c r="CY4" s="38"/>
-      <c r="CZ4" s="38"/>
-      <c r="DA4" s="38"/>
-      <c r="DB4" s="38"/>
-      <c r="DC4" s="38"/>
-      <c r="DD4" s="38"/>
-      <c r="DE4" s="38"/>
-      <c r="DF4" s="38"/>
-      <c r="DG4" s="38">
+      <c r="CV4" s="40"/>
+      <c r="CW4" s="40"/>
+      <c r="CX4" s="40"/>
+      <c r="CY4" s="40"/>
+      <c r="CZ4" s="40"/>
+      <c r="DA4" s="40"/>
+      <c r="DB4" s="40"/>
+      <c r="DC4" s="40"/>
+      <c r="DD4" s="40"/>
+      <c r="DE4" s="40"/>
+      <c r="DF4" s="40"/>
+      <c r="DG4" s="40">
         <v>2009</v>
       </c>
-      <c r="DH4" s="38"/>
-      <c r="DI4" s="38"/>
-      <c r="DJ4" s="38"/>
-      <c r="DK4" s="38"/>
-      <c r="DL4" s="38"/>
-      <c r="DM4" s="38"/>
-      <c r="DN4" s="38"/>
-      <c r="DO4" s="38"/>
-      <c r="DP4" s="38"/>
-      <c r="DQ4" s="38"/>
-      <c r="DR4" s="38"/>
-      <c r="DS4" s="38">
+      <c r="DH4" s="40"/>
+      <c r="DI4" s="40"/>
+      <c r="DJ4" s="40"/>
+      <c r="DK4" s="40"/>
+      <c r="DL4" s="40"/>
+      <c r="DM4" s="40"/>
+      <c r="DN4" s="40"/>
+      <c r="DO4" s="40"/>
+      <c r="DP4" s="40"/>
+      <c r="DQ4" s="40"/>
+      <c r="DR4" s="40"/>
+      <c r="DS4" s="40">
         <v>2010</v>
       </c>
-      <c r="DT4" s="38"/>
-      <c r="DU4" s="38"/>
-      <c r="DV4" s="38"/>
-      <c r="DW4" s="38"/>
-      <c r="DX4" s="38"/>
-      <c r="DY4" s="38"/>
-      <c r="DZ4" s="38"/>
-      <c r="EA4" s="38"/>
-      <c r="EB4" s="38"/>
-      <c r="EC4" s="38"/>
-      <c r="ED4" s="38"/>
-      <c r="EE4" s="38">
+      <c r="DT4" s="40"/>
+      <c r="DU4" s="40"/>
+      <c r="DV4" s="40"/>
+      <c r="DW4" s="40"/>
+      <c r="DX4" s="40"/>
+      <c r="DY4" s="40"/>
+      <c r="DZ4" s="40"/>
+      <c r="EA4" s="40"/>
+      <c r="EB4" s="40"/>
+      <c r="EC4" s="40"/>
+      <c r="ED4" s="40"/>
+      <c r="EE4" s="40">
         <v>2011</v>
       </c>
-      <c r="EF4" s="38"/>
-      <c r="EG4" s="38"/>
-      <c r="EH4" s="38"/>
-      <c r="EI4" s="38"/>
-      <c r="EJ4" s="38"/>
-      <c r="EK4" s="38"/>
-      <c r="EL4" s="38"/>
-      <c r="EM4" s="38"/>
-      <c r="EN4" s="38"/>
-      <c r="EO4" s="38"/>
-      <c r="EP4" s="38"/>
-      <c r="EQ4" s="38">
+      <c r="EF4" s="40"/>
+      <c r="EG4" s="40"/>
+      <c r="EH4" s="40"/>
+      <c r="EI4" s="40"/>
+      <c r="EJ4" s="40"/>
+      <c r="EK4" s="40"/>
+      <c r="EL4" s="40"/>
+      <c r="EM4" s="40"/>
+      <c r="EN4" s="40"/>
+      <c r="EO4" s="40"/>
+      <c r="EP4" s="40"/>
+      <c r="EQ4" s="40">
         <v>2012</v>
       </c>
-      <c r="ER4" s="38"/>
-      <c r="ES4" s="38"/>
-      <c r="ET4" s="38"/>
-      <c r="EU4" s="38"/>
-      <c r="EV4" s="38"/>
-      <c r="EW4" s="38"/>
-      <c r="EX4" s="38"/>
-      <c r="EY4" s="38"/>
-      <c r="EZ4" s="38"/>
-      <c r="FA4" s="38"/>
-      <c r="FB4" s="38"/>
-      <c r="FC4" s="38">
+      <c r="ER4" s="40"/>
+      <c r="ES4" s="40"/>
+      <c r="ET4" s="40"/>
+      <c r="EU4" s="40"/>
+      <c r="EV4" s="40"/>
+      <c r="EW4" s="40"/>
+      <c r="EX4" s="40"/>
+      <c r="EY4" s="40"/>
+      <c r="EZ4" s="40"/>
+      <c r="FA4" s="40"/>
+      <c r="FB4" s="40"/>
+      <c r="FC4" s="40">
         <v>2013</v>
       </c>
-      <c r="FD4" s="38"/>
-      <c r="FE4" s="38"/>
-      <c r="FF4" s="38"/>
-      <c r="FG4" s="38"/>
-      <c r="FH4" s="38"/>
-      <c r="FI4" s="38"/>
-      <c r="FJ4" s="38"/>
-      <c r="FK4" s="38"/>
-      <c r="FL4" s="38"/>
-      <c r="FM4" s="38"/>
-      <c r="FN4" s="38"/>
-      <c r="FO4" s="38">
+      <c r="FD4" s="40"/>
+      <c r="FE4" s="40"/>
+      <c r="FF4" s="40"/>
+      <c r="FG4" s="40"/>
+      <c r="FH4" s="40"/>
+      <c r="FI4" s="40"/>
+      <c r="FJ4" s="40"/>
+      <c r="FK4" s="40"/>
+      <c r="FL4" s="40"/>
+      <c r="FM4" s="40"/>
+      <c r="FN4" s="40"/>
+      <c r="FO4" s="40">
         <v>2014</v>
       </c>
-      <c r="FP4" s="38"/>
-      <c r="FQ4" s="38"/>
-      <c r="FR4" s="38"/>
-      <c r="FS4" s="38"/>
-      <c r="FT4" s="38"/>
-      <c r="FU4" s="38"/>
-      <c r="FV4" s="38"/>
-      <c r="FW4" s="38"/>
-      <c r="FX4" s="38"/>
-      <c r="FY4" s="38"/>
-      <c r="FZ4" s="38"/>
-      <c r="GA4" s="38">
+      <c r="FP4" s="40"/>
+      <c r="FQ4" s="40"/>
+      <c r="FR4" s="40"/>
+      <c r="FS4" s="40"/>
+      <c r="FT4" s="40"/>
+      <c r="FU4" s="40"/>
+      <c r="FV4" s="40"/>
+      <c r="FW4" s="40"/>
+      <c r="FX4" s="40"/>
+      <c r="FY4" s="40"/>
+      <c r="FZ4" s="40"/>
+      <c r="GA4" s="40">
         <v>2015</v>
       </c>
-      <c r="GB4" s="38"/>
-      <c r="GC4" s="38"/>
-      <c r="GD4" s="38"/>
-      <c r="GE4" s="38"/>
-      <c r="GF4" s="38"/>
-      <c r="GG4" s="38"/>
-      <c r="GH4" s="38"/>
-      <c r="GI4" s="38"/>
-      <c r="GJ4" s="38"/>
-      <c r="GK4" s="38"/>
-      <c r="GL4" s="38"/>
-      <c r="GM4" s="38">
+      <c r="GB4" s="40"/>
+      <c r="GC4" s="40"/>
+      <c r="GD4" s="40"/>
+      <c r="GE4" s="40"/>
+      <c r="GF4" s="40"/>
+      <c r="GG4" s="40"/>
+      <c r="GH4" s="40"/>
+      <c r="GI4" s="40"/>
+      <c r="GJ4" s="40"/>
+      <c r="GK4" s="40"/>
+      <c r="GL4" s="40"/>
+      <c r="GM4" s="40">
         <v>2016</v>
       </c>
-      <c r="GN4" s="38"/>
-      <c r="GO4" s="38"/>
-      <c r="GP4" s="38"/>
-      <c r="GQ4" s="38"/>
-      <c r="GR4" s="38"/>
-      <c r="GS4" s="38"/>
-      <c r="GT4" s="38"/>
-      <c r="GU4" s="38"/>
-      <c r="GV4" s="38"/>
-      <c r="GW4" s="38"/>
-      <c r="GX4" s="38"/>
-      <c r="GY4" s="38">
+      <c r="GN4" s="40"/>
+      <c r="GO4" s="40"/>
+      <c r="GP4" s="40"/>
+      <c r="GQ4" s="40"/>
+      <c r="GR4" s="40"/>
+      <c r="GS4" s="40"/>
+      <c r="GT4" s="40"/>
+      <c r="GU4" s="40"/>
+      <c r="GV4" s="40"/>
+      <c r="GW4" s="40"/>
+      <c r="GX4" s="40"/>
+      <c r="GY4" s="40">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="38"/>
-      <c r="HA4" s="38"/>
-      <c r="HB4" s="38"/>
-      <c r="HC4" s="38"/>
-      <c r="HD4" s="38"/>
-      <c r="HE4" s="38"/>
-      <c r="HF4" s="38"/>
-      <c r="HG4" s="38"/>
-      <c r="HH4" s="38"/>
-      <c r="HI4" s="38"/>
-      <c r="HJ4" s="38"/>
-      <c r="HK4" s="38">
+      <c r="GZ4" s="40"/>
+      <c r="HA4" s="40"/>
+      <c r="HB4" s="40"/>
+      <c r="HC4" s="40"/>
+      <c r="HD4" s="40"/>
+      <c r="HE4" s="40"/>
+      <c r="HF4" s="40"/>
+      <c r="HG4" s="40"/>
+      <c r="HH4" s="40"/>
+      <c r="HI4" s="40"/>
+      <c r="HJ4" s="40"/>
+      <c r="HK4" s="40">
         <v>2018</v>
       </c>
-      <c r="HL4" s="38"/>
-      <c r="HM4" s="38"/>
-      <c r="HN4" s="38"/>
-      <c r="HO4" s="38"/>
-      <c r="HP4" s="38"/>
-      <c r="HQ4" s="38"/>
-      <c r="HR4" s="38"/>
-      <c r="HS4" s="38"/>
-      <c r="HT4" s="38"/>
-      <c r="HU4" s="38"/>
-      <c r="HV4" s="38"/>
-      <c r="HW4" s="38">
+      <c r="HL4" s="40"/>
+      <c r="HM4" s="40"/>
+      <c r="HN4" s="40"/>
+      <c r="HO4" s="40"/>
+      <c r="HP4" s="40"/>
+      <c r="HQ4" s="40"/>
+      <c r="HR4" s="40"/>
+      <c r="HS4" s="40"/>
+      <c r="HT4" s="40"/>
+      <c r="HU4" s="40"/>
+      <c r="HV4" s="40"/>
+      <c r="HW4" s="40">
         <v>2019</v>
       </c>
-      <c r="HX4" s="38"/>
-      <c r="HY4" s="38"/>
-      <c r="HZ4" s="38"/>
-      <c r="IA4" s="38"/>
-      <c r="IB4" s="38"/>
-      <c r="IC4" s="38"/>
-      <c r="ID4" s="38"/>
-      <c r="IE4" s="38"/>
-      <c r="IF4" s="38"/>
-      <c r="IG4" s="38"/>
-      <c r="IH4" s="39"/>
-      <c r="II4" s="39">
+      <c r="HX4" s="40"/>
+      <c r="HY4" s="40"/>
+      <c r="HZ4" s="40"/>
+      <c r="IA4" s="40"/>
+      <c r="IB4" s="40"/>
+      <c r="IC4" s="40"/>
+      <c r="ID4" s="40"/>
+      <c r="IE4" s="40"/>
+      <c r="IF4" s="40"/>
+      <c r="IG4" s="40"/>
+      <c r="IH4" s="42"/>
+      <c r="II4" s="42">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="40"/>
-      <c r="IK4" s="40"/>
-      <c r="IL4" s="40"/>
-      <c r="IM4" s="40"/>
-      <c r="IN4" s="40"/>
-      <c r="IO4" s="40"/>
-      <c r="IP4" s="40"/>
-      <c r="IQ4" s="40"/>
-      <c r="IR4" s="40"/>
-      <c r="IS4" s="40"/>
-      <c r="IT4" s="41"/>
-      <c r="IU4" s="39">
+      <c r="IJ4" s="43"/>
+      <c r="IK4" s="43"/>
+      <c r="IL4" s="43"/>
+      <c r="IM4" s="43"/>
+      <c r="IN4" s="43"/>
+      <c r="IO4" s="43"/>
+      <c r="IP4" s="43"/>
+      <c r="IQ4" s="43"/>
+      <c r="IR4" s="43"/>
+      <c r="IS4" s="43"/>
+      <c r="IT4" s="44"/>
+      <c r="IU4" s="42">
         <v>2021</v>
       </c>
-      <c r="IV4" s="40"/>
-      <c r="IW4" s="40"/>
-      <c r="IX4" s="40"/>
-      <c r="IY4" s="40"/>
-      <c r="IZ4" s="40"/>
-      <c r="JA4" s="40"/>
-      <c r="JB4" s="40"/>
-      <c r="JC4" s="40"/>
-      <c r="JD4" s="40"/>
-      <c r="JE4" s="40"/>
-      <c r="JF4" s="41"/>
-      <c r="JG4" s="38">
+      <c r="IV4" s="43"/>
+      <c r="IW4" s="43"/>
+      <c r="IX4" s="43"/>
+      <c r="IY4" s="43"/>
+      <c r="IZ4" s="43"/>
+      <c r="JA4" s="43"/>
+      <c r="JB4" s="43"/>
+      <c r="JC4" s="43"/>
+      <c r="JD4" s="43"/>
+      <c r="JE4" s="43"/>
+      <c r="JF4" s="44"/>
+      <c r="JG4" s="40">
         <v>2022</v>
       </c>
-      <c r="JH4" s="38"/>
-      <c r="JI4" s="38"/>
-      <c r="JJ4" s="38"/>
-      <c r="JK4" s="38"/>
-      <c r="JL4" s="38"/>
-      <c r="JM4" s="38"/>
-      <c r="JN4" s="38"/>
-      <c r="JO4" s="38"/>
-      <c r="JP4" s="38"/>
-      <c r="JQ4" s="38"/>
-      <c r="JR4" s="38"/>
-      <c r="JS4" s="29"/>
+      <c r="JH4" s="40"/>
+      <c r="JI4" s="40"/>
+      <c r="JJ4" s="40"/>
+      <c r="JK4" s="40"/>
+      <c r="JL4" s="40"/>
+      <c r="JM4" s="40"/>
+      <c r="JN4" s="40"/>
+      <c r="JO4" s="40"/>
+      <c r="JP4" s="40"/>
+      <c r="JQ4" s="40"/>
+      <c r="JR4" s="40"/>
+      <c r="JS4" s="38">
+        <v>2023</v>
+      </c>
       <c r="JT4" s="29"/>
       <c r="JU4" s="29"/>
       <c r="JV4" s="29"/>
@@ -3442,8 +3448,8 @@
       <c r="AIE4" s="5"/>
     </row>
     <row r="5" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4237,42 +4243,44 @@
         <v>338</v>
       </c>
       <c r="JG5" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="JH5" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="JH5" s="31" t="s">
+      <c r="JI5" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="JI5" s="31" t="s">
+      <c r="JJ5" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="JJ5" s="31" t="s">
+      <c r="JK5" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="JK5" s="31" t="s">
+      <c r="JL5" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="JL5" s="31" t="s">
+      <c r="JM5" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="JM5" s="31" t="s">
+      <c r="JN5" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="JN5" s="31" t="s">
+      <c r="JO5" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="JO5" s="31" t="s">
+      <c r="JP5" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="JP5" s="31" t="s">
+      <c r="JQ5" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="JQ5" s="31" t="s">
+      <c r="JR5" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="JR5" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="JS5" s="29"/>
+      <c r="JS5" s="31" t="s">
+        <v>339</v>
+      </c>
       <c r="JT5" s="29"/>
       <c r="JU5" s="29"/>
       <c r="JV5" s="29"/>
@@ -4911,7 +4919,7 @@
       <c r="AIE5" s="5"/>
     </row>
     <row r="6" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5745,9 +5753,12 @@
       <c r="JR6" s="7">
         <v>94055</v>
       </c>
+      <c r="JS6" s="7">
+        <v>100760</v>
+      </c>
     </row>
     <row r="7" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6579,9 +6590,12 @@
       <c r="JR7" s="8">
         <v>47</v>
       </c>
+      <c r="JS7" s="8">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7413,9 +7427,12 @@
       <c r="JR8" s="7">
         <v>23769</v>
       </c>
+      <c r="JS8" s="7">
+        <v>23747</v>
+      </c>
     </row>
     <row r="9" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8247,9 +8264,12 @@
       <c r="JR9" s="7">
         <v>428</v>
       </c>
+      <c r="JS9" s="7">
+        <v>410</v>
+      </c>
     </row>
     <row r="10" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -9081,9 +9101,12 @@
       <c r="JR10" s="8">
         <v>409</v>
       </c>
+      <c r="JS10" s="8">
+        <v>447</v>
+      </c>
     </row>
     <row r="11" spans="1:915" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9915,7 +9938,7 @@
         <v>115219</v>
       </c>
       <c r="JO11" s="10">
-        <f t="shared" ref="JO11:JR11" si="2">SUM(JO6:JO10)</f>
+        <f t="shared" ref="JO11:JS11" si="2">SUM(JO6:JO10)</f>
         <v>119089</v>
       </c>
       <c r="JP11" s="10">
@@ -9930,7 +9953,10 @@
         <f t="shared" si="2"/>
         <v>118708</v>
       </c>
-      <c r="JS11" s="29"/>
+      <c r="JS11" s="10">
+        <f t="shared" si="2"/>
+        <v>125411</v>
+      </c>
       <c r="JT11" s="29"/>
       <c r="JU11" s="29"/>
       <c r="JV11" s="29"/>
@@ -10569,7 +10595,7 @@
       <c r="AIE11" s="5"/>
     </row>
     <row r="12" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="39" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11403,9 +11429,12 @@
       <c r="JR12" s="7">
         <v>79016</v>
       </c>
+      <c r="JS12" s="7">
+        <v>78690</v>
+      </c>
     </row>
     <row r="13" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12237,9 +12266,12 @@
       <c r="JR13" s="7">
         <v>20604</v>
       </c>
+      <c r="JS13" s="7">
+        <v>20200</v>
+      </c>
     </row>
     <row r="14" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -13071,9 +13103,12 @@
       <c r="JR14" s="7">
         <v>34405</v>
       </c>
+      <c r="JS14" s="7">
+        <v>34436</v>
+      </c>
     </row>
     <row r="15" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13905,9 +13940,12 @@
       <c r="JR15" s="7">
         <v>22400</v>
       </c>
+      <c r="JS15" s="7">
+        <v>22420</v>
+      </c>
     </row>
     <row r="16" spans="1:915" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14739,9 +14777,12 @@
       <c r="JR16" s="7">
         <v>13723</v>
       </c>
+      <c r="JS16" s="7">
+        <v>13640</v>
+      </c>
     </row>
     <row r="17" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15573,9 +15614,12 @@
       <c r="JR17" s="7">
         <v>49835</v>
       </c>
+      <c r="JS17" s="7">
+        <v>50356</v>
+      </c>
     </row>
     <row r="18" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16407,9 +16451,12 @@
       <c r="JR18" s="7">
         <v>61234</v>
       </c>
+      <c r="JS18" s="7">
+        <v>60814</v>
+      </c>
     </row>
     <row r="19" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -17241,9 +17288,12 @@
       <c r="JR19" s="7">
         <v>70017</v>
       </c>
+      <c r="JS19" s="7">
+        <v>69566</v>
+      </c>
     </row>
     <row r="20" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -18075,9 +18125,12 @@
       <c r="JR20" s="7">
         <v>48373</v>
       </c>
+      <c r="JS20" s="7">
+        <v>47283</v>
+      </c>
     </row>
     <row r="21" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18909,7 +18962,7 @@
         <v>394460</v>
       </c>
       <c r="JO21" s="10">
-        <f t="shared" ref="JO21:JR21" si="6">SUM(JO12:JO20)</f>
+        <f t="shared" ref="JO21:JS21" si="6">SUM(JO12:JO20)</f>
         <v>397012</v>
       </c>
       <c r="JP21" s="10">
@@ -18924,7 +18977,10 @@
         <f t="shared" si="6"/>
         <v>399607</v>
       </c>
-      <c r="JS21" s="29"/>
+      <c r="JS21" s="10">
+        <f t="shared" si="6"/>
+        <v>397405</v>
+      </c>
       <c r="JT21" s="29"/>
       <c r="JU21" s="29"/>
       <c r="JV21" s="29"/>
@@ -19563,7 +19619,7 @@
       <c r="AIE21" s="5"/>
     </row>
     <row r="22" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="39" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -20397,9 +20453,12 @@
       <c r="JR22" s="7">
         <v>109309</v>
       </c>
+      <c r="JS22" s="7">
+        <v>112548</v>
+      </c>
     </row>
     <row r="23" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -21231,9 +21290,12 @@
       <c r="JR23" s="7">
         <v>36037</v>
       </c>
+      <c r="JS23" s="7">
+        <v>36279</v>
+      </c>
     </row>
     <row r="24" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -22065,7 +22127,7 @@
         <v>144641</v>
       </c>
       <c r="JO24" s="10">
-        <f t="shared" ref="JO24:JR24" si="10">SUM(JO22:JO23)</f>
+        <f t="shared" ref="JO24:JS24" si="10">SUM(JO22:JO23)</f>
         <v>145163</v>
       </c>
       <c r="JP24" s="10">
@@ -22080,7 +22142,10 @@
         <f t="shared" si="10"/>
         <v>145346</v>
       </c>
-      <c r="JS24" s="29"/>
+      <c r="JS24" s="10">
+        <f t="shared" si="10"/>
+        <v>148827</v>
+      </c>
       <c r="JT24" s="29"/>
       <c r="JU24" s="29"/>
       <c r="JV24" s="29"/>
@@ -22719,7 +22784,7 @@
       <c r="AIE24" s="5"/>
     </row>
     <row r="25" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23553,9 +23618,12 @@
       <c r="JR25" s="7">
         <v>4282</v>
       </c>
+      <c r="JS25" s="7">
+        <v>4329</v>
+      </c>
     </row>
     <row r="26" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -24387,9 +24455,12 @@
       <c r="JR26" s="7">
         <v>5532</v>
       </c>
+      <c r="JS26" s="7">
+        <v>5518</v>
+      </c>
     </row>
     <row r="27" spans="1:915" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -25221,7 +25292,7 @@
         <v>9763</v>
       </c>
       <c r="JO27" s="10">
-        <f t="shared" ref="JO27:JR27" si="14">SUM(JO25:JO26)</f>
+        <f t="shared" ref="JO27:JS27" si="14">SUM(JO25:JO26)</f>
         <v>9686</v>
       </c>
       <c r="JP27" s="10">
@@ -25236,7 +25307,10 @@
         <f t="shared" si="14"/>
         <v>9814</v>
       </c>
-      <c r="JS27" s="29"/>
+      <c r="JS27" s="10">
+        <f t="shared" si="14"/>
+        <v>9847</v>
+      </c>
       <c r="JT27" s="29"/>
       <c r="JU27" s="29"/>
       <c r="JV27" s="29"/>
@@ -25875,7 +25949,7 @@
       <c r="AIE27" s="5"/>
     </row>
     <row r="28" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="39" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26709,9 +26783,12 @@
       <c r="JR28" s="7">
         <v>882</v>
       </c>
+      <c r="JS28" s="7">
+        <v>852</v>
+      </c>
     </row>
     <row r="29" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -27543,9 +27620,12 @@
       <c r="JR29" s="7">
         <v>11464</v>
       </c>
+      <c r="JS29" s="7">
+        <v>11348</v>
+      </c>
     </row>
     <row r="30" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -28377,9 +28457,12 @@
       <c r="JR30" s="7">
         <v>29463</v>
       </c>
+      <c r="JS30" s="7">
+        <v>27034</v>
+      </c>
     </row>
     <row r="31" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -29211,9 +29294,12 @@
       <c r="JR31" s="7">
         <v>105116</v>
       </c>
+      <c r="JS31" s="7">
+        <v>105761</v>
+      </c>
     </row>
     <row r="32" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -30045,9 +30131,12 @@
       <c r="JR32" s="7">
         <v>26425</v>
       </c>
+      <c r="JS32" s="7">
+        <v>26701</v>
+      </c>
     </row>
     <row r="33" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30879,9 +30968,12 @@
       <c r="JR33" s="7">
         <v>9720</v>
       </c>
+      <c r="JS33" s="7">
+        <v>9843</v>
+      </c>
     </row>
     <row r="34" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31713,9 +31805,12 @@
       <c r="JR34" s="7">
         <v>43400</v>
       </c>
+      <c r="JS34" s="7">
+        <v>43766</v>
+      </c>
     </row>
     <row r="35" spans="1:915" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -32547,9 +32642,12 @@
       <c r="JR35" s="7">
         <v>11052</v>
       </c>
+      <c r="JS35" s="7">
+        <v>11333</v>
+      </c>
     </row>
     <row r="36" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -33381,9 +33479,12 @@
       <c r="JR36" s="7">
         <v>52413</v>
       </c>
+      <c r="JS36" s="7">
+        <v>53059</v>
+      </c>
     </row>
     <row r="37" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -34215,9 +34316,12 @@
       <c r="JR37" s="7">
         <v>73539</v>
       </c>
+      <c r="JS37" s="7">
+        <v>77908</v>
+      </c>
     </row>
     <row r="38" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -35049,9 +35153,12 @@
       <c r="JR38" s="7">
         <v>21607</v>
       </c>
+      <c r="JS38" s="7">
+        <v>21691</v>
+      </c>
     </row>
     <row r="39" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35883,9 +35990,12 @@
       <c r="JR39" s="7">
         <v>23937</v>
       </c>
+      <c r="JS39" s="7">
+        <v>23781</v>
+      </c>
     </row>
     <row r="40" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -36717,9 +36827,12 @@
       <c r="JR40" s="7">
         <v>11936</v>
       </c>
+      <c r="JS40" s="7">
+        <v>12087</v>
+      </c>
     </row>
     <row r="41" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -37551,9 +37664,12 @@
       <c r="JR41" s="7">
         <v>10936</v>
       </c>
+      <c r="JS41" s="7">
+        <v>11235</v>
+      </c>
     </row>
     <row r="42" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -38385,9 +38501,12 @@
       <c r="JR42" s="7">
         <v>44022</v>
       </c>
+      <c r="JS42" s="7">
+        <v>44398</v>
+      </c>
     </row>
     <row r="43" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -39219,9 +39338,12 @@
       <c r="JR43" s="7">
         <v>4653</v>
       </c>
+      <c r="JS43" s="7">
+        <v>4610</v>
+      </c>
     </row>
     <row r="44" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -40053,9 +40175,12 @@
       <c r="JR44" s="7">
         <v>5827</v>
       </c>
+      <c r="JS44" s="7">
+        <v>5770</v>
+      </c>
     </row>
     <row r="45" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -40887,9 +41012,12 @@
       <c r="JR45" s="7">
         <v>7147</v>
       </c>
+      <c r="JS45" s="7">
+        <v>7201</v>
+      </c>
     </row>
     <row r="46" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -41721,9 +41849,12 @@
       <c r="JR46" s="7">
         <v>13200</v>
       </c>
+      <c r="JS46" s="7">
+        <v>13167</v>
+      </c>
     </row>
     <row r="47" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -42555,9 +42686,12 @@
       <c r="JR47" s="7">
         <v>1407</v>
       </c>
+      <c r="JS47" s="7">
+        <v>1358</v>
+      </c>
     </row>
     <row r="48" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -43389,7 +43523,7 @@
         <v>505597</v>
       </c>
       <c r="JO48" s="10">
-        <f t="shared" ref="JO48:JR48" si="18">SUM(JO28:JO47)</f>
+        <f t="shared" ref="JO48:JS48" si="18">SUM(JO28:JO47)</f>
         <v>509874</v>
       </c>
       <c r="JP48" s="10">
@@ -43404,7 +43538,10 @@
         <f t="shared" si="18"/>
         <v>508146</v>
       </c>
-      <c r="JS48" s="29"/>
+      <c r="JS48" s="10">
+        <f t="shared" si="18"/>
+        <v>512903</v>
+      </c>
       <c r="JT48" s="29"/>
       <c r="JU48" s="29"/>
       <c r="JV48" s="29"/>
@@ -44042,8 +44179,8 @@
       <c r="AID48" s="5"/>
       <c r="AIE48" s="5"/>
     </row>
-    <row r="49" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+    <row r="49" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -44877,9 +45014,12 @@
       <c r="JR49" s="8">
         <v>12</v>
       </c>
+      <c r="JS49" s="8">
+        <v>14</v>
+      </c>
     </row>
-    <row r="50" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+    <row r="50" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -45711,9 +45851,12 @@
       <c r="JR50" s="8">
         <v>40</v>
       </c>
+      <c r="JS50" s="8">
+        <v>43</v>
+      </c>
     </row>
-    <row r="51" spans="1:278" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+    <row r="51" spans="1:279" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -46545,9 +46688,12 @@
       <c r="JR51" s="7">
         <v>1504</v>
       </c>
+      <c r="JS51" s="7">
+        <v>1530</v>
+      </c>
     </row>
-    <row r="52" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -47379,9 +47525,12 @@
       <c r="JR52" s="7">
         <v>944</v>
       </c>
+      <c r="JS52" s="7">
+        <v>993</v>
+      </c>
     </row>
-    <row r="53" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+    <row r="53" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -48213,7 +48362,7 @@
         <v>2477</v>
       </c>
       <c r="JO53" s="10">
-        <f t="shared" ref="JO53:JR53" si="22">SUM(JO49:JO52)</f>
+        <f t="shared" ref="JO53:JS53" si="22">SUM(JO49:JO52)</f>
         <v>2518</v>
       </c>
       <c r="JP53" s="10">
@@ -48228,9 +48377,13 @@
         <f t="shared" si="22"/>
         <v>2500</v>
       </c>
+      <c r="JS53" s="10">
+        <f t="shared" si="22"/>
+        <v>2580</v>
+      </c>
     </row>
-    <row r="54" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+    <row r="54" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -49064,9 +49217,12 @@
       <c r="JR54" s="36">
         <v>5740</v>
       </c>
+      <c r="JS54" s="7">
+        <v>5757</v>
+      </c>
     </row>
-    <row r="55" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+    <row r="55" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -49898,9 +50054,12 @@
       <c r="JR55" s="7">
         <v>54061</v>
       </c>
+      <c r="JS55" s="7">
+        <v>54053</v>
+      </c>
     </row>
-    <row r="56" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
+    <row r="56" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -50732,9 +50891,12 @@
       <c r="JR56" s="7">
         <v>7002</v>
       </c>
+      <c r="JS56" s="7">
+        <v>6970</v>
+      </c>
     </row>
-    <row r="57" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+    <row r="57" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -51566,9 +51728,12 @@
       <c r="JR57" s="7">
         <v>191123</v>
       </c>
+      <c r="JS57" s="7">
+        <v>191108</v>
+      </c>
     </row>
-    <row r="58" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+    <row r="58" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -52400,9 +52565,12 @@
       <c r="JR58" s="7">
         <v>34825</v>
       </c>
+      <c r="JS58" s="7">
+        <v>34950</v>
+      </c>
     </row>
-    <row r="59" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+    <row r="59" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -53234,9 +53402,12 @@
       <c r="JR59" s="7">
         <v>6872</v>
       </c>
+      <c r="JS59" s="7">
+        <v>7182</v>
+      </c>
     </row>
-    <row r="60" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+    <row r="60" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -54068,9 +54239,12 @@
       <c r="JR60" s="7">
         <v>46723</v>
       </c>
+      <c r="JS60" s="7">
+        <v>49365</v>
+      </c>
     </row>
-    <row r="61" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+    <row r="61" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -54902,9 +55076,12 @@
       <c r="JR61" s="8">
         <v>146</v>
       </c>
+      <c r="JS61" s="8">
+        <v>146</v>
+      </c>
     </row>
-    <row r="62" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+    <row r="62" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -55736,9 +55913,12 @@
       <c r="JR62" s="7">
         <v>20229</v>
       </c>
+      <c r="JS62" s="7">
+        <v>20358</v>
+      </c>
     </row>
-    <row r="63" spans="1:278" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+    <row r="63" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -56570,9 +56750,12 @@
       <c r="JR63" s="7">
         <v>34258</v>
       </c>
+      <c r="JS63" s="7">
+        <v>34496</v>
+      </c>
     </row>
-    <row r="64" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+    <row r="64" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -57404,9 +57587,12 @@
       <c r="JR64" s="7">
         <v>47971</v>
       </c>
+      <c r="JS64" s="7">
+        <v>48975</v>
+      </c>
     </row>
     <row r="65" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -58238,9 +58424,12 @@
       <c r="JR65" s="7">
         <v>169070</v>
       </c>
+      <c r="JS65" s="7">
+        <v>170091</v>
+      </c>
     </row>
     <row r="66" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -59072,9 +59261,12 @@
       <c r="JR66" s="7">
         <v>20116</v>
       </c>
+      <c r="JS66" s="7">
+        <v>20005</v>
+      </c>
     </row>
     <row r="67" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -59906,9 +60098,12 @@
       <c r="JR67" s="7">
         <v>6261</v>
       </c>
+      <c r="JS67" s="7">
+        <v>6322</v>
+      </c>
     </row>
     <row r="68" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -60740,7 +60935,7 @@
         <v>636862</v>
       </c>
       <c r="JO68" s="10">
-        <f t="shared" ref="JO68:JR68" si="26">SUM(JO54:JO67)</f>
+        <f t="shared" ref="JO68:JS68" si="26">SUM(JO54:JO67)</f>
         <v>640257</v>
       </c>
       <c r="JP68" s="10">
@@ -60755,7 +60950,10 @@
         <f t="shared" si="26"/>
         <v>644397</v>
       </c>
-      <c r="JS68" s="29"/>
+      <c r="JS68" s="10">
+        <f t="shared" si="26"/>
+        <v>649778</v>
+      </c>
       <c r="JT68" s="29"/>
       <c r="JU68" s="29"/>
       <c r="JV68" s="29"/>
@@ -61394,7 +61592,7 @@
       <c r="AIE68" s="5"/>
     </row>
     <row r="69" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="39" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -62228,9 +62426,12 @@
       <c r="JR69" s="7">
         <v>9835</v>
       </c>
+      <c r="JS69" s="7">
+        <v>9739</v>
+      </c>
     </row>
     <row r="70" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -63062,9 +63263,12 @@
       <c r="JR70" s="7">
         <v>876</v>
       </c>
+      <c r="JS70" s="7">
+        <v>889</v>
+      </c>
     </row>
     <row r="71" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -63896,9 +64100,12 @@
       <c r="JR71" s="7">
         <v>34493</v>
       </c>
+      <c r="JS71" s="7">
+        <v>34154</v>
+      </c>
     </row>
     <row r="72" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -64730,9 +64937,12 @@
       <c r="JR72" s="7">
         <v>4603</v>
       </c>
+      <c r="JS72" s="7">
+        <v>4611</v>
+      </c>
     </row>
     <row r="73" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -65564,9 +65774,12 @@
       <c r="JR73" s="8">
         <v>569</v>
       </c>
+      <c r="JS73" s="8">
+        <v>612</v>
+      </c>
     </row>
     <row r="74" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -66398,9 +66611,12 @@
       <c r="JR74" s="7">
         <v>54068</v>
       </c>
+      <c r="JS74" s="7">
+        <v>54500</v>
+      </c>
     </row>
     <row r="75" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -67232,7 +67448,7 @@
         <v>101608</v>
       </c>
       <c r="JO75" s="10">
-        <f t="shared" ref="JO75:JR75" si="30">SUM(JO69:JO74)</f>
+        <f t="shared" ref="JO75:JS75" si="30">SUM(JO69:JO74)</f>
         <v>104048</v>
       </c>
       <c r="JP75" s="10">
@@ -67247,7 +67463,10 @@
         <f t="shared" si="30"/>
         <v>104444</v>
       </c>
-      <c r="JS75" s="29"/>
+      <c r="JS75" s="10">
+        <f t="shared" si="30"/>
+        <v>104505</v>
+      </c>
       <c r="JT75" s="29"/>
       <c r="JU75" s="29"/>
       <c r="JV75" s="29"/>
@@ -68719,7 +68938,7 @@
         <v>1910627</v>
       </c>
       <c r="JO76" s="19">
-        <f t="shared" ref="JO76:JR76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <f t="shared" ref="JO76:JS76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
         <v>1927647</v>
       </c>
       <c r="JP76" s="19">
@@ -68733,6 +68952,10 @@
       <c r="JR76" s="19">
         <f t="shared" si="34"/>
         <v>1932962</v>
+      </c>
+      <c r="JS76" s="19">
+        <f t="shared" si="34"/>
+        <v>1951256</v>
       </c>
     </row>
     <row r="77" spans="1:915" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -69009,7 +69232,7 @@
       <c r="JP77" s="30"/>
       <c r="JQ77" s="30"/>
       <c r="JR77" s="30"/>
-      <c r="JS77" s="27"/>
+      <c r="JS77" s="30"/>
       <c r="JT77" s="27"/>
       <c r="JU77" s="27"/>
       <c r="JV77" s="27"/>
@@ -69473,25 +69696,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="CU4:DF4"/>
-    <mergeCell ref="CI4:CT4"/>
-    <mergeCell ref="BW4:CH4"/>
-    <mergeCell ref="BK4:BV4"/>
-    <mergeCell ref="AY4:BJ4"/>
-    <mergeCell ref="AM4:AX4"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
     <mergeCell ref="JG4:JR4"/>
     <mergeCell ref="II4:IT4"/>
     <mergeCell ref="IU4:JF4"/>
@@ -69506,6 +69710,25 @@
     <mergeCell ref="GA4:GL4"/>
     <mergeCell ref="FO4:FZ4"/>
     <mergeCell ref="FC4:FN4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="CU4:DF4"/>
+    <mergeCell ref="CI4:CT4"/>
+    <mergeCell ref="BW4:CH4"/>
+    <mergeCell ref="BK4:BV4"/>
+    <mergeCell ref="AY4:BJ4"/>
+    <mergeCell ref="AM4:AX4"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_div_gpo.xlsx
+++ b/Tabluados_imss/ta_jalisco_div_gpo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabluados_imss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344" tabRatio="598"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="ta_división_grupo" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="356">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -1099,6 +1099,18 @@
   <si>
     <t>2000-2023</t>
   </si>
+  <si>
+    <t>2023/Enero</t>
+  </si>
+  <si>
+    <t>2023/Marzo</t>
+  </si>
+  <si>
+    <t>2023/Febrero</t>
+  </si>
+  <si>
+    <t>2023/Abril</t>
+  </si>
 </sst>
 </file>
 
@@ -1703,7 +1715,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1813,23 +1825,20 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2186,633 +2195,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIE78"/>
+  <dimension ref="A1:AIF78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="JI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JW11" sqref="JW11"/>
+      <pane xSplit="2" topLeftCell="JM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JQ3" sqref="JQ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="140" max="140" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="152" max="152" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="164" max="164" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="176" max="176" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="188" max="188" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="197" max="197" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="200" max="200" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="209" max="209" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="212" max="212" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="221" max="221" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="224" max="224" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="233" max="233" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="236" max="236" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="12.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="12.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="12.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="245" max="245" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="9.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="248" max="249" width="10.875" style="4"/>
+    <col min="246" max="246" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="10.88671875" style="4"/>
     <col min="250" max="250" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="16.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="252" max="254" width="16.375" style="4" customWidth="1"/>
+    <col min="251" max="251" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="252" max="254" width="16.33203125" style="4" customWidth="1"/>
     <col min="255" max="255" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="12.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.125" style="4" customWidth="1"/>
-    <col min="260" max="262" width="11.625" style="4" customWidth="1"/>
-    <col min="263" max="265" width="16.125" style="4" customWidth="1"/>
-    <col min="266" max="266" width="16.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="10.109375" style="4" customWidth="1"/>
+    <col min="260" max="262" width="11.6640625" style="4" customWidth="1"/>
+    <col min="263" max="265" width="16.109375" style="4" customWidth="1"/>
+    <col min="266" max="266" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="268" max="269" width="11" style="4" customWidth="1"/>
-    <col min="270" max="270" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="12.625" style="4" customWidth="1"/>
-    <col min="272" max="272" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="12.625" style="4" customWidth="1"/>
-    <col min="274" max="274" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="275" max="278" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="14.375" style="4" customWidth="1"/>
-    <col min="280" max="734" width="10.875" style="28"/>
-    <col min="735" max="915" width="10.875" style="4"/>
-    <col min="916" max="16384" width="10.875" style="3"/>
+    <col min="270" max="270" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="12.6640625" style="4" customWidth="1"/>
+    <col min="272" max="272" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="12.6640625" style="4" customWidth="1"/>
+    <col min="274" max="274" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="275" max="278" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="14.33203125" style="4" customWidth="1"/>
+    <col min="280" max="281" width="13.88671875" style="28" customWidth="1"/>
+    <col min="282" max="282" width="13.6640625" style="28" customWidth="1"/>
+    <col min="283" max="735" width="10.88671875" style="28"/>
+    <col min="736" max="916" width="10.88671875" style="4"/>
+    <col min="917" max="16384" width="10.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:915" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:916" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:915" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:916" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:916" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="38">
         <v>2000</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38">
         <v>2001</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40">
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38">
         <v>2002</v>
       </c>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40">
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38">
         <v>2003</v>
       </c>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40">
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38">
         <v>2004</v>
       </c>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40">
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38">
         <v>2005</v>
       </c>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40"/>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40">
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38"/>
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38">
         <v>2006</v>
       </c>
-      <c r="BX4" s="40"/>
-      <c r="BY4" s="40"/>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40"/>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40">
+      <c r="BX4" s="38"/>
+      <c r="BY4" s="38"/>
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38">
         <v>2007</v>
       </c>
-      <c r="CJ4" s="40"/>
-      <c r="CK4" s="40"/>
-      <c r="CL4" s="40"/>
-      <c r="CM4" s="40"/>
-      <c r="CN4" s="40"/>
-      <c r="CO4" s="40"/>
-      <c r="CP4" s="40"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="40"/>
-      <c r="CS4" s="40"/>
-      <c r="CT4" s="40"/>
-      <c r="CU4" s="40">
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CL4" s="38"/>
+      <c r="CM4" s="38"/>
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38">
         <v>2008</v>
       </c>
-      <c r="CV4" s="40"/>
-      <c r="CW4" s="40"/>
-      <c r="CX4" s="40"/>
-      <c r="CY4" s="40"/>
-      <c r="CZ4" s="40"/>
-      <c r="DA4" s="40"/>
-      <c r="DB4" s="40"/>
-      <c r="DC4" s="40"/>
-      <c r="DD4" s="40"/>
-      <c r="DE4" s="40"/>
-      <c r="DF4" s="40"/>
-      <c r="DG4" s="40">
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
+      <c r="DA4" s="38"/>
+      <c r="DB4" s="38"/>
+      <c r="DC4" s="38"/>
+      <c r="DD4" s="38"/>
+      <c r="DE4" s="38"/>
+      <c r="DF4" s="38"/>
+      <c r="DG4" s="38">
         <v>2009</v>
       </c>
-      <c r="DH4" s="40"/>
-      <c r="DI4" s="40"/>
-      <c r="DJ4" s="40"/>
-      <c r="DK4" s="40"/>
-      <c r="DL4" s="40"/>
-      <c r="DM4" s="40"/>
-      <c r="DN4" s="40"/>
-      <c r="DO4" s="40"/>
-      <c r="DP4" s="40"/>
-      <c r="DQ4" s="40"/>
-      <c r="DR4" s="40"/>
-      <c r="DS4" s="40">
+      <c r="DH4" s="38"/>
+      <c r="DI4" s="38"/>
+      <c r="DJ4" s="38"/>
+      <c r="DK4" s="38"/>
+      <c r="DL4" s="38"/>
+      <c r="DM4" s="38"/>
+      <c r="DN4" s="38"/>
+      <c r="DO4" s="38"/>
+      <c r="DP4" s="38"/>
+      <c r="DQ4" s="38"/>
+      <c r="DR4" s="38"/>
+      <c r="DS4" s="38">
         <v>2010</v>
       </c>
-      <c r="DT4" s="40"/>
-      <c r="DU4" s="40"/>
-      <c r="DV4" s="40"/>
-      <c r="DW4" s="40"/>
-      <c r="DX4" s="40"/>
-      <c r="DY4" s="40"/>
-      <c r="DZ4" s="40"/>
-      <c r="EA4" s="40"/>
-      <c r="EB4" s="40"/>
-      <c r="EC4" s="40"/>
-      <c r="ED4" s="40"/>
-      <c r="EE4" s="40">
+      <c r="DT4" s="38"/>
+      <c r="DU4" s="38"/>
+      <c r="DV4" s="38"/>
+      <c r="DW4" s="38"/>
+      <c r="DX4" s="38"/>
+      <c r="DY4" s="38"/>
+      <c r="DZ4" s="38"/>
+      <c r="EA4" s="38"/>
+      <c r="EB4" s="38"/>
+      <c r="EC4" s="38"/>
+      <c r="ED4" s="38"/>
+      <c r="EE4" s="38">
         <v>2011</v>
       </c>
-      <c r="EF4" s="40"/>
-      <c r="EG4" s="40"/>
-      <c r="EH4" s="40"/>
-      <c r="EI4" s="40"/>
-      <c r="EJ4" s="40"/>
-      <c r="EK4" s="40"/>
-      <c r="EL4" s="40"/>
-      <c r="EM4" s="40"/>
-      <c r="EN4" s="40"/>
-      <c r="EO4" s="40"/>
-      <c r="EP4" s="40"/>
-      <c r="EQ4" s="40">
+      <c r="EF4" s="38"/>
+      <c r="EG4" s="38"/>
+      <c r="EH4" s="38"/>
+      <c r="EI4" s="38"/>
+      <c r="EJ4" s="38"/>
+      <c r="EK4" s="38"/>
+      <c r="EL4" s="38"/>
+      <c r="EM4" s="38"/>
+      <c r="EN4" s="38"/>
+      <c r="EO4" s="38"/>
+      <c r="EP4" s="38"/>
+      <c r="EQ4" s="38">
         <v>2012</v>
       </c>
-      <c r="ER4" s="40"/>
-      <c r="ES4" s="40"/>
-      <c r="ET4" s="40"/>
-      <c r="EU4" s="40"/>
-      <c r="EV4" s="40"/>
-      <c r="EW4" s="40"/>
-      <c r="EX4" s="40"/>
-      <c r="EY4" s="40"/>
-      <c r="EZ4" s="40"/>
-      <c r="FA4" s="40"/>
-      <c r="FB4" s="40"/>
-      <c r="FC4" s="40">
+      <c r="ER4" s="38"/>
+      <c r="ES4" s="38"/>
+      <c r="ET4" s="38"/>
+      <c r="EU4" s="38"/>
+      <c r="EV4" s="38"/>
+      <c r="EW4" s="38"/>
+      <c r="EX4" s="38"/>
+      <c r="EY4" s="38"/>
+      <c r="EZ4" s="38"/>
+      <c r="FA4" s="38"/>
+      <c r="FB4" s="38"/>
+      <c r="FC4" s="38">
         <v>2013</v>
       </c>
-      <c r="FD4" s="40"/>
-      <c r="FE4" s="40"/>
-      <c r="FF4" s="40"/>
-      <c r="FG4" s="40"/>
-      <c r="FH4" s="40"/>
-      <c r="FI4" s="40"/>
-      <c r="FJ4" s="40"/>
-      <c r="FK4" s="40"/>
-      <c r="FL4" s="40"/>
-      <c r="FM4" s="40"/>
-      <c r="FN4" s="40"/>
-      <c r="FO4" s="40">
+      <c r="FD4" s="38"/>
+      <c r="FE4" s="38"/>
+      <c r="FF4" s="38"/>
+      <c r="FG4" s="38"/>
+      <c r="FH4" s="38"/>
+      <c r="FI4" s="38"/>
+      <c r="FJ4" s="38"/>
+      <c r="FK4" s="38"/>
+      <c r="FL4" s="38"/>
+      <c r="FM4" s="38"/>
+      <c r="FN4" s="38"/>
+      <c r="FO4" s="38">
         <v>2014</v>
       </c>
-      <c r="FP4" s="40"/>
-      <c r="FQ4" s="40"/>
-      <c r="FR4" s="40"/>
-      <c r="FS4" s="40"/>
-      <c r="FT4" s="40"/>
-      <c r="FU4" s="40"/>
-      <c r="FV4" s="40"/>
-      <c r="FW4" s="40"/>
-      <c r="FX4" s="40"/>
-      <c r="FY4" s="40"/>
-      <c r="FZ4" s="40"/>
-      <c r="GA4" s="40">
+      <c r="FP4" s="38"/>
+      <c r="FQ4" s="38"/>
+      <c r="FR4" s="38"/>
+      <c r="FS4" s="38"/>
+      <c r="FT4" s="38"/>
+      <c r="FU4" s="38"/>
+      <c r="FV4" s="38"/>
+      <c r="FW4" s="38"/>
+      <c r="FX4" s="38"/>
+      <c r="FY4" s="38"/>
+      <c r="FZ4" s="38"/>
+      <c r="GA4" s="38">
         <v>2015</v>
       </c>
-      <c r="GB4" s="40"/>
-      <c r="GC4" s="40"/>
-      <c r="GD4" s="40"/>
-      <c r="GE4" s="40"/>
-      <c r="GF4" s="40"/>
-      <c r="GG4" s="40"/>
-      <c r="GH4" s="40"/>
-      <c r="GI4" s="40"/>
-      <c r="GJ4" s="40"/>
-      <c r="GK4" s="40"/>
-      <c r="GL4" s="40"/>
-      <c r="GM4" s="40">
+      <c r="GB4" s="38"/>
+      <c r="GC4" s="38"/>
+      <c r="GD4" s="38"/>
+      <c r="GE4" s="38"/>
+      <c r="GF4" s="38"/>
+      <c r="GG4" s="38"/>
+      <c r="GH4" s="38"/>
+      <c r="GI4" s="38"/>
+      <c r="GJ4" s="38"/>
+      <c r="GK4" s="38"/>
+      <c r="GL4" s="38"/>
+      <c r="GM4" s="38">
         <v>2016</v>
       </c>
-      <c r="GN4" s="40"/>
-      <c r="GO4" s="40"/>
-      <c r="GP4" s="40"/>
-      <c r="GQ4" s="40"/>
-      <c r="GR4" s="40"/>
-      <c r="GS4" s="40"/>
-      <c r="GT4" s="40"/>
-      <c r="GU4" s="40"/>
-      <c r="GV4" s="40"/>
-      <c r="GW4" s="40"/>
-      <c r="GX4" s="40"/>
-      <c r="GY4" s="40">
+      <c r="GN4" s="38"/>
+      <c r="GO4" s="38"/>
+      <c r="GP4" s="38"/>
+      <c r="GQ4" s="38"/>
+      <c r="GR4" s="38"/>
+      <c r="GS4" s="38"/>
+      <c r="GT4" s="38"/>
+      <c r="GU4" s="38"/>
+      <c r="GV4" s="38"/>
+      <c r="GW4" s="38"/>
+      <c r="GX4" s="38"/>
+      <c r="GY4" s="38">
         <v>2017</v>
       </c>
-      <c r="GZ4" s="40"/>
-      <c r="HA4" s="40"/>
-      <c r="HB4" s="40"/>
-      <c r="HC4" s="40"/>
-      <c r="HD4" s="40"/>
-      <c r="HE4" s="40"/>
-      <c r="HF4" s="40"/>
-      <c r="HG4" s="40"/>
-      <c r="HH4" s="40"/>
-      <c r="HI4" s="40"/>
-      <c r="HJ4" s="40"/>
-      <c r="HK4" s="40">
+      <c r="GZ4" s="38"/>
+      <c r="HA4" s="38"/>
+      <c r="HB4" s="38"/>
+      <c r="HC4" s="38"/>
+      <c r="HD4" s="38"/>
+      <c r="HE4" s="38"/>
+      <c r="HF4" s="38"/>
+      <c r="HG4" s="38"/>
+      <c r="HH4" s="38"/>
+      <c r="HI4" s="38"/>
+      <c r="HJ4" s="38"/>
+      <c r="HK4" s="38">
         <v>2018</v>
       </c>
-      <c r="HL4" s="40"/>
-      <c r="HM4" s="40"/>
-      <c r="HN4" s="40"/>
-      <c r="HO4" s="40"/>
-      <c r="HP4" s="40"/>
-      <c r="HQ4" s="40"/>
-      <c r="HR4" s="40"/>
-      <c r="HS4" s="40"/>
-      <c r="HT4" s="40"/>
-      <c r="HU4" s="40"/>
-      <c r="HV4" s="40"/>
-      <c r="HW4" s="40">
+      <c r="HL4" s="38"/>
+      <c r="HM4" s="38"/>
+      <c r="HN4" s="38"/>
+      <c r="HO4" s="38"/>
+      <c r="HP4" s="38"/>
+      <c r="HQ4" s="38"/>
+      <c r="HR4" s="38"/>
+      <c r="HS4" s="38"/>
+      <c r="HT4" s="38"/>
+      <c r="HU4" s="38"/>
+      <c r="HV4" s="38"/>
+      <c r="HW4" s="38">
         <v>2019</v>
       </c>
-      <c r="HX4" s="40"/>
-      <c r="HY4" s="40"/>
-      <c r="HZ4" s="40"/>
-      <c r="IA4" s="40"/>
-      <c r="IB4" s="40"/>
-      <c r="IC4" s="40"/>
-      <c r="ID4" s="40"/>
-      <c r="IE4" s="40"/>
-      <c r="IF4" s="40"/>
-      <c r="IG4" s="40"/>
-      <c r="IH4" s="42"/>
-      <c r="II4" s="42">
+      <c r="HX4" s="38"/>
+      <c r="HY4" s="38"/>
+      <c r="HZ4" s="38"/>
+      <c r="IA4" s="38"/>
+      <c r="IB4" s="38"/>
+      <c r="IC4" s="38"/>
+      <c r="ID4" s="38"/>
+      <c r="IE4" s="38"/>
+      <c r="IF4" s="38"/>
+      <c r="IG4" s="38"/>
+      <c r="IH4" s="39"/>
+      <c r="II4" s="39">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="43"/>
-      <c r="IK4" s="43"/>
-      <c r="IL4" s="43"/>
-      <c r="IM4" s="43"/>
-      <c r="IN4" s="43"/>
-      <c r="IO4" s="43"/>
-      <c r="IP4" s="43"/>
-      <c r="IQ4" s="43"/>
-      <c r="IR4" s="43"/>
-      <c r="IS4" s="43"/>
-      <c r="IT4" s="44"/>
-      <c r="IU4" s="42">
+      <c r="IJ4" s="41"/>
+      <c r="IK4" s="41"/>
+      <c r="IL4" s="41"/>
+      <c r="IM4" s="41"/>
+      <c r="IN4" s="41"/>
+      <c r="IO4" s="41"/>
+      <c r="IP4" s="41"/>
+      <c r="IQ4" s="41"/>
+      <c r="IR4" s="41"/>
+      <c r="IS4" s="41"/>
+      <c r="IT4" s="42"/>
+      <c r="IU4" s="39">
         <v>2021</v>
       </c>
-      <c r="IV4" s="43"/>
-      <c r="IW4" s="43"/>
-      <c r="IX4" s="43"/>
-      <c r="IY4" s="43"/>
-      <c r="IZ4" s="43"/>
-      <c r="JA4" s="43"/>
-      <c r="JB4" s="43"/>
-      <c r="JC4" s="43"/>
-      <c r="JD4" s="43"/>
-      <c r="JE4" s="43"/>
-      <c r="JF4" s="44"/>
-      <c r="JG4" s="40">
+      <c r="IV4" s="41"/>
+      <c r="IW4" s="41"/>
+      <c r="IX4" s="41"/>
+      <c r="IY4" s="41"/>
+      <c r="IZ4" s="41"/>
+      <c r="JA4" s="41"/>
+      <c r="JB4" s="41"/>
+      <c r="JC4" s="41"/>
+      <c r="JD4" s="41"/>
+      <c r="JE4" s="41"/>
+      <c r="JF4" s="42"/>
+      <c r="JG4" s="38">
         <v>2022</v>
       </c>
-      <c r="JH4" s="40"/>
-      <c r="JI4" s="40"/>
-      <c r="JJ4" s="40"/>
-      <c r="JK4" s="40"/>
-      <c r="JL4" s="40"/>
-      <c r="JM4" s="40"/>
-      <c r="JN4" s="40"/>
-      <c r="JO4" s="40"/>
-      <c r="JP4" s="40"/>
-      <c r="JQ4" s="40"/>
-      <c r="JR4" s="40"/>
-      <c r="JS4" s="38">
+      <c r="JH4" s="38"/>
+      <c r="JI4" s="38"/>
+      <c r="JJ4" s="38"/>
+      <c r="JK4" s="38"/>
+      <c r="JL4" s="38"/>
+      <c r="JM4" s="38"/>
+      <c r="JN4" s="38"/>
+      <c r="JO4" s="38"/>
+      <c r="JP4" s="38"/>
+      <c r="JQ4" s="38"/>
+      <c r="JR4" s="38"/>
+      <c r="JS4" s="39">
         <v>2023</v>
       </c>
-      <c r="JT4" s="29"/>
-      <c r="JU4" s="29"/>
-      <c r="JV4" s="29"/>
+      <c r="JT4" s="41"/>
+      <c r="JU4" s="41"/>
+      <c r="JV4" s="42"/>
       <c r="JW4" s="29"/>
       <c r="JX4" s="29"/>
       <c r="JY4" s="29"/>
@@ -3265,7 +3276,7 @@
       <c r="ABD4" s="29"/>
       <c r="ABE4" s="29"/>
       <c r="ABF4" s="29"/>
-      <c r="ABG4" s="5"/>
+      <c r="ABG4" s="29"/>
       <c r="ABH4" s="5"/>
       <c r="ABI4" s="5"/>
       <c r="ABJ4" s="5"/>
@@ -3446,10 +3457,11 @@
       <c r="AIC4" s="5"/>
       <c r="AID4" s="5"/>
       <c r="AIE4" s="5"/>
+      <c r="AIF4" s="5"/>
     </row>
-    <row r="5" spans="1:915" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
+    <row r="5" spans="1:916" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
@@ -4279,11 +4291,17 @@
         <v>350</v>
       </c>
       <c r="JS5" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="JT5" s="29"/>
-      <c r="JU5" s="29"/>
-      <c r="JV5" s="29"/>
+        <v>352</v>
+      </c>
+      <c r="JT5" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="JU5" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="JV5" s="31" t="s">
+        <v>355</v>
+      </c>
       <c r="JW5" s="29"/>
       <c r="JX5" s="29"/>
       <c r="JY5" s="29"/>
@@ -4736,7 +4754,7 @@
       <c r="ABD5" s="29"/>
       <c r="ABE5" s="29"/>
       <c r="ABF5" s="29"/>
-      <c r="ABG5" s="5"/>
+      <c r="ABG5" s="29"/>
       <c r="ABH5" s="5"/>
       <c r="ABI5" s="5"/>
       <c r="ABJ5" s="5"/>
@@ -4917,9 +4935,10 @@
       <c r="AIC5" s="5"/>
       <c r="AID5" s="5"/>
       <c r="AIE5" s="5"/>
+      <c r="AIF5" s="5"/>
     </row>
-    <row r="6" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -5756,9 +5775,18 @@
       <c r="JS6" s="7">
         <v>100760</v>
       </c>
+      <c r="JT6" s="7">
+        <v>101439</v>
+      </c>
+      <c r="JU6" s="7">
+        <v>101871</v>
+      </c>
+      <c r="JV6" s="7">
+        <v>98363</v>
+      </c>
     </row>
-    <row r="7" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
       <c r="B7" s="6" t="s">
         <v>245</v>
       </c>
@@ -6593,9 +6621,18 @@
       <c r="JS7" s="8">
         <v>47</v>
       </c>
+      <c r="JT7" s="8">
+        <v>48</v>
+      </c>
+      <c r="JU7" s="8">
+        <v>47</v>
+      </c>
+      <c r="JV7" s="8">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
       <c r="B8" s="6" t="s">
         <v>246</v>
       </c>
@@ -7430,9 +7467,18 @@
       <c r="JS8" s="7">
         <v>23747</v>
       </c>
+      <c r="JT8" s="7">
+        <v>23828</v>
+      </c>
+      <c r="JU8" s="7">
+        <v>23916</v>
+      </c>
+      <c r="JV8" s="7">
+        <v>23993</v>
+      </c>
     </row>
-    <row r="9" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+    <row r="9" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
       <c r="B9" s="6" t="s">
         <v>247</v>
       </c>
@@ -8267,9 +8313,18 @@
       <c r="JS9" s="7">
         <v>410</v>
       </c>
+      <c r="JT9" s="7">
+        <v>406</v>
+      </c>
+      <c r="JU9" s="7">
+        <v>256</v>
+      </c>
+      <c r="JV9" s="7">
+        <v>259</v>
+      </c>
     </row>
-    <row r="10" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+    <row r="10" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
       <c r="B10" s="6" t="s">
         <v>248</v>
       </c>
@@ -9104,9 +9159,18 @@
       <c r="JS10" s="8">
         <v>447</v>
       </c>
+      <c r="JT10" s="8">
+        <v>478</v>
+      </c>
+      <c r="JU10" s="8">
+        <v>481</v>
+      </c>
+      <c r="JV10" s="8">
+        <v>495</v>
+      </c>
     </row>
-    <row r="11" spans="1:915" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+    <row r="11" spans="1:916" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
       <c r="B11" s="9" t="s">
         <v>244</v>
       </c>
@@ -9957,9 +10021,15 @@
         <f t="shared" si="2"/>
         <v>125411</v>
       </c>
-      <c r="JT11" s="29"/>
-      <c r="JU11" s="29"/>
-      <c r="JV11" s="29"/>
+      <c r="JT11" s="10">
+        <v>126199</v>
+      </c>
+      <c r="JU11" s="10">
+        <v>126571</v>
+      </c>
+      <c r="JV11" s="10">
+        <v>123159</v>
+      </c>
       <c r="JW11" s="29"/>
       <c r="JX11" s="29"/>
       <c r="JY11" s="29"/>
@@ -10412,7 +10482,7 @@
       <c r="ABD11" s="29"/>
       <c r="ABE11" s="29"/>
       <c r="ABF11" s="29"/>
-      <c r="ABG11" s="5"/>
+      <c r="ABG11" s="29"/>
       <c r="ABH11" s="5"/>
       <c r="ABI11" s="5"/>
       <c r="ABJ11" s="5"/>
@@ -10593,9 +10663,10 @@
       <c r="AIC11" s="5"/>
       <c r="AID11" s="5"/>
       <c r="AIE11" s="5"/>
+      <c r="AIF11" s="5"/>
     </row>
-    <row r="12" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
         <v>249</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -11432,9 +11503,18 @@
       <c r="JS12" s="7">
         <v>78690</v>
       </c>
+      <c r="JT12" s="7">
+        <v>79247</v>
+      </c>
+      <c r="JU12" s="7">
+        <v>79957</v>
+      </c>
+      <c r="JV12" s="7">
+        <v>80865</v>
+      </c>
     </row>
-    <row r="13" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
       <c r="B13" s="6" t="s">
         <v>251</v>
       </c>
@@ -12269,9 +12349,18 @@
       <c r="JS13" s="7">
         <v>20200</v>
       </c>
+      <c r="JT13" s="7">
+        <v>20212</v>
+      </c>
+      <c r="JU13" s="7">
+        <v>20233</v>
+      </c>
+      <c r="JV13" s="7">
+        <v>20120</v>
+      </c>
     </row>
-    <row r="14" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
       <c r="B14" s="6" t="s">
         <v>252</v>
       </c>
@@ -13106,9 +13195,18 @@
       <c r="JS14" s="7">
         <v>34436</v>
       </c>
+      <c r="JT14" s="7">
+        <v>34687</v>
+      </c>
+      <c r="JU14" s="7">
+        <v>34979</v>
+      </c>
+      <c r="JV14" s="7">
+        <v>35175</v>
+      </c>
     </row>
-    <row r="15" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
       <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
@@ -13943,9 +14041,18 @@
       <c r="JS15" s="7">
         <v>22420</v>
       </c>
+      <c r="JT15" s="7">
+        <v>22551</v>
+      </c>
+      <c r="JU15" s="7">
+        <v>22621</v>
+      </c>
+      <c r="JV15" s="7">
+        <v>22648</v>
+      </c>
     </row>
-    <row r="16" spans="1:915" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:916" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
       <c r="B16" s="6" t="s">
         <v>254</v>
       </c>
@@ -14780,9 +14887,18 @@
       <c r="JS16" s="7">
         <v>13640</v>
       </c>
+      <c r="JT16" s="7">
+        <v>13735</v>
+      </c>
+      <c r="JU16" s="7">
+        <v>13939</v>
+      </c>
+      <c r="JV16" s="7">
+        <v>13950</v>
+      </c>
     </row>
-    <row r="17" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
       <c r="B17" s="6" t="s">
         <v>255</v>
       </c>
@@ -15617,9 +15733,18 @@
       <c r="JS17" s="7">
         <v>50356</v>
       </c>
+      <c r="JT17" s="7">
+        <v>50687</v>
+      </c>
+      <c r="JU17" s="7">
+        <v>51269</v>
+      </c>
+      <c r="JV17" s="7">
+        <v>51476</v>
+      </c>
     </row>
-    <row r="18" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
       <c r="B18" s="6" t="s">
         <v>256</v>
       </c>
@@ -16454,9 +16579,18 @@
       <c r="JS18" s="7">
         <v>60814</v>
       </c>
+      <c r="JT18" s="7">
+        <v>61376</v>
+      </c>
+      <c r="JU18" s="7">
+        <v>61684</v>
+      </c>
+      <c r="JV18" s="7">
+        <v>61945</v>
+      </c>
     </row>
-    <row r="19" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
       <c r="B19" s="6" t="s">
         <v>257</v>
       </c>
@@ -17291,9 +17425,18 @@
       <c r="JS19" s="7">
         <v>69566</v>
       </c>
+      <c r="JT19" s="7">
+        <v>70037</v>
+      </c>
+      <c r="JU19" s="7">
+        <v>70295</v>
+      </c>
+      <c r="JV19" s="7">
+        <v>70524</v>
+      </c>
     </row>
-    <row r="20" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
       <c r="B20" s="6" t="s">
         <v>258</v>
       </c>
@@ -18128,9 +18271,18 @@
       <c r="JS20" s="7">
         <v>47283</v>
       </c>
+      <c r="JT20" s="7">
+        <v>47275</v>
+      </c>
+      <c r="JU20" s="7">
+        <v>47198</v>
+      </c>
+      <c r="JV20" s="7">
+        <v>48076</v>
+      </c>
     </row>
-    <row r="21" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+    <row r="21" spans="1:916" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
@@ -18981,9 +19133,15 @@
         <f t="shared" si="6"/>
         <v>397405</v>
       </c>
-      <c r="JT21" s="29"/>
-      <c r="JU21" s="29"/>
-      <c r="JV21" s="29"/>
+      <c r="JT21" s="10">
+        <v>399807</v>
+      </c>
+      <c r="JU21" s="10">
+        <v>402175</v>
+      </c>
+      <c r="JV21" s="10">
+        <v>404779</v>
+      </c>
       <c r="JW21" s="29"/>
       <c r="JX21" s="29"/>
       <c r="JY21" s="29"/>
@@ -19436,7 +19594,7 @@
       <c r="ABD21" s="29"/>
       <c r="ABE21" s="29"/>
       <c r="ABF21" s="29"/>
-      <c r="ABG21" s="5"/>
+      <c r="ABG21" s="29"/>
       <c r="ABH21" s="5"/>
       <c r="ABI21" s="5"/>
       <c r="ABJ21" s="5"/>
@@ -19617,9 +19775,10 @@
       <c r="AIC21" s="5"/>
       <c r="AID21" s="5"/>
       <c r="AIE21" s="5"/>
+      <c r="AIF21" s="5"/>
     </row>
-    <row r="22" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="40" t="s">
         <v>259</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -20456,9 +20615,18 @@
       <c r="JS22" s="7">
         <v>112548</v>
       </c>
+      <c r="JT22" s="7">
+        <v>113686</v>
+      </c>
+      <c r="JU22" s="7">
+        <v>113270</v>
+      </c>
+      <c r="JV22" s="7">
+        <v>112400</v>
+      </c>
     </row>
-    <row r="23" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+    <row r="23" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
       <c r="B23" s="6" t="s">
         <v>261</v>
       </c>
@@ -21293,9 +21461,18 @@
       <c r="JS23" s="7">
         <v>36279</v>
       </c>
+      <c r="JT23" s="7">
+        <v>36924</v>
+      </c>
+      <c r="JU23" s="7">
+        <v>36739</v>
+      </c>
+      <c r="JV23" s="7">
+        <v>37187</v>
+      </c>
     </row>
-    <row r="24" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+    <row r="24" spans="1:916" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
       <c r="B24" s="9" t="s">
         <v>259</v>
       </c>
@@ -22146,9 +22323,15 @@
         <f t="shared" si="10"/>
         <v>148827</v>
       </c>
-      <c r="JT24" s="29"/>
-      <c r="JU24" s="29"/>
-      <c r="JV24" s="29"/>
+      <c r="JT24" s="10">
+        <v>150610</v>
+      </c>
+      <c r="JU24" s="10">
+        <v>150009</v>
+      </c>
+      <c r="JV24" s="10">
+        <v>149587</v>
+      </c>
       <c r="JW24" s="29"/>
       <c r="JX24" s="29"/>
       <c r="JY24" s="29"/>
@@ -22601,7 +22784,7 @@
       <c r="ABD24" s="29"/>
       <c r="ABE24" s="29"/>
       <c r="ABF24" s="29"/>
-      <c r="ABG24" s="5"/>
+      <c r="ABG24" s="29"/>
       <c r="ABH24" s="5"/>
       <c r="ABI24" s="5"/>
       <c r="ABJ24" s="5"/>
@@ -22782,9 +22965,10 @@
       <c r="AIC24" s="5"/>
       <c r="AID24" s="5"/>
       <c r="AIE24" s="5"/>
+      <c r="AIF24" s="5"/>
     </row>
-    <row r="25" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -23621,9 +23805,18 @@
       <c r="JS25" s="7">
         <v>4329</v>
       </c>
+      <c r="JT25" s="7">
+        <v>4416</v>
+      </c>
+      <c r="JU25" s="7">
+        <v>4437</v>
+      </c>
+      <c r="JV25" s="7">
+        <v>4444</v>
+      </c>
     </row>
-    <row r="26" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+    <row r="26" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
       <c r="B26" s="6" t="s">
         <v>264</v>
       </c>
@@ -24458,9 +24651,18 @@
       <c r="JS26" s="7">
         <v>5518</v>
       </c>
+      <c r="JT26" s="7">
+        <v>5555</v>
+      </c>
+      <c r="JU26" s="7">
+        <v>5581</v>
+      </c>
+      <c r="JV26" s="7">
+        <v>5548</v>
+      </c>
     </row>
-    <row r="27" spans="1:915" s="11" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:916" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
       <c r="B27" s="9" t="s">
         <v>262</v>
       </c>
@@ -25311,9 +25513,15 @@
         <f t="shared" si="14"/>
         <v>9847</v>
       </c>
-      <c r="JT27" s="29"/>
-      <c r="JU27" s="29"/>
-      <c r="JV27" s="29"/>
+      <c r="JT27" s="10">
+        <v>9971</v>
+      </c>
+      <c r="JU27" s="10">
+        <v>10018</v>
+      </c>
+      <c r="JV27" s="10">
+        <v>9992</v>
+      </c>
       <c r="JW27" s="29"/>
       <c r="JX27" s="29"/>
       <c r="JY27" s="29"/>
@@ -25766,7 +25974,7 @@
       <c r="ABD27" s="29"/>
       <c r="ABE27" s="29"/>
       <c r="ABF27" s="29"/>
-      <c r="ABG27" s="5"/>
+      <c r="ABG27" s="29"/>
       <c r="ABH27" s="5"/>
       <c r="ABI27" s="5"/>
       <c r="ABJ27" s="5"/>
@@ -25947,9 +26155,10 @@
       <c r="AIC27" s="5"/>
       <c r="AID27" s="5"/>
       <c r="AIE27" s="5"/>
+      <c r="AIF27" s="5"/>
     </row>
-    <row r="28" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -26786,9 +26995,18 @@
       <c r="JS28" s="7">
         <v>852</v>
       </c>
+      <c r="JT28" s="7">
+        <v>840</v>
+      </c>
+      <c r="JU28" s="7">
+        <v>839</v>
+      </c>
+      <c r="JV28" s="7">
+        <v>849</v>
+      </c>
     </row>
-    <row r="29" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+    <row r="29" spans="1:916" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
       <c r="B29" s="6" t="s">
         <v>267</v>
       </c>
@@ -27623,9 +27841,18 @@
       <c r="JS29" s="7">
         <v>11348</v>
       </c>
+      <c r="JT29" s="7">
+        <v>11507</v>
+      </c>
+      <c r="JU29" s="7">
+        <v>11627</v>
+      </c>
+      <c r="JV29" s="7">
+        <v>11119</v>
+      </c>
     </row>
-    <row r="30" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+    <row r="30" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
       <c r="B30" s="6" t="s">
         <v>268</v>
       </c>
@@ -28460,9 +28687,18 @@
       <c r="JS30" s="7">
         <v>27034</v>
       </c>
+      <c r="JT30" s="7">
+        <v>27327</v>
+      </c>
+      <c r="JU30" s="7">
+        <v>27480</v>
+      </c>
+      <c r="JV30" s="7">
+        <v>27445</v>
+      </c>
     </row>
-    <row r="31" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+    <row r="31" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
       <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
@@ -29297,9 +29533,18 @@
       <c r="JS31" s="7">
         <v>105761</v>
       </c>
+      <c r="JT31" s="7">
+        <v>107090</v>
+      </c>
+      <c r="JU31" s="7">
+        <v>107374</v>
+      </c>
+      <c r="JV31" s="7">
+        <v>107348</v>
+      </c>
     </row>
-    <row r="32" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+    <row r="32" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
       <c r="B32" s="6" t="s">
         <v>270</v>
       </c>
@@ -30134,9 +30379,18 @@
       <c r="JS32" s="7">
         <v>26701</v>
       </c>
+      <c r="JT32" s="7">
+        <v>26951</v>
+      </c>
+      <c r="JU32" s="7">
+        <v>27268</v>
+      </c>
+      <c r="JV32" s="7">
+        <v>27449</v>
+      </c>
     </row>
-    <row r="33" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+    <row r="33" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A33" s="40"/>
       <c r="B33" s="6" t="s">
         <v>271</v>
       </c>
@@ -30971,9 +31225,18 @@
       <c r="JS33" s="7">
         <v>9843</v>
       </c>
+      <c r="JT33" s="7">
+        <v>9961</v>
+      </c>
+      <c r="JU33" s="7">
+        <v>10082</v>
+      </c>
+      <c r="JV33" s="7">
+        <v>10009</v>
+      </c>
     </row>
-    <row r="34" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+    <row r="34" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
       <c r="B34" s="6" t="s">
         <v>272</v>
       </c>
@@ -31808,9 +32071,18 @@
       <c r="JS34" s="7">
         <v>43766</v>
       </c>
+      <c r="JT34" s="7">
+        <v>44565</v>
+      </c>
+      <c r="JU34" s="7">
+        <v>44759</v>
+      </c>
+      <c r="JV34" s="7">
+        <v>44833</v>
+      </c>
     </row>
-    <row r="35" spans="1:915" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+    <row r="35" spans="1:916" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
       <c r="B35" s="6" t="s">
         <v>273</v>
       </c>
@@ -32645,9 +32917,18 @@
       <c r="JS35" s="7">
         <v>11333</v>
       </c>
+      <c r="JT35" s="7">
+        <v>11442</v>
+      </c>
+      <c r="JU35" s="7">
+        <v>11436</v>
+      </c>
+      <c r="JV35" s="7">
+        <v>11376</v>
+      </c>
     </row>
-    <row r="36" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+    <row r="36" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
       <c r="B36" s="6" t="s">
         <v>274</v>
       </c>
@@ -33482,9 +33763,18 @@
       <c r="JS36" s="7">
         <v>53059</v>
       </c>
+      <c r="JT36" s="7">
+        <v>53587</v>
+      </c>
+      <c r="JU36" s="7">
+        <v>53625</v>
+      </c>
+      <c r="JV36" s="7">
+        <v>53836</v>
+      </c>
     </row>
-    <row r="37" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+    <row r="37" spans="1:916" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
       <c r="B37" s="6" t="s">
         <v>275</v>
       </c>
@@ -34319,9 +34609,18 @@
       <c r="JS37" s="7">
         <v>77908</v>
       </c>
+      <c r="JT37" s="7">
+        <v>77882</v>
+      </c>
+      <c r="JU37" s="7">
+        <v>78868</v>
+      </c>
+      <c r="JV37" s="7">
+        <v>78474</v>
+      </c>
     </row>
-    <row r="38" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+    <row r="38" spans="1:916" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
       <c r="B38" s="6" t="s">
         <v>276</v>
       </c>
@@ -35156,9 +35455,18 @@
       <c r="JS38" s="7">
         <v>21691</v>
       </c>
+      <c r="JT38" s="7">
+        <v>21659</v>
+      </c>
+      <c r="JU38" s="7">
+        <v>21431</v>
+      </c>
+      <c r="JV38" s="7">
+        <v>21296</v>
+      </c>
     </row>
-    <row r="39" spans="1:915" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+    <row r="39" spans="1:916" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
       <c r="B39" s="6" t="s">
         <v>277</v>
       </c>
@@ -35993,9 +36301,18 @@
       <c r="JS39" s="7">
         <v>23781</v>
       </c>
+      <c r="JT39" s="7">
+        <v>24125</v>
+      </c>
+      <c r="JU39" s="7">
+        <v>24288</v>
+      </c>
+      <c r="JV39" s="7">
+        <v>24137</v>
+      </c>
     </row>
-    <row r="40" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+    <row r="40" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
       <c r="B40" s="6" t="s">
         <v>278</v>
       </c>
@@ -36830,9 +37147,18 @@
       <c r="JS40" s="7">
         <v>12087</v>
       </c>
+      <c r="JT40" s="7">
+        <v>12208</v>
+      </c>
+      <c r="JU40" s="7">
+        <v>12297</v>
+      </c>
+      <c r="JV40" s="7">
+        <v>12387</v>
+      </c>
     </row>
-    <row r="41" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+    <row r="41" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A41" s="40"/>
       <c r="B41" s="6" t="s">
         <v>279</v>
       </c>
@@ -37667,9 +37993,18 @@
       <c r="JS41" s="7">
         <v>11235</v>
       </c>
+      <c r="JT41" s="7">
+        <v>11134</v>
+      </c>
+      <c r="JU41" s="7">
+        <v>10912</v>
+      </c>
+      <c r="JV41" s="7">
+        <v>10765</v>
+      </c>
     </row>
-    <row r="42" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+    <row r="42" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
       <c r="B42" s="6" t="s">
         <v>280</v>
       </c>
@@ -38504,9 +38839,18 @@
       <c r="JS42" s="7">
         <v>44398</v>
       </c>
+      <c r="JT42" s="7">
+        <v>44828</v>
+      </c>
+      <c r="JU42" s="7">
+        <v>44845</v>
+      </c>
+      <c r="JV42" s="7">
+        <v>44874</v>
+      </c>
     </row>
-    <row r="43" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+    <row r="43" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A43" s="40"/>
       <c r="B43" s="6" t="s">
         <v>281</v>
       </c>
@@ -39341,9 +39685,18 @@
       <c r="JS43" s="7">
         <v>4610</v>
       </c>
+      <c r="JT43" s="7">
+        <v>4658</v>
+      </c>
+      <c r="JU43" s="7">
+        <v>4702</v>
+      </c>
+      <c r="JV43" s="7">
+        <v>4694</v>
+      </c>
     </row>
-    <row r="44" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+    <row r="44" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
       <c r="B44" s="6" t="s">
         <v>282</v>
       </c>
@@ -40178,9 +40531,18 @@
       <c r="JS44" s="7">
         <v>5770</v>
       </c>
+      <c r="JT44" s="7">
+        <v>5783</v>
+      </c>
+      <c r="JU44" s="7">
+        <v>5762</v>
+      </c>
+      <c r="JV44" s="7">
+        <v>44833</v>
+      </c>
     </row>
-    <row r="45" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+    <row r="45" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
       <c r="B45" s="6" t="s">
         <v>283</v>
       </c>
@@ -41015,9 +41377,18 @@
       <c r="JS45" s="7">
         <v>7201</v>
       </c>
+      <c r="JT45" s="7">
+        <v>7312</v>
+      </c>
+      <c r="JU45" s="7">
+        <v>7330</v>
+      </c>
+      <c r="JV45" s="7">
+        <v>7126</v>
+      </c>
     </row>
-    <row r="46" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+    <row r="46" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
       <c r="B46" s="6" t="s">
         <v>284</v>
       </c>
@@ -41852,9 +42223,18 @@
       <c r="JS46" s="7">
         <v>13167</v>
       </c>
+      <c r="JT46" s="7">
+        <v>13405</v>
+      </c>
+      <c r="JU46" s="7">
+        <v>13526</v>
+      </c>
+      <c r="JV46" s="7">
+        <v>13631</v>
+      </c>
     </row>
-    <row r="47" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="40"/>
       <c r="B47" s="6" t="s">
         <v>285</v>
       </c>
@@ -42689,9 +43069,18 @@
       <c r="JS47" s="7">
         <v>1358</v>
       </c>
+      <c r="JT47" s="7">
+        <v>1388</v>
+      </c>
+      <c r="JU47" s="7">
+        <v>1418</v>
+      </c>
+      <c r="JV47" s="7">
+        <v>1425</v>
+      </c>
     </row>
-    <row r="48" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:916" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
       <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
@@ -43542,9 +43931,15 @@
         <f t="shared" si="18"/>
         <v>512903</v>
       </c>
-      <c r="JT48" s="29"/>
-      <c r="JU48" s="29"/>
-      <c r="JV48" s="29"/>
+      <c r="JT48" s="10">
+        <v>517652</v>
+      </c>
+      <c r="JU48" s="10">
+        <v>519869</v>
+      </c>
+      <c r="JV48" s="10">
+        <v>518782</v>
+      </c>
       <c r="JW48" s="29"/>
       <c r="JX48" s="29"/>
       <c r="JY48" s="29"/>
@@ -43997,7 +44392,7 @@
       <c r="ABD48" s="29"/>
       <c r="ABE48" s="29"/>
       <c r="ABF48" s="29"/>
-      <c r="ABG48" s="5"/>
+      <c r="ABG48" s="29"/>
       <c r="ABH48" s="5"/>
       <c r="ABI48" s="5"/>
       <c r="ABJ48" s="5"/>
@@ -44178,9 +44573,10 @@
       <c r="AIC48" s="5"/>
       <c r="AID48" s="5"/>
       <c r="AIE48" s="5"/>
+      <c r="AIF48" s="5"/>
     </row>
-    <row r="49" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+    <row r="49" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="40" t="s">
         <v>286</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -45017,9 +45413,18 @@
       <c r="JS49" s="8">
         <v>14</v>
       </c>
+      <c r="JT49" s="8">
+        <v>14</v>
+      </c>
+      <c r="JU49" s="8">
+        <v>14</v>
+      </c>
+      <c r="JV49" s="8">
+        <v>14</v>
+      </c>
     </row>
-    <row r="50" spans="1:279" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
       <c r="B50" s="6" t="s">
         <v>288</v>
       </c>
@@ -45854,9 +46259,18 @@
       <c r="JS50" s="8">
         <v>43</v>
       </c>
+      <c r="JT50" s="8">
+        <v>57</v>
+      </c>
+      <c r="JU50" s="8">
+        <v>68</v>
+      </c>
+      <c r="JV50" s="8">
+        <v>73</v>
+      </c>
     </row>
-    <row r="51" spans="1:279" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+    <row r="51" spans="1:282" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="40"/>
       <c r="B51" s="6" t="s">
         <v>289</v>
       </c>
@@ -46691,9 +47105,18 @@
       <c r="JS51" s="7">
         <v>1530</v>
       </c>
+      <c r="JT51" s="7">
+        <v>1550</v>
+      </c>
+      <c r="JU51" s="7">
+        <v>1516</v>
+      </c>
+      <c r="JV51" s="7">
+        <v>1522</v>
+      </c>
     </row>
-    <row r="52" spans="1:279" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A52" s="40"/>
       <c r="B52" s="6" t="s">
         <v>290</v>
       </c>
@@ -47528,9 +47951,18 @@
       <c r="JS52" s="7">
         <v>993</v>
       </c>
+      <c r="JT52" s="7">
+        <v>1012</v>
+      </c>
+      <c r="JU52" s="7">
+        <v>878</v>
+      </c>
+      <c r="JV52" s="7">
+        <v>936</v>
+      </c>
     </row>
-    <row r="53" spans="1:279" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+    <row r="53" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
       <c r="B53" s="9" t="s">
         <v>286</v>
       </c>
@@ -48381,9 +48813,18 @@
         <f t="shared" si="22"/>
         <v>2580</v>
       </c>
+      <c r="JT53" s="10">
+        <v>2633</v>
+      </c>
+      <c r="JU53" s="10">
+        <v>2476</v>
+      </c>
+      <c r="JV53" s="10">
+        <v>2545</v>
+      </c>
     </row>
-    <row r="54" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+    <row r="54" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="40" t="s">
         <v>291</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -49220,9 +49661,18 @@
       <c r="JS54" s="7">
         <v>5757</v>
       </c>
+      <c r="JT54" s="7">
+        <v>5817</v>
+      </c>
+      <c r="JU54" s="7">
+        <v>5838</v>
+      </c>
+      <c r="JV54" s="7">
+        <v>5785</v>
+      </c>
     </row>
-    <row r="55" spans="1:279" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+    <row r="55" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A55" s="40"/>
       <c r="B55" s="6" t="s">
         <v>293</v>
       </c>
@@ -50057,9 +50507,18 @@
       <c r="JS55" s="7">
         <v>54053</v>
       </c>
+      <c r="JT55" s="7">
+        <v>54846</v>
+      </c>
+      <c r="JU55" s="7">
+        <v>55566</v>
+      </c>
+      <c r="JV55" s="7">
+        <v>56092</v>
+      </c>
     </row>
-    <row r="56" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="40"/>
       <c r="B56" s="6" t="s">
         <v>294</v>
       </c>
@@ -50894,9 +51353,18 @@
       <c r="JS56" s="7">
         <v>6970</v>
       </c>
+      <c r="JT56" s="7">
+        <v>6930</v>
+      </c>
+      <c r="JU56" s="7">
+        <v>6938</v>
+      </c>
+      <c r="JV56" s="7">
+        <v>6949</v>
+      </c>
     </row>
-    <row r="57" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="40"/>
       <c r="B57" s="6" t="s">
         <v>295</v>
       </c>
@@ -51731,9 +52199,18 @@
       <c r="JS57" s="7">
         <v>191108</v>
       </c>
+      <c r="JT57" s="7">
+        <v>191433</v>
+      </c>
+      <c r="JU57" s="7">
+        <v>192492</v>
+      </c>
+      <c r="JV57" s="7">
+        <v>192955</v>
+      </c>
     </row>
-    <row r="58" spans="1:279" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A58" s="40"/>
       <c r="B58" s="6" t="s">
         <v>296</v>
       </c>
@@ -52568,9 +53045,18 @@
       <c r="JS58" s="7">
         <v>34950</v>
       </c>
+      <c r="JT58" s="7">
+        <v>35156</v>
+      </c>
+      <c r="JU58" s="7">
+        <v>35531</v>
+      </c>
+      <c r="JV58" s="7">
+        <v>35543</v>
+      </c>
     </row>
-    <row r="59" spans="1:279" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+    <row r="59" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
       <c r="B59" s="6" t="s">
         <v>297</v>
       </c>
@@ -53405,9 +53891,18 @@
       <c r="JS59" s="7">
         <v>7182</v>
       </c>
+      <c r="JT59" s="7">
+        <v>6995</v>
+      </c>
+      <c r="JU59" s="7">
+        <v>7014</v>
+      </c>
+      <c r="JV59" s="7">
+        <v>7092</v>
+      </c>
     </row>
-    <row r="60" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+    <row r="60" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="40"/>
       <c r="B60" s="6" t="s">
         <v>298</v>
       </c>
@@ -54242,9 +54737,18 @@
       <c r="JS60" s="7">
         <v>49365</v>
       </c>
+      <c r="JT60" s="7">
+        <v>50277</v>
+      </c>
+      <c r="JU60" s="7">
+        <v>50591</v>
+      </c>
+      <c r="JV60" s="7">
+        <v>49804</v>
+      </c>
     </row>
-    <row r="61" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+    <row r="61" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="40"/>
       <c r="B61" s="6" t="s">
         <v>299</v>
       </c>
@@ -55079,9 +55583,18 @@
       <c r="JS61" s="8">
         <v>146</v>
       </c>
+      <c r="JT61" s="8">
+        <v>147</v>
+      </c>
+      <c r="JU61" s="8">
+        <v>148</v>
+      </c>
+      <c r="JV61" s="8">
+        <v>145</v>
+      </c>
     </row>
-    <row r="62" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+    <row r="62" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="40"/>
       <c r="B62" s="6" t="s">
         <v>300</v>
       </c>
@@ -55916,9 +56429,18 @@
       <c r="JS62" s="7">
         <v>20358</v>
       </c>
+      <c r="JT62" s="7">
+        <v>20472</v>
+      </c>
+      <c r="JU62" s="7">
+        <v>20521</v>
+      </c>
+      <c r="JV62" s="7">
+        <v>20674</v>
+      </c>
     </row>
-    <row r="63" spans="1:279" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+    <row r="63" spans="1:282" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="40"/>
       <c r="B63" s="6" t="s">
         <v>301</v>
       </c>
@@ -56753,9 +57275,18 @@
       <c r="JS63" s="7">
         <v>34496</v>
       </c>
+      <c r="JT63" s="7">
+        <v>34710</v>
+      </c>
+      <c r="JU63" s="7">
+        <v>34931</v>
+      </c>
+      <c r="JV63" s="7">
+        <v>35129</v>
+      </c>
     </row>
-    <row r="64" spans="1:279" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:282" x14ac:dyDescent="0.3">
+      <c r="A64" s="40"/>
       <c r="B64" s="6" t="s">
         <v>302</v>
       </c>
@@ -57590,9 +58121,18 @@
       <c r="JS64" s="7">
         <v>48975</v>
       </c>
+      <c r="JT64" s="7">
+        <v>49473</v>
+      </c>
+      <c r="JU64" s="7">
+        <v>50045</v>
+      </c>
+      <c r="JV64" s="7">
+        <v>50560</v>
+      </c>
     </row>
-    <row r="65" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+    <row r="65" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A65" s="40"/>
       <c r="B65" s="6" t="s">
         <v>303</v>
       </c>
@@ -58427,9 +58967,18 @@
       <c r="JS65" s="7">
         <v>170091</v>
       </c>
+      <c r="JT65" s="7">
+        <v>170343</v>
+      </c>
+      <c r="JU65" s="7">
+        <v>170352</v>
+      </c>
+      <c r="JV65" s="7">
+        <v>171056</v>
+      </c>
     </row>
-    <row r="66" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+    <row r="66" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A66" s="40"/>
       <c r="B66" s="6" t="s">
         <v>304</v>
       </c>
@@ -59264,9 +59813,18 @@
       <c r="JS66" s="7">
         <v>20005</v>
       </c>
+      <c r="JT66" s="7">
+        <v>20061</v>
+      </c>
+      <c r="JU66" s="7">
+        <v>20191</v>
+      </c>
+      <c r="JV66" s="7">
+        <v>20818</v>
+      </c>
     </row>
-    <row r="67" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+    <row r="67" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A67" s="40"/>
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -60101,9 +60659,18 @@
       <c r="JS67" s="7">
         <v>6322</v>
       </c>
+      <c r="JT67" s="7">
+        <v>6384</v>
+      </c>
+      <c r="JU67" s="7">
+        <v>6447</v>
+      </c>
+      <c r="JV67" s="7">
+        <v>6543</v>
+      </c>
     </row>
-    <row r="68" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+    <row r="68" spans="1:916" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="40"/>
       <c r="B68" s="9" t="s">
         <v>291</v>
       </c>
@@ -60954,9 +61521,15 @@
         <f t="shared" si="26"/>
         <v>649778</v>
       </c>
-      <c r="JT68" s="29"/>
-      <c r="JU68" s="29"/>
-      <c r="JV68" s="29"/>
+      <c r="JT68" s="10">
+        <v>653044</v>
+      </c>
+      <c r="JU68" s="10">
+        <v>656605</v>
+      </c>
+      <c r="JV68" s="10">
+        <v>659145</v>
+      </c>
       <c r="JW68" s="29"/>
       <c r="JX68" s="29"/>
       <c r="JY68" s="29"/>
@@ -61409,7 +61982,7 @@
       <c r="ABD68" s="29"/>
       <c r="ABE68" s="29"/>
       <c r="ABF68" s="29"/>
-      <c r="ABG68" s="5"/>
+      <c r="ABG68" s="29"/>
       <c r="ABH68" s="5"/>
       <c r="ABI68" s="5"/>
       <c r="ABJ68" s="5"/>
@@ -61590,9 +62163,10 @@
       <c r="AIC68" s="5"/>
       <c r="AID68" s="5"/>
       <c r="AIE68" s="5"/>
+      <c r="AIF68" s="5"/>
     </row>
-    <row r="69" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+    <row r="69" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A69" s="40" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -62429,9 +63003,18 @@
       <c r="JS69" s="7">
         <v>9739</v>
       </c>
+      <c r="JT69" s="7">
+        <v>9723</v>
+      </c>
+      <c r="JU69" s="7">
+        <v>9710</v>
+      </c>
+      <c r="JV69" s="7">
+        <v>9671</v>
+      </c>
     </row>
-    <row r="70" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+    <row r="70" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A70" s="40"/>
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -63266,9 +63849,18 @@
       <c r="JS70" s="7">
         <v>889</v>
       </c>
+      <c r="JT70" s="7">
+        <v>885</v>
+      </c>
+      <c r="JU70" s="7">
+        <v>884</v>
+      </c>
+      <c r="JV70" s="7">
+        <v>909</v>
+      </c>
     </row>
-    <row r="71" spans="1:915" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+    <row r="71" spans="1:916" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="40"/>
       <c r="B71" s="6" t="s">
         <v>309</v>
       </c>
@@ -64103,9 +64695,18 @@
       <c r="JS71" s="7">
         <v>34154</v>
       </c>
+      <c r="JT71" s="7">
+        <v>34064</v>
+      </c>
+      <c r="JU71" s="7">
+        <v>34199</v>
+      </c>
+      <c r="JV71" s="7">
+        <v>34349</v>
+      </c>
     </row>
-    <row r="72" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+    <row r="72" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A72" s="40"/>
       <c r="B72" s="6" t="s">
         <v>310</v>
       </c>
@@ -64940,9 +65541,18 @@
       <c r="JS72" s="7">
         <v>4611</v>
       </c>
+      <c r="JT72" s="7">
+        <v>4652</v>
+      </c>
+      <c r="JU72" s="7">
+        <v>4735</v>
+      </c>
+      <c r="JV72" s="7">
+        <v>4761</v>
+      </c>
     </row>
-    <row r="73" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+    <row r="73" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
       <c r="B73" s="6" t="s">
         <v>311</v>
       </c>
@@ -65777,9 +66387,18 @@
       <c r="JS73" s="8">
         <v>612</v>
       </c>
+      <c r="JT73" s="8">
+        <v>671</v>
+      </c>
+      <c r="JU73" s="8">
+        <v>763</v>
+      </c>
+      <c r="JV73" s="8">
+        <v>719</v>
+      </c>
     </row>
-    <row r="74" spans="1:915" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+    <row r="74" spans="1:916" x14ac:dyDescent="0.3">
+      <c r="A74" s="40"/>
       <c r="B74" s="6" t="s">
         <v>312</v>
       </c>
@@ -66614,9 +67233,18 @@
       <c r="JS74" s="7">
         <v>54500</v>
       </c>
+      <c r="JT74" s="7">
+        <v>54608</v>
+      </c>
+      <c r="JU74" s="7">
+        <v>54701</v>
+      </c>
+      <c r="JV74" s="7">
+        <v>54804</v>
+      </c>
     </row>
-    <row r="75" spans="1:915" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+    <row r="75" spans="1:916" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="40"/>
       <c r="B75" s="9" t="s">
         <v>306</v>
       </c>
@@ -67467,9 +68095,15 @@
         <f t="shared" si="30"/>
         <v>104505</v>
       </c>
-      <c r="JT75" s="29"/>
-      <c r="JU75" s="29"/>
-      <c r="JV75" s="29"/>
+      <c r="JT75" s="10">
+        <v>104603</v>
+      </c>
+      <c r="JU75" s="10">
+        <v>104992</v>
+      </c>
+      <c r="JV75" s="10">
+        <v>105213</v>
+      </c>
       <c r="JW75" s="29"/>
       <c r="JX75" s="29"/>
       <c r="JY75" s="29"/>
@@ -67922,7 +68556,7 @@
       <c r="ABD75" s="29"/>
       <c r="ABE75" s="29"/>
       <c r="ABF75" s="29"/>
-      <c r="ABG75" s="5"/>
+      <c r="ABG75" s="29"/>
       <c r="ABH75" s="5"/>
       <c r="ABI75" s="5"/>
       <c r="ABJ75" s="5"/>
@@ -68103,8 +68737,9 @@
       <c r="AIC75" s="5"/>
       <c r="AID75" s="5"/>
       <c r="AIE75" s="5"/>
+      <c r="AIF75" s="5"/>
     </row>
-    <row r="76" spans="1:915" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:916" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>315</v>
       </c>
@@ -68938,7 +69573,7 @@
         <v>1910627</v>
       </c>
       <c r="JO76" s="19">
-        <f t="shared" ref="JO76:JS76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
+        <f t="shared" ref="JO76:JT76" si="34">JO11+JO21+JO24+JO27+JO48+JO53+JO68+JO75</f>
         <v>1927647</v>
       </c>
       <c r="JP76" s="19">
@@ -68957,8 +69592,20 @@
         <f t="shared" si="34"/>
         <v>1951256</v>
       </c>
+      <c r="JT76" s="19">
+        <f t="shared" si="34"/>
+        <v>1964519</v>
+      </c>
+      <c r="JU76" s="19">
+        <f>JU11+JU21+JU24+JU27+JU48+JU53+JU68+JU75</f>
+        <v>1972715</v>
+      </c>
+      <c r="JV76" s="19">
+        <f>JV11+JV21+JV24+JV27+JV48+JV53+JV68+JV75</f>
+        <v>1973202</v>
+      </c>
     </row>
-    <row r="77" spans="1:915" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:916" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
@@ -69688,35 +70335,16 @@
       <c r="ABD77" s="27"/>
       <c r="ABE77" s="27"/>
       <c r="ABF77" s="27"/>
+      <c r="ABG77" s="27"/>
     </row>
-    <row r="78" spans="1:915" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:916" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="JG4:JR4"/>
-    <mergeCell ref="II4:IT4"/>
-    <mergeCell ref="IU4:JF4"/>
-    <mergeCell ref="DG4:DR4"/>
-    <mergeCell ref="HW4:IH4"/>
-    <mergeCell ref="HK4:HV4"/>
-    <mergeCell ref="EQ4:FB4"/>
-    <mergeCell ref="EE4:EP4"/>
-    <mergeCell ref="DS4:ED4"/>
-    <mergeCell ref="GY4:HJ4"/>
-    <mergeCell ref="GM4:GX4"/>
-    <mergeCell ref="GA4:GL4"/>
-    <mergeCell ref="FO4:FZ4"/>
-    <mergeCell ref="FC4:FN4"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A68"/>
+  <mergeCells count="34">
+    <mergeCell ref="JS4:JV4"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="CU4:DF4"/>
     <mergeCell ref="CI4:CT4"/>
@@ -69729,6 +70357,27 @@
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="JG4:JR4"/>
+    <mergeCell ref="II4:IT4"/>
+    <mergeCell ref="IU4:JF4"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A68"/>
+    <mergeCell ref="DG4:DR4"/>
+    <mergeCell ref="HW4:IH4"/>
+    <mergeCell ref="HK4:HV4"/>
+    <mergeCell ref="EQ4:FB4"/>
+    <mergeCell ref="EE4:EP4"/>
+    <mergeCell ref="DS4:ED4"/>
+    <mergeCell ref="GY4:HJ4"/>
+    <mergeCell ref="GM4:GX4"/>
+    <mergeCell ref="GA4:GL4"/>
+    <mergeCell ref="FO4:FZ4"/>
+    <mergeCell ref="FC4:FN4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
